--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -5,31 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/00042030/AED Dropbox/AED_Cockburn_db/CSIEM/Data/Matt/csiem-data/data-governance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/AED_Cockburn_db/CSIEM/Data/Matt/csiem-data/data-governance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ABD98D-5318-6740-95A4-DE3314F62E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0E2702-4C5B-B24E-A294-72E5D0A60508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" tabRatio="671" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" tabRatio="671" activeTab="1" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
-    <sheet name="Model_TFV" sheetId="5" r:id="rId2"/>
-    <sheet name="MAFRL" sheetId="8" r:id="rId3"/>
-    <sheet name="IMOSBGC" sheetId="9" r:id="rId4"/>
-    <sheet name="IMOSPROFILE" sheetId="10" r:id="rId5"/>
-    <sheet name="DWER" sheetId="2" r:id="rId6"/>
-    <sheet name="DWERMOORING" sheetId="11" r:id="rId7"/>
-    <sheet name="BOM" sheetId="3" r:id="rId8"/>
-    <sheet name="DOT" sheetId="4" r:id="rId9"/>
-    <sheet name="THEME5" sheetId="7" r:id="rId10"/>
-    <sheet name="WWMSP5" sheetId="16" r:id="rId11"/>
-    <sheet name="JPPLAWAC" sheetId="12" r:id="rId12"/>
-    <sheet name="UWA" sheetId="15" r:id="rId13"/>
-    <sheet name="BMTBNA" sheetId="17" r:id="rId14"/>
-    <sheet name="FPA_BMT" sheetId="14" r:id="rId15"/>
-    <sheet name="WC_BMT" sheetId="13" r:id="rId16"/>
-    <sheet name="Information" sheetId="6" r:id="rId17"/>
+    <sheet name="SentientHubs" sheetId="18" r:id="rId2"/>
+    <sheet name="Model_TFV" sheetId="5" r:id="rId3"/>
+    <sheet name="MAFRL" sheetId="8" r:id="rId4"/>
+    <sheet name="IMOSBGC" sheetId="9" r:id="rId5"/>
+    <sheet name="IMOSPROFILE" sheetId="10" r:id="rId6"/>
+    <sheet name="DWER" sheetId="2" r:id="rId7"/>
+    <sheet name="DWERMOORING" sheetId="11" r:id="rId8"/>
+    <sheet name="BOM" sheetId="3" r:id="rId9"/>
+    <sheet name="DOT" sheetId="4" r:id="rId10"/>
+    <sheet name="THEME5" sheetId="7" r:id="rId11"/>
+    <sheet name="WWMSP5" sheetId="16" r:id="rId12"/>
+    <sheet name="JPPLAWAC" sheetId="12" r:id="rId13"/>
+    <sheet name="UWA" sheetId="15" r:id="rId14"/>
+    <sheet name="BMTBNA" sheetId="17" r:id="rId15"/>
+    <sheet name="FPA_BMT" sheetId="14" r:id="rId16"/>
+    <sheet name="WC_BMT" sheetId="13" r:id="rId17"/>
+    <sheet name="Information" sheetId="6" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER KEY'!$A$1:$J$285</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1649">
   <si>
     <t>Units</t>
   </si>
@@ -4377,6 +4378,675 @@
       </rPr>
       <t>N)</t>
     </r>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_ALBIDO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_AREA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_BOOLEAN,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_CAPACITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_COEFFICIENT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_CONCENTRATION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_COLOR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_CONSUMPTION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_DEMAND,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_DENSITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_DEPTH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_DISTANCE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_DIR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_ELEVATION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_EMISSIVITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_EVAPORATION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_EVAPOTRANSPIRATION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       GEN_FLOW,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_FACTOR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_FRACTION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_FLUX,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_HEIGHT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_INDEX,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_INTESITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_LAT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_LENGTH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_LIGHT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_LNG,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_MOISTURE_CONTENT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_ODOR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_PRESSURE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_QUANTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_SIZE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_SOLIDS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_SOLIDS_DISSOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_SOLIDS_SUSPENDED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_SPD,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_TEMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_TIME,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_UTM,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_VELOCITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_VELOCITY_U,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_VELOCITY_V,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_VELOCITY_W,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_VOLUME,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_WIDTH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_X,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_Y,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEN_OTHER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_AGE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_ANABAENA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_BIOMASS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_BLUE_GREEN_ALGAE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_CHLOROPHYLL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_CHLOROPHYLL_A,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_CHLOROPHYLL_B,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_CHLOROPHYLL_C,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_CHLOROPHYLL_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_CHYTRID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_COUNT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_CRYPTOPHYTES,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_CYANOBACTERIA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_DIATOMS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_DINOFLAGELLETES,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_DREISSENA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_FISH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_FRESH_WATER_DIATOMS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_GREEN_ALGAE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_INVERTEBRATES,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_MACROPHYTES,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_MARINE_DIATOMS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_MICROCYSTIS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PERIPHYTON,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PHEOPHYTIN,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PHEOPHYTIN_A,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PHYCOCYANINS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PHYTOPLANKTON,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PHOSPHORUS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PLANKTON,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PLANKTOTHRIX,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PRODUCTIVITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PRODUCTIVITY_CARBON,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PRODUCTIVITY_GROSS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_PRODUCTIVITY_NET,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_RESPIRATION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_SIZE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_WEIGHT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_ZOOPLANKTON,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BIO_OTHER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Geography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEO_LAND_MASK,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEO_CATEGORY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEO_RUNOFF,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEO_TEMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GEO_HEIGHT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_AIR_TEMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_AIR_TEMP_POT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_AEROSOL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_CLOUD_COVER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_EVAPORATION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_FROST,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_ICE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_GRAUPEL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_HUM,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_LIGHT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_OZONE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_PRESSURE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_RAD,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_RAD_LW,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_RAD_NET,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_RAD_SOLAR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_RAIN,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_REL_HUM,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_SNOW,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_SNOW_DEPTH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_TEMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_VELOCITY_U,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_VELOCITY_V,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_VELOCITY_W,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_VISIBILITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_WIND_DIR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_WIND_SPD,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MET_OTHER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         NUTRIENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_AMMONIA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_AMMONIA_DISOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_AMMONIA_SUSPENDED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_AMMONIA_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_AMMONIUM,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_AMMONIUM_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_CARBON,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITRATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITRATE_DISOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITRATE_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITRITE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITRITE_DISOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITRITE_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_DISOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_DISOLVED_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_DISOLVED_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_PARTICULATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_PARTICULATE_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_PARTICULATE_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_SUSPENDED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_SUSPENDED_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_SUSPENDED_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_TOTAL_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROGEN_TOTAL_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROUS_OXIDE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_NITROUS_OXIDE_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_ORTHOPHOSPHATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_ORTHOPHOSPHATE_DISSOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_ORTHOPHOSPHATE_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHATE_DISSOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHATE_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_DISOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_DISOLVED_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_DISOLVED_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_PARTICULATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_PARTICULATE_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_PARTICULATE_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_SUSPENDED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_SUSPENDED_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_SUSPENDED_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_TOTAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_TOTAL_ORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_PHOSPHORUS_TOTAL_INORGANIC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_SEDIMENT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_SEDIMENT_BED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_SEDIMENT_DISOLVED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUT_SEDIMENT_SUSPENDED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SED_CONCENTRATION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WAV_DIRECTION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WAV_HEIGHT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WAV_PERIOD,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_ABSORBANCE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_ALBIDO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_BACTERIA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_CONDUCTIVITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_DENSITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_DEPTH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_DIR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_DISCHARGE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_DISOLVED_OXYGEN,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_EVAPORATION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_FLOW,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_FLUORESCENCE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_GAGE_HEIGHT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_HARDNESS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_HEIGHT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_LEVEL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_PAR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_PH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_PRESSURE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_QUANTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_RETENTION_TIME,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_SALINITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_SPD,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_TEMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_TRACER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_TRANSPARENCY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_TURBIDITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_VELOCITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_VELOCITY_U,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_VELOCITY_V,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_VELOCITY_W,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_WIDTH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WTR_OTHER,</t>
   </si>
 </sst>
 </file>
@@ -4544,7 +5214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4598,6 +5268,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4914,9 +5587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}">
   <dimension ref="A1:J285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C276" sqref="C276"/>
+      <selection pane="bottomLeft" activeCell="H296" sqref="H296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -10620,6 +11293,364 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B891FCC8-6932-42EA-B0A0-1A3A06F7421B}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <v>Tidal Height</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <v>Tidal Height</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <v>Significant waveheight</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <v>Peak wave period</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <v>Mean wave period</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <v>Peak wave direction</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <v>Mean wave period</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <v>Depth</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <v>Current velocity</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <v>Current direction</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B12">
+        <v>1E-3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <v>Current velocity</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <v>Current direction</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <v>HEADING</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>939</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <v>Pitch</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <v>ROLL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <v>Tidal Height</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <v>Peak wave direction</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <v>Mean wave direction</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D21" s="1" t="e">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D22" s="1" t="e">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D23" s="1" t="e">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D24" s="1" t="e">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB3BD-BFAE-4A57-9EA4-1FE2FC61EC11}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -11448,7 +12479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F92A6A-D5C0-43D4-A5FF-410FD3BDDAB2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -11720,7 +12751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82049BCF-AB42-45E7-B0B9-F1876ACDD291}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -12023,7 +13054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B95F86-EBEF-4D20-B901-BEE7601EB736}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -12228,7 +13259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC805144-0550-45A7-AE1E-79020EDA04F0}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -12397,7 +13428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B5E73C-E323-4B74-9F14-922929B990A3}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -12532,7 +13563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A182F4-44FD-43F6-93A9-99BB7F63199E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -12651,7 +13682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B6692B-9920-4E77-9D5B-6B101F30D414}">
   <dimension ref="A3:A5"/>
   <sheetViews>
@@ -12680,6 +13711,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90053AC-E970-C241-A8E9-106E6E17DECD}">
+  <dimension ref="A1:A236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327CA4D-663D-443F-80DC-1A1E539BD38E}">
   <dimension ref="A1:F270"/>
   <sheetViews>
@@ -18664,7 +20893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E5E19A-8269-4B75-9F84-B2CE294BEEE9}">
   <dimension ref="A1:E105"/>
   <sheetViews>
@@ -20593,7 +22822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AD1D0B-ECF7-4309-8F1E-D29C7C0B24A7}">
   <dimension ref="A1:G73"/>
   <sheetViews>
@@ -21751,7 +23980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F3350C-7CCF-4B4A-9A9A-12B7BE46DA49}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -22115,7 +24344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F53C71-6126-496F-BF12-2421C1B2ABC6}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -22760,7 +24989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC28208-034A-46AB-8361-1B4BBD0AB7D3}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -23124,7 +25353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D0C58-8C8E-440E-A497-ABAD71259CF4}">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -23672,362 +25901,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B891FCC8-6932-42EA-B0A0-1A3A06F7421B}">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
-        <v>Tidal Height</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>839</v>
-      </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
-        <v>Tidal Height</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
-        <v>Significant waveheight</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
-        <v>Peak wave period</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
-        <v>Mean wave period</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
-        <v>Peak wave direction</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
-        <v>Mean wave period</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
-        <v>Depth</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B10">
-        <v>1E-3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
-        <v>Current velocity</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
-        <v>Current direction</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B12">
-        <v>1E-3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
-        <v>Current velocity</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
-        <v>Current direction</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
-        <v>HEADING</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>939</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
-        <v>Pitch</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
-        <v>ROLL</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
-        <v>Tidal Height</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
-        <v>Peak wave direction</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
-        <v>Mean wave direction</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D21" s="1" t="e">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D22" s="1" t="e">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D23" s="1" t="e">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D24" s="1" t="e">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/AED_Cockburn_db/CSIEM/Data/Matt/csiem-data/data-governance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0E2702-4C5B-B24E-A294-72E5D0A60508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" tabRatio="671" activeTab="1" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17955" tabRatio="671" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -53,6 +52,568 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Peisheng Huang</author>
+  </authors>
+  <commentList>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+definition of SS1/SS2/SS3 (particle size ranges)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dissolved oxygen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+duplicated variable names</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+definition of SS1/2/3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+definition of SS1/2/3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B87" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+duplicated to var00048</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B89" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+do we need this one as /m^3/d ??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B90" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same as to var00088</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+duplicated to var00050</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+duplicated to var00051</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B103" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+duplicated to var00052</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C130" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+use degree instead?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C153" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m or m/day?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B181" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+need an attribute of 'datum' or 'offset' for tide height</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B184" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+wave length of light bands?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B201" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+definitions of these variables?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B205" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+definition of these variables?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B211" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+choose from this or var00269</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B213" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+choose from this or var00270</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B215" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+downward velocity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B217" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+duplication to var00198?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B268" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not sure if this is duplicated to var00207</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B272" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peisheng Huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+in coastal engineering these variables and significant waveheight are inter-used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1649">
   <si>
@@ -5052,8 +5613,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5133,8 +5694,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5150,6 +5724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5214,7 +5794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5269,6 +5849,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5584,27 +6184,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J285"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H296" sqref="H296"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -5754,7 +6354,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>210</v>
       </c>
@@ -5786,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>211</v>
       </c>
@@ -5945,7 +6545,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
@@ -5974,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -6027,7 +6627,7 @@
       <c r="A17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -6050,7 +6650,7 @@
       <c r="A18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6073,7 +6673,7 @@
       <c r="A19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -6096,7 +6696,7 @@
       <c r="A20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -6119,7 +6719,7 @@
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -6142,7 +6742,7 @@
       <c r="A22" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -6188,7 +6788,7 @@
       <c r="A24" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -6550,7 +7150,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>242</v>
       </c>
@@ -6718,7 +7318,7 @@
       <c r="A46" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -6741,7 +7341,7 @@
       <c r="A47" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -6764,7 +7364,7 @@
       <c r="A48" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -7193,7 +7793,7 @@
       <c r="A69" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -7213,7 +7813,7 @@
       <c r="A70" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="25" t="s">
         <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -7233,7 +7833,7 @@
       <c r="A71" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -7253,7 +7853,7 @@
       <c r="A72" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -7273,7 +7873,7 @@
       <c r="A73" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -7293,7 +7893,7 @@
       <c r="A74" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="25" t="s">
         <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -7373,7 +7973,7 @@
       <c r="A78" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -7393,7 +7993,7 @@
       <c r="A79" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -7413,7 +8013,7 @@
       <c r="A80" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -7553,7 +8153,7 @@
       <c r="A87" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="24" t="s">
         <v>60</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -7593,7 +8193,7 @@
       <c r="A89" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -7613,7 +8213,7 @@
       <c r="A90" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="24" t="s">
         <v>112</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -7653,7 +8253,7 @@
       <c r="A92" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -7673,7 +8273,7 @@
       <c r="A93" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -7873,7 +8473,7 @@
       <c r="A103" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -7913,7 +8513,7 @@
       <c r="A105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="26" t="s">
         <v>129</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -7933,7 +8533,7 @@
       <c r="A106" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="26" t="s">
         <v>130</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -7953,7 +8553,7 @@
       <c r="A107" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="27" t="s">
         <v>131</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -8409,14 +9009,14 @@
         <v>838</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="24" t="s">
         <v>507</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -8435,7 +9035,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>380</v>
       </c>
@@ -8653,7 +9253,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>407</v>
       </c>
@@ -8897,7 +9497,7 @@
       <c r="B153" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -8913,7 +9513,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>460</v>
       </c>
@@ -8939,7 +9539,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>461</v>
       </c>
@@ -8962,7 +9562,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>462</v>
       </c>
@@ -8985,7 +9585,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>463</v>
       </c>
@@ -9011,7 +9611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>464</v>
       </c>
@@ -9402,7 +10002,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>484</v>
       </c>
@@ -9475,7 +10075,7 @@
       <c r="A181" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="28" t="s">
         <v>495</v>
       </c>
       <c r="C181" s="20" t="s">
@@ -9497,7 +10097,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>898</v>
       </c>
@@ -9517,7 +10117,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="20" t="s">
         <v>901</v>
       </c>
@@ -9534,11 +10134,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="29" t="s">
         <v>911</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -9551,11 +10151,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="29" t="s">
         <v>912</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -9568,11 +10168,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="29" t="s">
         <v>913</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -9585,11 +10185,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="29" t="s">
         <v>914</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -9602,11 +10202,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="29" t="s">
         <v>915</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -9619,11 +10219,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="29" t="s">
         <v>916</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -9636,11 +10236,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="29" t="s">
         <v>917</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -9653,11 +10253,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="29" t="s">
         <v>918</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -9670,11 +10270,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="29" t="s">
         <v>919</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -9687,11 +10287,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="20" t="s">
         <v>923</v>
       </c>
-      <c r="B193" s="22" t="s">
+      <c r="B193" s="30" t="s">
         <v>866</v>
       </c>
       <c r="C193" s="22" t="s">
@@ -9704,11 +10304,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="20" t="s">
         <v>924</v>
       </c>
-      <c r="B194" s="22" t="s">
+      <c r="B194" s="30" t="s">
         <v>867</v>
       </c>
       <c r="C194" s="22" t="s">
@@ -9721,11 +10321,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="20" t="s">
         <v>925</v>
       </c>
-      <c r="B195" s="22" t="s">
+      <c r="B195" s="30" t="s">
         <v>868</v>
       </c>
       <c r="C195" s="22" t="s">
@@ -9738,11 +10338,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="B196" s="22" t="s">
+      <c r="B196" s="30" t="s">
         <v>869</v>
       </c>
       <c r="C196" s="22" t="s">
@@ -9755,11 +10355,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="20" t="s">
         <v>927</v>
       </c>
-      <c r="B197" s="22" t="s">
+      <c r="B197" s="30" t="s">
         <v>870</v>
       </c>
       <c r="C197" s="22" t="s">
@@ -9772,11 +10372,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
         <v>928</v>
       </c>
-      <c r="B198" s="22" t="s">
+      <c r="B198" s="30" t="s">
         <v>871</v>
       </c>
       <c r="C198" s="22" t="s">
@@ -9789,11 +10389,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
         <v>929</v>
       </c>
-      <c r="B199" s="22" t="s">
+      <c r="B199" s="30" t="s">
         <v>872</v>
       </c>
       <c r="C199" s="20" t="s">
@@ -9806,11 +10406,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="B200" s="22" t="s">
+      <c r="B200" s="30" t="s">
         <v>930</v>
       </c>
       <c r="C200" s="22" t="s">
@@ -9823,11 +10423,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
         <v>934</v>
       </c>
-      <c r="B201" s="22" t="s">
+      <c r="B201" s="30" t="s">
         <v>877</v>
       </c>
       <c r="C201" s="22" t="s">
@@ -9840,11 +10440,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
         <v>935</v>
       </c>
-      <c r="B202" s="22" t="s">
+      <c r="B202" s="30" t="s">
         <v>878</v>
       </c>
       <c r="C202" s="22" t="s">
@@ -9857,11 +10457,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="B203" s="22" t="s">
+      <c r="B203" s="30" t="s">
         <v>879</v>
       </c>
       <c r="C203" s="22" t="s">
@@ -9874,11 +10474,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
         <v>937</v>
       </c>
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="30" t="s">
         <v>880</v>
       </c>
       <c r="C204" s="22" t="s">
@@ -9891,11 +10491,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="B205" s="22" t="s">
+      <c r="B205" s="30" t="s">
         <v>881</v>
       </c>
       <c r="C205" s="22" t="s">
@@ -9925,7 +10525,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="20" t="s">
         <v>943</v>
       </c>
@@ -9942,7 +10542,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
         <v>944</v>
       </c>
@@ -9959,7 +10559,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="20" t="s">
         <v>946</v>
       </c>
@@ -9976,7 +10576,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
         <v>947</v>
       </c>
@@ -9993,11 +10593,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="B211" s="22" t="s">
+      <c r="B211" s="30" t="s">
         <v>1412</v>
       </c>
       <c r="C211" s="22" t="s">
@@ -10010,7 +10610,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="20" t="s">
         <v>949</v>
       </c>
@@ -10027,11 +10627,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="20" t="s">
         <v>950</v>
       </c>
-      <c r="B213" s="22" t="s">
+      <c r="B213" s="30" t="s">
         <v>894</v>
       </c>
       <c r="C213" s="22" t="s">
@@ -10044,7 +10644,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="20" t="s">
         <v>951</v>
       </c>
@@ -10061,11 +10661,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="20" t="s">
         <v>952</v>
       </c>
-      <c r="B215" s="22" t="s">
+      <c r="B215" s="30" t="s">
         <v>896</v>
       </c>
       <c r="C215" s="22" t="s">
@@ -10078,7 +10678,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1069</v>
       </c>
@@ -10103,7 +10703,7 @@
       <c r="A217" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="24" t="s">
         <v>1072</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -10119,7 +10719,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>1077</v>
       </c>
@@ -10162,7 +10762,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1186</v>
       </c>
@@ -10179,7 +10779,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1187</v>
       </c>
@@ -10196,7 +10796,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1188</v>
       </c>
@@ -10213,7 +10813,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1189</v>
       </c>
@@ -10230,7 +10830,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1190</v>
       </c>
@@ -10247,7 +10847,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1191</v>
       </c>
@@ -10264,7 +10864,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1192</v>
       </c>
@@ -10281,7 +10881,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1193</v>
       </c>
@@ -10298,7 +10898,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1194</v>
       </c>
@@ -10315,7 +10915,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1195</v>
       </c>
@@ -10332,7 +10932,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1196</v>
       </c>
@@ -10349,7 +10949,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1197</v>
       </c>
@@ -10366,7 +10966,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1198</v>
       </c>
@@ -10383,7 +10983,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1199</v>
       </c>
@@ -10400,7 +11000,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1200</v>
       </c>
@@ -10417,7 +11017,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1201</v>
       </c>
@@ -10434,7 +11034,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1202</v>
       </c>
@@ -10451,7 +11051,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1203</v>
       </c>
@@ -10468,7 +11068,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1204</v>
       </c>
@@ -10485,7 +11085,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1205</v>
       </c>
@@ -10502,7 +11102,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1206</v>
       </c>
@@ -10519,7 +11119,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1207</v>
       </c>
@@ -10536,7 +11136,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1208</v>
       </c>
@@ -10553,7 +11153,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1209</v>
       </c>
@@ -10570,7 +11170,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1210</v>
       </c>
@@ -10587,7 +11187,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1211</v>
       </c>
@@ -10604,7 +11204,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1212</v>
       </c>
@@ -10621,7 +11221,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1213</v>
       </c>
@@ -10638,7 +11238,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1214</v>
       </c>
@@ -10655,7 +11255,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1215</v>
       </c>
@@ -10672,7 +11272,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>1216</v>
       </c>
@@ -10689,7 +11289,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1217</v>
       </c>
@@ -10706,7 +11306,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1218</v>
       </c>
@@ -10723,7 +11323,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1219</v>
       </c>
@@ -10740,7 +11340,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>1220</v>
       </c>
@@ -10757,7 +11357,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>1221</v>
       </c>
@@ -10774,7 +11374,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>1222</v>
       </c>
@@ -10791,7 +11391,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>1223</v>
       </c>
@@ -10808,7 +11408,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>1224</v>
       </c>
@@ -10825,7 +11425,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>1225</v>
       </c>
@@ -10842,7 +11442,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1226</v>
       </c>
@@ -10859,7 +11459,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1227</v>
       </c>
@@ -10876,7 +11476,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1228</v>
       </c>
@@ -10893,7 +11493,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1229</v>
       </c>
@@ -10910,7 +11510,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1230</v>
       </c>
@@ -10927,7 +11527,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1231</v>
       </c>
@@ -10944,7 +11544,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1281</v>
       </c>
@@ -10982,7 +11582,7 @@
       <c r="A268" s="20" t="s">
         <v>1314</v>
       </c>
-      <c r="B268" s="20" t="s">
+      <c r="B268" s="28" t="s">
         <v>1319</v>
       </c>
       <c r="C268" s="20" t="s">
@@ -11050,7 +11650,7 @@
       <c r="A272" s="20" t="s">
         <v>1318</v>
       </c>
-      <c r="B272" s="20" t="s">
+      <c r="B272" s="28" t="s">
         <v>1322</v>
       </c>
       <c r="C272" s="20" t="s">
@@ -11067,7 +11667,7 @@
       <c r="A273" s="20" t="s">
         <v>1335</v>
       </c>
-      <c r="B273" s="20" t="s">
+      <c r="B273" s="28" t="s">
         <v>1324</v>
       </c>
       <c r="C273" s="20" t="s">
@@ -11152,7 +11752,7 @@
       <c r="A278" s="20" t="s">
         <v>1340</v>
       </c>
-      <c r="B278" s="21" t="s">
+      <c r="B278" s="31" t="s">
         <v>1366</v>
       </c>
       <c r="C278" s="20" t="s">
@@ -11169,7 +11769,7 @@
       <c r="A279" s="20" t="s">
         <v>1341</v>
       </c>
-      <c r="B279" s="20" t="s">
+      <c r="B279" s="28" t="s">
         <v>1367</v>
       </c>
       <c r="C279" s="20" t="s">
@@ -11285,29 +11885,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J285" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}"/>
+  <autoFilter ref="A1:J285"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B891FCC8-6932-42EA-B0A0-1A3A06F7421B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>373</v>
       </c>
@@ -11321,7 +11922,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>496</v>
       </c>
@@ -11337,7 +11938,7 @@
         <v>Tidal Height</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>839</v>
       </c>
@@ -11352,7 +11953,7 @@
         <v>Tidal Height</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1379</v>
       </c>
@@ -11367,7 +11968,7 @@
         <v>Significant waveheight</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1380</v>
       </c>
@@ -11382,7 +11983,7 @@
         <v>Peak wave period</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1381</v>
       </c>
@@ -11397,7 +11998,7 @@
         <v>Mean wave period</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1382</v>
       </c>
@@ -11412,7 +12013,7 @@
         <v>Peak wave direction</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1418</v>
       </c>
@@ -11427,7 +12028,7 @@
         <v>Mean wave period</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -11442,7 +12043,7 @@
         <v>Depth</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1397</v>
       </c>
@@ -11457,7 +12058,7 @@
         <v>Current velocity</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1398</v>
       </c>
@@ -11472,7 +12073,7 @@
         <v>Current direction</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1399</v>
       </c>
@@ -11487,7 +12088,7 @@
         <v>Current velocity</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1382</v>
       </c>
@@ -11502,7 +12103,7 @@
         <v>Current direction</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1405</v>
       </c>
@@ -11517,7 +12118,7 @@
         <v>HEADING</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>939</v>
       </c>
@@ -11532,7 +12133,7 @@
         <v>Pitch</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1406</v>
       </c>
@@ -11547,7 +12148,7 @@
         <v>ROLL</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -11562,7 +12163,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1407</v>
       </c>
@@ -11577,7 +12178,7 @@
         <v>Tidal Height</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1408</v>
       </c>
@@ -11592,7 +12193,7 @@
         <v>Peak wave direction</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1409</v>
       </c>
@@ -11607,7 +12208,7 @@
         <v>Mean wave direction</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>1326</v>
       </c>
@@ -11616,7 +12217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>1410</v>
       </c>
@@ -11625,7 +12226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>1419</v>
       </c>
@@ -11634,7 +12235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>1420</v>
       </c>
@@ -11651,20 +12252,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB3BD-BFAE-4A57-9EA4-1FE2FC61EC11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -11678,7 +12279,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>845</v>
       </c>
@@ -11693,7 +12294,7 @@
         <v>Air Temperature</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>846</v>
       </c>
@@ -11708,7 +12309,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>847</v>
       </c>
@@ -11723,7 +12324,7 @@
         <v>Turbidity</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -11738,7 +12339,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>848</v>
       </c>
@@ -11753,7 +12354,7 @@
         <v>Oxygen</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>849</v>
       </c>
@@ -11768,7 +12369,7 @@
         <v>O2 Saturation</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>850</v>
       </c>
@@ -11783,7 +12384,7 @@
         <v>pH</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>851</v>
       </c>
@@ -11798,7 +12399,7 @@
         <v>Depth</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>852</v>
       </c>
@@ -11813,7 +12414,7 @@
         <v>Tilt</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>853</v>
       </c>
@@ -11828,7 +12429,7 @@
         <v>WL - 410</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>854</v>
       </c>
@@ -11843,7 +12444,7 @@
         <v>WL - 440</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>855</v>
       </c>
@@ -11858,7 +12459,7 @@
         <v>WL - 490</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>856</v>
       </c>
@@ -11873,7 +12474,7 @@
         <v>WL - 510</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>857</v>
       </c>
@@ -11888,7 +12489,7 @@
         <v>WL - 550</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>858</v>
       </c>
@@ -11903,7 +12504,7 @@
         <v>WL - 590</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>859</v>
       </c>
@@ -11918,7 +12519,7 @@
         <v>WL - 635</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>860</v>
       </c>
@@ -11933,7 +12534,7 @@
         <v>WL - 660</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>861</v>
       </c>
@@ -11948,7 +12549,7 @@
         <v>WL - 700</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>862</v>
       </c>
@@ -11963,7 +12564,7 @@
         <v>PAR</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>863</v>
       </c>
@@ -11978,7 +12579,7 @@
         <v>PAR</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>864</v>
       </c>
@@ -11993,7 +12594,7 @@
         <v>Conductivity</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>865</v>
       </c>
@@ -12008,7 +12609,7 @@
         <v>O2 Saturation</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>866</v>
       </c>
@@ -12023,7 +12624,7 @@
         <v>ACCELERATIONX</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>867</v>
       </c>
@@ -12038,7 +12639,7 @@
         <v>ACCELERATIONY</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>868</v>
       </c>
@@ -12053,7 +12654,7 @@
         <v>ACCELERATIONZ</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>869</v>
       </c>
@@ -12068,7 +12669,7 @@
         <v>AMPLITUDE1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>870</v>
       </c>
@@ -12083,7 +12684,7 @@
         <v>AMPLITUDE2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>871</v>
       </c>
@@ -12098,7 +12699,7 @@
         <v>AMPLITUDE3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>872</v>
       </c>
@@ -12113,7 +12714,7 @@
         <v>CELL</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>873</v>
       </c>
@@ -12128,7 +12729,7 @@
         <v>Conductivity</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>874</v>
       </c>
@@ -12143,7 +12744,7 @@
         <v>DENSITY ANOMALY</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>875</v>
       </c>
@@ -12158,7 +12759,7 @@
         <v>Depth</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>876</v>
       </c>
@@ -12173,7 +12774,7 @@
         <v>Oxygen</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>877</v>
       </c>
@@ -12188,7 +12789,7 @@
         <v>HEADING</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>878</v>
       </c>
@@ -12203,7 +12804,7 @@
         <v>LOWER_UCUR</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>879</v>
       </c>
@@ -12218,7 +12819,7 @@
         <v>LOWER_VCUR</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>880</v>
       </c>
@@ -12233,7 +12834,7 @@
         <v>MIDDLE_UCUR</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>881</v>
       </c>
@@ -12248,7 +12849,7 @@
         <v>MIDDLE_VCUR</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>882</v>
       </c>
@@ -12263,7 +12864,7 @@
         <v>PAR</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>883</v>
       </c>
@@ -12278,7 +12879,7 @@
         <v>Pitch</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>884</v>
       </c>
@@ -12293,7 +12894,7 @@
         <v>PRESSURE</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>885</v>
       </c>
@@ -12308,7 +12909,7 @@
         <v>PRESSURE_SENSOR_DEPTH</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>886</v>
       </c>
@@ -12323,7 +12924,7 @@
         <v>ROLL</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>887</v>
       </c>
@@ -12338,7 +12939,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>888</v>
       </c>
@@ -12353,7 +12954,7 @@
         <v>Conductivity</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>889</v>
       </c>
@@ -12368,7 +12969,7 @@
         <v>SPEED_OF_SOUND</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>890</v>
       </c>
@@ -12383,7 +12984,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>891</v>
       </c>
@@ -12398,7 +12999,7 @@
         <v>Tilt</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>892</v>
       </c>
@@ -12413,7 +13014,7 @@
         <v>UCUR (eastward velocity)</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>893</v>
       </c>
@@ -12428,7 +13029,7 @@
         <v>UPPER_UCUR</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>894</v>
       </c>
@@ -12443,7 +13044,7 @@
         <v>UPPER_VCUR</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>895</v>
       </c>
@@ -12458,7 +13059,7 @@
         <v>VCUR (northward velocity)</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>896</v>
       </c>
@@ -12480,19 +13081,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F92A6A-D5C0-43D4-A5FF-410FD3BDDAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -12506,7 +13107,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>892</v>
       </c>
@@ -12521,7 +13122,7 @@
         <v>UCUR (eastward velocity)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>895</v>
       </c>
@@ -12536,7 +13137,7 @@
         <v>VCUR (northward velocity)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>890</v>
       </c>
@@ -12551,7 +13152,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>887</v>
       </c>
@@ -12566,7 +13167,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>889</v>
       </c>
@@ -12581,7 +13182,7 @@
         <v>SPEED_OF_SOUND</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>877</v>
       </c>
@@ -12596,7 +13197,7 @@
         <v>HEADING</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>883</v>
       </c>
@@ -12611,7 +13212,7 @@
         <v>Pitch</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>886</v>
       </c>
@@ -12626,7 +13227,7 @@
         <v>ROLL</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>885</v>
       </c>
@@ -12641,7 +13242,7 @@
         <v>PRESSURE_SENSOR_DEPTH</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>876</v>
       </c>
@@ -12656,7 +13257,7 @@
         <v>Oxygen</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>882</v>
       </c>
@@ -12671,7 +13272,7 @@
         <v>PAR</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>866</v>
       </c>
@@ -12686,7 +13287,7 @@
         <v>ACCELERATIONX</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>867</v>
       </c>
@@ -12701,7 +13302,7 @@
         <v>ACCELERATIONY</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>868</v>
       </c>
@@ -12716,7 +13317,7 @@
         <v>ACCELERATIONZ</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1411</v>
       </c>
@@ -12731,7 +13332,7 @@
         <v>Depth</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>884</v>
       </c>
@@ -12752,20 +13353,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82049BCF-AB42-45E7-B0B9-F1876ACDD291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -12779,7 +13380,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1308</v>
       </c>
@@ -12794,7 +13395,7 @@
         <v>Depth</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>839</v>
       </c>
@@ -12809,7 +13410,7 @@
         <v>Pressure head</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1309</v>
       </c>
@@ -12824,7 +13425,7 @@
         <v>velocity x component of current</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1310</v>
       </c>
@@ -12839,7 +13440,7 @@
         <v>velocity y component of current</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>715</v>
       </c>
@@ -12854,7 +13455,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1311</v>
       </c>
@@ -12869,7 +13470,7 @@
         <v>Significant waveheight</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1312</v>
       </c>
@@ -12884,7 +13485,7 @@
         <v>Peak wave period</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1313</v>
       </c>
@@ -12899,7 +13500,7 @@
         <v>Peak wave direction</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1323</v>
       </c>
@@ -12914,7 +13515,7 @@
         <v>Mean 1/3 waveheight</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1325</v>
       </c>
@@ -12929,7 +13530,7 @@
         <v>Mean 1/10 waveheight</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1326</v>
       </c>
@@ -12944,7 +13545,7 @@
         <v>Maximum waveheight</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1328</v>
       </c>
@@ -12959,7 +13560,7 @@
         <v>Mean wave height</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1334</v>
       </c>
@@ -12974,7 +13575,7 @@
         <v>Mean wave period</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1329</v>
       </c>
@@ -12989,7 +13590,7 @@
         <v>Mean 1/3 period</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1330</v>
       </c>
@@ -13004,7 +13605,7 @@
         <v>Mean 1/10 period</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1331</v>
       </c>
@@ -13019,7 +13620,7 @@
         <v>Maximum wave period</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1332</v>
       </c>
@@ -13034,7 +13635,7 @@
         <v>Directional spread</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1333</v>
       </c>
@@ -13055,20 +13656,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B95F86-EBEF-4D20-B901-BEE7601EB736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -13082,7 +13683,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1383</v>
       </c>
@@ -13097,7 +13698,7 @@
         <v>Significant waveheight</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1384</v>
       </c>
@@ -13112,7 +13713,7 @@
         <v>Peak wave period</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1385</v>
       </c>
@@ -13127,7 +13728,7 @@
         <v>Mean wave period</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1386</v>
       </c>
@@ -13136,7 +13737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1387</v>
       </c>
@@ -13145,7 +13746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>1388</v>
       </c>
@@ -13154,7 +13755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>1389</v>
       </c>
@@ -13163,7 +13764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1390</v>
       </c>
@@ -13172,7 +13773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1391</v>
       </c>
@@ -13187,7 +13788,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1392</v>
       </c>
@@ -13202,7 +13803,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1393</v>
       </c>
@@ -13217,7 +13818,7 @@
         <v>Wind Speed</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1394</v>
       </c>
@@ -13232,7 +13833,7 @@
         <v>Wind Direction</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>1395</v>
       </c>
@@ -13241,7 +13842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1396</v>
       </c>
@@ -13260,20 +13861,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC805144-0550-45A7-AE1E-79020EDA04F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -13287,7 +13888,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1414</v>
       </c>
@@ -13302,7 +13903,7 @@
         <v>Mean wave direction</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1415</v>
       </c>
@@ -13317,7 +13918,7 @@
         <v>Mean wave period</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1416</v>
       </c>
@@ -13332,7 +13933,7 @@
         <v>Peak wave period</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1417</v>
       </c>
@@ -13347,7 +13948,7 @@
         <v>Significant waveheight</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1421</v>
       </c>
@@ -13362,7 +13963,7 @@
         <v>Tidal Height</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>1422</v>
       </c>
@@ -13377,7 +13978,7 @@
         <v>Peak wave period</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>1423</v>
       </c>
@@ -13392,7 +13993,7 @@
         <v>Mean wave period</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>1424</v>
       </c>
@@ -13407,7 +14008,7 @@
         <v>Peak wave direction</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>1425</v>
       </c>
@@ -13429,16 +14030,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B5E73C-E323-4B74-9F14-922929B990A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -13452,7 +14053,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1374</v>
       </c>
@@ -13467,7 +14068,7 @@
         <v>Tidal Height</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>839</v>
       </c>
@@ -13482,7 +14083,7 @@
         <v>PAR</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1309</v>
       </c>
@@ -13497,7 +14098,7 @@
         <v>velocity x component of current</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1310</v>
       </c>
@@ -13512,7 +14113,7 @@
         <v>velocity y component of current</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>715</v>
       </c>
@@ -13527,7 +14128,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>714</v>
       </c>
@@ -13542,7 +14143,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1375</v>
       </c>
@@ -13564,16 +14165,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A182F4-44FD-43F6-93A9-99BB7F63199E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -13587,7 +14188,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>839</v>
       </c>
@@ -13602,7 +14203,7 @@
         <v>Tidal Height</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1309</v>
       </c>
@@ -13617,7 +14218,7 @@
         <v>velocity x component of current</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1310</v>
       </c>
@@ -13632,7 +14233,7 @@
         <v>velocity y component of current</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>715</v>
       </c>
@@ -13647,7 +14248,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>714</v>
       </c>
@@ -13662,7 +14263,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1375</v>
       </c>
@@ -13683,24 +14284,24 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B6692B-9920-4E77-9D5B-6B101F30D414}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>837</v>
       </c>
@@ -13711,1194 +14312,1194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90053AC-E970-C241-A8E9-106E6E17DECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1590</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1648</v>
       </c>
@@ -14909,25 +15510,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327CA4D-663D-443F-80DC-1A1E539BD38E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B269" sqref="B269"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
@@ -14947,7 +15548,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'MASTER KEY'!A2</f>
         <v>var00001</v>
@@ -14970,7 +15571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'MASTER KEY'!A3</f>
         <v>var00002</v>
@@ -14993,7 +15594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'MASTER KEY'!A4</f>
         <v>var00003</v>
@@ -15016,7 +15617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'MASTER KEY'!A5</f>
         <v>var00004</v>
@@ -15040,7 +15641,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'MASTER KEY'!A6</f>
         <v>var00005</v>
@@ -15064,7 +15665,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'MASTER KEY'!A7</f>
         <v>var00006</v>
@@ -15087,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'MASTER KEY'!A8</f>
         <v>var00007</v>
@@ -15110,7 +15711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'MASTER KEY'!A9</f>
         <v>var00008</v>
@@ -15133,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'MASTER KEY'!A10</f>
         <v>var00009</v>
@@ -15157,7 +15758,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'MASTER KEY'!A11</f>
         <v>var00010</v>
@@ -15181,7 +15782,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'MASTER KEY'!A12</f>
         <v>var00011</v>
@@ -15205,7 +15806,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'MASTER KEY'!A13</f>
         <v>var00012</v>
@@ -15228,7 +15829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'MASTER KEY'!A14</f>
         <v>var00013</v>
@@ -15251,7 +15852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'MASTER KEY'!A15</f>
         <v>var00014</v>
@@ -15274,7 +15875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'MASTER KEY'!A16</f>
         <v>var00015</v>
@@ -15297,7 +15898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'MASTER KEY'!A17</f>
         <v>var00016</v>
@@ -15320,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'MASTER KEY'!A18</f>
         <v>var00017</v>
@@ -15343,7 +15944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'MASTER KEY'!A19</f>
         <v>var00018</v>
@@ -15366,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'MASTER KEY'!A20</f>
         <v>var00019</v>
@@ -15389,7 +15990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'MASTER KEY'!A21</f>
         <v>var00020</v>
@@ -15412,7 +16013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'MASTER KEY'!A22</f>
         <v>var00021</v>
@@ -15435,7 +16036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'MASTER KEY'!A23</f>
         <v>var00022</v>
@@ -15458,7 +16059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'MASTER KEY'!A24</f>
         <v>var00023</v>
@@ -15482,7 +16083,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'MASTER KEY'!A25</f>
         <v>var00024</v>
@@ -15505,7 +16106,7 @@
         <v>35.587188609999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'MASTER KEY'!A26</f>
         <v>var00025</v>
@@ -15529,7 +16130,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'MASTER KEY'!A27</f>
         <v>var00026</v>
@@ -15553,7 +16154,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'MASTER KEY'!A28</f>
         <v>var00027</v>
@@ -15577,7 +16178,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'MASTER KEY'!A29</f>
         <v>var00028</v>
@@ -15601,7 +16202,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'MASTER KEY'!A30</f>
         <v>var00029</v>
@@ -15625,7 +16226,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'MASTER KEY'!A31</f>
         <v>var00030</v>
@@ -15649,7 +16250,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'MASTER KEY'!A32</f>
         <v>var00031</v>
@@ -15673,7 +16274,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'MASTER KEY'!A33</f>
         <v>var00032</v>
@@ -15697,7 +16298,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'MASTER KEY'!A34</f>
         <v>var00033</v>
@@ -15721,7 +16322,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'MASTER KEY'!A35</f>
         <v>var00034</v>
@@ -15745,7 +16346,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'MASTER KEY'!A36</f>
         <v>var00035</v>
@@ -15769,7 +16370,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'MASTER KEY'!A37</f>
         <v>var00036</v>
@@ -15793,7 +16394,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'MASTER KEY'!A38</f>
         <v>var00037</v>
@@ -15817,7 +16418,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'MASTER KEY'!A39</f>
         <v>var00038</v>
@@ -15840,7 +16441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'MASTER KEY'!A40</f>
         <v>var00039</v>
@@ -15863,7 +16464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'MASTER KEY'!A41</f>
         <v>var00040</v>
@@ -15886,7 +16487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'MASTER KEY'!A42</f>
         <v>var00041</v>
@@ -15909,7 +16510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'MASTER KEY'!A43</f>
         <v>var00042</v>
@@ -15932,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'MASTER KEY'!A44</f>
         <v>var00043</v>
@@ -15955,7 +16556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'MASTER KEY'!A45</f>
         <v>var00044</v>
@@ -15978,7 +16579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'MASTER KEY'!A46</f>
         <v>var00045</v>
@@ -16001,7 +16602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'MASTER KEY'!A47</f>
         <v>var00046</v>
@@ -16024,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'MASTER KEY'!A48</f>
         <v>var00047</v>
@@ -16047,7 +16648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'MASTER KEY'!A49</f>
         <v>var00048</v>
@@ -16070,7 +16671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'MASTER KEY'!A50</f>
         <v>var00049</v>
@@ -16093,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'MASTER KEY'!A51</f>
         <v>var00050</v>
@@ -16116,7 +16717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'MASTER KEY'!A52</f>
         <v>var00051</v>
@@ -16139,7 +16740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'MASTER KEY'!A53</f>
         <v>var00052</v>
@@ -16162,7 +16763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'MASTER KEY'!A54</f>
         <v>var00053</v>
@@ -16185,7 +16786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'MASTER KEY'!A55</f>
         <v>var00054</v>
@@ -16208,7 +16809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'MASTER KEY'!A56</f>
         <v>var00055</v>
@@ -16231,7 +16832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'MASTER KEY'!A57</f>
         <v>var00056</v>
@@ -16254,7 +16855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'MASTER KEY'!A58</f>
         <v>var00057</v>
@@ -16277,7 +16878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'MASTER KEY'!A59</f>
         <v>var00058</v>
@@ -16300,7 +16901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'MASTER KEY'!A60</f>
         <v>var00059</v>
@@ -16323,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'MASTER KEY'!A61</f>
         <v>var00060</v>
@@ -16346,7 +16947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>'MASTER KEY'!A62</f>
         <v>var00061</v>
@@ -16369,7 +16970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>'MASTER KEY'!A63</f>
         <v>var00062</v>
@@ -16392,7 +16993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>'MASTER KEY'!A64</f>
         <v>var00063</v>
@@ -16415,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>'MASTER KEY'!A65</f>
         <v>var00064</v>
@@ -16438,7 +17039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>'MASTER KEY'!A66</f>
         <v>var00065</v>
@@ -16461,7 +17062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>'MASTER KEY'!A67</f>
         <v>var00066</v>
@@ -16484,7 +17085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>'MASTER KEY'!A68</f>
         <v>var00067</v>
@@ -16507,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>'MASTER KEY'!A69</f>
         <v>var00068</v>
@@ -16530,7 +17131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>'MASTER KEY'!A70</f>
         <v>var00069</v>
@@ -16553,7 +17154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>'MASTER KEY'!A71</f>
         <v>var00070</v>
@@ -16576,7 +17177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>'MASTER KEY'!A72</f>
         <v>var00071</v>
@@ -16599,7 +17200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>'MASTER KEY'!A73</f>
         <v>var00072</v>
@@ -16622,7 +17223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>'MASTER KEY'!A74</f>
         <v>var00073</v>
@@ -16645,7 +17246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>'MASTER KEY'!A75</f>
         <v>var00074</v>
@@ -16668,7 +17269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>'MASTER KEY'!A76</f>
         <v>var00075</v>
@@ -16691,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>'MASTER KEY'!A77</f>
         <v>var00076</v>
@@ -16714,7 +17315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>'MASTER KEY'!A78</f>
         <v>var00077</v>
@@ -16737,7 +17338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>'MASTER KEY'!A79</f>
         <v>var00078</v>
@@ -16760,7 +17361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>'MASTER KEY'!A80</f>
         <v>var00079</v>
@@ -16783,7 +17384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>'MASTER KEY'!A81</f>
         <v>var00080</v>
@@ -16806,7 +17407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>'MASTER KEY'!A82</f>
         <v>var00081</v>
@@ -16829,7 +17430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>'MASTER KEY'!A83</f>
         <v>var00082</v>
@@ -16852,7 +17453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>'MASTER KEY'!A84</f>
         <v>var00083</v>
@@ -16875,7 +17476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>'MASTER KEY'!A85</f>
         <v>var00084</v>
@@ -16898,7 +17499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>'MASTER KEY'!A86</f>
         <v>var00085</v>
@@ -16921,7 +17522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>'MASTER KEY'!A87</f>
         <v>var00086</v>
@@ -16944,7 +17545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>'MASTER KEY'!A88</f>
         <v>var00087</v>
@@ -16967,7 +17568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>'MASTER KEY'!A89</f>
         <v>var00088</v>
@@ -16990,7 +17591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>'MASTER KEY'!A90</f>
         <v>var00089</v>
@@ -17013,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>'MASTER KEY'!A91</f>
         <v>var00090</v>
@@ -17036,7 +17637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>'MASTER KEY'!A92</f>
         <v>var00091</v>
@@ -17059,7 +17660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>'MASTER KEY'!A93</f>
         <v>var00092</v>
@@ -17082,7 +17683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>'MASTER KEY'!A94</f>
         <v>var00093</v>
@@ -17105,7 +17706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>'MASTER KEY'!A95</f>
         <v>var00094</v>
@@ -17128,7 +17729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>'MASTER KEY'!A96</f>
         <v>var00095</v>
@@ -17151,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>'MASTER KEY'!A97</f>
         <v>var00096</v>
@@ -17174,7 +17775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>'MASTER KEY'!A98</f>
         <v>var00097</v>
@@ -17197,7 +17798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>'MASTER KEY'!A99</f>
         <v>var00098</v>
@@ -17220,7 +17821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>'MASTER KEY'!A100</f>
         <v>var00099</v>
@@ -17243,7 +17844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>'MASTER KEY'!A101</f>
         <v>var00100</v>
@@ -17266,7 +17867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>'MASTER KEY'!A102</f>
         <v>var00101</v>
@@ -17289,7 +17890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>'MASTER KEY'!A103</f>
         <v>var00102</v>
@@ -17312,7 +17913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>'MASTER KEY'!A104</f>
         <v>var00103</v>
@@ -17335,7 +17936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>'MASTER KEY'!A105</f>
         <v>var00104</v>
@@ -17358,7 +17959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>'MASTER KEY'!A106</f>
         <v>var00105</v>
@@ -17381,7 +17982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>'MASTER KEY'!A107</f>
         <v>var00106</v>
@@ -17404,7 +18005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>'MASTER KEY'!A108</f>
         <v>var00107</v>
@@ -17427,7 +18028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>'MASTER KEY'!A109</f>
         <v>var00108</v>
@@ -17450,7 +18051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>'MASTER KEY'!A110</f>
         <v>var00109</v>
@@ -17473,7 +18074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>'MASTER KEY'!A111</f>
         <v>var00110</v>
@@ -17496,7 +18097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>'MASTER KEY'!A112</f>
         <v>var00111</v>
@@ -17519,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>'MASTER KEY'!A113</f>
         <v>var00112</v>
@@ -17542,7 +18143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>'MASTER KEY'!A114</f>
         <v>var00113</v>
@@ -17565,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>'MASTER KEY'!A115</f>
         <v>var00114</v>
@@ -17588,7 +18189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>'MASTER KEY'!A116</f>
         <v>var00115</v>
@@ -17611,7 +18212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>'MASTER KEY'!A117</f>
         <v>var00116</v>
@@ -17634,7 +18235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>'MASTER KEY'!A118</f>
         <v>var00117</v>
@@ -17657,7 +18258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>'MASTER KEY'!A119</f>
         <v>var00118</v>
@@ -17680,7 +18281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>'MASTER KEY'!A120</f>
         <v>var00119</v>
@@ -17703,7 +18304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>'MASTER KEY'!A121</f>
         <v>var00120</v>
@@ -17726,7 +18327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>'MASTER KEY'!A122</f>
         <v>var00121</v>
@@ -17749,7 +18350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>'MASTER KEY'!A123</f>
         <v>var00122</v>
@@ -17772,7 +18373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>'MASTER KEY'!A124</f>
         <v>var00123</v>
@@ -17795,7 +18396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>'MASTER KEY'!A125</f>
         <v>var00124</v>
@@ -17818,7 +18419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>'MASTER KEY'!A126</f>
         <v>var00125</v>
@@ -17841,7 +18442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>'MASTER KEY'!A127</f>
         <v>var00126</v>
@@ -17864,7 +18465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>'MASTER KEY'!A128</f>
         <v>var00127</v>
@@ -17887,7 +18488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f>'MASTER KEY'!A129</f>
         <v>var00128</v>
@@ -17910,7 +18511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f>'MASTER KEY'!A130</f>
         <v>var00129</v>
@@ -17933,7 +18534,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f>'MASTER KEY'!A131</f>
         <v>var00130</v>
@@ -17956,7 +18557,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f>'MASTER KEY'!A132</f>
         <v>var00131</v>
@@ -17979,7 +18580,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>'MASTER KEY'!A133</f>
         <v>var00132</v>
@@ -18002,7 +18603,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f>'MASTER KEY'!A134</f>
         <v>var00133</v>
@@ -18025,7 +18626,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f>'MASTER KEY'!A135</f>
         <v>var00134</v>
@@ -18048,7 +18649,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f>'MASTER KEY'!A136</f>
         <v>var00135</v>
@@ -18071,7 +18672,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>'MASTER KEY'!A137</f>
         <v>var00136</v>
@@ -18094,7 +18695,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f>'MASTER KEY'!A138</f>
         <v>var00137</v>
@@ -18117,7 +18718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f>'MASTER KEY'!A139</f>
         <v>var00138</v>
@@ -18140,7 +18741,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>'MASTER KEY'!A140</f>
         <v>var00139</v>
@@ -18163,7 +18764,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>'MASTER KEY'!A141</f>
         <v>var00140</v>
@@ -18186,7 +18787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f>'MASTER KEY'!A142</f>
         <v>var00141</v>
@@ -18209,7 +18810,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>'MASTER KEY'!A143</f>
         <v>var00142</v>
@@ -18232,7 +18833,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>'MASTER KEY'!A144</f>
         <v>var00143</v>
@@ -18255,7 +18856,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>'MASTER KEY'!A145</f>
         <v>var00144</v>
@@ -18278,7 +18879,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>'MASTER KEY'!A146</f>
         <v>var00145</v>
@@ -18301,7 +18902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>'MASTER KEY'!A147</f>
         <v>var00146</v>
@@ -18324,7 +18925,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>'MASTER KEY'!A148</f>
         <v>var00147</v>
@@ -18347,7 +18948,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>'MASTER KEY'!A149</f>
         <v>var00148</v>
@@ -18370,7 +18971,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>'MASTER KEY'!A150</f>
         <v>var00149</v>
@@ -18393,7 +18994,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>'MASTER KEY'!A151</f>
         <v>var00150</v>
@@ -18416,7 +19017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>'MASTER KEY'!A152</f>
         <v>var00151</v>
@@ -18439,7 +19040,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>'MASTER KEY'!A153</f>
         <v>var00152</v>
@@ -18462,7 +19063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>'MASTER KEY'!A154</f>
         <v>var00153</v>
@@ -18485,7 +19086,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>'MASTER KEY'!A155</f>
         <v>var00154</v>
@@ -18508,7 +19109,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>'MASTER KEY'!A156</f>
         <v>var00155</v>
@@ -18531,7 +19132,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>'MASTER KEY'!A157</f>
         <v>var00156</v>
@@ -18554,7 +19155,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f>'MASTER KEY'!A158</f>
         <v>var00157</v>
@@ -18577,7 +19178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f>'MASTER KEY'!A159</f>
         <v>var00158</v>
@@ -18600,7 +19201,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f>'MASTER KEY'!A160</f>
         <v>var00159</v>
@@ -18623,7 +19224,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f>'MASTER KEY'!A161</f>
         <v>var00160</v>
@@ -18646,7 +19247,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f>'MASTER KEY'!A162</f>
         <v>var00161</v>
@@ -18669,7 +19270,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f>'MASTER KEY'!A163</f>
         <v>var00162</v>
@@ -18692,7 +19293,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f>'MASTER KEY'!A164</f>
         <v>var00163</v>
@@ -18715,7 +19316,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f>'MASTER KEY'!A165</f>
         <v>var00164</v>
@@ -18738,7 +19339,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f>'MASTER KEY'!A166</f>
         <v>var00165</v>
@@ -18761,7 +19362,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f>'MASTER KEY'!A167</f>
         <v>var00166</v>
@@ -18784,7 +19385,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f>'MASTER KEY'!A168</f>
         <v>var00167</v>
@@ -18807,7 +19408,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f>'MASTER KEY'!A169</f>
         <v>var00168</v>
@@ -18830,7 +19431,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f>'MASTER KEY'!A170</f>
         <v>var00169</v>
@@ -18853,7 +19454,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f>'MASTER KEY'!A171</f>
         <v>var00170</v>
@@ -18876,7 +19477,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f>'MASTER KEY'!A172</f>
         <v>var00171</v>
@@ -18899,7 +19500,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f>'MASTER KEY'!A173</f>
         <v>var00172</v>
@@ -18922,7 +19523,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f>'MASTER KEY'!A174</f>
         <v>var00173</v>
@@ -18945,7 +19546,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f>'MASTER KEY'!A175</f>
         <v>var00174</v>
@@ -18968,7 +19569,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f>'MASTER KEY'!A176</f>
         <v>var00175</v>
@@ -18991,7 +19592,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f>'MASTER KEY'!A177</f>
         <v>var00176</v>
@@ -19014,7 +19615,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f>'MASTER KEY'!A178</f>
         <v>var00177</v>
@@ -19037,7 +19638,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f>'MASTER KEY'!A179</f>
         <v>var00178</v>
@@ -19060,7 +19661,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f>'MASTER KEY'!A180</f>
         <v>var00179</v>
@@ -19083,7 +19684,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f>'MASTER KEY'!A181</f>
         <v>var00180</v>
@@ -19106,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>898</v>
       </c>
@@ -19126,7 +19727,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>901</v>
       </c>
@@ -19146,7 +19747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>902</v>
       </c>
@@ -19166,7 +19767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>903</v>
       </c>
@@ -19186,7 +19787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>904</v>
       </c>
@@ -19206,7 +19807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>905</v>
       </c>
@@ -19226,7 +19827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>906</v>
       </c>
@@ -19246,7 +19847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>907</v>
       </c>
@@ -19266,7 +19867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>908</v>
       </c>
@@ -19286,7 +19887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>909</v>
       </c>
@@ -19306,7 +19907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>910</v>
       </c>
@@ -19326,7 +19927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>923</v>
       </c>
@@ -19346,7 +19947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>924</v>
       </c>
@@ -19366,7 +19967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>925</v>
       </c>
@@ -19386,7 +19987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>926</v>
       </c>
@@ -19406,7 +20007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>927</v>
       </c>
@@ -19426,7 +20027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>928</v>
       </c>
@@ -19446,7 +20047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>929</v>
       </c>
@@ -19466,7 +20067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>932</v>
       </c>
@@ -19486,7 +20087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>934</v>
       </c>
@@ -19506,7 +20107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>935</v>
       </c>
@@ -19526,7 +20127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>936</v>
       </c>
@@ -19546,7 +20147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>937</v>
       </c>
@@ -19566,7 +20167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>938</v>
       </c>
@@ -19586,7 +20187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>940</v>
       </c>
@@ -19606,7 +20207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>943</v>
       </c>
@@ -19626,7 +20227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>944</v>
       </c>
@@ -19646,7 +20247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>946</v>
       </c>
@@ -19666,7 +20267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>947</v>
       </c>
@@ -19686,7 +20287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>948</v>
       </c>
@@ -19706,7 +20307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>949</v>
       </c>
@@ -19726,7 +20327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>950</v>
       </c>
@@ -19746,7 +20347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>951</v>
       </c>
@@ -19766,7 +20367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>952</v>
       </c>
@@ -19786,7 +20387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1069</v>
       </c>
@@ -19806,7 +20407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1071</v>
       </c>
@@ -19826,7 +20427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>1077</v>
       </c>
@@ -19846,7 +20447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1078</v>
       </c>
@@ -19866,7 +20467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1186</v>
       </c>
@@ -19886,7 +20487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1187</v>
       </c>
@@ -19906,7 +20507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1188</v>
       </c>
@@ -19926,7 +20527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1189</v>
       </c>
@@ -19946,7 +20547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1190</v>
       </c>
@@ -19966,7 +20567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1191</v>
       </c>
@@ -19986,7 +20587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1192</v>
       </c>
@@ -20006,7 +20607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1193</v>
       </c>
@@ -20026,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1194</v>
       </c>
@@ -20046,7 +20647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1195</v>
       </c>
@@ -20066,7 +20667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1196</v>
       </c>
@@ -20086,7 +20687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1197</v>
       </c>
@@ -20106,7 +20707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1198</v>
       </c>
@@ -20126,7 +20727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1199</v>
       </c>
@@ -20146,7 +20747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1200</v>
       </c>
@@ -20166,7 +20767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1201</v>
       </c>
@@ -20186,7 +20787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1202</v>
       </c>
@@ -20206,7 +20807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1203</v>
       </c>
@@ -20226,7 +20827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1204</v>
       </c>
@@ -20246,7 +20847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1205</v>
       </c>
@@ -20266,7 +20867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1206</v>
       </c>
@@ -20286,7 +20887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1207</v>
       </c>
@@ -20306,7 +20907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1208</v>
       </c>
@@ -20326,7 +20927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1209</v>
       </c>
@@ -20346,7 +20947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1210</v>
       </c>
@@ -20366,7 +20967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1211</v>
       </c>
@@ -20386,7 +20987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1212</v>
       </c>
@@ -20406,7 +21007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1213</v>
       </c>
@@ -20426,7 +21027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1214</v>
       </c>
@@ -20446,7 +21047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1215</v>
       </c>
@@ -20466,7 +21067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>1216</v>
       </c>
@@ -20486,7 +21087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1217</v>
       </c>
@@ -20506,7 +21107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1218</v>
       </c>
@@ -20526,7 +21127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1219</v>
       </c>
@@ -20546,7 +21147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>1220</v>
       </c>
@@ -20566,7 +21167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>1221</v>
       </c>
@@ -20586,7 +21187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>1222</v>
       </c>
@@ -20606,7 +21207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>1223</v>
       </c>
@@ -20626,7 +21227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>1224</v>
       </c>
@@ -20646,7 +21247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>1225</v>
       </c>
@@ -20666,7 +21267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1226</v>
       </c>
@@ -20686,7 +21287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1227</v>
       </c>
@@ -20706,7 +21307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1228</v>
       </c>
@@ -20726,7 +21327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1229</v>
       </c>
@@ -20746,7 +21347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1230</v>
       </c>
@@ -20766,7 +21367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1231</v>
       </c>
@@ -20786,7 +21387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1281</v>
       </c>
@@ -20806,7 +21407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1283</v>
       </c>
@@ -20826,7 +21427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1317</v>
       </c>
@@ -20846,7 +21447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1339</v>
       </c>
@@ -20866,7 +21467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1343</v>
       </c>
@@ -20894,20 +21495,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E5E19A-8269-4B75-9F84-B2CE294BEEE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -20924,7 +21525,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>968</v>
       </c>
@@ -20942,7 +21543,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>969</v>
       </c>
@@ -20960,7 +21561,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>969</v>
       </c>
@@ -20978,7 +21579,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>970</v>
       </c>
@@ -20996,7 +21597,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>971</v>
       </c>
@@ -21014,7 +21615,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>972</v>
       </c>
@@ -21032,7 +21633,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>973</v>
       </c>
@@ -21050,7 +21651,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>974</v>
       </c>
@@ -21068,7 +21669,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>975</v>
       </c>
@@ -21086,7 +21687,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>976</v>
       </c>
@@ -21104,7 +21705,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>977</v>
       </c>
@@ -21122,7 +21723,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>978</v>
       </c>
@@ -21141,7 +21742,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>979</v>
       </c>
@@ -21159,7 +21760,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>980</v>
       </c>
@@ -21177,7 +21778,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>872</v>
       </c>
@@ -21195,7 +21796,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>981</v>
       </c>
@@ -21213,7 +21814,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>982</v>
       </c>
@@ -21231,7 +21832,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>983</v>
       </c>
@@ -21249,7 +21850,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>984</v>
       </c>
@@ -21267,7 +21868,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>985</v>
       </c>
@@ -21285,7 +21886,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>986</v>
       </c>
@@ -21303,7 +21904,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>987</v>
       </c>
@@ -21321,7 +21922,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>988</v>
       </c>
@@ -21339,7 +21940,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>989</v>
       </c>
@@ -21357,7 +21958,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>990</v>
       </c>
@@ -21375,7 +21976,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>991</v>
       </c>
@@ -21393,7 +21994,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>992</v>
       </c>
@@ -21411,7 +22012,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>993</v>
       </c>
@@ -21429,7 +22030,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>994</v>
       </c>
@@ -21447,7 +22048,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>995</v>
       </c>
@@ -21465,7 +22066,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>996</v>
       </c>
@@ -21483,7 +22084,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>997</v>
       </c>
@@ -21501,7 +22102,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>998</v>
       </c>
@@ -21519,7 +22120,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>999</v>
       </c>
@@ -21537,7 +22138,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1000</v>
       </c>
@@ -21555,7 +22156,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1001</v>
       </c>
@@ -21573,7 +22174,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1002</v>
       </c>
@@ -21591,7 +22192,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1003</v>
       </c>
@@ -21609,7 +22210,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1004</v>
       </c>
@@ -21627,7 +22228,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1005</v>
       </c>
@@ -21645,7 +22246,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1006</v>
       </c>
@@ -21663,7 +22264,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1007</v>
       </c>
@@ -21681,7 +22282,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1008</v>
       </c>
@@ -21699,7 +22300,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1009</v>
       </c>
@@ -21717,7 +22318,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1010</v>
       </c>
@@ -21735,7 +22336,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1011</v>
       </c>
@@ -21753,7 +22354,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1012</v>
       </c>
@@ -21771,7 +22372,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1013</v>
       </c>
@@ -21789,7 +22390,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1014</v>
       </c>
@@ -21807,7 +22408,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1015</v>
       </c>
@@ -21825,7 +22426,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1016</v>
       </c>
@@ -21843,7 +22444,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1017</v>
       </c>
@@ -21862,7 +22463,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1018</v>
       </c>
@@ -21881,7 +22482,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1019</v>
       </c>
@@ -21900,7 +22501,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1020</v>
       </c>
@@ -21919,7 +22520,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1021</v>
       </c>
@@ -21938,7 +22539,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1022</v>
       </c>
@@ -21957,7 +22558,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1023</v>
       </c>
@@ -21976,7 +22577,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1024</v>
       </c>
@@ -21995,7 +22596,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1025</v>
       </c>
@@ -22014,7 +22615,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1026</v>
       </c>
@@ -22033,7 +22634,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1027</v>
       </c>
@@ -22052,7 +22653,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1028</v>
       </c>
@@ -22071,7 +22672,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -22089,7 +22690,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1029</v>
       </c>
@@ -22107,7 +22708,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1030</v>
       </c>
@@ -22125,7 +22726,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1031</v>
       </c>
@@ -22143,7 +22744,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1032</v>
       </c>
@@ -22161,7 +22762,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1033</v>
       </c>
@@ -22179,7 +22780,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1034</v>
       </c>
@@ -22197,7 +22798,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1035</v>
       </c>
@@ -22215,7 +22816,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1036</v>
       </c>
@@ -22233,7 +22834,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1037</v>
       </c>
@@ -22251,7 +22852,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1038</v>
       </c>
@@ -22269,7 +22870,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1039</v>
       </c>
@@ -22287,7 +22888,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1040</v>
       </c>
@@ -22305,7 +22906,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1041</v>
       </c>
@@ -22323,7 +22924,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1042</v>
       </c>
@@ -22341,7 +22942,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1043</v>
       </c>
@@ -22359,7 +22960,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1044</v>
       </c>
@@ -22377,7 +22978,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1045</v>
       </c>
@@ -22395,7 +22996,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1046</v>
       </c>
@@ -22413,7 +23014,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1047</v>
       </c>
@@ -22431,7 +23032,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1048</v>
       </c>
@@ -22449,7 +23050,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1049</v>
       </c>
@@ -22467,7 +23068,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -22486,7 +23087,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1050</v>
       </c>
@@ -22505,7 +23106,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1051</v>
       </c>
@@ -22524,7 +23125,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1052</v>
       </c>
@@ -22543,7 +23144,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -22562,7 +23163,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1053</v>
       </c>
@@ -22581,7 +23182,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1054</v>
       </c>
@@ -22600,7 +23201,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -22618,7 +23219,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1055</v>
       </c>
@@ -22636,7 +23237,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1056</v>
       </c>
@@ -22654,7 +23255,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1057</v>
       </c>
@@ -22672,7 +23273,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1058</v>
       </c>
@@ -22690,7 +23291,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1059</v>
       </c>
@@ -22708,7 +23309,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1060</v>
       </c>
@@ -22726,7 +23327,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1061</v>
       </c>
@@ -22744,7 +23345,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1062</v>
       </c>
@@ -22762,7 +23363,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1063</v>
       </c>
@@ -22780,7 +23381,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1064</v>
       </c>
@@ -22798,7 +23399,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1065</v>
       </c>
@@ -22823,20 +23424,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AD1D0B-ECF7-4309-8F1E-D29C7C0B24A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -22850,7 +23451,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1115</v>
       </c>
@@ -22865,7 +23466,7 @@
         <v>Secchi depth</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -22880,7 +23481,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1116</v>
       </c>
@@ -22895,7 +23496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1117</v>
       </c>
@@ -22910,7 +23511,7 @@
         <v>DIC</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1118</v>
       </c>
@@ -22925,7 +23526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1119</v>
       </c>
@@ -22940,7 +23541,7 @@
         <v>Total Alkalinity</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1120</v>
       </c>
@@ -22955,7 +23556,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1121</v>
       </c>
@@ -22971,7 +23572,7 @@
         <v>Oxygen</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1122</v>
       </c>
@@ -22986,7 +23587,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1123</v>
       </c>
@@ -23001,7 +23602,7 @@
         <v>Ammonium</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1124</v>
       </c>
@@ -23016,7 +23617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1125</v>
       </c>
@@ -23031,7 +23632,7 @@
         <v>Nitrate</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1126</v>
       </c>
@@ -23046,7 +23647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1127</v>
       </c>
@@ -23061,7 +23662,7 @@
         <v>Nitrite</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1128</v>
       </c>
@@ -23076,7 +23677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1129</v>
       </c>
@@ -23091,7 +23692,7 @@
         <v>Filterable Reactive Phosphate</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1130</v>
       </c>
@@ -23106,7 +23707,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1131</v>
       </c>
@@ -23121,7 +23722,7 @@
         <v>Reactive Silica</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1132</v>
       </c>
@@ -23136,7 +23737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1133</v>
       </c>
@@ -23151,7 +23752,7 @@
         <v>TSSorganic</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1134</v>
       </c>
@@ -23166,7 +23767,7 @@
         <v>TSSinorganic</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1135</v>
       </c>
@@ -23181,7 +23782,7 @@
         <v>Total Suspended Solids</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1136</v>
       </c>
@@ -23196,7 +23797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1137</v>
       </c>
@@ -23211,7 +23812,7 @@
         <v>Prochlorococcus</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1138</v>
       </c>
@@ -23227,7 +23828,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1139</v>
       </c>
@@ -23243,7 +23844,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1140</v>
       </c>
@@ -23259,7 +23860,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1141</v>
       </c>
@@ -23275,7 +23876,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1142</v>
       </c>
@@ -23291,7 +23892,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1143</v>
       </c>
@@ -23307,7 +23908,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1144</v>
       </c>
@@ -23323,7 +23924,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1145</v>
       </c>
@@ -23339,7 +23940,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1146</v>
       </c>
@@ -23355,7 +23956,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1147</v>
       </c>
@@ -23371,7 +23972,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1148</v>
       </c>
@@ -23387,7 +23988,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1149</v>
       </c>
@@ -23403,7 +24004,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1150</v>
       </c>
@@ -23419,7 +24020,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1151</v>
       </c>
@@ -23435,7 +24036,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1152</v>
       </c>
@@ -23451,7 +24052,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1153</v>
       </c>
@@ -23467,7 +24068,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1154</v>
       </c>
@@ -23483,7 +24084,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1155</v>
       </c>
@@ -23499,7 +24100,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1156</v>
       </c>
@@ -23515,7 +24116,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1157</v>
       </c>
@@ -23531,7 +24132,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1158</v>
       </c>
@@ -23547,7 +24148,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1159</v>
       </c>
@@ -23563,7 +24164,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1160</v>
       </c>
@@ -23579,7 +24180,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1161</v>
       </c>
@@ -23595,7 +24196,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1162</v>
       </c>
@@ -23611,7 +24212,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1163</v>
       </c>
@@ -23627,7 +24228,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1164</v>
       </c>
@@ -23643,7 +24244,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1165</v>
       </c>
@@ -23659,7 +24260,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1166</v>
       </c>
@@ -23675,7 +24276,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1167</v>
       </c>
@@ -23691,7 +24292,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1168</v>
       </c>
@@ -23707,7 +24308,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1169</v>
       </c>
@@ -23723,7 +24324,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1170</v>
       </c>
@@ -23739,7 +24340,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1171</v>
       </c>
@@ -23755,7 +24356,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1172</v>
       </c>
@@ -23771,7 +24372,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1173</v>
       </c>
@@ -23787,7 +24388,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1174</v>
       </c>
@@ -23803,7 +24404,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1175</v>
       </c>
@@ -23819,7 +24420,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1176</v>
       </c>
@@ -23835,7 +24436,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1177</v>
       </c>
@@ -23851,7 +24452,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1178</v>
       </c>
@@ -23867,7 +24468,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1179</v>
       </c>
@@ -23883,7 +24484,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1180</v>
       </c>
@@ -23899,7 +24500,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1181</v>
       </c>
@@ -23914,7 +24515,7 @@
         <v>PyrophytinA</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1182</v>
       </c>
@@ -23929,7 +24530,7 @@
         <v>Viola</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1183</v>
       </c>
@@ -23944,7 +24545,7 @@
         <v>Zea</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1184</v>
       </c>
@@ -23959,7 +24560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1185</v>
       </c>
@@ -23981,19 +24582,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F3350C-7CCF-4B4A-9A9A-12B7BE46DA49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -24007,7 +24608,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1286</v>
       </c>
@@ -24022,7 +24623,7 @@
         <v>PRESSURE</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1287</v>
       </c>
@@ -24037,7 +24638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>715</v>
       </c>
@@ -24052,7 +24653,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1288</v>
       </c>
@@ -24067,7 +24668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1289</v>
       </c>
@@ -24082,7 +24683,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1290</v>
       </c>
@@ -24097,7 +24698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1291</v>
       </c>
@@ -24113,7 +24714,7 @@
         <v>Oxygen</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1292</v>
       </c>
@@ -24128,7 +24729,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1293</v>
       </c>
@@ -24143,7 +24744,7 @@
         <v>Turbidity</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1294</v>
       </c>
@@ -24158,7 +24759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1295</v>
       </c>
@@ -24173,7 +24774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1296</v>
       </c>
@@ -24188,7 +24789,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1297</v>
       </c>
@@ -24203,7 +24804,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1298</v>
       </c>
@@ -24218,7 +24819,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1299</v>
       </c>
@@ -24233,7 +24834,7 @@
         <v>Chlorophyll-a</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1300</v>
       </c>
@@ -24248,7 +24849,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1301</v>
       </c>
@@ -24263,7 +24864,7 @@
         <v>Conductivity</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1302</v>
       </c>
@@ -24278,7 +24879,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1303</v>
       </c>
@@ -24293,7 +24894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1304</v>
       </c>
@@ -24308,7 +24909,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1305</v>
       </c>
@@ -24323,7 +24924,7 @@
         <v>density</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1306</v>
       </c>
@@ -24345,19 +24946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F53C71-6126-496F-BF12-2421C1B2ABC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="36.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -24990,20 +25591,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC28208-034A-46AB-8361-1B4BBD0AB7D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -25017,7 +25618,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>845</v>
       </c>
@@ -25032,7 +25633,7 @@
         <v>Air Temperature</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>846</v>
       </c>
@@ -25047,7 +25648,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>847</v>
       </c>
@@ -25062,7 +25663,7 @@
         <v>Turbidity</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -25077,7 +25678,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>848</v>
       </c>
@@ -25092,7 +25693,7 @@
         <v>Oxygen</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>849</v>
       </c>
@@ -25107,7 +25708,7 @@
         <v>O2 Saturation</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>850</v>
       </c>
@@ -25122,7 +25723,7 @@
         <v>pH</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>851</v>
       </c>
@@ -25137,7 +25738,7 @@
         <v>Depth</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>852</v>
       </c>
@@ -25152,7 +25753,7 @@
         <v>Tilt</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>853</v>
       </c>
@@ -25167,7 +25768,7 @@
         <v>WL - 410</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>854</v>
       </c>
@@ -25182,7 +25783,7 @@
         <v>WL - 440</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>855</v>
       </c>
@@ -25197,7 +25798,7 @@
         <v>WL - 490</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>856</v>
       </c>
@@ -25212,7 +25813,7 @@
         <v>WL - 510</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>857</v>
       </c>
@@ -25227,7 +25828,7 @@
         <v>WL - 550</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>858</v>
       </c>
@@ -25242,7 +25843,7 @@
         <v>WL - 590</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>859</v>
       </c>
@@ -25257,7 +25858,7 @@
         <v>WL - 635</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>860</v>
       </c>
@@ -25272,7 +25873,7 @@
         <v>WL - 660</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>861</v>
       </c>
@@ -25287,7 +25888,7 @@
         <v>WL - 700</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>862</v>
       </c>
@@ -25302,7 +25903,7 @@
         <v>PAR</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>863</v>
       </c>
@@ -25317,7 +25918,7 @@
         <v>PAR</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>864</v>
       </c>
@@ -25332,7 +25933,7 @@
         <v>Conductivity</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>865</v>
       </c>
@@ -25354,20 +25955,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D0C58-8C8E-440E-A497-ABAD71259CF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -25807,7 +26408,7 @@
         <v>Station level pressure</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1376</v>
       </c>
@@ -25822,7 +26423,7 @@
         <v>Tidal Height</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1377</v>
       </c>
@@ -25837,7 +26438,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>486</v>
       </c>
@@ -25852,7 +26453,7 @@
         <v>Air Temperature</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1378</v>
       </c>
@@ -25867,7 +26468,7 @@
         <v>Station level pressure</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>376</v>
       </c>
@@ -25882,7 +26483,7 @@
         <v>Wind Direction</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>377</v>
       </c>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17955" tabRatio="671" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17955" tabRatio="671"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER KEY'!$A$1:$J$285</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1653">
   <si>
     <t>Units</t>
   </si>
@@ -5608,6 +5608,18 @@
   </si>
   <si>
     <t xml:space="preserve">        WTR_OTHER,</t>
+  </si>
+  <si>
+    <t>H_{1/3}</t>
+  </si>
+  <si>
+    <t>H_{1/10}</t>
+  </si>
+  <si>
+    <t>T_{1/3}</t>
+  </si>
+  <si>
+    <t>T_{1/10}</t>
   </si>
 </sst>
 </file>
@@ -5794,7 +5806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5869,6 +5881,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6187,9 +6202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J285"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11657,7 +11672,7 @@
         <v>13</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>1323</v>
+        <v>1649</v>
       </c>
       <c r="F272" s="20" t="s">
         <v>1355</v>
@@ -11667,14 +11682,14 @@
       <c r="A273" s="20" t="s">
         <v>1335</v>
       </c>
-      <c r="B273" s="28" t="s">
+      <c r="B273" s="32" t="s">
         <v>1324</v>
       </c>
       <c r="C273" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1325</v>
+        <v>1650</v>
       </c>
       <c r="F273" s="20" t="s">
         <v>1356</v>
@@ -11759,7 +11774,7 @@
         <v>1327</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>1329</v>
+        <v>1651</v>
       </c>
       <c r="F278" s="21" t="s">
         <v>1364</v>
@@ -11769,14 +11784,14 @@
       <c r="A279" s="20" t="s">
         <v>1341</v>
       </c>
-      <c r="B279" s="28" t="s">
+      <c r="B279" s="32" t="s">
         <v>1367</v>
       </c>
       <c r="C279" s="20" t="s">
         <v>1327</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>1330</v>
+        <v>1652</v>
       </c>
       <c r="F279" s="20" t="s">
         <v>1365</v>
@@ -14034,7 +14049,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14169,7 +14184,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21498,7 +21513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\csiem-data\data-governance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6000ED82-7083-42B9-9468-1E1B4B7B9CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17955" tabRatio="671"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12480" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER KEY'!$A$1:$J$285</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,6 +47,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,12 +56,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peisheng Huang</author>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0" shapeId="0">
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="0" shapeId="0">
+    <comment ref="B78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="0" shapeId="0">
+    <comment ref="B87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B89" authorId="0" shapeId="0">
+    <comment ref="B89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B90" authorId="0" shapeId="0">
+    <comment ref="B90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B92" authorId="0" shapeId="0">
+    <comment ref="B92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0" shapeId="0">
+    <comment ref="B93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B103" authorId="0" shapeId="0">
+    <comment ref="B103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -322,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C130" authorId="0" shapeId="0">
+    <comment ref="C130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C153" authorId="0" shapeId="0">
+    <comment ref="C153" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B181" authorId="0" shapeId="0">
+    <comment ref="B181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B184" authorId="0" shapeId="0">
+    <comment ref="B184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B201" authorId="0" shapeId="0">
+    <comment ref="B201" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B205" authorId="0" shapeId="0">
+    <comment ref="B205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B211" authorId="0" shapeId="0">
+    <comment ref="B211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -490,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B213" authorId="0" shapeId="0">
+    <comment ref="B213" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -514,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B215" authorId="0" shapeId="0">
+    <comment ref="B215" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -538,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B217" authorId="0" shapeId="0">
+    <comment ref="B217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -562,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B268" authorId="0" shapeId="0">
+    <comment ref="B268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -586,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B272" authorId="0" shapeId="0">
+    <comment ref="B272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -615,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="1654">
   <si>
     <t>Units</t>
   </si>
@@ -5621,11 +5624,14 @@
   <si>
     <t>T_{1/10}</t>
   </si>
+  <si>
+    <t>WQ_DIAH_TOT_TKN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6199,10 +6205,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
     </sheetView>
@@ -11900,7 +11906,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J285"/>
+  <autoFilter ref="A1:J285" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11909,7 +11915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -12267,7 +12273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -13096,7 +13102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13368,7 +13374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13671,7 +13677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13876,7 +13882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14045,7 +14051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14180,7 +14186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14299,7 +14305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14327,7 +14333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A236"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
@@ -15525,12 +15531,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E137" sqref="E137:F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18701,13 +18707,14 @@
         <v>mg/L</v>
       </c>
       <c r="D137" t="s">
-        <v>838</v>
+        <v>1653</v>
       </c>
       <c r="E137" t="s">
-        <v>838</v>
-      </c>
-      <c r="F137" t="s">
-        <v>838</v>
+        <v>840</v>
+      </c>
+      <c r="F137" s="10">
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21510,7 +21517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23439,7 +23446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24597,7 +24604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24961,7 +24968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25606,7 +25613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25970,7 +25977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6000ED82-7083-42B9-9468-1E1B4B7B9CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97046025-C1B3-48CE-A799-678F5D6A6199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12480" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1654">
   <si>
     <t>Units</t>
   </si>
@@ -15535,8 +15535,8 @@
   <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E137" sqref="E137:F137"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18733,8 +18733,8 @@
       <c r="D138" t="s">
         <v>963</v>
       </c>
-      <c r="E138">
-        <v>0</v>
+      <c r="E138" t="s">
+        <v>1082</v>
       </c>
       <c r="F138">
         <v>1</v>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97046025-C1B3-48CE-A799-678F5D6A6199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F27E5C9-052E-400A-BD09-8AD8D13063D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12480" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5625,7 +5625,7 @@
     <t>T_{1/10}</t>
   </si>
   <si>
-    <t>WQ_DIAH_TOT_TKN</t>
+    <t>WQ_DIAG_TOT_TKN</t>
   </si>
 </sst>
 </file>
@@ -15535,8 +15535,8 @@
   <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1188AB01-4B1C-47C5-A25A-02666A575127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E58D5-5239-46F2-94A0-31326AB26F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1005" windowWidth="23010" windowHeight="11985" tabRatio="671" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="1719">
   <si>
     <t>Units</t>
   </si>
@@ -5973,6 +5973,9 @@
   </si>
   <si>
     <t>wind_direction_std</t>
+  </si>
+  <si>
+    <t>station level pressure std</t>
   </si>
 </sst>
 </file>
@@ -6565,9 +6568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J299"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A280" sqref="A280"/>
+      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12341,7 +12344,7 @@
         <v>1659</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1666</v>
+        <v>1718</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>503</v>
@@ -13096,7 +13099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" activeCellId="1" sqref="B17:B24 G25"/>
     </sheetView>
   </sheetViews>
@@ -23160,7 +23163,7 @@
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
-        <v>sea level pressure std</v>
+        <v>station level pressure std</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E58D5-5239-46F2-94A0-31326AB26F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E25FE4-37D9-4170-B190-630AECB5F39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="671" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -6568,7 +6568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
     </sheetView>
@@ -12549,8 +12549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13079,7 +13079,8 @@
         <v>377</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>380</v>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\AED_Cockburn_db\CSIEM\Data\Sherry\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E25FE4-37D9-4170-B190-630AECB5F39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8B6827-CA26-4EE7-82D5-4DC4803F55F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="671" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="736" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,13 @@
     <sheet name="DOT" sheetId="4" r:id="rId11"/>
     <sheet name="THEME5" sheetId="7" r:id="rId12"/>
     <sheet name="WWMSP5" sheetId="16" r:id="rId13"/>
-    <sheet name="JPPLAWAC" sheetId="12" r:id="rId14"/>
-    <sheet name="UWA" sheetId="15" r:id="rId15"/>
-    <sheet name="BMTBNA" sheetId="17" r:id="rId16"/>
-    <sheet name="FPA_BMT" sheetId="14" r:id="rId17"/>
-    <sheet name="WC_BMT" sheetId="13" r:id="rId18"/>
-    <sheet name="Information" sheetId="6" r:id="rId19"/>
+    <sheet name="WWMSP2" sheetId="20" r:id="rId14"/>
+    <sheet name="JPPLAWAC" sheetId="12" r:id="rId15"/>
+    <sheet name="UWA" sheetId="15" r:id="rId16"/>
+    <sheet name="BMTBNA" sheetId="17" r:id="rId17"/>
+    <sheet name="FPA_BMT" sheetId="14" r:id="rId18"/>
+    <sheet name="WC_BMT" sheetId="13" r:id="rId19"/>
+    <sheet name="Information" sheetId="6" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER KEY'!$A$1:$J$285</definedName>
@@ -773,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="1719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="1785">
   <si>
     <t>Units</t>
   </si>
@@ -5977,12 +5978,252 @@
   <si>
     <t>station level pressure std</t>
   </si>
+  <si>
+    <t>Depth (m)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Water Temperature (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Tilt (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>TOTAL PAR (µmol m² s)</t>
+  </si>
+  <si>
+    <t>Violet(398.6 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>Indigo(448.4 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>Blue(470.3 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>Green(524.9 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>GreenYellow(554.8 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>Orange(590.5 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>Red(628.9 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>Red(656.3 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>Red(699 microW/cm^2/nm)</t>
+  </si>
+  <si>
+    <t>398.6 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>448.4 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>470.3 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>524.9 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>554.8 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>590.5 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>628.9 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>656.3 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>699 (umol/m2/s1)</t>
+  </si>
+  <si>
+    <t>Total PAR (umol m2 day)</t>
+  </si>
+  <si>
+    <t>Total PAR (moles m2 day)</t>
+  </si>
+  <si>
+    <t>var00300</t>
+  </si>
+  <si>
+    <t>var00301</t>
+  </si>
+  <si>
+    <t>var00302</t>
+  </si>
+  <si>
+    <t>var00303</t>
+  </si>
+  <si>
+    <t>var00304</t>
+  </si>
+  <si>
+    <t>var00305</t>
+  </si>
+  <si>
+    <t>var00306</t>
+  </si>
+  <si>
+    <t>var00307</t>
+  </si>
+  <si>
+    <t>var00308</t>
+  </si>
+  <si>
+    <t>WL - 398µW</t>
+  </si>
+  <si>
+    <t>WL - 448µW</t>
+  </si>
+  <si>
+    <t>WL - 470µW</t>
+  </si>
+  <si>
+    <t>WL - 524µW</t>
+  </si>
+  <si>
+    <t>WL - 554µW</t>
+  </si>
+  <si>
+    <t>WL - 590µW</t>
+  </si>
+  <si>
+    <t>WL - 628µW</t>
+  </si>
+  <si>
+    <t>WL - 656µW</t>
+  </si>
+  <si>
+    <t>WL - 699µW</t>
+  </si>
+  <si>
+    <t>WL - 398µmol</t>
+  </si>
+  <si>
+    <t>WL - 448µmol</t>
+  </si>
+  <si>
+    <t>WL - 470µmol</t>
+  </si>
+  <si>
+    <t>WL - 524µmol</t>
+  </si>
+  <si>
+    <t>WL - 554µmol</t>
+  </si>
+  <si>
+    <t>WL - 590µmol</t>
+  </si>
+  <si>
+    <t>WL - 628µmol</t>
+  </si>
+  <si>
+    <t>WL - 656µmol</t>
+  </si>
+  <si>
+    <t>WL - 699µmol</t>
+  </si>
+  <si>
+    <t>var00309</t>
+  </si>
+  <si>
+    <t>var00310</t>
+  </si>
+  <si>
+    <t>var00311</t>
+  </si>
+  <si>
+    <t>var00312</t>
+  </si>
+  <si>
+    <t>var00313</t>
+  </si>
+  <si>
+    <t>var00314</t>
+  </si>
+  <si>
+    <t>var00315</t>
+  </si>
+  <si>
+    <t>var00316</t>
+  </si>
+  <si>
+    <t>var00317</t>
+  </si>
+  <si>
+    <t>umol/m2/s1</t>
+  </si>
+  <si>
+    <t>Total Par day</t>
+  </si>
+  <si>
+    <t>umol/m2/day</t>
+  </si>
+  <si>
+    <t>var00318</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>while this column (calculated by author) is called total PAR/day, it seems to be total PAR per 15min (i.e. the logging frequency) not the 24hr day</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6082,8 +6323,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6105,6 +6352,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6169,7 +6434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6232,12 +6497,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6246,12 +6505,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6566,11 +6826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J299"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8894,7 +9154,7 @@
       <c r="A105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -8914,7 +9174,7 @@
       <c r="A106" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -8934,7 +9194,7 @@
       <c r="A107" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -10459,7 +10719,7 @@
       <c r="A181" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="B181" s="28" t="s">
+      <c r="B181" s="26" t="s">
         <v>495</v>
       </c>
       <c r="C181" s="20" t="s">
@@ -10522,7 +10782,7 @@
       <c r="A184" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B184" s="29" t="s">
+      <c r="B184" s="27" t="s">
         <v>911</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -10539,7 +10799,7 @@
       <c r="A185" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B185" s="29" t="s">
+      <c r="B185" s="27" t="s">
         <v>912</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -10556,7 +10816,7 @@
       <c r="A186" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B186" s="29" t="s">
+      <c r="B186" s="27" t="s">
         <v>913</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -10573,7 +10833,7 @@
       <c r="A187" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B187" s="29" t="s">
+      <c r="B187" s="27" t="s">
         <v>914</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -10590,7 +10850,7 @@
       <c r="A188" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B188" s="29" t="s">
+      <c r="B188" s="27" t="s">
         <v>915</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -10607,7 +10867,7 @@
       <c r="A189" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B189" s="29" t="s">
+      <c r="B189" s="27" t="s">
         <v>916</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -10624,7 +10884,7 @@
       <c r="A190" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B190" s="29" t="s">
+      <c r="B190" s="27" t="s">
         <v>917</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -10641,7 +10901,7 @@
       <c r="A191" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B191" s="29" t="s">
+      <c r="B191" s="27" t="s">
         <v>918</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -10658,7 +10918,7 @@
       <c r="A192" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B192" s="29" t="s">
+      <c r="B192" s="27" t="s">
         <v>919</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -10675,7 +10935,7 @@
       <c r="A193" s="20" t="s">
         <v>923</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="28" t="s">
         <v>866</v>
       </c>
       <c r="C193" s="22" t="s">
@@ -10692,7 +10952,7 @@
       <c r="A194" s="20" t="s">
         <v>924</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="28" t="s">
         <v>867</v>
       </c>
       <c r="C194" s="22" t="s">
@@ -10709,7 +10969,7 @@
       <c r="A195" s="20" t="s">
         <v>925</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="28" t="s">
         <v>868</v>
       </c>
       <c r="C195" s="22" t="s">
@@ -10726,7 +10986,7 @@
       <c r="A196" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="28" t="s">
         <v>869</v>
       </c>
       <c r="C196" s="22" t="s">
@@ -10743,7 +11003,7 @@
       <c r="A197" s="20" t="s">
         <v>927</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="28" t="s">
         <v>870</v>
       </c>
       <c r="C197" s="22" t="s">
@@ -10760,7 +11020,7 @@
       <c r="A198" s="20" t="s">
         <v>928</v>
       </c>
-      <c r="B198" s="30" t="s">
+      <c r="B198" s="28" t="s">
         <v>871</v>
       </c>
       <c r="C198" s="22" t="s">
@@ -10777,7 +11037,7 @@
       <c r="A199" s="20" t="s">
         <v>929</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="28" t="s">
         <v>872</v>
       </c>
       <c r="C199" s="20" t="s">
@@ -10794,7 +11054,7 @@
       <c r="A200" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="28" t="s">
         <v>930</v>
       </c>
       <c r="C200" s="22" t="s">
@@ -10811,7 +11071,7 @@
       <c r="A201" s="20" t="s">
         <v>934</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" s="28" t="s">
         <v>877</v>
       </c>
       <c r="C201" s="22" t="s">
@@ -10828,7 +11088,7 @@
       <c r="A202" s="20" t="s">
         <v>935</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="28" t="s">
         <v>878</v>
       </c>
       <c r="C202" s="22" t="s">
@@ -10845,7 +11105,7 @@
       <c r="A203" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="B203" s="30" t="s">
+      <c r="B203" s="28" t="s">
         <v>879</v>
       </c>
       <c r="C203" s="22" t="s">
@@ -10862,7 +11122,7 @@
       <c r="A204" s="20" t="s">
         <v>937</v>
       </c>
-      <c r="B204" s="30" t="s">
+      <c r="B204" s="28" t="s">
         <v>880</v>
       </c>
       <c r="C204" s="22" t="s">
@@ -10879,7 +11139,7 @@
       <c r="A205" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="28" t="s">
         <v>881</v>
       </c>
       <c r="C205" s="22" t="s">
@@ -10981,7 +11241,7 @@
       <c r="A211" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="28" t="s">
         <v>1412</v>
       </c>
       <c r="C211" s="22" t="s">
@@ -11015,7 +11275,7 @@
       <c r="A213" s="20" t="s">
         <v>950</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B213" s="28" t="s">
         <v>894</v>
       </c>
       <c r="C213" s="22" t="s">
@@ -11049,7 +11309,7 @@
       <c r="A215" s="20" t="s">
         <v>952</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="28" t="s">
         <v>896</v>
       </c>
       <c r="C215" s="22" t="s">
@@ -11966,7 +12226,7 @@
       <c r="A268" s="20" t="s">
         <v>1314</v>
       </c>
-      <c r="B268" s="28" t="s">
+      <c r="B268" s="26" t="s">
         <v>1319</v>
       </c>
       <c r="C268" s="20" t="s">
@@ -12034,7 +12294,7 @@
       <c r="A272" s="20" t="s">
         <v>1318</v>
       </c>
-      <c r="B272" s="28" t="s">
+      <c r="B272" s="26" t="s">
         <v>1322</v>
       </c>
       <c r="C272" s="20" t="s">
@@ -12051,7 +12311,7 @@
       <c r="A273" s="20" t="s">
         <v>1335</v>
       </c>
-      <c r="B273" s="32" t="s">
+      <c r="B273" s="20" t="s">
         <v>1324</v>
       </c>
       <c r="C273" s="20" t="s">
@@ -12136,7 +12396,7 @@
       <c r="A278" s="20" t="s">
         <v>1340</v>
       </c>
-      <c r="B278" s="31" t="s">
+      <c r="B278" s="29" t="s">
         <v>1366</v>
       </c>
       <c r="C278" s="20" t="s">
@@ -12153,7 +12413,7 @@
       <c r="A279" s="20" t="s">
         <v>1341</v>
       </c>
-      <c r="B279" s="32" t="s">
+      <c r="B279" s="20" t="s">
         <v>1367</v>
       </c>
       <c r="C279" s="20" t="s">
@@ -12269,7 +12529,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="33" t="s">
+      <c r="A286" s="30" t="s">
         <v>1655</v>
       </c>
       <c r="B286" s="3" t="s">
@@ -12286,7 +12546,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="33" t="s">
+      <c r="A287" s="30" t="s">
         <v>1656</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -12306,7 +12566,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="33" t="s">
+      <c r="A288" s="30" t="s">
         <v>1657</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -12323,7 +12583,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="33" t="s">
+      <c r="A289" s="30" t="s">
         <v>1658</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -12340,7 +12600,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="33" t="s">
+      <c r="A290" s="30" t="s">
         <v>1659</v>
       </c>
       <c r="B290" s="1" t="s">
@@ -12357,7 +12617,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="33" t="s">
+      <c r="A291" s="30" t="s">
         <v>1660</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -12377,7 +12637,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="33" t="s">
+      <c r="A292" s="30" t="s">
         <v>1661</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -12397,7 +12657,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="33" t="s">
+      <c r="A293" s="30" t="s">
         <v>1662</v>
       </c>
       <c r="B293" s="1" t="s">
@@ -12417,7 +12677,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="33" t="s">
+      <c r="A294" s="30" t="s">
         <v>1663</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -12437,7 +12697,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A295" s="33" t="s">
+      <c r="A295" s="30" t="s">
         <v>1676</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -12457,7 +12717,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A296" s="33" t="s">
+      <c r="A296" s="30" t="s">
         <v>1677</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -12477,7 +12737,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A297" s="33" t="s">
+      <c r="A297" s="30" t="s">
         <v>1682</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -12497,7 +12757,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A298" s="33" t="s">
+      <c r="A298" s="30" t="s">
         <v>1683</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -12517,7 +12777,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="33" t="s">
+      <c r="A299" s="30" t="s">
         <v>1689</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -12534,6 +12794,272 @@
       </c>
       <c r="F299" s="1" t="s">
         <v>1714</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A300" s="30" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B300" s="34" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A301" s="30" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B301" s="34" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A302" s="30" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B302" s="34" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A303" s="30" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B303" s="34" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A304" s="30" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B304" s="34" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A305" s="30" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B305" s="34" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A306" s="30" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B306" s="34" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A307" s="30" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B307" s="34" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A308" s="30" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B308" s="34" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A309" s="30" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B309" s="34" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A310" s="30" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B310" s="34" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A311" s="30" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B311" s="34" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A312" s="30" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B312" s="34" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A313" s="30" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B313" s="34" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A314" s="30" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B314" s="34" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A315" s="30" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B315" s="34" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A316" s="30" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B316" s="34" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A317" s="30" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B317" s="34" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="30" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>1781</v>
       </c>
     </row>
   </sheetData>
@@ -12549,7 +13075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -12588,7 +13114,7 @@
         <v>459</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Precipitation</v>
       </c>
     </row>
@@ -12603,7 +13129,7 @@
         <v>460</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
     </row>
@@ -12618,7 +13144,7 @@
         <v>461</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Wet Bulb Air Temperature</v>
       </c>
     </row>
@@ -12633,7 +13159,7 @@
         <v>462</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Dew Point Temperature</v>
       </c>
     </row>
@@ -12648,7 +13174,7 @@
         <v>463</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Relative Humidity</v>
       </c>
     </row>
@@ -12664,7 +13190,7 @@
         <v>380</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -12679,7 +13205,7 @@
         <v>379</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -12695,7 +13221,7 @@
         <v>464</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Max Wind Speed</v>
       </c>
     </row>
@@ -12710,7 +13236,7 @@
         <v>465</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Cloud amount of first group in eighths</v>
       </c>
     </row>
@@ -12725,7 +13251,7 @@
         <v>466</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>Cloud height of first group</v>
       </c>
     </row>
@@ -12740,7 +13266,7 @@
         <v>467</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Cloud amount of second group in eighths</v>
       </c>
     </row>
@@ -12755,7 +13281,7 @@
         <v>468</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>Cloud height of second group</v>
       </c>
     </row>
@@ -12770,7 +13296,7 @@
         <v>469</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
         <v>Cloud amount of third group in eighths</v>
       </c>
     </row>
@@ -12785,7 +13311,7 @@
         <v>470</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>Cloud height of third group</v>
       </c>
     </row>
@@ -12800,7 +13326,7 @@
         <v>471</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Cloud amount of fourth group in eighths</v>
       </c>
     </row>
@@ -12815,7 +13341,7 @@
         <v>472</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>Cloud height of fourth group</v>
       </c>
     </row>
@@ -12830,7 +13356,7 @@
         <v>473</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>Ceilometer cloud amount of first group</v>
       </c>
     </row>
@@ -12845,7 +13371,7 @@
         <v>474</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>Ceilometer cloud height of first group</v>
       </c>
     </row>
@@ -12860,7 +13386,7 @@
         <v>475</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>Ceilometer cloud amount of second group</v>
       </c>
     </row>
@@ -12875,7 +13401,7 @@
         <v>476</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
         <v>Ceilometer cloud height of second group</v>
       </c>
     </row>
@@ -12890,7 +13416,7 @@
         <v>477</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
         <v>Ceilometer cloud amount of third group</v>
       </c>
     </row>
@@ -12905,7 +13431,7 @@
         <v>478</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
         <v>Ceilometer cloud height of third group</v>
       </c>
     </row>
@@ -12920,7 +13446,7 @@
         <v>479</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
         <v>Ceilometer sky clear flag</v>
       </c>
     </row>
@@ -12935,7 +13461,7 @@
         <v>480</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
         <v>Horizontal visibility</v>
       </c>
     </row>
@@ -12950,7 +13476,7 @@
         <v>481</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
         <v>AWS visibility</v>
       </c>
     </row>
@@ -12965,7 +13491,7 @@
         <v>482</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
         <v>Present weather in code</v>
       </c>
     </row>
@@ -12980,7 +13506,7 @@
         <v>483</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
         <v>Mean sea level pressure</v>
       </c>
     </row>
@@ -12995,7 +13521,7 @@
         <v>484</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
         <v>Station level pressure</v>
       </c>
     </row>
@@ -13010,7 +13536,7 @@
         <v>494</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -13025,7 +13551,7 @@
         <v>211</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -13040,7 +13566,7 @@
         <v>460</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
     </row>
@@ -13055,7 +13581,7 @@
         <v>484</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Station level pressure</v>
       </c>
     </row>
@@ -13070,7 +13596,7 @@
         <v>379</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -13086,7 +13612,7 @@
         <v>380</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -13137,7 +13663,7 @@
         <v>494</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -13152,7 +13678,7 @@
         <v>494</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -13167,7 +13693,7 @@
         <v>1317</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Significant waveheight</v>
       </c>
     </row>
@@ -13182,7 +13708,7 @@
         <v>1339</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -13197,7 +13723,7 @@
         <v>1338</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -13212,7 +13738,7 @@
         <v>1343</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -13227,7 +13753,7 @@
         <v>1338</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -13242,7 +13768,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -13257,7 +13783,7 @@
         <v>1373</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Current velocity</v>
       </c>
     </row>
@@ -13272,7 +13798,7 @@
         <v>1402</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Current direction</v>
       </c>
     </row>
@@ -13287,7 +13813,7 @@
         <v>1373</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Current velocity</v>
       </c>
     </row>
@@ -13302,7 +13828,7 @@
         <v>1402</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Current direction</v>
       </c>
     </row>
@@ -13317,7 +13843,7 @@
         <v>934</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>HEADING</v>
       </c>
     </row>
@@ -13332,7 +13858,7 @@
         <v>940</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Pitch</v>
       </c>
     </row>
@@ -13347,7 +13873,7 @@
         <v>946</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>ROLL</v>
       </c>
     </row>
@@ -13362,7 +13888,7 @@
         <v>211</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -13377,7 +13903,7 @@
         <v>494</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -13392,7 +13918,7 @@
         <v>1343</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -13407,7 +13933,7 @@
         <v>1345</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>Mean wave direction</v>
       </c>
     </row>
@@ -13422,7 +13948,7 @@
         <v>1336</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>Maximum waveheight</v>
       </c>
     </row>
@@ -13437,7 +13963,7 @@
         <v>1342</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Maximum wave period</v>
       </c>
     </row>
@@ -13452,7 +13978,7 @@
         <v>1343</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -13467,7 +13993,7 @@
         <v>1342</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>Maximum wave period</v>
       </c>
     </row>
@@ -13532,7 +14058,7 @@
         <v>211</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -13547,7 +14073,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -13562,7 +14088,7 @@
         <v>210</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -13577,7 +14103,7 @@
         <v>227</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -13592,7 +14118,7 @@
         <v>289</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -13607,7 +14133,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>pH</v>
       </c>
     </row>
@@ -13622,7 +14148,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -13637,7 +14163,7 @@
         <v>901</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -13652,7 +14178,7 @@
         <v>902</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>WL - 410</v>
       </c>
     </row>
@@ -13667,7 +14193,7 @@
         <v>903</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>WL - 440</v>
       </c>
     </row>
@@ -13682,7 +14208,7 @@
         <v>904</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>WL - 490</v>
       </c>
     </row>
@@ -13697,7 +14223,7 @@
         <v>905</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>WL - 510</v>
       </c>
     </row>
@@ -13712,7 +14238,7 @@
         <v>906</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>WL - 550</v>
       </c>
     </row>
@@ -13727,7 +14253,7 @@
         <v>907</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>WL - 590</v>
       </c>
     </row>
@@ -13742,7 +14268,7 @@
         <v>908</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>WL - 635</v>
       </c>
     </row>
@@ -13757,7 +14283,7 @@
         <v>909</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>WL - 660</v>
       </c>
     </row>
@@ -13772,7 +14298,7 @@
         <v>910</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>WL - 700</v>
       </c>
     </row>
@@ -13787,7 +14313,7 @@
         <v>898</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -13802,7 +14328,7 @@
         <v>898</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -13817,7 +14343,7 @@
         <v>391</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -13832,7 +14358,7 @@
         <v>289</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -13847,7 +14373,7 @@
         <v>923</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>ACCELERATIONX</v>
       </c>
     </row>
@@ -13862,7 +14388,7 @@
         <v>924</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
         <v>ACCELERATIONY</v>
       </c>
     </row>
@@ -13877,7 +14403,7 @@
         <v>925</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
         <v>ACCELERATIONZ</v>
       </c>
     </row>
@@ -13892,7 +14418,7 @@
         <v>926</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>AMPLITUDE1</v>
       </c>
     </row>
@@ -13907,7 +14433,7 @@
         <v>927</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>AMPLITUDE2</v>
       </c>
     </row>
@@ -13922,7 +14448,7 @@
         <v>928</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>AMPLITUDE3</v>
       </c>
     </row>
@@ -13937,7 +14463,7 @@
         <v>929</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>CELL</v>
       </c>
     </row>
@@ -13952,7 +14478,7 @@
         <v>391</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -13967,7 +14493,7 @@
         <v>932</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>DENSITY ANOMALY</v>
       </c>
     </row>
@@ -13982,7 +14508,7 @@
         <v>212</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -13997,7 +14523,7 @@
         <v>227</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -14012,7 +14538,7 @@
         <v>934</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>HEADING</v>
       </c>
     </row>
@@ -14027,7 +14553,7 @@
         <v>935</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>LOWER_UCUR</v>
       </c>
     </row>
@@ -14042,7 +14568,7 @@
         <v>936</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>LOWER_VCUR</v>
       </c>
     </row>
@@ -14057,7 +14583,7 @@
         <v>937</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>MIDDLE_UCUR</v>
       </c>
     </row>
@@ -14072,7 +14598,7 @@
         <v>938</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
         <v>MIDDLE_VCUR</v>
       </c>
     </row>
@@ -14087,7 +14613,7 @@
         <v>898</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -14102,7 +14628,7 @@
         <v>940</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
         <v>Pitch</v>
       </c>
     </row>
@@ -14117,7 +14643,7 @@
         <v>943</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
         <v>PRESSURE</v>
       </c>
     </row>
@@ -14132,7 +14658,7 @@
         <v>944</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
         <v>PRESSURE_SENSOR_DEPTH</v>
       </c>
     </row>
@@ -14147,7 +14673,7 @@
         <v>946</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
         <v>ROLL</v>
       </c>
     </row>
@@ -14162,7 +14688,7 @@
         <v>210</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -14177,7 +14703,7 @@
         <v>391</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -14192,7 +14718,7 @@
         <v>947</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
         <v>SPEED_OF_SOUND</v>
       </c>
     </row>
@@ -14207,7 +14733,7 @@
         <v>211</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -14222,7 +14748,7 @@
         <v>901</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -14237,7 +14763,7 @@
         <v>948</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
         <v>UCUR (eastward velocity)</v>
       </c>
     </row>
@@ -14252,7 +14778,7 @@
         <v>949</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
         <v>UPPER_UCUR</v>
       </c>
     </row>
@@ -14267,7 +14793,7 @@
         <v>950</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
         <v>UPPER_VCUR</v>
       </c>
     </row>
@@ -14282,7 +14808,7 @@
         <v>951</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
         <v>VCUR (northward velocity)</v>
       </c>
     </row>
@@ -14297,7 +14823,7 @@
         <v>952</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
         <v>WCUR</v>
       </c>
     </row>
@@ -14312,7 +14838,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14345,7 +14871,7 @@
         <v>948</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>UCUR (eastward velocity)</v>
       </c>
     </row>
@@ -14360,7 +14886,7 @@
         <v>951</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>VCUR (northward velocity)</v>
       </c>
     </row>
@@ -14375,7 +14901,7 @@
         <v>211</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -14390,7 +14916,7 @@
         <v>210</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -14405,7 +14931,7 @@
         <v>947</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>SPEED_OF_SOUND</v>
       </c>
     </row>
@@ -14420,7 +14946,7 @@
         <v>934</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>HEADING</v>
       </c>
     </row>
@@ -14435,7 +14961,7 @@
         <v>940</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Pitch</v>
       </c>
     </row>
@@ -14450,7 +14976,7 @@
         <v>946</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>ROLL</v>
       </c>
     </row>
@@ -14465,7 +14991,7 @@
         <v>944</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>PRESSURE_SENSOR_DEPTH</v>
       </c>
     </row>
@@ -14480,7 +15006,7 @@
         <v>227</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -14495,7 +15021,7 @@
         <v>898</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -14510,7 +15036,7 @@
         <v>923</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>ACCELERATIONX</v>
       </c>
     </row>
@@ -14525,7 +15051,7 @@
         <v>924</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>ACCELERATIONY</v>
       </c>
     </row>
@@ -14540,7 +15066,7 @@
         <v>925</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>ACCELERATIONZ</v>
       </c>
     </row>
@@ -14555,7 +15081,7 @@
         <v>212</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -14570,7 +15096,7 @@
         <v>943</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>PRESSURE</v>
       </c>
     </row>
@@ -14580,6 +15106,410 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBC0BB9-8F45-4117-8EDC-41406E638950}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <v>Depth</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <v>Tilt</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <v>PAR</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <v>WL - 398µW</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <v>WL - 448µW</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <v>WL - 470µW</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <v>WL - 524µW</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <v>WL - 554µW</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <v>WL - 590µW</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <v>WL - 628µW</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <v>WL - 656µW</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <v>WL - 699µW</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <v>WL - 398µmol</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <v>WL - 448µmol</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <v>WL - 470µmol</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <v>WL - 524µmol</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <v>WL - 554µmol</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <v>WL - 590µmol</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <v>WL - 628µmol</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <v>WL - 656µmol</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <v>WL - 699µmol</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <v>Total Par</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B25">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <v>Total Par</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -14618,7 +15548,7 @@
         <v>212</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -14633,7 +15563,7 @@
         <v>1314</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>Pressure head</v>
       </c>
     </row>
@@ -14648,7 +15578,7 @@
         <v>1315</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>velocity x component of current</v>
       </c>
     </row>
@@ -14663,7 +15593,7 @@
         <v>1316</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>velocity y component of current</v>
       </c>
     </row>
@@ -14678,7 +15608,7 @@
         <v>211</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -14693,7 +15623,7 @@
         <v>1317</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Significant waveheight</v>
       </c>
     </row>
@@ -14708,7 +15638,7 @@
         <v>1339</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -14723,7 +15653,7 @@
         <v>1343</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -14738,7 +15668,7 @@
         <v>1318</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Mean 1/3 waveheight</v>
       </c>
     </row>
@@ -14753,7 +15683,7 @@
         <v>1335</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Mean 1/10 waveheight</v>
       </c>
     </row>
@@ -14768,7 +15698,7 @@
         <v>1336</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Maximum waveheight</v>
       </c>
     </row>
@@ -14783,7 +15713,7 @@
         <v>1337</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Mean wave height</v>
       </c>
     </row>
@@ -14798,7 +15728,7 @@
         <v>1338</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -14813,7 +15743,7 @@
         <v>1340</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Mean 1/3 period</v>
       </c>
     </row>
@@ -14828,7 +15758,7 @@
         <v>1341</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Mean 1/10 period</v>
       </c>
     </row>
@@ -14843,7 +15773,7 @@
         <v>1342</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Maximum wave period</v>
       </c>
     </row>
@@ -14858,7 +15788,7 @@
         <v>1344</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Directional spread</v>
       </c>
     </row>
@@ -14873,7 +15803,7 @@
         <v>1345</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Mean wave direction</v>
       </c>
     </row>
@@ -14882,7 +15812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -14921,7 +15851,7 @@
         <v>1317</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Significant waveheight</v>
       </c>
     </row>
@@ -14936,7 +15866,7 @@
         <v>1339</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -14951,7 +15881,7 @@
         <v>1338</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -14960,7 +15890,7 @@
         <v>1386</v>
       </c>
       <c r="D5" t="e">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14969,7 +15899,7 @@
         <v>1387</v>
       </c>
       <c r="D6" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14978,7 +15908,7 @@
         <v>1388</v>
       </c>
       <c r="D7" t="e">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14987,7 +15917,7 @@
         <v>1389</v>
       </c>
       <c r="D8" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14996,7 +15926,7 @@
         <v>1390</v>
       </c>
       <c r="D9" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15011,7 +15941,7 @@
         <v>211</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -15026,7 +15956,7 @@
         <v>211</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -15041,7 +15971,7 @@
         <v>380</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -15056,7 +15986,7 @@
         <v>379</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -15065,7 +15995,7 @@
         <v>1395</v>
       </c>
       <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15077,7 +16007,7 @@
         <v>1402</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Current direction</v>
       </c>
     </row>
@@ -15087,7 +16017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -15126,7 +16056,7 @@
         <v>1345</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Mean wave direction</v>
       </c>
     </row>
@@ -15141,7 +16071,7 @@
         <v>1338</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -15156,7 +16086,7 @@
         <v>1339</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -15171,7 +16101,7 @@
         <v>1317</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Significant waveheight</v>
       </c>
     </row>
@@ -15186,7 +16116,7 @@
         <v>494</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -15201,7 +16131,7 @@
         <v>1339</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -15216,7 +16146,7 @@
         <v>1338</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -15231,7 +16161,7 @@
         <v>1343</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -15246,7 +16176,7 @@
         <v>1345</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Mean wave direction</v>
       </c>
     </row>
@@ -15256,7 +16186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -15291,7 +16221,7 @@
         <v>494</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -15306,7 +16236,7 @@
         <v>898</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -15321,7 +16251,7 @@
         <v>1315</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>velocity x component of current</v>
       </c>
     </row>
@@ -15336,7 +16266,7 @@
         <v>1316</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>velocity y component of current</v>
       </c>
     </row>
@@ -15351,7 +16281,7 @@
         <v>211</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -15366,7 +16296,7 @@
         <v>210</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -15381,7 +16311,7 @@
         <v>1373</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Current velocity</v>
       </c>
     </row>
@@ -15391,7 +16321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -15426,7 +16356,7 @@
         <v>494</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -15441,7 +16371,7 @@
         <v>1315</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>velocity x component of current</v>
       </c>
     </row>
@@ -15456,7 +16386,7 @@
         <v>1316</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>velocity y component of current</v>
       </c>
     </row>
@@ -15471,7 +16401,7 @@
         <v>211</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -15486,7 +16416,7 @@
         <v>210</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -15501,36 +16431,8 @@
         <v>1373</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Current velocity</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A3:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -16729,6 +17631,34 @@
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A3:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -22717,7 +23647,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="33" t="s">
+      <c r="A271" s="30" t="s">
         <v>1655</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -22737,7 +23667,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="33" t="s">
+      <c r="A272" s="30" t="s">
         <v>1656</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -22757,7 +23687,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="33" t="s">
+      <c r="A273" s="30" t="s">
         <v>1657</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -22777,7 +23707,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="33" t="s">
+      <c r="A274" s="30" t="s">
         <v>1658</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -22797,7 +23727,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="33" t="s">
+      <c r="A275" s="30" t="s">
         <v>1659</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -22817,7 +23747,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="33" t="s">
+      <c r="A276" s="30" t="s">
         <v>1660</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -22837,7 +23767,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="33" t="s">
+      <c r="A277" s="30" t="s">
         <v>1661</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -22857,7 +23787,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="33" t="s">
+      <c r="A278" s="30" t="s">
         <v>1662</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -22877,7 +23807,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="33" t="s">
+      <c r="A279" s="30" t="s">
         <v>1663</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -22897,7 +23827,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="33" t="s">
+      <c r="A280" s="30" t="s">
         <v>1676</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -22917,7 +23847,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="33" t="s">
+      <c r="A281" s="30" t="s">
         <v>1677</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -22937,7 +23867,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="33" t="s">
+      <c r="A282" s="30" t="s">
         <v>1682</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -22957,7 +23887,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="33" t="s">
+      <c r="A283" s="30" t="s">
         <v>1683</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -22977,7 +23907,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="33" t="s">
+      <c r="A284" s="30" t="s">
         <v>1689</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -23043,7 +23973,7 @@
         <v>380</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -23058,7 +23988,7 @@
         <v>379</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -23069,11 +23999,11 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>1656</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Wind Direction STD</v>
       </c>
     </row>
@@ -23088,7 +24018,7 @@
         <v>464</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Max Wind Speed</v>
       </c>
     </row>
@@ -23099,11 +24029,11 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>1655</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Min Wind Speed</v>
       </c>
     </row>
@@ -23118,7 +24048,7 @@
         <v>484</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Station level pressure</v>
       </c>
     </row>
@@ -23129,11 +24059,11 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="30" t="s">
         <v>1657</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>max station level pressure</v>
       </c>
     </row>
@@ -23144,11 +24074,11 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="30" t="s">
         <v>1658</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>min station level pressure</v>
       </c>
     </row>
@@ -23159,11 +24089,11 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>1659</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>station level pressure std</v>
       </c>
     </row>
@@ -23174,11 +24104,11 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="30" t="s">
         <v>1660</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>mean solar radiation</v>
       </c>
     </row>
@@ -23189,11 +24119,11 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="30" t="s">
         <v>1662</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>max solar radiation</v>
       </c>
     </row>
@@ -23204,11 +24134,11 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="30" t="s">
         <v>1661</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>min solar radiation</v>
       </c>
     </row>
@@ -23219,11 +24149,11 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="30" t="s">
         <v>1663</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>solar radiation std</v>
       </c>
     </row>
@@ -23238,7 +24168,7 @@
         <v>898</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -23249,11 +24179,11 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>1676</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>max PAR</v>
       </c>
     </row>
@@ -23264,11 +24194,11 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="30" t="s">
         <v>1677</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>min PAR</v>
       </c>
     </row>
@@ -23279,11 +24209,11 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="30" t="s">
         <v>1682</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>PAR STD</v>
       </c>
     </row>
@@ -23294,11 +24224,11 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="30" t="s">
         <v>1689</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Total Solar</v>
       </c>
     </row>
@@ -23309,11 +24239,11 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="30" t="s">
         <v>1683</v>
       </c>
       <c r="D20" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Total Par</v>
       </c>
     </row>
@@ -23364,7 +24294,7 @@
         <v>227</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E2" t="s">
@@ -23382,7 +24312,7 @@
         <v>1066</v>
       </c>
       <c r="D3" s="1" t="e">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" t="s">
@@ -23400,7 +24330,7 @@
         <v>1066</v>
       </c>
       <c r="D4" s="1" t="e">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" t="s">
@@ -23418,7 +24348,7 @@
         <v>1066</v>
       </c>
       <c r="D5" s="1" t="e">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" t="s">
@@ -23436,7 +24366,7 @@
         <v>1066</v>
       </c>
       <c r="D6" s="1" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" t="s">
@@ -23454,7 +24384,7 @@
         <v>1066</v>
       </c>
       <c r="D7" s="1" t="e">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E7" t="s">
@@ -23472,7 +24402,7 @@
         <v>1066</v>
       </c>
       <c r="D8" s="1" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E8" t="s">
@@ -23490,7 +24420,7 @@
         <v>1066</v>
       </c>
       <c r="D9" s="1" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" t="s">
@@ -23508,7 +24438,7 @@
         <v>1066</v>
       </c>
       <c r="D10" s="1" t="e">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E10" t="s">
@@ -23526,7 +24456,7 @@
         <v>1066</v>
       </c>
       <c r="D11" s="1" t="e">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E11" t="s">
@@ -23544,7 +24474,7 @@
         <v>1066</v>
       </c>
       <c r="D12" s="1" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E12" t="s">
@@ -23563,7 +24493,7 @@
         <v>229</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
       <c r="E13" t="s">
@@ -23581,7 +24511,7 @@
         <v>1069</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E14" t="s">
@@ -23599,7 +24529,7 @@
         <v>1069</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E15" t="s">
@@ -23617,7 +24547,7 @@
         <v>1071</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>cell</v>
       </c>
       <c r="E16" t="s">
@@ -23635,7 +24565,7 @@
         <v>218</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E17" t="s">
@@ -23653,7 +24583,7 @@
         <v>218</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E18" t="s">
@@ -23671,7 +24601,7 @@
         <v>385</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Chlorophyll-b</v>
       </c>
       <c r="E19" t="s">
@@ -23689,7 +24619,7 @@
         <v>386</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>Chlorophyll-c</v>
       </c>
       <c r="E20" t="s">
@@ -23707,7 +24637,7 @@
         <v>218</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E21" t="s">
@@ -23725,7 +24655,7 @@
         <v>218</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E22" t="s">
@@ -23743,7 +24673,7 @@
         <v>391</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E23" t="s">
@@ -23761,7 +24691,7 @@
         <v>391</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E24" t="s">
@@ -23779,7 +24709,7 @@
         <v>391</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E25" t="s">
@@ -23797,7 +24727,7 @@
         <v>391</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E26" t="s">
@@ -23815,7 +24745,7 @@
         <v>1066</v>
       </c>
       <c r="D27" s="1" t="e">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E27" t="s">
@@ -23833,7 +24763,7 @@
         <v>227</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E28" t="s">
@@ -23851,7 +24781,7 @@
         <v>227</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E29" t="s">
@@ -23869,7 +24799,7 @@
         <v>227</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E30" t="s">
@@ -23887,7 +24817,7 @@
         <v>227</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E31" t="s">
@@ -23905,7 +24835,7 @@
         <v>227</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E32" t="s">
@@ -23923,7 +24853,7 @@
         <v>289</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
       <c r="E33" t="s">
@@ -23941,7 +24871,7 @@
         <v>227</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E34" t="s">
@@ -23959,7 +24889,7 @@
         <v>227</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E35" t="s">
@@ -23977,7 +24907,7 @@
         <v>227</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E36" t="s">
@@ -23995,7 +24925,7 @@
         <v>289</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
       <c r="E37" t="s">
@@ -24013,7 +24943,7 @@
         <v>227</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E38" t="s">
@@ -24031,7 +24961,7 @@
         <v>1066</v>
       </c>
       <c r="D39" s="1" t="e">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E39" t="s">
@@ -24049,7 +24979,7 @@
         <v>1077</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
         <v>density</v>
       </c>
       <c r="E40" t="s">
@@ -24067,7 +24997,7 @@
         <v>1077</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
         <v>density</v>
       </c>
       <c r="E41" t="s">
@@ -24085,7 +25015,7 @@
         <v>227</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E42" t="s">
@@ -24103,7 +25033,7 @@
         <v>227</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E43" t="s">
@@ -24121,7 +25051,7 @@
         <v>1078</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E44" t="s">
@@ -24139,7 +25069,7 @@
         <v>1078</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E45" t="s">
@@ -24157,7 +25087,7 @@
         <v>1078</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E46" t="s">
@@ -24175,7 +25105,7 @@
         <v>1078</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E47" t="s">
@@ -24193,7 +25123,7 @@
         <v>1069</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E48" t="s">
@@ -24211,7 +25141,7 @@
         <v>1069</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E49" t="s">
@@ -24229,7 +25159,7 @@
         <v>1066</v>
       </c>
       <c r="D50" s="1" t="e">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E50" t="s">
@@ -24247,7 +25177,7 @@
         <v>1069</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E51" t="s">
@@ -24265,7 +25195,7 @@
         <v>1066</v>
       </c>
       <c r="D52" s="1" t="e">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E52" t="s">
@@ -24284,7 +25214,7 @@
         <v>229</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
       <c r="E53" t="s">
@@ -24303,7 +25233,7 @@
         <v>230</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E54" t="s">
@@ -24322,7 +25252,7 @@
         <v>208</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
+        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
         <v>Organic Nitrogen</v>
       </c>
       <c r="E55" t="s">
@@ -24341,7 +25271,7 @@
         <v>213</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
+        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E56" t="s">
@@ -24360,7 +25290,7 @@
         <v>230</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
+        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E57" t="s">
@@ -24379,7 +25309,7 @@
         <v>230</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
+        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E58" t="s">
@@ -24398,7 +25328,7 @@
         <v>230</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
+        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E59" t="s">
@@ -24417,7 +25347,7 @@
         <v>231</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
+        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E60" t="s">
@@ -24436,7 +25366,7 @@
         <v>231</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
+        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E61" t="s">
@@ -24455,7 +25385,7 @@
         <v>209</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
+        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
         <v>Organic Phosphorus</v>
       </c>
       <c r="E62" t="s">
@@ -24474,7 +25404,7 @@
         <v>214</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
+        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E63" t="s">
@@ -24493,7 +25423,7 @@
         <v>231</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
+        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E64" t="s">
@@ -24511,7 +25441,7 @@
         <v>235</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
+        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
         <v>Particulate Organic Carbon</v>
       </c>
       <c r="E65" t="s">
@@ -24529,7 +25459,7 @@
         <v>210</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
+        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E66" t="s">
@@ -24547,7 +25477,7 @@
         <v>210</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
+        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E67" t="s">
@@ -24565,7 +25495,7 @@
         <v>210</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
+        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E68" t="s">
@@ -24583,7 +25513,7 @@
         <v>210</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
+        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E69" t="s">
@@ -24601,7 +25531,7 @@
         <v>210</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
+        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E70" t="s">
@@ -24619,7 +25549,7 @@
         <v>210</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B1003,2,TRUE)</f>
+        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E71" t="s">
@@ -24637,7 +25567,7 @@
         <v>210</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B1004,2,TRUE)</f>
+        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B1003,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E72" t="s">
@@ -24655,7 +25585,7 @@
         <v>210</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B1005,2,TRUE)</f>
+        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B1004,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E73" t="s">
@@ -24673,7 +25603,7 @@
         <v>1066</v>
       </c>
       <c r="D74" s="1" t="e">
-        <f>VLOOKUP(C74,'MASTER KEY'!$A$2:$B1006,2,TRUE)</f>
+        <f>VLOOKUP(C74,'MASTER KEY'!$A$2:$B1005,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E74" t="s">
@@ -24691,7 +25621,7 @@
         <v>1066</v>
       </c>
       <c r="D75" s="1" t="e">
-        <f>VLOOKUP(C75,'MASTER KEY'!$A$2:$B1007,2,TRUE)</f>
+        <f>VLOOKUP(C75,'MASTER KEY'!$A$2:$B1006,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E75" t="s">
@@ -24709,7 +25639,7 @@
         <v>407</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>VLOOKUP(C76,'MASTER KEY'!$A$2:$B1008,2,TRUE)</f>
+        <f>VLOOKUP(C76,'MASTER KEY'!$A$2:$B1007,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
       <c r="E76" t="s">
@@ -24727,7 +25657,7 @@
         <v>1066</v>
       </c>
       <c r="D77" s="1" t="e">
-        <f>VLOOKUP(C77,'MASTER KEY'!$A$2:$B1009,2,TRUE)</f>
+        <f>VLOOKUP(C77,'MASTER KEY'!$A$2:$B1008,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E77" t="s">
@@ -24745,7 +25675,7 @@
         <v>1066</v>
       </c>
       <c r="D78" s="1" t="e">
-        <f>VLOOKUP(C78,'MASTER KEY'!$A$2:$B1010,2,TRUE)</f>
+        <f>VLOOKUP(C78,'MASTER KEY'!$A$2:$B1009,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E78" t="s">
@@ -24763,7 +25693,7 @@
         <v>407</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>VLOOKUP(C79,'MASTER KEY'!$A$2:$B1011,2,TRUE)</f>
+        <f>VLOOKUP(C79,'MASTER KEY'!$A$2:$B1010,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
       <c r="E79" t="s">
@@ -24781,7 +25711,7 @@
         <v>1066</v>
       </c>
       <c r="D80" s="1" t="e">
-        <f>VLOOKUP(C80,'MASTER KEY'!$A$2:$B1012,2,TRUE)</f>
+        <f>VLOOKUP(C80,'MASTER KEY'!$A$2:$B1011,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E80" t="s">
@@ -24799,7 +25729,7 @@
         <v>211</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f>VLOOKUP(C81,'MASTER KEY'!$A$2:$B1013,2,TRUE)</f>
+        <f>VLOOKUP(C81,'MASTER KEY'!$A$2:$B1012,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E81" t="s">
@@ -24817,7 +25747,7 @@
         <v>211</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f>VLOOKUP(C82,'MASTER KEY'!$A$2:$B1014,2,TRUE)</f>
+        <f>VLOOKUP(C82,'MASTER KEY'!$A$2:$B1013,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E82" t="s">
@@ -24835,7 +25765,7 @@
         <v>211</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f>VLOOKUP(C83,'MASTER KEY'!$A$2:$B1015,2,TRUE)</f>
+        <f>VLOOKUP(C83,'MASTER KEY'!$A$2:$B1014,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E83" t="s">
@@ -24853,7 +25783,7 @@
         <v>211</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f>VLOOKUP(C84,'MASTER KEY'!$A$2:$B1016,2,TRUE)</f>
+        <f>VLOOKUP(C84,'MASTER KEY'!$A$2:$B1015,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E84" t="s">
@@ -24871,7 +25801,7 @@
         <v>211</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f>VLOOKUP(C85,'MASTER KEY'!$A$2:$B1017,2,TRUE)</f>
+        <f>VLOOKUP(C85,'MASTER KEY'!$A$2:$B1016,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E85" t="s">
@@ -24889,7 +25819,7 @@
         <v>211</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f>VLOOKUP(C86,'MASTER KEY'!$A$2:$B1018,2,TRUE)</f>
+        <f>VLOOKUP(C86,'MASTER KEY'!$A$2:$B1017,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E86" t="s">
@@ -24908,7 +25838,7 @@
         <v>213</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f>VLOOKUP(C87,'MASTER KEY'!$A$2:$B1019,2,TRUE)</f>
+        <f>VLOOKUP(C87,'MASTER KEY'!$A$2:$B1018,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E87" t="s">
@@ -24927,7 +25857,7 @@
         <v>213</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f>VLOOKUP(C88,'MASTER KEY'!$A$2:$B1020,2,TRUE)</f>
+        <f>VLOOKUP(C88,'MASTER KEY'!$A$2:$B1019,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E88" t="s">
@@ -24946,7 +25876,7 @@
         <v>213</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f>VLOOKUP(C89,'MASTER KEY'!$A$2:$B1021,2,TRUE)</f>
+        <f>VLOOKUP(C89,'MASTER KEY'!$A$2:$B1020,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E89" t="s">
@@ -24965,7 +25895,7 @@
         <v>214</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f>VLOOKUP(C90,'MASTER KEY'!$A$2:$B1022,2,TRUE)</f>
+        <f>VLOOKUP(C90,'MASTER KEY'!$A$2:$B1021,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E90" t="s">
@@ -24984,7 +25914,7 @@
         <v>214</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f>VLOOKUP(C91,'MASTER KEY'!$A$2:$B1023,2,TRUE)</f>
+        <f>VLOOKUP(C91,'MASTER KEY'!$A$2:$B1022,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E91" t="s">
@@ -25003,7 +25933,7 @@
         <v>214</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f>VLOOKUP(C92,'MASTER KEY'!$A$2:$B1024,2,TRUE)</f>
+        <f>VLOOKUP(C92,'MASTER KEY'!$A$2:$B1023,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E92" t="s">
@@ -25022,7 +25952,7 @@
         <v>214</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f>VLOOKUP(C93,'MASTER KEY'!$A$2:$B1025,2,TRUE)</f>
+        <f>VLOOKUP(C93,'MASTER KEY'!$A$2:$B1024,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E93" t="s">
@@ -25040,7 +25970,7 @@
         <v>216</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f>VLOOKUP(C94,'MASTER KEY'!$A$2:$B1026,2,TRUE)</f>
+        <f>VLOOKUP(C94,'MASTER KEY'!$A$2:$B1025,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
       <c r="E94" t="s">
@@ -25058,7 +25988,7 @@
         <v>217</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f>VLOOKUP(C95,'MASTER KEY'!$A$2:$B1027,2,TRUE)</f>
+        <f>VLOOKUP(C95,'MASTER KEY'!$A$2:$B1026,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
       <c r="E95" t="s">
@@ -25076,7 +26006,7 @@
         <v>217</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f>VLOOKUP(C96,'MASTER KEY'!$A$2:$B1028,2,TRUE)</f>
+        <f>VLOOKUP(C96,'MASTER KEY'!$A$2:$B1027,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
       <c r="E96" t="s">
@@ -25094,7 +26024,7 @@
         <v>1066</v>
       </c>
       <c r="D97" s="1" t="e">
-        <f>VLOOKUP(C97,'MASTER KEY'!$A$2:$B1029,2,TRUE)</f>
+        <f>VLOOKUP(C97,'MASTER KEY'!$A$2:$B1028,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E97" t="s">
@@ -25112,7 +26042,7 @@
         <v>1066</v>
       </c>
       <c r="D98" s="1" t="e">
-        <f>VLOOKUP(C98,'MASTER KEY'!$A$2:$B1030,2,TRUE)</f>
+        <f>VLOOKUP(C98,'MASTER KEY'!$A$2:$B1029,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E98" t="s">
@@ -25130,7 +26060,7 @@
         <v>1066</v>
       </c>
       <c r="D99" s="1" t="e">
-        <f>VLOOKUP(C99,'MASTER KEY'!$A$2:$B1031,2,TRUE)</f>
+        <f>VLOOKUP(C99,'MASTER KEY'!$A$2:$B1030,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E99" t="s">
@@ -25148,7 +26078,7 @@
         <v>400</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f>VLOOKUP(C100,'MASTER KEY'!$A$2:$B1032,2,TRUE)</f>
+        <f>VLOOKUP(C100,'MASTER KEY'!$A$2:$B1031,2,TRUE)</f>
         <v>pH</v>
       </c>
       <c r="E100" t="s">
@@ -25166,7 +26096,7 @@
         <v>400</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f>VLOOKUP(C101,'MASTER KEY'!$A$2:$B1033,2,TRUE)</f>
+        <f>VLOOKUP(C101,'MASTER KEY'!$A$2:$B1032,2,TRUE)</f>
         <v>pH</v>
       </c>
       <c r="E101" t="s">
@@ -25184,7 +26114,7 @@
         <v>210</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f>VLOOKUP(C102,'MASTER KEY'!$A$2:$B1034,2,TRUE)</f>
+        <f>VLOOKUP(C102,'MASTER KEY'!$A$2:$B1033,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E102" t="s">
@@ -25202,7 +26132,7 @@
         <v>210</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f>VLOOKUP(C103,'MASTER KEY'!$A$2:$B1035,2,TRUE)</f>
+        <f>VLOOKUP(C103,'MASTER KEY'!$A$2:$B1034,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E103" t="s">
@@ -25220,7 +26150,7 @@
         <v>211</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f>VLOOKUP(C104,'MASTER KEY'!$A$2:$B1036,2,TRUE)</f>
+        <f>VLOOKUP(C104,'MASTER KEY'!$A$2:$B1035,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E104" t="s">
@@ -25238,7 +26168,7 @@
         <v>211</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f>VLOOKUP(C105,'MASTER KEY'!$A$2:$B1037,2,TRUE)</f>
+        <f>VLOOKUP(C105,'MASTER KEY'!$A$2:$B1036,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E105" t="s">
@@ -25255,7 +26185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -25290,7 +26220,7 @@
         <v>407</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
     </row>
@@ -25305,7 +26235,7 @@
         <v>210</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -25320,7 +26250,7 @@
         <v>1066</v>
       </c>
       <c r="D4" t="e">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25335,7 +26265,7 @@
         <v>1283</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>DIC</v>
       </c>
     </row>
@@ -25350,7 +26280,7 @@
         <v>1066</v>
       </c>
       <c r="D6" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25365,7 +26295,7 @@
         <v>405</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Total Alkalinity</v>
       </c>
     </row>
@@ -25380,7 +26310,7 @@
         <v>1066</v>
       </c>
       <c r="D8" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25396,7 +26326,7 @@
         <v>227</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -25411,7 +26341,7 @@
         <v>1066</v>
       </c>
       <c r="D10" t="e">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25426,7 +26356,7 @@
         <v>229</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
     </row>
@@ -25441,7 +26371,7 @@
         <v>1066</v>
       </c>
       <c r="D12" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25456,7 +26386,7 @@
         <v>230</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
     </row>
@@ -25471,7 +26401,7 @@
         <v>1066</v>
       </c>
       <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25486,7 +26416,7 @@
         <v>1230</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Nitrite</v>
       </c>
     </row>
@@ -25501,7 +26431,7 @@
         <v>1066</v>
       </c>
       <c r="D16" t="e">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25516,7 +26446,7 @@
         <v>231</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
     </row>
@@ -25531,7 +26461,7 @@
         <v>1066</v>
       </c>
       <c r="D18" t="e">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25546,7 +26476,7 @@
         <v>228</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>Reactive Silica</v>
       </c>
     </row>
@@ -25561,7 +26491,7 @@
         <v>1066</v>
       </c>
       <c r="D20" t="e">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25576,7 +26506,7 @@
         <v>1231</v>
       </c>
       <c r="D21" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>TSSorganic</v>
       </c>
     </row>
@@ -25591,7 +26521,7 @@
         <v>1281</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>TSSinorganic</v>
       </c>
     </row>
@@ -25606,7 +26536,7 @@
         <v>216</v>
       </c>
       <c r="D23" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
     </row>
@@ -25621,7 +26551,7 @@
         <v>1066</v>
       </c>
       <c r="D24" t="e">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25636,7 +26566,7 @@
         <v>1186</v>
       </c>
       <c r="D25" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
         <v>Prochlorococcus</v>
       </c>
     </row>
@@ -25651,7 +26581,7 @@
         <v>1066</v>
       </c>
       <c r="D26" t="e">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="G26" s="1"/>
@@ -25667,7 +26597,7 @@
         <v>1187</v>
       </c>
       <c r="D27" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>Synechococcus</v>
       </c>
       <c r="G27" s="1"/>
@@ -25683,7 +26613,7 @@
         <v>1066</v>
       </c>
       <c r="D28" t="e">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="1"/>
@@ -25699,7 +26629,7 @@
         <v>1188</v>
       </c>
       <c r="D29" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>Picoeukaryotes</v>
       </c>
       <c r="G29" s="1"/>
@@ -25715,7 +26645,7 @@
         <v>1066</v>
       </c>
       <c r="D30" t="e">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="1"/>
@@ -25731,7 +26661,7 @@
         <v>1189</v>
       </c>
       <c r="D31" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Allo</v>
       </c>
       <c r="G31" s="1"/>
@@ -25747,7 +26677,7 @@
         <v>1190</v>
       </c>
       <c r="D32" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>AlphaBetaCar</v>
       </c>
       <c r="G32" s="1"/>
@@ -25763,7 +26693,7 @@
         <v>1191</v>
       </c>
       <c r="D33" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Anth</v>
       </c>
       <c r="G33" s="1"/>
@@ -25779,7 +26709,7 @@
         <v>1192</v>
       </c>
       <c r="D34" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>Asta</v>
       </c>
       <c r="G34" s="1"/>
@@ -25795,7 +26725,7 @@
         <v>1193</v>
       </c>
       <c r="D35" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>BetaBetaCar</v>
       </c>
       <c r="G35" s="1"/>
@@ -25811,7 +26741,7 @@
         <v>1194</v>
       </c>
       <c r="D36" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>BetaEpiCar</v>
       </c>
       <c r="G36" s="1"/>
@@ -25827,7 +26757,7 @@
         <v>1195</v>
       </c>
       <c r="D37" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>Butfuco</v>
       </c>
       <c r="G37" s="1"/>
@@ -25843,7 +26773,7 @@
         <v>1196</v>
       </c>
       <c r="D38" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>Cantha</v>
       </c>
       <c r="G38" s="1"/>
@@ -25859,7 +26789,7 @@
         <v>1197</v>
       </c>
       <c r="D39" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
         <v>CphlA</v>
       </c>
       <c r="G39" s="1"/>
@@ -25875,7 +26805,7 @@
         <v>1198</v>
       </c>
       <c r="D40" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
         <v>CphlB</v>
       </c>
       <c r="G40" s="1"/>
@@ -25891,7 +26821,7 @@
         <v>1199</v>
       </c>
       <c r="D41" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
         <v>CphlC1</v>
       </c>
       <c r="G41" s="1"/>
@@ -25907,7 +26837,7 @@
         <v>1200</v>
       </c>
       <c r="D42" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
         <v>CphlC2</v>
       </c>
       <c r="G42" s="1"/>
@@ -25923,7 +26853,7 @@
         <v>1201</v>
       </c>
       <c r="D43" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
         <v>CphlC3</v>
       </c>
       <c r="G43" s="1"/>
@@ -25939,7 +26869,7 @@
         <v>1202</v>
       </c>
       <c r="D44" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
         <v>CphlC1C2</v>
       </c>
       <c r="G44" s="1"/>
@@ -25955,7 +26885,7 @@
         <v>1203</v>
       </c>
       <c r="D45" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
         <v>CphlideA</v>
       </c>
       <c r="G45" s="1"/>
@@ -25971,7 +26901,7 @@
         <v>1204</v>
       </c>
       <c r="D46" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
         <v>Diadchr</v>
       </c>
       <c r="G46" s="1"/>
@@ -25987,7 +26917,7 @@
         <v>1205</v>
       </c>
       <c r="D47" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
         <v>Diadino</v>
       </c>
       <c r="G47" s="1"/>
@@ -26003,7 +26933,7 @@
         <v>1206</v>
       </c>
       <c r="D48" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
         <v>Diato</v>
       </c>
       <c r="G48" s="1"/>
@@ -26019,7 +26949,7 @@
         <v>1207</v>
       </c>
       <c r="D49" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
         <v>Dino</v>
       </c>
       <c r="G49" s="1"/>
@@ -26035,7 +26965,7 @@
         <v>1208</v>
       </c>
       <c r="D50" t="str">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
         <v>DvCphlA+CphlA</v>
       </c>
       <c r="G50" s="1"/>
@@ -26051,7 +26981,7 @@
         <v>1209</v>
       </c>
       <c r="D51" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
         <v>DvCphlA</v>
       </c>
       <c r="G51" s="1"/>
@@ -26067,7 +26997,7 @@
         <v>1210</v>
       </c>
       <c r="D52" t="str">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
         <v>DvCphlB+CphlB</v>
       </c>
       <c r="G52" s="1"/>
@@ -26083,7 +27013,7 @@
         <v>1211</v>
       </c>
       <c r="D53" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
         <v>DvCphlB</v>
       </c>
       <c r="G53" s="1"/>
@@ -26099,7 +27029,7 @@
         <v>1212</v>
       </c>
       <c r="D54" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
         <v>Echin</v>
       </c>
       <c r="G54" s="1"/>
@@ -26115,7 +27045,7 @@
         <v>1213</v>
       </c>
       <c r="D55" t="str">
-        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
+        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
         <v>Fuco</v>
       </c>
       <c r="G55" s="1"/>
@@ -26131,7 +27061,7 @@
         <v>1214</v>
       </c>
       <c r="D56" t="str">
-        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
+        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
         <v>Gyro</v>
       </c>
       <c r="G56" s="1"/>
@@ -26147,7 +27077,7 @@
         <v>1215</v>
       </c>
       <c r="D57" t="str">
-        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
+        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
         <v>Hexfuco</v>
       </c>
       <c r="G57" s="1"/>
@@ -26163,7 +27093,7 @@
         <v>1216</v>
       </c>
       <c r="D58" t="str">
-        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
+        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
         <v>Ketohexfuco</v>
       </c>
       <c r="G58" s="1"/>
@@ -26179,7 +27109,7 @@
         <v>1217</v>
       </c>
       <c r="D59" t="str">
-        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
+        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
         <v>Lut</v>
       </c>
       <c r="G59" s="1"/>
@@ -26195,7 +27125,7 @@
         <v>1218</v>
       </c>
       <c r="D60" t="str">
-        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
+        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
         <v>Lyco</v>
       </c>
       <c r="G60" s="1"/>
@@ -26211,7 +27141,7 @@
         <v>1219</v>
       </c>
       <c r="D61" t="str">
-        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
+        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
         <v>MgDvp</v>
       </c>
       <c r="G61" s="1"/>
@@ -26227,7 +27157,7 @@
         <v>1220</v>
       </c>
       <c r="D62" t="str">
-        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
+        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
         <v>Neo</v>
       </c>
       <c r="G62" s="1"/>
@@ -26243,7 +27173,7 @@
         <v>1221</v>
       </c>
       <c r="D63" t="str">
-        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
+        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
         <v>Perid</v>
       </c>
       <c r="G63" s="1"/>
@@ -26259,7 +27189,7 @@
         <v>1222</v>
       </c>
       <c r="D64" t="str">
-        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
+        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
         <v>PhideA</v>
       </c>
       <c r="G64" s="1"/>
@@ -26275,7 +27205,7 @@
         <v>1223</v>
       </c>
       <c r="D65" t="str">
-        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
+        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
         <v>PhytinA</v>
       </c>
       <c r="G65" s="1"/>
@@ -26291,7 +27221,7 @@
         <v>1224</v>
       </c>
       <c r="D66" t="str">
-        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
+        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
         <v>PhytinB</v>
       </c>
       <c r="G66" s="1"/>
@@ -26307,7 +27237,7 @@
         <v>1225</v>
       </c>
       <c r="D67" t="str">
-        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
+        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
         <v>Pras</v>
       </c>
       <c r="G67" s="1"/>
@@ -26323,7 +27253,7 @@
         <v>1226</v>
       </c>
       <c r="D68" t="str">
-        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
+        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
         <v>PyrophideA</v>
       </c>
       <c r="G68" s="1"/>
@@ -26339,7 +27269,7 @@
         <v>1227</v>
       </c>
       <c r="D69" t="str">
-        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
+        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
         <v>PyrophytinA</v>
       </c>
     </row>
@@ -26354,7 +27284,7 @@
         <v>1228</v>
       </c>
       <c r="D70" t="str">
-        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
+        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
         <v>Viola</v>
       </c>
     </row>
@@ -26369,7 +27299,7 @@
         <v>1229</v>
       </c>
       <c r="D71" t="str">
-        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
+        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
         <v>Zea</v>
       </c>
     </row>
@@ -26384,7 +27314,7 @@
         <v>1066</v>
       </c>
       <c r="D72" t="e">
-        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B1003,2,TRUE)</f>
+        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26399,7 +27329,7 @@
         <v>1066</v>
       </c>
       <c r="D73" t="e">
-        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B1004,2,TRUE)</f>
+        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B1003,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26447,7 +27377,7 @@
         <v>943</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>PRESSURE</v>
       </c>
     </row>
@@ -26462,7 +27392,7 @@
         <v>1066</v>
       </c>
       <c r="D3" t="e">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26477,7 +27407,7 @@
         <v>211</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -26492,7 +27422,7 @@
         <v>1066</v>
       </c>
       <c r="D5" t="e">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26507,7 +27437,7 @@
         <v>210</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -26522,7 +27452,7 @@
         <v>1066</v>
       </c>
       <c r="D7" t="e">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26538,7 +27468,7 @@
         <v>227</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -26553,7 +27483,7 @@
         <v>1066</v>
       </c>
       <c r="D9" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26568,7 +27498,7 @@
         <v>217</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -26583,7 +27513,7 @@
         <v>1066</v>
       </c>
       <c r="D11" t="e">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26598,7 +27528,7 @@
         <v>1066</v>
       </c>
       <c r="D12" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26613,7 +27543,7 @@
         <v>1066</v>
       </c>
       <c r="D13" t="e">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26628,7 +27558,7 @@
         <v>1066</v>
       </c>
       <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26643,7 +27573,7 @@
         <v>1066</v>
       </c>
       <c r="D15" t="e">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26658,7 +27588,7 @@
         <v>218</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
     </row>
@@ -26673,7 +27603,7 @@
         <v>1066</v>
       </c>
       <c r="D17" t="e">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26688,7 +27618,7 @@
         <v>391</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -26703,7 +27633,7 @@
         <v>1066</v>
       </c>
       <c r="D19" t="e">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26718,7 +27648,7 @@
         <v>1066</v>
       </c>
       <c r="D20" t="e">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26733,7 +27663,7 @@
         <v>1066</v>
       </c>
       <c r="D21" t="e">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26748,7 +27678,7 @@
         <v>1077</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>density</v>
       </c>
     </row>
@@ -26763,7 +27693,7 @@
         <v>1066</v>
       </c>
       <c r="D23" t="e">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26814,7 +27744,7 @@
         <v>405</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Total Alkalinity</v>
       </c>
     </row>
@@ -26829,7 +27759,7 @@
         <v>492</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Bottom Depth</v>
       </c>
     </row>
@@ -26844,7 +27774,7 @@
         <v>233</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Dissolved Organic Carbon</v>
       </c>
     </row>
@@ -26859,7 +27789,7 @@
         <v>218</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
     </row>
@@ -26874,7 +27804,7 @@
         <v>385</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Chlorophyll-b</v>
       </c>
     </row>
@@ -26889,7 +27819,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Chlorophyll-c</v>
       </c>
     </row>
@@ -26904,7 +27834,7 @@
         <v>485</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Chlorophyll sample volume</v>
       </c>
     </row>
@@ -26919,7 +27849,7 @@
         <v>388</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Cloud Cover</v>
       </c>
     </row>
@@ -26934,7 +27864,7 @@
         <v>391</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -26949,7 +27879,7 @@
         <v>394</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Flow Status</v>
       </c>
     </row>
@@ -26965,7 +27895,7 @@
         <v>236</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Dissolved Organic Nitrogen</v>
       </c>
     </row>
@@ -26981,7 +27911,7 @@
         <v>230</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
     </row>
@@ -26997,7 +27927,7 @@
         <v>396</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Total TKN</v>
       </c>
     </row>
@@ -27013,7 +27943,7 @@
         <v>213</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
     </row>
@@ -27029,7 +27959,7 @@
         <v>229</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
     </row>
@@ -27044,7 +27974,7 @@
         <v>289</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -27059,7 +27989,7 @@
         <v>227</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -27075,7 +28005,7 @@
         <v>214</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
     </row>
@@ -27090,7 +28020,7 @@
         <v>400</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>pH</v>
       </c>
     </row>
@@ -27105,7 +28035,7 @@
         <v>402</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Phaeophytin a</v>
       </c>
     </row>
@@ -27121,7 +28051,7 @@
         <v>231</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
     </row>
@@ -27136,7 +28066,7 @@
         <v>210</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -27151,7 +28081,7 @@
         <v>407</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
     </row>
@@ -27167,7 +28097,7 @@
         <v>228</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
         <v>Reactive Silica</v>
       </c>
     </row>
@@ -27182,7 +28112,7 @@
         <v>216</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
     </row>
@@ -27197,7 +28127,7 @@
         <v>211</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -27212,7 +28142,7 @@
         <v>409</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>Tide status</v>
       </c>
     </row>
@@ -27227,7 +28157,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -27242,7 +28172,7 @@
         <v>379</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -27258,7 +28188,7 @@
         <v>380</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -27273,7 +28203,7 @@
         <v>421</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>Max Discharge</v>
       </c>
     </row>
@@ -27288,7 +28218,7 @@
         <v>422</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Mean Discharge</v>
       </c>
     </row>
@@ -27303,7 +28233,7 @@
         <v>423</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>Min Discharge</v>
       </c>
     </row>
@@ -27318,7 +28248,7 @@
         <v>424</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>Discharge</v>
       </c>
     </row>
@@ -27333,7 +28263,7 @@
         <v>425</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>Max Stage Height CTF</v>
       </c>
     </row>
@@ -27348,7 +28278,7 @@
         <v>426</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>Mean Stage Height CTF</v>
       </c>
     </row>
@@ -27363,7 +28293,7 @@
         <v>427</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>Min Stage Height CTF</v>
       </c>
     </row>
@@ -27378,7 +28308,7 @@
         <v>428</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
         <v>Max Stage Height</v>
       </c>
     </row>
@@ -27393,7 +28323,7 @@
         <v>429</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
         <v>Mean Stage Height</v>
       </c>
     </row>
@@ -27408,7 +28338,7 @@
         <v>430</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
         <v>Min Stage Height</v>
       </c>
     </row>
@@ -27457,7 +28387,7 @@
         <v>460</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
     </row>
@@ -27472,7 +28402,7 @@
         <v>211</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -27487,7 +28417,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -27502,7 +28432,7 @@
         <v>210</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -27517,7 +28447,7 @@
         <v>227</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -27532,7 +28462,7 @@
         <v>289</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -27547,7 +28477,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>pH</v>
       </c>
     </row>
@@ -27562,7 +28492,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -27577,7 +28507,7 @@
         <v>901</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -27592,7 +28522,7 @@
         <v>902</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>WL - 410</v>
       </c>
     </row>
@@ -27607,7 +28537,7 @@
         <v>903</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>WL - 440</v>
       </c>
     </row>
@@ -27622,7 +28552,7 @@
         <v>904</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>WL - 490</v>
       </c>
     </row>
@@ -27637,7 +28567,7 @@
         <v>905</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>WL - 510</v>
       </c>
     </row>
@@ -27652,7 +28582,7 @@
         <v>906</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>WL - 550</v>
       </c>
     </row>
@@ -27667,7 +28597,7 @@
         <v>907</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>WL - 590</v>
       </c>
     </row>
@@ -27682,7 +28612,7 @@
         <v>908</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>WL - 635</v>
       </c>
     </row>
@@ -27697,7 +28627,7 @@
         <v>909</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>WL - 660</v>
       </c>
     </row>
@@ -27712,7 +28642,7 @@
         <v>910</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>WL - 700</v>
       </c>
     </row>
@@ -27727,7 +28657,7 @@
         <v>898</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -27742,7 +28672,7 @@
         <v>898</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -27757,7 +28687,7 @@
         <v>391</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -27772,7 +28702,7 @@
         <v>289</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\AED_Cockburn_db\CSIEM\Data\Sherry\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8B6827-CA26-4EE7-82D5-4DC4803F55F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D06A06-9BF7-4B44-81D9-C4F4E2F7CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="736" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="5430" windowWidth="35190" windowHeight="15450" tabRatio="841" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="Information" sheetId="6" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER KEY'!$A$1:$J$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER KEY'!$A$1:$J$318</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="1786">
   <si>
     <t>Units</t>
   </si>
@@ -6201,15 +6201,9 @@
     <t>var00317</t>
   </si>
   <si>
-    <t>umol/m2/s1</t>
-  </si>
-  <si>
     <t>Total Par day</t>
   </si>
   <si>
-    <t>umol/m2/day</t>
-  </si>
-  <si>
     <t>var00318</t>
   </si>
   <si>
@@ -6217,6 +6211,15 @@
   </si>
   <si>
     <t>while this column (calculated by author) is called total PAR/day, it seems to be total PAR per 15min (i.e. the logging frequency) not the 24hr day</t>
+  </si>
+  <si>
+    <t>Light (converted to uE/m2/s)</t>
+  </si>
+  <si>
+    <t>µmol/m2/day</t>
+  </si>
+  <si>
+    <t>assuming this 'PAR STD' = PAR standard?</t>
   </si>
 </sst>
 </file>
@@ -6434,7 +6437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6511,7 +6514,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6829,8 +6831,8 @@
   <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A298" sqref="A298"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12800,7 +12802,7 @@
       <c r="A300" s="30" t="s">
         <v>1743</v>
       </c>
-      <c r="B300" s="34" t="s">
+      <c r="B300" t="s">
         <v>1752</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -12814,7 +12816,7 @@
       <c r="A301" s="30" t="s">
         <v>1744</v>
       </c>
-      <c r="B301" s="34" t="s">
+      <c r="B301" t="s">
         <v>1753</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -12828,7 +12830,7 @@
       <c r="A302" s="30" t="s">
         <v>1745</v>
       </c>
-      <c r="B302" s="34" t="s">
+      <c r="B302" t="s">
         <v>1754</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -12842,7 +12844,7 @@
       <c r="A303" s="30" t="s">
         <v>1746</v>
       </c>
-      <c r="B303" s="34" t="s">
+      <c r="B303" t="s">
         <v>1755</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -12856,7 +12858,7 @@
       <c r="A304" s="30" t="s">
         <v>1747</v>
       </c>
-      <c r="B304" s="34" t="s">
+      <c r="B304" t="s">
         <v>1756</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -12870,7 +12872,7 @@
       <c r="A305" s="30" t="s">
         <v>1748</v>
       </c>
-      <c r="B305" s="34" t="s">
+      <c r="B305" t="s">
         <v>1757</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -12884,7 +12886,7 @@
       <c r="A306" s="30" t="s">
         <v>1749</v>
       </c>
-      <c r="B306" s="34" t="s">
+      <c r="B306" t="s">
         <v>1758</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -12898,7 +12900,7 @@
       <c r="A307" s="30" t="s">
         <v>1750</v>
       </c>
-      <c r="B307" s="34" t="s">
+      <c r="B307" t="s">
         <v>1759</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -12912,7 +12914,7 @@
       <c r="A308" s="30" t="s">
         <v>1751</v>
       </c>
-      <c r="B308" s="34" t="s">
+      <c r="B308" t="s">
         <v>1760</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -12926,144 +12928,144 @@
       <c r="A309" s="30" t="s">
         <v>1770</v>
       </c>
-      <c r="B309" s="34" t="s">
+      <c r="B309" t="s">
         <v>1761</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>1779</v>
+      <c r="C309" t="s">
+        <v>897</v>
+      </c>
+      <c r="E309" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="30" t="s">
         <v>1771</v>
       </c>
-      <c r="B310" s="34" t="s">
+      <c r="B310" t="s">
         <v>1762</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>1779</v>
+      <c r="C310" t="s">
+        <v>897</v>
+      </c>
+      <c r="E310" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="30" t="s">
         <v>1772</v>
       </c>
-      <c r="B311" s="34" t="s">
+      <c r="B311" t="s">
         <v>1763</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1779</v>
+      <c r="C311" t="s">
+        <v>897</v>
+      </c>
+      <c r="E311" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="30" t="s">
         <v>1773</v>
       </c>
-      <c r="B312" s="34" t="s">
+      <c r="B312" t="s">
         <v>1764</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1779</v>
+      <c r="C312" t="s">
+        <v>897</v>
+      </c>
+      <c r="E312" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="30" t="s">
         <v>1774</v>
       </c>
-      <c r="B313" s="34" t="s">
+      <c r="B313" t="s">
         <v>1765</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1779</v>
+      <c r="C313" t="s">
+        <v>897</v>
+      </c>
+      <c r="E313" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="30" t="s">
         <v>1775</v>
       </c>
-      <c r="B314" s="34" t="s">
+      <c r="B314" t="s">
         <v>1766</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>1779</v>
+      <c r="C314" t="s">
+        <v>897</v>
+      </c>
+      <c r="E314" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="30" t="s">
         <v>1776</v>
       </c>
-      <c r="B315" s="34" t="s">
+      <c r="B315" t="s">
         <v>1767</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1779</v>
+      <c r="C315" t="s">
+        <v>897</v>
+      </c>
+      <c r="E315" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="30" t="s">
         <v>1777</v>
       </c>
-      <c r="B316" s="34" t="s">
+      <c r="B316" t="s">
         <v>1768</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1779</v>
+      <c r="C316" t="s">
+        <v>897</v>
+      </c>
+      <c r="E316" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="30" t="s">
         <v>1778</v>
       </c>
-      <c r="B317" s="34" t="s">
+      <c r="B317" t="s">
         <v>1769</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>1779</v>
+      <c r="C317" t="s">
+        <v>897</v>
+      </c>
+      <c r="E317" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="30" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J285" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J318" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13114,7 +13116,7 @@
         <v>459</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Precipitation</v>
       </c>
     </row>
@@ -13129,7 +13131,7 @@
         <v>460</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
     </row>
@@ -13144,7 +13146,7 @@
         <v>461</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Wet Bulb Air Temperature</v>
       </c>
     </row>
@@ -13159,7 +13161,7 @@
         <v>462</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Dew Point Temperature</v>
       </c>
     </row>
@@ -13174,7 +13176,7 @@
         <v>463</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Relative Humidity</v>
       </c>
     </row>
@@ -13190,7 +13192,7 @@
         <v>380</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -13205,7 +13207,7 @@
         <v>379</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -13221,7 +13223,7 @@
         <v>464</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Max Wind Speed</v>
       </c>
     </row>
@@ -13236,7 +13238,7 @@
         <v>465</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Cloud amount of first group in eighths</v>
       </c>
     </row>
@@ -13251,7 +13253,7 @@
         <v>466</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>Cloud height of first group</v>
       </c>
     </row>
@@ -13266,7 +13268,7 @@
         <v>467</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Cloud amount of second group in eighths</v>
       </c>
     </row>
@@ -13281,7 +13283,7 @@
         <v>468</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>Cloud height of second group</v>
       </c>
     </row>
@@ -13296,7 +13298,7 @@
         <v>469</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
         <v>Cloud amount of third group in eighths</v>
       </c>
     </row>
@@ -13311,7 +13313,7 @@
         <v>470</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>Cloud height of third group</v>
       </c>
     </row>
@@ -13326,7 +13328,7 @@
         <v>471</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>Cloud amount of fourth group in eighths</v>
       </c>
     </row>
@@ -13341,7 +13343,7 @@
         <v>472</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Cloud height of fourth group</v>
       </c>
     </row>
@@ -13356,7 +13358,7 @@
         <v>473</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Ceilometer cloud amount of first group</v>
       </c>
     </row>
@@ -13371,7 +13373,7 @@
         <v>474</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>Ceilometer cloud height of first group</v>
       </c>
     </row>
@@ -13386,7 +13388,7 @@
         <v>475</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>Ceilometer cloud amount of second group</v>
       </c>
     </row>
@@ -13401,7 +13403,7 @@
         <v>476</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
         <v>Ceilometer cloud height of second group</v>
       </c>
     </row>
@@ -13416,7 +13418,7 @@
         <v>477</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
         <v>Ceilometer cloud amount of third group</v>
       </c>
     </row>
@@ -13431,7 +13433,7 @@
         <v>478</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
         <v>Ceilometer cloud height of third group</v>
       </c>
     </row>
@@ -13446,7 +13448,7 @@
         <v>479</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
         <v>Ceilometer sky clear flag</v>
       </c>
     </row>
@@ -13461,7 +13463,7 @@
         <v>480</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
         <v>Horizontal visibility</v>
       </c>
     </row>
@@ -13476,7 +13478,7 @@
         <v>481</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
         <v>AWS visibility</v>
       </c>
     </row>
@@ -13491,7 +13493,7 @@
         <v>482</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
         <v>Present weather in code</v>
       </c>
     </row>
@@ -13506,7 +13508,7 @@
         <v>483</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
         <v>Mean sea level pressure</v>
       </c>
     </row>
@@ -13521,7 +13523,7 @@
         <v>484</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
         <v>Station level pressure</v>
       </c>
     </row>
@@ -13536,7 +13538,7 @@
         <v>494</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -13551,7 +13553,7 @@
         <v>211</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -13566,7 +13568,7 @@
         <v>460</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
     </row>
@@ -13581,7 +13583,7 @@
         <v>484</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>Station level pressure</v>
       </c>
     </row>
@@ -13596,7 +13598,7 @@
         <v>379</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -13612,7 +13614,7 @@
         <v>380</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -13663,7 +13665,7 @@
         <v>494</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -13678,7 +13680,7 @@
         <v>494</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -13693,7 +13695,7 @@
         <v>1317</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Significant waveheight</v>
       </c>
     </row>
@@ -13708,7 +13710,7 @@
         <v>1339</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -13723,7 +13725,7 @@
         <v>1338</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -13738,7 +13740,7 @@
         <v>1343</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -13753,7 +13755,7 @@
         <v>1338</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -13768,7 +13770,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -13783,7 +13785,7 @@
         <v>1373</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Current velocity</v>
       </c>
     </row>
@@ -13798,7 +13800,7 @@
         <v>1402</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Current direction</v>
       </c>
     </row>
@@ -13813,7 +13815,7 @@
         <v>1373</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Current velocity</v>
       </c>
     </row>
@@ -13828,7 +13830,7 @@
         <v>1402</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Current direction</v>
       </c>
     </row>
@@ -13843,7 +13845,7 @@
         <v>934</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>HEADING</v>
       </c>
     </row>
@@ -13858,7 +13860,7 @@
         <v>940</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Pitch</v>
       </c>
     </row>
@@ -13873,7 +13875,7 @@
         <v>946</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>ROLL</v>
       </c>
     </row>
@@ -13888,7 +13890,7 @@
         <v>211</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -13903,7 +13905,7 @@
         <v>494</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -13918,7 +13920,7 @@
         <v>1343</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -13933,7 +13935,7 @@
         <v>1345</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Mean wave direction</v>
       </c>
     </row>
@@ -13948,7 +13950,7 @@
         <v>1336</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>Maximum waveheight</v>
       </c>
     </row>
@@ -13963,7 +13965,7 @@
         <v>1342</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>Maximum wave period</v>
       </c>
     </row>
@@ -13978,7 +13980,7 @@
         <v>1343</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -13993,7 +13995,7 @@
         <v>1342</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Maximum wave period</v>
       </c>
     </row>
@@ -14058,7 +14060,7 @@
         <v>211</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -14073,7 +14075,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -14088,7 +14090,7 @@
         <v>210</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -14103,7 +14105,7 @@
         <v>227</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -14118,7 +14120,7 @@
         <v>289</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -14133,7 +14135,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>pH</v>
       </c>
     </row>
@@ -14148,7 +14150,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -14163,7 +14165,7 @@
         <v>901</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -14178,7 +14180,7 @@
         <v>902</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>WL - 410</v>
       </c>
     </row>
@@ -14193,7 +14195,7 @@
         <v>903</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>WL - 440</v>
       </c>
     </row>
@@ -14208,7 +14210,7 @@
         <v>904</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>WL - 490</v>
       </c>
     </row>
@@ -14223,7 +14225,7 @@
         <v>905</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>WL - 510</v>
       </c>
     </row>
@@ -14238,7 +14240,7 @@
         <v>906</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>WL - 550</v>
       </c>
     </row>
@@ -14253,7 +14255,7 @@
         <v>907</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>WL - 590</v>
       </c>
     </row>
@@ -14268,7 +14270,7 @@
         <v>908</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>WL - 635</v>
       </c>
     </row>
@@ -14283,7 +14285,7 @@
         <v>909</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>WL - 660</v>
       </c>
     </row>
@@ -14298,7 +14300,7 @@
         <v>910</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>WL - 700</v>
       </c>
     </row>
@@ -14313,7 +14315,7 @@
         <v>898</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -14328,7 +14330,7 @@
         <v>898</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -14343,7 +14345,7 @@
         <v>391</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -14358,7 +14360,7 @@
         <v>289</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -14373,7 +14375,7 @@
         <v>923</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>ACCELERATIONX</v>
       </c>
     </row>
@@ -14388,7 +14390,7 @@
         <v>924</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>ACCELERATIONY</v>
       </c>
     </row>
@@ -14403,7 +14405,7 @@
         <v>925</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
         <v>ACCELERATIONZ</v>
       </c>
     </row>
@@ -14418,7 +14420,7 @@
         <v>926</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
         <v>AMPLITUDE1</v>
       </c>
     </row>
@@ -14433,7 +14435,7 @@
         <v>927</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>AMPLITUDE2</v>
       </c>
     </row>
@@ -14448,7 +14450,7 @@
         <v>928</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>AMPLITUDE3</v>
       </c>
     </row>
@@ -14463,7 +14465,7 @@
         <v>929</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>CELL</v>
       </c>
     </row>
@@ -14478,7 +14480,7 @@
         <v>391</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -14493,7 +14495,7 @@
         <v>932</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>DENSITY ANOMALY</v>
       </c>
     </row>
@@ -14508,7 +14510,7 @@
         <v>212</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -14523,7 +14525,7 @@
         <v>227</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -14538,7 +14540,7 @@
         <v>934</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>HEADING</v>
       </c>
     </row>
@@ -14553,7 +14555,7 @@
         <v>935</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>LOWER_UCUR</v>
       </c>
     </row>
@@ -14568,7 +14570,7 @@
         <v>936</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>LOWER_VCUR</v>
       </c>
     </row>
@@ -14583,7 +14585,7 @@
         <v>937</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>MIDDLE_UCUR</v>
       </c>
     </row>
@@ -14598,7 +14600,7 @@
         <v>938</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>MIDDLE_VCUR</v>
       </c>
     </row>
@@ -14613,7 +14615,7 @@
         <v>898</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -14628,7 +14630,7 @@
         <v>940</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
         <v>Pitch</v>
       </c>
     </row>
@@ -14643,7 +14645,7 @@
         <v>943</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
         <v>PRESSURE</v>
       </c>
     </row>
@@ -14658,7 +14660,7 @@
         <v>944</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
         <v>PRESSURE_SENSOR_DEPTH</v>
       </c>
     </row>
@@ -14673,7 +14675,7 @@
         <v>946</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
         <v>ROLL</v>
       </c>
     </row>
@@ -14688,7 +14690,7 @@
         <v>210</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -14703,7 +14705,7 @@
         <v>391</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -14718,7 +14720,7 @@
         <v>947</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
         <v>SPEED_OF_SOUND</v>
       </c>
     </row>
@@ -14733,7 +14735,7 @@
         <v>211</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -14748,7 +14750,7 @@
         <v>901</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -14763,7 +14765,7 @@
         <v>948</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
         <v>UCUR (eastward velocity)</v>
       </c>
     </row>
@@ -14778,7 +14780,7 @@
         <v>949</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
         <v>UPPER_UCUR</v>
       </c>
     </row>
@@ -14793,7 +14795,7 @@
         <v>950</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
         <v>UPPER_VCUR</v>
       </c>
     </row>
@@ -14808,7 +14810,7 @@
         <v>951</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
         <v>VCUR (northward velocity)</v>
       </c>
     </row>
@@ -14823,7 +14825,7 @@
         <v>952</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
         <v>WCUR</v>
       </c>
     </row>
@@ -14871,7 +14873,7 @@
         <v>948</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
         <v>UCUR (eastward velocity)</v>
       </c>
     </row>
@@ -14886,7 +14888,7 @@
         <v>951</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>VCUR (northward velocity)</v>
       </c>
     </row>
@@ -14901,7 +14903,7 @@
         <v>211</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -14916,7 +14918,7 @@
         <v>210</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -14931,7 +14933,7 @@
         <v>947</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>SPEED_OF_SOUND</v>
       </c>
     </row>
@@ -14946,7 +14948,7 @@
         <v>934</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>HEADING</v>
       </c>
     </row>
@@ -14961,7 +14963,7 @@
         <v>940</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Pitch</v>
       </c>
     </row>
@@ -14976,7 +14978,7 @@
         <v>946</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>ROLL</v>
       </c>
     </row>
@@ -14991,7 +14993,7 @@
         <v>944</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>PRESSURE_SENSOR_DEPTH</v>
       </c>
     </row>
@@ -15006,7 +15008,7 @@
         <v>227</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -15021,7 +15023,7 @@
         <v>898</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -15036,7 +15038,7 @@
         <v>923</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>ACCELERATIONX</v>
       </c>
     </row>
@@ -15051,7 +15053,7 @@
         <v>924</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>ACCELERATIONY</v>
       </c>
     </row>
@@ -15066,7 +15068,7 @@
         <v>925</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>ACCELERATIONZ</v>
       </c>
     </row>
@@ -15081,7 +15083,7 @@
         <v>212</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -15096,7 +15098,7 @@
         <v>943</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>PRESSURE</v>
       </c>
     </row>
@@ -15109,8 +15111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBC0BB9-8F45-4117-8EDC-41406E638950}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15133,7 +15135,7 @@
         <v>395</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -15147,7 +15149,7 @@
         <v>212</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -15162,7 +15164,7 @@
         <v>211</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -15177,7 +15179,7 @@
         <v>901</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -15192,7 +15194,7 @@
         <v>898</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -15207,7 +15209,7 @@
         <v>1743</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>WL - 398µW</v>
       </c>
     </row>
@@ -15222,7 +15224,7 @@
         <v>1744</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>WL - 448µW</v>
       </c>
     </row>
@@ -15237,7 +15239,7 @@
         <v>1745</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>WL - 470µW</v>
       </c>
     </row>
@@ -15252,7 +15254,7 @@
         <v>1746</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>WL - 524µW</v>
       </c>
     </row>
@@ -15267,7 +15269,7 @@
         <v>1747</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>WL - 554µW</v>
       </c>
     </row>
@@ -15282,7 +15284,7 @@
         <v>1748</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>WL - 590µW</v>
       </c>
     </row>
@@ -15297,7 +15299,7 @@
         <v>1749</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>WL - 628µW</v>
       </c>
     </row>
@@ -15312,7 +15314,7 @@
         <v>1750</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>WL - 656µW</v>
       </c>
     </row>
@@ -15327,7 +15329,7 @@
         <v>1751</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>WL - 699µW</v>
       </c>
     </row>
@@ -15342,7 +15344,7 @@
         <v>1770</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>WL - 398µmol</v>
       </c>
     </row>
@@ -15357,7 +15359,7 @@
         <v>1771</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>WL - 448µmol</v>
       </c>
     </row>
@@ -15372,7 +15374,7 @@
         <v>1772</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>WL - 470µmol</v>
       </c>
     </row>
@@ -15387,7 +15389,7 @@
         <v>1773</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>WL - 524µmol</v>
       </c>
     </row>
@@ -15402,7 +15404,7 @@
         <v>1774</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>WL - 554µmol</v>
       </c>
     </row>
@@ -15417,7 +15419,7 @@
         <v>1775</v>
       </c>
       <c r="D20" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>WL - 590µmol</v>
       </c>
     </row>
@@ -15432,7 +15434,7 @@
         <v>1776</v>
       </c>
       <c r="D21" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>WL - 628µmol</v>
       </c>
     </row>
@@ -15447,7 +15449,7 @@
         <v>1777</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>WL - 656µmol</v>
       </c>
     </row>
@@ -15462,7 +15464,7 @@
         <v>1778</v>
       </c>
       <c r="D23" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>WL - 699µmol</v>
       </c>
     </row>
@@ -15477,11 +15479,11 @@
         <v>1683</v>
       </c>
       <c r="D24" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Total Par</v>
       </c>
       <c r="E24" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -15496,11 +15498,11 @@
         <v>1683</v>
       </c>
       <c r="D25" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Total Par</v>
       </c>
       <c r="E25" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
   </sheetData>
@@ -15548,7 +15550,7 @@
         <v>212</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -15563,7 +15565,7 @@
         <v>1314</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Pressure head</v>
       </c>
     </row>
@@ -15578,7 +15580,7 @@
         <v>1315</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>velocity x component of current</v>
       </c>
     </row>
@@ -15593,7 +15595,7 @@
         <v>1316</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>velocity y component of current</v>
       </c>
     </row>
@@ -15608,7 +15610,7 @@
         <v>211</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -15623,7 +15625,7 @@
         <v>1317</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Significant waveheight</v>
       </c>
     </row>
@@ -15638,7 +15640,7 @@
         <v>1339</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -15653,7 +15655,7 @@
         <v>1343</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -15668,7 +15670,7 @@
         <v>1318</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Mean 1/3 waveheight</v>
       </c>
     </row>
@@ -15683,7 +15685,7 @@
         <v>1335</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Mean 1/10 waveheight</v>
       </c>
     </row>
@@ -15698,7 +15700,7 @@
         <v>1336</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Maximum waveheight</v>
       </c>
     </row>
@@ -15713,7 +15715,7 @@
         <v>1337</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Mean wave height</v>
       </c>
     </row>
@@ -15728,7 +15730,7 @@
         <v>1338</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -15743,7 +15745,7 @@
         <v>1340</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Mean 1/3 period</v>
       </c>
     </row>
@@ -15758,7 +15760,7 @@
         <v>1341</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Mean 1/10 period</v>
       </c>
     </row>
@@ -15773,7 +15775,7 @@
         <v>1342</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Maximum wave period</v>
       </c>
     </row>
@@ -15788,7 +15790,7 @@
         <v>1344</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Directional spread</v>
       </c>
     </row>
@@ -15803,7 +15805,7 @@
         <v>1345</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Mean wave direction</v>
       </c>
     </row>
@@ -15814,19 +15816,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -15840,7 +15842,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1383</v>
       </c>
@@ -15851,11 +15853,11 @@
         <v>1317</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
         <v>Significant waveheight</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1384</v>
       </c>
@@ -15866,11 +15868,11 @@
         <v>1339</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1385</v>
       </c>
@@ -15881,56 +15883,56 @@
         <v>1338</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1386</v>
       </c>
       <c r="D5" t="e">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1387</v>
       </c>
       <c r="D6" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>1388</v>
       </c>
       <c r="D7" t="e">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="D8" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1390</v>
       </c>
       <c r="D9" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1391</v>
       </c>
@@ -15941,11 +15943,11 @@
         <v>211</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1392</v>
       </c>
@@ -15956,11 +15958,11 @@
         <v>211</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1393</v>
       </c>
@@ -15971,11 +15973,11 @@
         <v>380</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1394</v>
       </c>
@@ -15986,20 +15988,20 @@
         <v>379</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>1395</v>
       </c>
       <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1396</v>
       </c>
@@ -16007,8 +16009,26 @@
         <v>1402</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Current direction</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <v>PAR STD</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -16056,7 +16076,7 @@
         <v>1345</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
         <v>Mean wave direction</v>
       </c>
     </row>
@@ -16071,7 +16091,7 @@
         <v>1338</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -16086,7 +16106,7 @@
         <v>1339</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -16101,7 +16121,7 @@
         <v>1317</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Significant waveheight</v>
       </c>
     </row>
@@ -16116,7 +16136,7 @@
         <v>494</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -16131,7 +16151,7 @@
         <v>1339</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Peak wave period</v>
       </c>
     </row>
@@ -16146,7 +16166,7 @@
         <v>1338</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Mean wave period</v>
       </c>
     </row>
@@ -16161,7 +16181,7 @@
         <v>1343</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Peak wave direction</v>
       </c>
     </row>
@@ -16176,7 +16196,7 @@
         <v>1345</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Mean wave direction</v>
       </c>
     </row>
@@ -16221,7 +16241,7 @@
         <v>494</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -16236,7 +16256,7 @@
         <v>898</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -16251,7 +16271,7 @@
         <v>1315</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>velocity x component of current</v>
       </c>
     </row>
@@ -16266,7 +16286,7 @@
         <v>1316</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>velocity y component of current</v>
       </c>
     </row>
@@ -16281,7 +16301,7 @@
         <v>211</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -16296,7 +16316,7 @@
         <v>210</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -16311,7 +16331,7 @@
         <v>1373</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Current velocity</v>
       </c>
     </row>
@@ -16356,7 +16376,7 @@
         <v>494</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -16371,7 +16391,7 @@
         <v>1315</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
         <v>velocity x component of current</v>
       </c>
     </row>
@@ -16386,7 +16406,7 @@
         <v>1316</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
         <v>velocity y component of current</v>
       </c>
     </row>
@@ -16401,7 +16421,7 @@
         <v>211</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -16416,7 +16436,7 @@
         <v>210</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -16431,7 +16451,7 @@
         <v>1373</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Current velocity</v>
       </c>
     </row>
@@ -23973,7 +23993,7 @@
         <v>380</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -23988,7 +24008,7 @@
         <v>379</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -24003,7 +24023,7 @@
         <v>1656</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Wind Direction STD</v>
       </c>
     </row>
@@ -24018,7 +24038,7 @@
         <v>464</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Max Wind Speed</v>
       </c>
     </row>
@@ -24033,7 +24053,7 @@
         <v>1655</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Min Wind Speed</v>
       </c>
     </row>
@@ -24048,7 +24068,7 @@
         <v>484</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Station level pressure</v>
       </c>
     </row>
@@ -24063,7 +24083,7 @@
         <v>1657</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>max station level pressure</v>
       </c>
     </row>
@@ -24078,7 +24098,7 @@
         <v>1658</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>min station level pressure</v>
       </c>
     </row>
@@ -24093,7 +24113,7 @@
         <v>1659</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>station level pressure std</v>
       </c>
     </row>
@@ -24108,7 +24128,7 @@
         <v>1660</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>mean solar radiation</v>
       </c>
     </row>
@@ -24123,7 +24143,7 @@
         <v>1662</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>max solar radiation</v>
       </c>
     </row>
@@ -24138,7 +24158,7 @@
         <v>1661</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>min solar radiation</v>
       </c>
     </row>
@@ -24153,7 +24173,7 @@
         <v>1663</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>solar radiation std</v>
       </c>
     </row>
@@ -24168,7 +24188,7 @@
         <v>898</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -24183,7 +24203,7 @@
         <v>1676</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>max PAR</v>
       </c>
     </row>
@@ -24198,7 +24218,7 @@
         <v>1677</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>min PAR</v>
       </c>
     </row>
@@ -24213,7 +24233,7 @@
         <v>1682</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>PAR STD</v>
       </c>
     </row>
@@ -24228,7 +24248,7 @@
         <v>1689</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Total Solar</v>
       </c>
     </row>
@@ -24243,7 +24263,7 @@
         <v>1683</v>
       </c>
       <c r="D20" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Total Par</v>
       </c>
     </row>
@@ -24294,7 +24314,7 @@
         <v>227</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E2" t="s">
@@ -24312,7 +24332,7 @@
         <v>1066</v>
       </c>
       <c r="D3" s="1" t="e">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" t="s">
@@ -24330,7 +24350,7 @@
         <v>1066</v>
       </c>
       <c r="D4" s="1" t="e">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" t="s">
@@ -24348,7 +24368,7 @@
         <v>1066</v>
       </c>
       <c r="D5" s="1" t="e">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" t="s">
@@ -24366,7 +24386,7 @@
         <v>1066</v>
       </c>
       <c r="D6" s="1" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" t="s">
@@ -24384,7 +24404,7 @@
         <v>1066</v>
       </c>
       <c r="D7" s="1" t="e">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E7" t="s">
@@ -24402,7 +24422,7 @@
         <v>1066</v>
       </c>
       <c r="D8" s="1" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E8" t="s">
@@ -24420,7 +24440,7 @@
         <v>1066</v>
       </c>
       <c r="D9" s="1" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" t="s">
@@ -24438,7 +24458,7 @@
         <v>1066</v>
       </c>
       <c r="D10" s="1" t="e">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E10" t="s">
@@ -24456,7 +24476,7 @@
         <v>1066</v>
       </c>
       <c r="D11" s="1" t="e">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E11" t="s">
@@ -24474,7 +24494,7 @@
         <v>1066</v>
       </c>
       <c r="D12" s="1" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E12" t="s">
@@ -24493,7 +24513,7 @@
         <v>229</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
       <c r="E13" t="s">
@@ -24511,7 +24531,7 @@
         <v>1069</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E14" t="s">
@@ -24529,7 +24549,7 @@
         <v>1069</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E15" t="s">
@@ -24547,7 +24567,7 @@
         <v>1071</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>cell</v>
       </c>
       <c r="E16" t="s">
@@ -24565,7 +24585,7 @@
         <v>218</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E17" t="s">
@@ -24583,7 +24603,7 @@
         <v>218</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E18" t="s">
@@ -24601,7 +24621,7 @@
         <v>385</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Chlorophyll-b</v>
       </c>
       <c r="E19" t="s">
@@ -24619,7 +24639,7 @@
         <v>386</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Chlorophyll-c</v>
       </c>
       <c r="E20" t="s">
@@ -24637,7 +24657,7 @@
         <v>218</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E21" t="s">
@@ -24655,7 +24675,7 @@
         <v>218</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E22" t="s">
@@ -24673,7 +24693,7 @@
         <v>391</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E23" t="s">
@@ -24691,7 +24711,7 @@
         <v>391</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E24" t="s">
@@ -24709,7 +24729,7 @@
         <v>391</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E25" t="s">
@@ -24727,7 +24747,7 @@
         <v>391</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E26" t="s">
@@ -24745,7 +24765,7 @@
         <v>1066</v>
       </c>
       <c r="D27" s="1" t="e">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E27" t="s">
@@ -24763,7 +24783,7 @@
         <v>227</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E28" t="s">
@@ -24781,7 +24801,7 @@
         <v>227</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E29" t="s">
@@ -24799,7 +24819,7 @@
         <v>227</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E30" t="s">
@@ -24817,7 +24837,7 @@
         <v>227</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E31" t="s">
@@ -24835,7 +24855,7 @@
         <v>227</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E32" t="s">
@@ -24853,7 +24873,7 @@
         <v>289</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
       <c r="E33" t="s">
@@ -24871,7 +24891,7 @@
         <v>227</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E34" t="s">
@@ -24889,7 +24909,7 @@
         <v>227</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E35" t="s">
@@ -24907,7 +24927,7 @@
         <v>227</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E36" t="s">
@@ -24925,7 +24945,7 @@
         <v>289</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
       <c r="E37" t="s">
@@ -24943,7 +24963,7 @@
         <v>227</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E38" t="s">
@@ -24961,7 +24981,7 @@
         <v>1066</v>
       </c>
       <c r="D39" s="1" t="e">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E39" t="s">
@@ -24979,7 +24999,7 @@
         <v>1077</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
         <v>density</v>
       </c>
       <c r="E40" t="s">
@@ -24997,7 +25017,7 @@
         <v>1077</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
         <v>density</v>
       </c>
       <c r="E41" t="s">
@@ -25015,7 +25035,7 @@
         <v>227</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E42" t="s">
@@ -25033,7 +25053,7 @@
         <v>227</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E43" t="s">
@@ -25051,7 +25071,7 @@
         <v>1078</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E44" t="s">
@@ -25069,7 +25089,7 @@
         <v>1078</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E45" t="s">
@@ -25087,7 +25107,7 @@
         <v>1078</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E46" t="s">
@@ -25105,7 +25125,7 @@
         <v>1078</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E47" t="s">
@@ -25123,7 +25143,7 @@
         <v>1069</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E48" t="s">
@@ -25141,7 +25161,7 @@
         <v>1069</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E49" t="s">
@@ -25159,7 +25179,7 @@
         <v>1066</v>
       </c>
       <c r="D50" s="1" t="e">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E50" t="s">
@@ -25177,7 +25197,7 @@
         <v>1069</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E51" t="s">
@@ -25195,7 +25215,7 @@
         <v>1066</v>
       </c>
       <c r="D52" s="1" t="e">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E52" t="s">
@@ -25214,7 +25234,7 @@
         <v>229</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
       <c r="E53" t="s">
@@ -25233,7 +25253,7 @@
         <v>230</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E54" t="s">
@@ -25252,7 +25272,7 @@
         <v>208</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
+        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
         <v>Organic Nitrogen</v>
       </c>
       <c r="E55" t="s">
@@ -25271,7 +25291,7 @@
         <v>213</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
+        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E56" t="s">
@@ -25290,7 +25310,7 @@
         <v>230</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
+        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E57" t="s">
@@ -25309,7 +25329,7 @@
         <v>230</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
+        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E58" t="s">
@@ -25328,7 +25348,7 @@
         <v>230</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
+        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E59" t="s">
@@ -25347,7 +25367,7 @@
         <v>231</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
+        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E60" t="s">
@@ -25366,7 +25386,7 @@
         <v>231</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
+        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E61" t="s">
@@ -25385,7 +25405,7 @@
         <v>209</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
+        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
         <v>Organic Phosphorus</v>
       </c>
       <c r="E62" t="s">
@@ -25404,7 +25424,7 @@
         <v>214</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
+        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E63" t="s">
@@ -25423,7 +25443,7 @@
         <v>231</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
+        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E64" t="s">
@@ -25441,7 +25461,7 @@
         <v>235</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
+        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
         <v>Particulate Organic Carbon</v>
       </c>
       <c r="E65" t="s">
@@ -25459,7 +25479,7 @@
         <v>210</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
+        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E66" t="s">
@@ -25477,7 +25497,7 @@
         <v>210</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
+        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E67" t="s">
@@ -25495,7 +25515,7 @@
         <v>210</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
+        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E68" t="s">
@@ -25513,7 +25533,7 @@
         <v>210</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
+        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E69" t="s">
@@ -25531,7 +25551,7 @@
         <v>210</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
+        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E70" t="s">
@@ -25549,7 +25569,7 @@
         <v>210</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
+        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E71" t="s">
@@ -25567,7 +25587,7 @@
         <v>210</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B1003,2,TRUE)</f>
+        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E72" t="s">
@@ -25585,7 +25605,7 @@
         <v>210</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B1004,2,TRUE)</f>
+        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B1003,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E73" t="s">
@@ -25603,7 +25623,7 @@
         <v>1066</v>
       </c>
       <c r="D74" s="1" t="e">
-        <f>VLOOKUP(C74,'MASTER KEY'!$A$2:$B1005,2,TRUE)</f>
+        <f>VLOOKUP(C74,'MASTER KEY'!$A$2:$B1004,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E74" t="s">
@@ -25621,7 +25641,7 @@
         <v>1066</v>
       </c>
       <c r="D75" s="1" t="e">
-        <f>VLOOKUP(C75,'MASTER KEY'!$A$2:$B1006,2,TRUE)</f>
+        <f>VLOOKUP(C75,'MASTER KEY'!$A$2:$B1005,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E75" t="s">
@@ -25639,7 +25659,7 @@
         <v>407</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>VLOOKUP(C76,'MASTER KEY'!$A$2:$B1007,2,TRUE)</f>
+        <f>VLOOKUP(C76,'MASTER KEY'!$A$2:$B1006,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
       <c r="E76" t="s">
@@ -25657,7 +25677,7 @@
         <v>1066</v>
       </c>
       <c r="D77" s="1" t="e">
-        <f>VLOOKUP(C77,'MASTER KEY'!$A$2:$B1008,2,TRUE)</f>
+        <f>VLOOKUP(C77,'MASTER KEY'!$A$2:$B1007,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E77" t="s">
@@ -25675,7 +25695,7 @@
         <v>1066</v>
       </c>
       <c r="D78" s="1" t="e">
-        <f>VLOOKUP(C78,'MASTER KEY'!$A$2:$B1009,2,TRUE)</f>
+        <f>VLOOKUP(C78,'MASTER KEY'!$A$2:$B1008,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E78" t="s">
@@ -25693,7 +25713,7 @@
         <v>407</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>VLOOKUP(C79,'MASTER KEY'!$A$2:$B1010,2,TRUE)</f>
+        <f>VLOOKUP(C79,'MASTER KEY'!$A$2:$B1009,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
       <c r="E79" t="s">
@@ -25711,7 +25731,7 @@
         <v>1066</v>
       </c>
       <c r="D80" s="1" t="e">
-        <f>VLOOKUP(C80,'MASTER KEY'!$A$2:$B1011,2,TRUE)</f>
+        <f>VLOOKUP(C80,'MASTER KEY'!$A$2:$B1010,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E80" t="s">
@@ -25729,7 +25749,7 @@
         <v>211</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f>VLOOKUP(C81,'MASTER KEY'!$A$2:$B1012,2,TRUE)</f>
+        <f>VLOOKUP(C81,'MASTER KEY'!$A$2:$B1011,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E81" t="s">
@@ -25747,7 +25767,7 @@
         <v>211</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f>VLOOKUP(C82,'MASTER KEY'!$A$2:$B1013,2,TRUE)</f>
+        <f>VLOOKUP(C82,'MASTER KEY'!$A$2:$B1012,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E82" t="s">
@@ -25765,7 +25785,7 @@
         <v>211</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f>VLOOKUP(C83,'MASTER KEY'!$A$2:$B1014,2,TRUE)</f>
+        <f>VLOOKUP(C83,'MASTER KEY'!$A$2:$B1013,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E83" t="s">
@@ -25783,7 +25803,7 @@
         <v>211</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f>VLOOKUP(C84,'MASTER KEY'!$A$2:$B1015,2,TRUE)</f>
+        <f>VLOOKUP(C84,'MASTER KEY'!$A$2:$B1014,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E84" t="s">
@@ -25801,7 +25821,7 @@
         <v>211</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f>VLOOKUP(C85,'MASTER KEY'!$A$2:$B1016,2,TRUE)</f>
+        <f>VLOOKUP(C85,'MASTER KEY'!$A$2:$B1015,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E85" t="s">
@@ -25819,7 +25839,7 @@
         <v>211</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f>VLOOKUP(C86,'MASTER KEY'!$A$2:$B1017,2,TRUE)</f>
+        <f>VLOOKUP(C86,'MASTER KEY'!$A$2:$B1016,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E86" t="s">
@@ -25838,7 +25858,7 @@
         <v>213</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f>VLOOKUP(C87,'MASTER KEY'!$A$2:$B1018,2,TRUE)</f>
+        <f>VLOOKUP(C87,'MASTER KEY'!$A$2:$B1017,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E87" t="s">
@@ -25857,7 +25877,7 @@
         <v>213</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f>VLOOKUP(C88,'MASTER KEY'!$A$2:$B1019,2,TRUE)</f>
+        <f>VLOOKUP(C88,'MASTER KEY'!$A$2:$B1018,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E88" t="s">
@@ -25876,7 +25896,7 @@
         <v>213</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f>VLOOKUP(C89,'MASTER KEY'!$A$2:$B1020,2,TRUE)</f>
+        <f>VLOOKUP(C89,'MASTER KEY'!$A$2:$B1019,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E89" t="s">
@@ -25895,7 +25915,7 @@
         <v>214</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f>VLOOKUP(C90,'MASTER KEY'!$A$2:$B1021,2,TRUE)</f>
+        <f>VLOOKUP(C90,'MASTER KEY'!$A$2:$B1020,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E90" t="s">
@@ -25914,7 +25934,7 @@
         <v>214</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f>VLOOKUP(C91,'MASTER KEY'!$A$2:$B1022,2,TRUE)</f>
+        <f>VLOOKUP(C91,'MASTER KEY'!$A$2:$B1021,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E91" t="s">
@@ -25933,7 +25953,7 @@
         <v>214</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f>VLOOKUP(C92,'MASTER KEY'!$A$2:$B1023,2,TRUE)</f>
+        <f>VLOOKUP(C92,'MASTER KEY'!$A$2:$B1022,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E92" t="s">
@@ -25952,7 +25972,7 @@
         <v>214</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f>VLOOKUP(C93,'MASTER KEY'!$A$2:$B1024,2,TRUE)</f>
+        <f>VLOOKUP(C93,'MASTER KEY'!$A$2:$B1023,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E93" t="s">
@@ -25970,7 +25990,7 @@
         <v>216</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f>VLOOKUP(C94,'MASTER KEY'!$A$2:$B1025,2,TRUE)</f>
+        <f>VLOOKUP(C94,'MASTER KEY'!$A$2:$B1024,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
       <c r="E94" t="s">
@@ -25988,7 +26008,7 @@
         <v>217</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f>VLOOKUP(C95,'MASTER KEY'!$A$2:$B1026,2,TRUE)</f>
+        <f>VLOOKUP(C95,'MASTER KEY'!$A$2:$B1025,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
       <c r="E95" t="s">
@@ -26006,7 +26026,7 @@
         <v>217</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f>VLOOKUP(C96,'MASTER KEY'!$A$2:$B1027,2,TRUE)</f>
+        <f>VLOOKUP(C96,'MASTER KEY'!$A$2:$B1026,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
       <c r="E96" t="s">
@@ -26024,7 +26044,7 @@
         <v>1066</v>
       </c>
       <c r="D97" s="1" t="e">
-        <f>VLOOKUP(C97,'MASTER KEY'!$A$2:$B1028,2,TRUE)</f>
+        <f>VLOOKUP(C97,'MASTER KEY'!$A$2:$B1027,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E97" t="s">
@@ -26042,7 +26062,7 @@
         <v>1066</v>
       </c>
       <c r="D98" s="1" t="e">
-        <f>VLOOKUP(C98,'MASTER KEY'!$A$2:$B1029,2,TRUE)</f>
+        <f>VLOOKUP(C98,'MASTER KEY'!$A$2:$B1028,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E98" t="s">
@@ -26060,7 +26080,7 @@
         <v>1066</v>
       </c>
       <c r="D99" s="1" t="e">
-        <f>VLOOKUP(C99,'MASTER KEY'!$A$2:$B1030,2,TRUE)</f>
+        <f>VLOOKUP(C99,'MASTER KEY'!$A$2:$B1029,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E99" t="s">
@@ -26078,7 +26098,7 @@
         <v>400</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f>VLOOKUP(C100,'MASTER KEY'!$A$2:$B1031,2,TRUE)</f>
+        <f>VLOOKUP(C100,'MASTER KEY'!$A$2:$B1030,2,TRUE)</f>
         <v>pH</v>
       </c>
       <c r="E100" t="s">
@@ -26096,7 +26116,7 @@
         <v>400</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f>VLOOKUP(C101,'MASTER KEY'!$A$2:$B1032,2,TRUE)</f>
+        <f>VLOOKUP(C101,'MASTER KEY'!$A$2:$B1031,2,TRUE)</f>
         <v>pH</v>
       </c>
       <c r="E101" t="s">
@@ -26114,7 +26134,7 @@
         <v>210</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f>VLOOKUP(C102,'MASTER KEY'!$A$2:$B1033,2,TRUE)</f>
+        <f>VLOOKUP(C102,'MASTER KEY'!$A$2:$B1032,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E102" t="s">
@@ -26132,7 +26152,7 @@
         <v>210</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f>VLOOKUP(C103,'MASTER KEY'!$A$2:$B1034,2,TRUE)</f>
+        <f>VLOOKUP(C103,'MASTER KEY'!$A$2:$B1033,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E103" t="s">
@@ -26150,7 +26170,7 @@
         <v>211</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f>VLOOKUP(C104,'MASTER KEY'!$A$2:$B1035,2,TRUE)</f>
+        <f>VLOOKUP(C104,'MASTER KEY'!$A$2:$B1034,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E104" t="s">
@@ -26168,7 +26188,7 @@
         <v>211</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f>VLOOKUP(C105,'MASTER KEY'!$A$2:$B1036,2,TRUE)</f>
+        <f>VLOOKUP(C105,'MASTER KEY'!$A$2:$B1035,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E105" t="s">
@@ -26220,7 +26240,7 @@
         <v>407</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
     </row>
@@ -26235,7 +26255,7 @@
         <v>210</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -26250,7 +26270,7 @@
         <v>1066</v>
       </c>
       <c r="D4" t="e">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26265,7 +26285,7 @@
         <v>1283</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>DIC</v>
       </c>
     </row>
@@ -26280,7 +26300,7 @@
         <v>1066</v>
       </c>
       <c r="D6" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26295,7 +26315,7 @@
         <v>405</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Total Alkalinity</v>
       </c>
     </row>
@@ -26310,7 +26330,7 @@
         <v>1066</v>
       </c>
       <c r="D8" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26326,7 +26346,7 @@
         <v>227</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -26341,7 +26361,7 @@
         <v>1066</v>
       </c>
       <c r="D10" t="e">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26356,7 +26376,7 @@
         <v>229</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
     </row>
@@ -26371,7 +26391,7 @@
         <v>1066</v>
       </c>
       <c r="D12" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26386,7 +26406,7 @@
         <v>230</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
     </row>
@@ -26401,7 +26421,7 @@
         <v>1066</v>
       </c>
       <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26416,7 +26436,7 @@
         <v>1230</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Nitrite</v>
       </c>
     </row>
@@ -26431,7 +26451,7 @@
         <v>1066</v>
       </c>
       <c r="D16" t="e">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26446,7 +26466,7 @@
         <v>231</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
     </row>
@@ -26461,7 +26481,7 @@
         <v>1066</v>
       </c>
       <c r="D18" t="e">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26476,7 +26496,7 @@
         <v>228</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Reactive Silica</v>
       </c>
     </row>
@@ -26491,7 +26511,7 @@
         <v>1066</v>
       </c>
       <c r="D20" t="e">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26506,7 +26526,7 @@
         <v>1231</v>
       </c>
       <c r="D21" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>TSSorganic</v>
       </c>
     </row>
@@ -26521,7 +26541,7 @@
         <v>1281</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>TSSinorganic</v>
       </c>
     </row>
@@ -26536,7 +26556,7 @@
         <v>216</v>
       </c>
       <c r="D23" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
     </row>
@@ -26551,7 +26571,7 @@
         <v>1066</v>
       </c>
       <c r="D24" t="e">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26566,7 +26586,7 @@
         <v>1186</v>
       </c>
       <c r="D25" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>Prochlorococcus</v>
       </c>
     </row>
@@ -26581,7 +26601,7 @@
         <v>1066</v>
       </c>
       <c r="D26" t="e">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="G26" s="1"/>
@@ -26597,7 +26617,7 @@
         <v>1187</v>
       </c>
       <c r="D27" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
         <v>Synechococcus</v>
       </c>
       <c r="G27" s="1"/>
@@ -26613,7 +26633,7 @@
         <v>1066</v>
       </c>
       <c r="D28" t="e">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="1"/>
@@ -26629,7 +26649,7 @@
         <v>1188</v>
       </c>
       <c r="D29" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>Picoeukaryotes</v>
       </c>
       <c r="G29" s="1"/>
@@ -26645,7 +26665,7 @@
         <v>1066</v>
       </c>
       <c r="D30" t="e">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="1"/>
@@ -26661,7 +26681,7 @@
         <v>1189</v>
       </c>
       <c r="D31" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Allo</v>
       </c>
       <c r="G31" s="1"/>
@@ -26677,7 +26697,7 @@
         <v>1190</v>
       </c>
       <c r="D32" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>AlphaBetaCar</v>
       </c>
       <c r="G32" s="1"/>
@@ -26693,7 +26713,7 @@
         <v>1191</v>
       </c>
       <c r="D33" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>Anth</v>
       </c>
       <c r="G33" s="1"/>
@@ -26709,7 +26729,7 @@
         <v>1192</v>
       </c>
       <c r="D34" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Asta</v>
       </c>
       <c r="G34" s="1"/>
@@ -26725,7 +26745,7 @@
         <v>1193</v>
       </c>
       <c r="D35" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>BetaBetaCar</v>
       </c>
       <c r="G35" s="1"/>
@@ -26741,7 +26761,7 @@
         <v>1194</v>
       </c>
       <c r="D36" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>BetaEpiCar</v>
       </c>
       <c r="G36" s="1"/>
@@ -26757,7 +26777,7 @@
         <v>1195</v>
       </c>
       <c r="D37" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>Butfuco</v>
       </c>
       <c r="G37" s="1"/>
@@ -26773,7 +26793,7 @@
         <v>1196</v>
       </c>
       <c r="D38" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>Cantha</v>
       </c>
       <c r="G38" s="1"/>
@@ -26789,7 +26809,7 @@
         <v>1197</v>
       </c>
       <c r="D39" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>CphlA</v>
       </c>
       <c r="G39" s="1"/>
@@ -26805,7 +26825,7 @@
         <v>1198</v>
       </c>
       <c r="D40" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
         <v>CphlB</v>
       </c>
       <c r="G40" s="1"/>
@@ -26821,7 +26841,7 @@
         <v>1199</v>
       </c>
       <c r="D41" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
         <v>CphlC1</v>
       </c>
       <c r="G41" s="1"/>
@@ -26837,7 +26857,7 @@
         <v>1200</v>
       </c>
       <c r="D42" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
         <v>CphlC2</v>
       </c>
       <c r="G42" s="1"/>
@@ -26853,7 +26873,7 @@
         <v>1201</v>
       </c>
       <c r="D43" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B972,2,TRUE)</f>
         <v>CphlC3</v>
       </c>
       <c r="G43" s="1"/>
@@ -26869,7 +26889,7 @@
         <v>1202</v>
       </c>
       <c r="D44" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B973,2,TRUE)</f>
         <v>CphlC1C2</v>
       </c>
       <c r="G44" s="1"/>
@@ -26885,7 +26905,7 @@
         <v>1203</v>
       </c>
       <c r="D45" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B974,2,TRUE)</f>
         <v>CphlideA</v>
       </c>
       <c r="G45" s="1"/>
@@ -26901,7 +26921,7 @@
         <v>1204</v>
       </c>
       <c r="D46" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B975,2,TRUE)</f>
         <v>Diadchr</v>
       </c>
       <c r="G46" s="1"/>
@@ -26917,7 +26937,7 @@
         <v>1205</v>
       </c>
       <c r="D47" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B976,2,TRUE)</f>
         <v>Diadino</v>
       </c>
       <c r="G47" s="1"/>
@@ -26933,7 +26953,7 @@
         <v>1206</v>
       </c>
       <c r="D48" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B977,2,TRUE)</f>
         <v>Diato</v>
       </c>
       <c r="G48" s="1"/>
@@ -26949,7 +26969,7 @@
         <v>1207</v>
       </c>
       <c r="D49" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
         <v>Dino</v>
       </c>
       <c r="G49" s="1"/>
@@ -26965,7 +26985,7 @@
         <v>1208</v>
       </c>
       <c r="D50" t="str">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
         <v>DvCphlA+CphlA</v>
       </c>
       <c r="G50" s="1"/>
@@ -26981,7 +27001,7 @@
         <v>1209</v>
       </c>
       <c r="D51" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
         <v>DvCphlA</v>
       </c>
       <c r="G51" s="1"/>
@@ -26997,7 +27017,7 @@
         <v>1210</v>
       </c>
       <c r="D52" t="str">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
         <v>DvCphlB+CphlB</v>
       </c>
       <c r="G52" s="1"/>
@@ -27013,7 +27033,7 @@
         <v>1211</v>
       </c>
       <c r="D53" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
         <v>DvCphlB</v>
       </c>
       <c r="G53" s="1"/>
@@ -27029,7 +27049,7 @@
         <v>1212</v>
       </c>
       <c r="D54" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
         <v>Echin</v>
       </c>
       <c r="G54" s="1"/>
@@ -27045,7 +27065,7 @@
         <v>1213</v>
       </c>
       <c r="D55" t="str">
-        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
         <v>Fuco</v>
       </c>
       <c r="G55" s="1"/>
@@ -27061,7 +27081,7 @@
         <v>1214</v>
       </c>
       <c r="D56" t="str">
-        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
+        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
         <v>Gyro</v>
       </c>
       <c r="G56" s="1"/>
@@ -27077,7 +27097,7 @@
         <v>1215</v>
       </c>
       <c r="D57" t="str">
-        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
+        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
         <v>Hexfuco</v>
       </c>
       <c r="G57" s="1"/>
@@ -27093,7 +27113,7 @@
         <v>1216</v>
       </c>
       <c r="D58" t="str">
-        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
+        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
         <v>Ketohexfuco</v>
       </c>
       <c r="G58" s="1"/>
@@ -27109,7 +27129,7 @@
         <v>1217</v>
       </c>
       <c r="D59" t="str">
-        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
+        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
         <v>Lut</v>
       </c>
       <c r="G59" s="1"/>
@@ -27125,7 +27145,7 @@
         <v>1218</v>
       </c>
       <c r="D60" t="str">
-        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
+        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
         <v>Lyco</v>
       </c>
       <c r="G60" s="1"/>
@@ -27141,7 +27161,7 @@
         <v>1219</v>
       </c>
       <c r="D61" t="str">
-        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
+        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
         <v>MgDvp</v>
       </c>
       <c r="G61" s="1"/>
@@ -27157,7 +27177,7 @@
         <v>1220</v>
       </c>
       <c r="D62" t="str">
-        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
+        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
         <v>Neo</v>
       </c>
       <c r="G62" s="1"/>
@@ -27173,7 +27193,7 @@
         <v>1221</v>
       </c>
       <c r="D63" t="str">
-        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
+        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
         <v>Perid</v>
       </c>
       <c r="G63" s="1"/>
@@ -27189,7 +27209,7 @@
         <v>1222</v>
       </c>
       <c r="D64" t="str">
-        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
+        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
         <v>PhideA</v>
       </c>
       <c r="G64" s="1"/>
@@ -27205,7 +27225,7 @@
         <v>1223</v>
       </c>
       <c r="D65" t="str">
-        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
+        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
         <v>PhytinA</v>
       </c>
       <c r="G65" s="1"/>
@@ -27221,7 +27241,7 @@
         <v>1224</v>
       </c>
       <c r="D66" t="str">
-        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
+        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
         <v>PhytinB</v>
       </c>
       <c r="G66" s="1"/>
@@ -27237,7 +27257,7 @@
         <v>1225</v>
       </c>
       <c r="D67" t="str">
-        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
+        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
         <v>Pras</v>
       </c>
       <c r="G67" s="1"/>
@@ -27253,7 +27273,7 @@
         <v>1226</v>
       </c>
       <c r="D68" t="str">
-        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
+        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
         <v>PyrophideA</v>
       </c>
       <c r="G68" s="1"/>
@@ -27269,7 +27289,7 @@
         <v>1227</v>
       </c>
       <c r="D69" t="str">
-        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
+        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
         <v>PyrophytinA</v>
       </c>
     </row>
@@ -27284,7 +27304,7 @@
         <v>1228</v>
       </c>
       <c r="D70" t="str">
-        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
+        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
         <v>Viola</v>
       </c>
     </row>
@@ -27299,7 +27319,7 @@
         <v>1229</v>
       </c>
       <c r="D71" t="str">
-        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
+        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
         <v>Zea</v>
       </c>
     </row>
@@ -27314,7 +27334,7 @@
         <v>1066</v>
       </c>
       <c r="D72" t="e">
-        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
+        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27329,7 +27349,7 @@
         <v>1066</v>
       </c>
       <c r="D73" t="e">
-        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B1003,2,TRUE)</f>
+        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27377,7 +27397,7 @@
         <v>943</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>PRESSURE</v>
       </c>
     </row>
@@ -27392,7 +27412,7 @@
         <v>1066</v>
       </c>
       <c r="D3" t="e">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27407,7 +27427,7 @@
         <v>211</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -27422,7 +27442,7 @@
         <v>1066</v>
       </c>
       <c r="D5" t="e">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27437,7 +27457,7 @@
         <v>210</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -27452,7 +27472,7 @@
         <v>1066</v>
       </c>
       <c r="D7" t="e">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27468,7 +27488,7 @@
         <v>227</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -27483,7 +27503,7 @@
         <v>1066</v>
       </c>
       <c r="D9" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27498,7 +27518,7 @@
         <v>217</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -27513,7 +27533,7 @@
         <v>1066</v>
       </c>
       <c r="D11" t="e">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27528,7 +27548,7 @@
         <v>1066</v>
       </c>
       <c r="D12" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27543,7 +27563,7 @@
         <v>1066</v>
       </c>
       <c r="D13" t="e">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27558,7 +27578,7 @@
         <v>1066</v>
       </c>
       <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27573,7 +27593,7 @@
         <v>1066</v>
       </c>
       <c r="D15" t="e">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27588,7 +27608,7 @@
         <v>218</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
     </row>
@@ -27603,7 +27623,7 @@
         <v>1066</v>
       </c>
       <c r="D17" t="e">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27618,7 +27638,7 @@
         <v>391</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -27633,7 +27653,7 @@
         <v>1066</v>
       </c>
       <c r="D19" t="e">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27648,7 +27668,7 @@
         <v>1066</v>
       </c>
       <c r="D20" t="e">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27663,7 +27683,7 @@
         <v>1066</v>
       </c>
       <c r="D21" t="e">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27678,7 +27698,7 @@
         <v>1077</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>density</v>
       </c>
     </row>
@@ -27693,7 +27713,7 @@
         <v>1066</v>
       </c>
       <c r="D23" t="e">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27744,7 +27764,7 @@
         <v>405</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Total Alkalinity</v>
       </c>
     </row>
@@ -27759,7 +27779,7 @@
         <v>492</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Bottom Depth</v>
       </c>
     </row>
@@ -27774,7 +27794,7 @@
         <v>233</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Dissolved Organic Carbon</v>
       </c>
     </row>
@@ -27789,7 +27809,7 @@
         <v>218</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
     </row>
@@ -27804,7 +27824,7 @@
         <v>385</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Chlorophyll-b</v>
       </c>
     </row>
@@ -27819,7 +27839,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>Chlorophyll-c</v>
       </c>
     </row>
@@ -27834,7 +27854,7 @@
         <v>485</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>Chlorophyll sample volume</v>
       </c>
     </row>
@@ -27849,7 +27869,7 @@
         <v>388</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Cloud Cover</v>
       </c>
     </row>
@@ -27864,7 +27884,7 @@
         <v>391</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -27879,7 +27899,7 @@
         <v>394</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>Flow Status</v>
       </c>
     </row>
@@ -27895,7 +27915,7 @@
         <v>236</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>Dissolved Organic Nitrogen</v>
       </c>
     </row>
@@ -27911,7 +27931,7 @@
         <v>230</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
     </row>
@@ -27927,7 +27947,7 @@
         <v>396</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>Total TKN</v>
       </c>
     </row>
@@ -27943,7 +27963,7 @@
         <v>213</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
     </row>
@@ -27959,7 +27979,7 @@
         <v>229</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
     </row>
@@ -27974,7 +27994,7 @@
         <v>289</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -27989,7 +28009,7 @@
         <v>227</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -28005,7 +28025,7 @@
         <v>214</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
     </row>
@@ -28020,7 +28040,7 @@
         <v>400</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>pH</v>
       </c>
     </row>
@@ -28035,7 +28055,7 @@
         <v>402</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>Phaeophytin a</v>
       </c>
     </row>
@@ -28051,7 +28071,7 @@
         <v>231</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
     </row>
@@ -28066,7 +28086,7 @@
         <v>210</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -28081,7 +28101,7 @@
         <v>407</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
     </row>
@@ -28097,7 +28117,7 @@
         <v>228</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B954,2,TRUE)</f>
         <v>Reactive Silica</v>
       </c>
     </row>
@@ -28112,7 +28132,7 @@
         <v>216</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B955,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
     </row>
@@ -28127,7 +28147,7 @@
         <v>211</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B956,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -28142,7 +28162,7 @@
         <v>409</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B957,2,TRUE)</f>
         <v>Tide status</v>
       </c>
     </row>
@@ -28157,7 +28177,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B958,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -28172,7 +28192,7 @@
         <v>379</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B959,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -28188,7 +28208,7 @@
         <v>380</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B960,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -28203,7 +28223,7 @@
         <v>421</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B961,2,TRUE)</f>
         <v>Max Discharge</v>
       </c>
     </row>
@@ -28218,7 +28238,7 @@
         <v>422</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B962,2,TRUE)</f>
         <v>Mean Discharge</v>
       </c>
     </row>
@@ -28233,7 +28253,7 @@
         <v>423</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B963,2,TRUE)</f>
         <v>Min Discharge</v>
       </c>
     </row>
@@ -28248,7 +28268,7 @@
         <v>424</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B964,2,TRUE)</f>
         <v>Discharge</v>
       </c>
     </row>
@@ -28263,7 +28283,7 @@
         <v>425</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B965,2,TRUE)</f>
         <v>Max Stage Height CTF</v>
       </c>
     </row>
@@ -28278,7 +28298,7 @@
         <v>426</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B966,2,TRUE)</f>
         <v>Mean Stage Height CTF</v>
       </c>
     </row>
@@ -28293,7 +28313,7 @@
         <v>427</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B967,2,TRUE)</f>
         <v>Min Stage Height CTF</v>
       </c>
     </row>
@@ -28308,7 +28328,7 @@
         <v>428</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B968,2,TRUE)</f>
         <v>Max Stage Height</v>
       </c>
     </row>
@@ -28323,7 +28343,7 @@
         <v>429</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B969,2,TRUE)</f>
         <v>Mean Stage Height</v>
       </c>
     </row>
@@ -28338,7 +28358,7 @@
         <v>430</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B970,2,TRUE)</f>
         <v>Min Stage Height</v>
       </c>
     </row>
@@ -28387,7 +28407,7 @@
         <v>460</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
     </row>
@@ -28402,7 +28422,7 @@
         <v>211</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -28417,7 +28437,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -28432,7 +28452,7 @@
         <v>210</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -28447,7 +28467,7 @@
         <v>227</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -28462,7 +28482,7 @@
         <v>289</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -28477,7 +28497,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
         <v>pH</v>
       </c>
     </row>
@@ -28492,7 +28512,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -28507,7 +28527,7 @@
         <v>901</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -28522,7 +28542,7 @@
         <v>902</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
         <v>WL - 410</v>
       </c>
     </row>
@@ -28537,7 +28557,7 @@
         <v>903</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
         <v>WL - 440</v>
       </c>
     </row>
@@ -28552,7 +28572,7 @@
         <v>904</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
         <v>WL - 490</v>
       </c>
     </row>
@@ -28567,7 +28587,7 @@
         <v>905</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
         <v>WL - 510</v>
       </c>
     </row>
@@ -28582,7 +28602,7 @@
         <v>906</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>WL - 550</v>
       </c>
     </row>
@@ -28597,7 +28617,7 @@
         <v>907</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
         <v>WL - 590</v>
       </c>
     </row>
@@ -28612,7 +28632,7 @@
         <v>908</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
         <v>WL - 635</v>
       </c>
     </row>
@@ -28627,7 +28647,7 @@
         <v>909</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
         <v>WL - 660</v>
       </c>
     </row>
@@ -28642,7 +28662,7 @@
         <v>910</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
         <v>WL - 700</v>
       </c>
     </row>
@@ -28657,7 +28677,7 @@
         <v>898</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -28672,7 +28692,7 @@
         <v>898</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -28687,7 +28707,7 @@
         <v>391</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -28702,7 +28722,7 @@
         <v>289</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\AED_Cockburn_db\CSIEM\Data\Sherry\csiem-data\data-governance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D06A06-9BF7-4B44-81D9-C4F4E2F7CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B6E0C2-F745-48E2-B60C-3DEC7CB9AD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="5430" windowWidth="35190" windowHeight="15450" tabRatio="841" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="841" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
-    <sheet name="SentientHubs" sheetId="18" r:id="rId2"/>
-    <sheet name="Model_TFV" sheetId="5" r:id="rId3"/>
-    <sheet name="THEME5MET" sheetId="19" r:id="rId4"/>
-    <sheet name="MAFRL" sheetId="8" r:id="rId5"/>
-    <sheet name="IMOSBGC" sheetId="9" r:id="rId6"/>
-    <sheet name="IMOSPROFILE" sheetId="10" r:id="rId7"/>
-    <sheet name="DWER" sheetId="2" r:id="rId8"/>
-    <sheet name="DWERMOORING" sheetId="11" r:id="rId9"/>
-    <sheet name="BOM" sheetId="3" r:id="rId10"/>
-    <sheet name="DOT" sheetId="4" r:id="rId11"/>
-    <sheet name="THEME5" sheetId="7" r:id="rId12"/>
-    <sheet name="WWMSP5" sheetId="16" r:id="rId13"/>
-    <sheet name="WWMSP2" sheetId="20" r:id="rId14"/>
-    <sheet name="JPPLAWAC" sheetId="12" r:id="rId15"/>
-    <sheet name="UWA" sheetId="15" r:id="rId16"/>
-    <sheet name="BMTBNA" sheetId="17" r:id="rId17"/>
-    <sheet name="FPA_BMT" sheetId="14" r:id="rId18"/>
-    <sheet name="WC_BMT" sheetId="13" r:id="rId19"/>
-    <sheet name="Information" sheetId="6" r:id="rId20"/>
+    <sheet name="THEME2LIGHT" sheetId="21" r:id="rId2"/>
+    <sheet name="SentientHubs" sheetId="18" r:id="rId3"/>
+    <sheet name="Model_TFV" sheetId="5" r:id="rId4"/>
+    <sheet name="THEME5MET" sheetId="19" r:id="rId5"/>
+    <sheet name="MAFRL" sheetId="8" r:id="rId6"/>
+    <sheet name="IMOSBGC" sheetId="9" r:id="rId7"/>
+    <sheet name="IMOSPROFILE" sheetId="10" r:id="rId8"/>
+    <sheet name="DWER" sheetId="2" r:id="rId9"/>
+    <sheet name="DWERMOORING" sheetId="11" r:id="rId10"/>
+    <sheet name="BOM" sheetId="3" r:id="rId11"/>
+    <sheet name="DOT" sheetId="4" r:id="rId12"/>
+    <sheet name="THEME5" sheetId="7" r:id="rId13"/>
+    <sheet name="WWMSP5" sheetId="16" r:id="rId14"/>
+    <sheet name="WWMSP2" sheetId="20" r:id="rId15"/>
+    <sheet name="JPPLAWAC" sheetId="12" r:id="rId16"/>
+    <sheet name="UWA" sheetId="15" r:id="rId17"/>
+    <sheet name="BMTBNA" sheetId="17" r:id="rId18"/>
+    <sheet name="FPA_BMT" sheetId="14" r:id="rId19"/>
+    <sheet name="WC_BMT" sheetId="13" r:id="rId20"/>
+    <sheet name="Information" sheetId="6" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER KEY'!$A$1:$J$318</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -774,7 +775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1791">
   <si>
     <t>Units</t>
   </si>
@@ -6220,6 +6221,42 @@
   </si>
   <si>
     <t>assuming this 'PAR STD' = PAR standard?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Internal temperature (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C)</t>
+    </r>
+  </si>
+  <si>
+    <t>var00319</t>
+  </si>
+  <si>
+    <t>Total M Par day</t>
+  </si>
+  <si>
+    <t>mol/m2/day</t>
+  </si>
+  <si>
+    <t>Ignore</t>
   </si>
 </sst>
 </file>
@@ -6828,11 +6865,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J318"/>
+  <dimension ref="A1:J319"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H300" sqref="H300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13064,6 +13101,20 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J318" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13074,6 +13125,370 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <v>Air Temperature</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <v>Turbidity</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>848</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <v>Oxygen</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <v>O2 Saturation</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>850</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <v>pH</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>851</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <v>Depth</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>852</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <v>Tilt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <v>WL - 410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>854</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <v>WL - 440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>855</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <v>WL - 490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>856</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <v>WL - 510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>857</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <v>WL - 550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>858</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <v>WL - 590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>859</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <v>WL - 635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>860</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <v>WL - 660</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>861</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <v>WL - 700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>862</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <v>PAR</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>863</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <v>PAR</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>864</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <v>Conductivity</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>865</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <v>O2 Saturation</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -13624,7 +14039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -14006,7 +14421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -14835,7 +15250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -15107,7 +15522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBC0BB9-8F45-4117-8EDC-41406E638950}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -15511,7 +15926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -15814,11 +16229,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -16037,7 +16452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -16206,7 +16621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -16341,7 +16756,400 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7D7559-1643-4FF9-B8E5-4B46BD5C53B5}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
+        <v>Tilt</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D4" t="e">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <v>PAR</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <v>WL - 398µW</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <v>WL - 448µW</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
+        <v>WL - 470µW</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
+        <v>WL - 524µW</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
+        <v>WL - 554µW</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
+        <v>WL - 590µW</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
+        <v>WL - 628µW</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
+        <v>WL - 656µW</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
+        <v>WL - 699µW</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
+        <v>WL - 398µmol</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
+        <v>WL - 448µmol</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
+        <v>WL - 470µmol</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
+        <v>WL - 524µmol</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
+        <v>WL - 554µmol</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
+        <v>WL - 590µmol</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
+        <v>WL - 628µmol</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
+        <v>WL - 656µmol</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
+        <v>WL - 699µmol</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
+        <v>Total Par day</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
+        <v>Total M Par day</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -16460,7 +17268,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A3:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A236"/>
   <sheetViews>
@@ -17658,35 +18494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A3:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>837</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F284"/>
   <sheetViews>
@@ -23954,12 +24762,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5261A16-8B5D-4B5D-ADA5-57BB15B52747}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24269,10 +25077,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
@@ -26201,7 +27010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
@@ -27359,7 +28168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -27723,7 +28532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -28366,368 +29175,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>845</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
-        <v>Air Temperature</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>846</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>847</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
-        <v>Turbidity</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>848</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
-        <v>Oxygen</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>849</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
-        <v>O2 Saturation</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>850</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
-        <v>pH</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>851</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
-        <v>Depth</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>852</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
-        <v>Tilt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>853</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
-        <v>WL - 410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>854</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
-        <v>WL - 440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>855</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
-        <v>WL - 490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>856</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
-        <v>WL - 510</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>857</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
-        <v>WL - 550</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>858</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
-        <v>WL - 590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>859</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
-        <v>WL - 635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>860</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
-        <v>WL - 660</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>861</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
-        <v>WL - 700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>862</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
-        <v>PAR</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>863</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
-        <v>PAR</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>864</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
-        <v>Conductivity</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>865</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
-        <v>O2 Saturation</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B6E0C2-F745-48E2-B60C-3DEC7CB9AD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="841" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="841" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -26,19 +25,23 @@
     <sheet name="BOM" sheetId="3" r:id="rId11"/>
     <sheet name="DOT" sheetId="4" r:id="rId12"/>
     <sheet name="THEME5" sheetId="7" r:id="rId13"/>
-    <sheet name="WWMSP5" sheetId="16" r:id="rId14"/>
-    <sheet name="WWMSP2" sheetId="20" r:id="rId15"/>
-    <sheet name="JPPLAWAC" sheetId="12" r:id="rId16"/>
-    <sheet name="UWA" sheetId="15" r:id="rId17"/>
-    <sheet name="BMTBNA" sheetId="17" r:id="rId18"/>
-    <sheet name="FPA_BMT" sheetId="14" r:id="rId19"/>
-    <sheet name="WC_BMT" sheetId="13" r:id="rId20"/>
-    <sheet name="Information" sheetId="6" r:id="rId21"/>
+    <sheet name="WWM" sheetId="22" r:id="rId14"/>
+    <sheet name="WWMSP5" sheetId="16" r:id="rId15"/>
+    <sheet name="WWMSP2" sheetId="20" r:id="rId16"/>
+    <sheet name="JPPLAWAC" sheetId="12" r:id="rId17"/>
+    <sheet name="UWA" sheetId="15" r:id="rId18"/>
+    <sheet name="BMTBNA" sheetId="17" r:id="rId19"/>
+    <sheet name="FPA_BMT" sheetId="14" r:id="rId20"/>
+    <sheet name="WC_BMT" sheetId="13" r:id="rId21"/>
+    <sheet name="Information" sheetId="6" r:id="rId22"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId23"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER KEY'!$A$1:$J$318</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,12 +62,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Peisheng Huang</author>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="C130" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D130" authorId="0" shapeId="0" xr:uid="{6292DC12-5EE5-42A1-9F81-DF16A7AF48DF}">
+    <comment ref="D130" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C153" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="C153" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B181" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B184" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B201" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="B201" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="B205" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -496,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="B211" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B213" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="B213" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -544,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B215" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="B215" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="B217" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="B268" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -616,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="B272" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C287" authorId="0" shapeId="0" xr:uid="{A74E28BE-96D5-4ACF-B30F-D0AFB8E69778}">
+    <comment ref="C287" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -664,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D287" authorId="0" shapeId="0" xr:uid="{6BD8EECE-B305-4CAE-BC9C-970FB38528C1}">
+    <comment ref="D287" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -688,7 +691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E287" authorId="0" shapeId="0" xr:uid="{01E1734E-5A27-4C51-8374-25F9A2B941E0}">
+    <comment ref="E287" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -717,12 +720,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Peisheng Huang</author>
   </authors>
   <commentList>
-    <comment ref="C272" authorId="0" shapeId="0" xr:uid="{F58B7081-2000-4075-A493-0BDDA661698B}">
+    <comment ref="C272" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -746,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E272" authorId="0" shapeId="0" xr:uid="{DC8D6C02-CC39-45AF-91CA-8D1A427F00C6}">
+    <comment ref="E272" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +778,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1796">
   <si>
     <t>Units</t>
   </si>
@@ -6258,11 +6261,26 @@
   <si>
     <t>Ignore</t>
   </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>wave direction</t>
+  </si>
+  <si>
+    <t>TPP</t>
+  </si>
+  <si>
+    <t>wave period</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6568,6 +6586,2442 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER KEY"/>
+      <sheetName val="SentientHubs"/>
+      <sheetName val="Model_TFV"/>
+      <sheetName val="THEME5MET"/>
+      <sheetName val="MAFRL"/>
+      <sheetName val="IMOSBGC"/>
+      <sheetName val="IMOSPROFILE"/>
+      <sheetName val="DWER"/>
+      <sheetName val="DWERMOORING"/>
+      <sheetName val="BOM"/>
+      <sheetName val="WWM"/>
+      <sheetName val="DOT"/>
+      <sheetName val="THEME5"/>
+      <sheetName val="WWMSP5"/>
+      <sheetName val="JPPLAWAC"/>
+      <sheetName val="UWA"/>
+      <sheetName val="BMTBNA"/>
+      <sheetName val="FPA_BMT"/>
+      <sheetName val="WC_BMT"/>
+      <sheetName val="Information"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>var00001</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>E coli</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>var00002</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Enterococci</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>var00003</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>TN:TP</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>var00004</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Organic Nitrogen</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>var00005</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Organic Phosphorus</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>var00006</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Salinity</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>var00007</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Temperature</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>var00008</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Depth</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>var00009</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Total Nitrogen</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>var00010</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Total Phosphorus</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>var00011</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Total Organic Carbon</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>var00012</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Total Suspended Solids</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>var00013</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Turbidity</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>var00014</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Chlorophyll-a</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>var00015</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Ruppia Biomass</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>var00016</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Suspended Solids #1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>var00017</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Sediment Mass (SS1)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>var00018</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Suspended Solids #2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>var00019</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Sediment Mass (SS2)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>var00020</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Suspended Solids #3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>var00021</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Sediment Mass (SS3)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>var00022</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Water Age</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>var00023</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Oxygen</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>var00024</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Reactive Silica</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>var00025</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Ammonium</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>var00026</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Nitrate</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>var00027</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Filterable Reactive Phosphate</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>var00028</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Adsorped Phosphate</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>var00029</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Dissolved Organic Carbon</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>var00030</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Dissolved Organic Carbon (refractory)</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>var00031</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Particulate Organic Carbon</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>var00032</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Dissolved Organic Nitrogen</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>var00033</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Particulate Organic Nitrogen</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>var00034</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Dissolved Organic Nitrogen (refractory)</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>var00035</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Dissolved Organic Phosphorus</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>var00036</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Particulate Organic Phosphorus</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>var00037</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Dissolved Organic Phosphorus (refractory)</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>var00038</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Phytoplankton Biomass (greens)</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>var00039</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Phytoplankton Biomass (crypt)</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>var00040</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Phytoplankton Biomass (diatom)</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>var00041</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Phytoplankton Biomass (dino)</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>var00042</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Filamentous Algae (floating)</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>var00043</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Filamentous Algae Nitrogen (floating)</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>var00044</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Filamentous Algae Phosphorus (floating)</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>var00045</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Filamentous Algae Biomass (total)</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>var00046</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>Filamentous Algae Biomass (total)</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>var00047</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Filamentous Algae Biomass (total)</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>var00048</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>O2 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>var00049</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>DIC Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>var00050</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>NH4 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>var00051</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>NO3 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>var00052</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>FRP Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>var00053</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>POC Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>var00054</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>DOC Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>var00055</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>PON Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>var00056</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>DON Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>var00057</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>POP Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>var00058</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>DOP Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>var00059</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>Photosynthetically Active Radiation</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>var00060</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>Ruppia Gross Primary Productivity</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>var00061</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>Ruppia Net Primary Productivity</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>var00062</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>Ruppia Biomass</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>var00063</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Ruppia Leaf Area Index</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>var00064</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>Ruppia Biomass (above-ground)</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>var00065</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>Ruppia Biomass (below-ground)</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>var00066</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>Ruppia Root Depth</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>var00067</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>Ruppia O2 Injection Rate</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>var00068</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>Sedimentation Velocity (SS1)</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>var00069</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>Sedimentation Rate (SS1)</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>var00070</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>Sedimentation Velocity (SS2)</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>var00071</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>Sedimentation Rate (SS2)</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>var00072</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>Sedimentation Velocity (SS3)</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>var00073</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>Sedimentation Rate (SS3)</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>var00074</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>Sediment Mass</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>var00075</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>Critical Shear Stress</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>var00076</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>var00077</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>Sediment Fraction (SS1)</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>var00078</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>Sediment Fraction (SS2)</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>var00079</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>Sediment Fraction (SS3)</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>var00080</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>Sedimentation Rate (SS)</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>var00081</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>SS Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>var00082</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>Change in SWI Position</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>var00083</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>Resuspension Rate (SS)</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>var00084</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>Bottom Shear Stress</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>var00085</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>O2 Saturation</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>var00086</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>O2 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>var00087</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>O2 Atmospheric Flux</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>var00088</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>O2 Dissolved Sediment Exchange Rate</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>var00089</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>O2 Atmospheric Exchange Rate</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>var00090</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>Si Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>var00091</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>NH4 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>var00092</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>NO3 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>var00093</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>Nitrification Rate</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>var00094</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>Denitrification Rate</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>var00095</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>Annamox Rate</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>var00096</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>DNRA Rate</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>var00097</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>DIN Atmospheric Deposition Flux</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>var00098</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>PIP Sedimentation Rate</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>var00099</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>PIP Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>var00100</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>PIP Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>var00101</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>FRP Sorption Rate</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>var00102</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>FRP Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>var00103</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>DIP Atmospheric Deposition Flux</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>var00104</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>POC Sedimentation Rate</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>var00105</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>PON Sedimentation Rate</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>var00106</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>POP Sedimentation Rate</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>var00107</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>Sediment OM Fraction</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>var00108</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>Chromophoric DOM</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>var00109</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>Sediment Total Organic Carbon</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>var00110</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>Sediment Total Organic Nitrogen</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>var00111</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>Sediment Total Organic Phosphorus</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>var00112</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>POC Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>var00113</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>DOC Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>var00114</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>PON Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>var00115</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>DON Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>var00116</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>POP Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>var00117</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>DOP Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>var00118</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>POC Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>var00119</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>PON Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>var00120</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>POP Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>var00121</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>POC Hydrolysis Rate</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>var00122</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>PON Hydrolysis Rate</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>var00123</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>POP Hydrolysis Rate</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>var00124</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>DOC Mineralisation Rate</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>var00125</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>DON Mineralisation Rate</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>var00126</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>DOP Mineralisation Rate</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>var00127</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>DOC Mineralisation Rate (anaerobic)</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>var00128</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>DOC Mineralisation Rate (denitrification)</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>var00129</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>Wind Direction</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>var00130</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>Wind Speed</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>var00131</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>Chlorophyll-b</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>var00132</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>Chlorophyll-c</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>var00133</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>Cloud Cover</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>var00134</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>Conductivity</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>var00135</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>Flow Status</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>var00136</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>Total TKN</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>var00137</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>pH</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>var00138</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>Phaeophytin a</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>var00139</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>Total Alkalinity</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>var00140</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>Secchi depth</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>var00141</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>Tide status</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>var00142</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>Max Discharge</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>var00143</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>Mean Discharge</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>var00144</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v>Min Discharge</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>var00145</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>Discharge</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>var00146</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v>Max Stage Height CTF</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>var00147</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v>Mean Stage Height CTF</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>var00148</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v>Min Stage Height CTF</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>var00149</v>
+          </cell>
+          <cell r="B150" t="str">
+            <v>Max Stage Height</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>var00150</v>
+          </cell>
+          <cell r="B151" t="str">
+            <v>Mean Stage Height</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>var00151</v>
+          </cell>
+          <cell r="B152" t="str">
+            <v>Min Stage Height</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>var00152</v>
+          </cell>
+          <cell r="B153" t="str">
+            <v>Precipitation</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>var00153</v>
+          </cell>
+          <cell r="B154" t="str">
+            <v>Air Temperature</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>var00154</v>
+          </cell>
+          <cell r="B155" t="str">
+            <v>Wet Bulb Air Temperature</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>var00155</v>
+          </cell>
+          <cell r="B156" t="str">
+            <v>Dew Point Temperature</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>var00156</v>
+          </cell>
+          <cell r="B157" t="str">
+            <v>Relative Humidity</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>var00157</v>
+          </cell>
+          <cell r="B158" t="str">
+            <v>Max Wind Speed</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>var00158</v>
+          </cell>
+          <cell r="B159" t="str">
+            <v>Cloud amount of first group in eighths</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>var00159</v>
+          </cell>
+          <cell r="B160" t="str">
+            <v>Cloud height of first group</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>var00160</v>
+          </cell>
+          <cell r="B161" t="str">
+            <v>Cloud amount of second group in eighths</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>var00161</v>
+          </cell>
+          <cell r="B162" t="str">
+            <v>Cloud height of second group</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>var00162</v>
+          </cell>
+          <cell r="B163" t="str">
+            <v>Cloud amount of third group in eighths</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>var00163</v>
+          </cell>
+          <cell r="B164" t="str">
+            <v>Cloud height of third group</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>var00164</v>
+          </cell>
+          <cell r="B165" t="str">
+            <v>Cloud amount of fourth group in eighths</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>var00165</v>
+          </cell>
+          <cell r="B166" t="str">
+            <v>Cloud height of fourth group</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>var00166</v>
+          </cell>
+          <cell r="B167" t="str">
+            <v>Ceilometer cloud amount of first group</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>var00167</v>
+          </cell>
+          <cell r="B168" t="str">
+            <v>Ceilometer cloud height of first group</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>var00168</v>
+          </cell>
+          <cell r="B169" t="str">
+            <v>Ceilometer cloud amount of second group</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>var00169</v>
+          </cell>
+          <cell r="B170" t="str">
+            <v>Ceilometer cloud height of second group</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>var00170</v>
+          </cell>
+          <cell r="B171" t="str">
+            <v>Ceilometer cloud amount of third group</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>var00171</v>
+          </cell>
+          <cell r="B172" t="str">
+            <v>Ceilometer cloud height of third group</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>var00172</v>
+          </cell>
+          <cell r="B173" t="str">
+            <v>Ceilometer sky clear flag</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>var00173</v>
+          </cell>
+          <cell r="B174" t="str">
+            <v>Horizontal visibility</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>var00174</v>
+          </cell>
+          <cell r="B175" t="str">
+            <v>AWS visibility</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>var00175</v>
+          </cell>
+          <cell r="B176" t="str">
+            <v>Present weather in code</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>var00176</v>
+          </cell>
+          <cell r="B177" t="str">
+            <v>Mean sea level pressure</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>var00177</v>
+          </cell>
+          <cell r="B178" t="str">
+            <v>Station level pressure</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>var00178</v>
+          </cell>
+          <cell r="B179" t="str">
+            <v>Chlorophyll sample volume</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>var00179</v>
+          </cell>
+          <cell r="B180" t="str">
+            <v>Bottom Depth</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>var00180</v>
+          </cell>
+          <cell r="B181" t="str">
+            <v>Tidal Height</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182" t="str">
+            <v>var00181</v>
+          </cell>
+          <cell r="B182" t="str">
+            <v>PAR</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v>var00182</v>
+          </cell>
+          <cell r="B183" t="str">
+            <v>Tilt</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184" t="str">
+            <v>var00183</v>
+          </cell>
+          <cell r="B184" t="str">
+            <v>WL - 410</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185" t="str">
+            <v>var00184</v>
+          </cell>
+          <cell r="B185" t="str">
+            <v>WL - 440</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>var00185</v>
+          </cell>
+          <cell r="B186" t="str">
+            <v>WL - 490</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>var00186</v>
+          </cell>
+          <cell r="B187" t="str">
+            <v>WL - 510</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>var00187</v>
+          </cell>
+          <cell r="B188" t="str">
+            <v>WL - 550</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>var00188</v>
+          </cell>
+          <cell r="B189" t="str">
+            <v>WL - 590</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>var00189</v>
+          </cell>
+          <cell r="B190" t="str">
+            <v>WL - 635</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>var00190</v>
+          </cell>
+          <cell r="B191" t="str">
+            <v>WL - 660</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>var00191</v>
+          </cell>
+          <cell r="B192" t="str">
+            <v>WL - 700</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>var00192</v>
+          </cell>
+          <cell r="B193" t="str">
+            <v>ACCELERATIONX</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>var00193</v>
+          </cell>
+          <cell r="B194" t="str">
+            <v>ACCELERATIONY</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>var00194</v>
+          </cell>
+          <cell r="B195" t="str">
+            <v>ACCELERATIONZ</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>var00195</v>
+          </cell>
+          <cell r="B196" t="str">
+            <v>AMPLITUDE1</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>var00196</v>
+          </cell>
+          <cell r="B197" t="str">
+            <v>AMPLITUDE2</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>var00197</v>
+          </cell>
+          <cell r="B198" t="str">
+            <v>AMPLITUDE3</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>var00198</v>
+          </cell>
+          <cell r="B199" t="str">
+            <v>CELL</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>var00199</v>
+          </cell>
+          <cell r="B200" t="str">
+            <v>DENSITY ANOMALY</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>var00201</v>
+          </cell>
+          <cell r="B201" t="str">
+            <v>HEADING</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202" t="str">
+            <v>var00202</v>
+          </cell>
+          <cell r="B202" t="str">
+            <v>LOWER_UCUR</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203" t="str">
+            <v>var00203</v>
+          </cell>
+          <cell r="B203" t="str">
+            <v>LOWER_VCUR</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204" t="str">
+            <v>var00204</v>
+          </cell>
+          <cell r="B204" t="str">
+            <v>MIDDLE_UCUR</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205" t="str">
+            <v>var00205</v>
+          </cell>
+          <cell r="B205" t="str">
+            <v>MIDDLE_VCUR</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206" t="str">
+            <v>var00206</v>
+          </cell>
+          <cell r="B206" t="str">
+            <v>Pitch</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207" t="str">
+            <v>var00207</v>
+          </cell>
+          <cell r="B207" t="str">
+            <v>PRESSURE</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208" t="str">
+            <v>var00208</v>
+          </cell>
+          <cell r="B208" t="str">
+            <v>PRESSURE_SENSOR_DEPTH</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209" t="str">
+            <v>var00209</v>
+          </cell>
+          <cell r="B209" t="str">
+            <v>ROLL</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210" t="str">
+            <v>var00210</v>
+          </cell>
+          <cell r="B210" t="str">
+            <v>SPEED_OF_SOUND</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211" t="str">
+            <v>var00211</v>
+          </cell>
+          <cell r="B211" t="str">
+            <v>UCUR (eastward velocity)</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212" t="str">
+            <v>var00212</v>
+          </cell>
+          <cell r="B212" t="str">
+            <v>UPPER_UCUR</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213" t="str">
+            <v>var00213</v>
+          </cell>
+          <cell r="B213" t="str">
+            <v>UPPER_VCUR</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214" t="str">
+            <v>var00214</v>
+          </cell>
+          <cell r="B214" t="str">
+            <v>VCUR (northward velocity)</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215" t="str">
+            <v>var00215</v>
+          </cell>
+          <cell r="B215" t="str">
+            <v>WCUR</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216" t="str">
+            <v>var00216</v>
+          </cell>
+          <cell r="B216" t="str">
+            <v>light attenuation coefficient</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217" t="str">
+            <v>var00217</v>
+          </cell>
+          <cell r="B217" t="str">
+            <v>cell</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218" t="str">
+            <v>var00218</v>
+          </cell>
+          <cell r="B218" t="str">
+            <v>density</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219" t="str">
+            <v>var00219</v>
+          </cell>
+          <cell r="B219" t="str">
+            <v>fluorescence</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220" t="str">
+            <v>var00220</v>
+          </cell>
+          <cell r="B220" t="str">
+            <v>Prochlorococcus</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221" t="str">
+            <v>var00221</v>
+          </cell>
+          <cell r="B221" t="str">
+            <v>Synechococcus</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222" t="str">
+            <v>var00222</v>
+          </cell>
+          <cell r="B222" t="str">
+            <v>Picoeukaryotes</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223" t="str">
+            <v>var00223</v>
+          </cell>
+          <cell r="B223" t="str">
+            <v>Allo</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224" t="str">
+            <v>var00224</v>
+          </cell>
+          <cell r="B224" t="str">
+            <v>AlphaBetaCar</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225" t="str">
+            <v>var00225</v>
+          </cell>
+          <cell r="B225" t="str">
+            <v>Anth</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226" t="str">
+            <v>var00226</v>
+          </cell>
+          <cell r="B226" t="str">
+            <v>Asta</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227" t="str">
+            <v>var00227</v>
+          </cell>
+          <cell r="B227" t="str">
+            <v>BetaBetaCar</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228" t="str">
+            <v>var00228</v>
+          </cell>
+          <cell r="B228" t="str">
+            <v>BetaEpiCar</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229" t="str">
+            <v>var00229</v>
+          </cell>
+          <cell r="B229" t="str">
+            <v>Butfuco</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230" t="str">
+            <v>var00230</v>
+          </cell>
+          <cell r="B230" t="str">
+            <v>Cantha</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231" t="str">
+            <v>var00231</v>
+          </cell>
+          <cell r="B231" t="str">
+            <v>CphlA</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232" t="str">
+            <v>var00232</v>
+          </cell>
+          <cell r="B232" t="str">
+            <v>CphlB</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233" t="str">
+            <v>var00233</v>
+          </cell>
+          <cell r="B233" t="str">
+            <v>CphlC1</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234" t="str">
+            <v>var00234</v>
+          </cell>
+          <cell r="B234" t="str">
+            <v>CphlC2</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235" t="str">
+            <v>var00235</v>
+          </cell>
+          <cell r="B235" t="str">
+            <v>CphlC3</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236" t="str">
+            <v>var00236</v>
+          </cell>
+          <cell r="B236" t="str">
+            <v>CphlC1C2</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237" t="str">
+            <v>var00237</v>
+          </cell>
+          <cell r="B237" t="str">
+            <v>CphlideA</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238" t="str">
+            <v>var00238</v>
+          </cell>
+          <cell r="B238" t="str">
+            <v>Diadchr</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239" t="str">
+            <v>var00239</v>
+          </cell>
+          <cell r="B239" t="str">
+            <v>Diadino</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240" t="str">
+            <v>var00240</v>
+          </cell>
+          <cell r="B240" t="str">
+            <v>Diato</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241" t="str">
+            <v>var00241</v>
+          </cell>
+          <cell r="B241" t="str">
+            <v>Dino</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242" t="str">
+            <v>var00242</v>
+          </cell>
+          <cell r="B242" t="str">
+            <v>DvCphlA+CphlA</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243" t="str">
+            <v>var00243</v>
+          </cell>
+          <cell r="B243" t="str">
+            <v>DvCphlA</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244" t="str">
+            <v>var00244</v>
+          </cell>
+          <cell r="B244" t="str">
+            <v>DvCphlB+CphlB</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245" t="str">
+            <v>var00245</v>
+          </cell>
+          <cell r="B245" t="str">
+            <v>DvCphlB</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="A246" t="str">
+            <v>var00246</v>
+          </cell>
+          <cell r="B246" t="str">
+            <v>Echin</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247" t="str">
+            <v>var00247</v>
+          </cell>
+          <cell r="B247" t="str">
+            <v>Fuco</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248" t="str">
+            <v>var00248</v>
+          </cell>
+          <cell r="B248" t="str">
+            <v>Gyro</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249" t="str">
+            <v>var00249</v>
+          </cell>
+          <cell r="B249" t="str">
+            <v>Hexfuco</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250" t="str">
+            <v>var00250</v>
+          </cell>
+          <cell r="B250" t="str">
+            <v>Ketohexfuco</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251" t="str">
+            <v>var00251</v>
+          </cell>
+          <cell r="B251" t="str">
+            <v>Lut</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252" t="str">
+            <v>var00252</v>
+          </cell>
+          <cell r="B252" t="str">
+            <v>Lyco</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253" t="str">
+            <v>var00253</v>
+          </cell>
+          <cell r="B253" t="str">
+            <v>MgDvp</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254" t="str">
+            <v>var00254</v>
+          </cell>
+          <cell r="B254" t="str">
+            <v>Neo</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255" t="str">
+            <v>var00255</v>
+          </cell>
+          <cell r="B255" t="str">
+            <v>Perid</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256" t="str">
+            <v>var00256</v>
+          </cell>
+          <cell r="B256" t="str">
+            <v>PhideA</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="A257" t="str">
+            <v>var00257</v>
+          </cell>
+          <cell r="B257" t="str">
+            <v>PhytinA</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="A258" t="str">
+            <v>var00258</v>
+          </cell>
+          <cell r="B258" t="str">
+            <v>PhytinB</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="A259" t="str">
+            <v>var00259</v>
+          </cell>
+          <cell r="B259" t="str">
+            <v>Pras</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="A260" t="str">
+            <v>var00260</v>
+          </cell>
+          <cell r="B260" t="str">
+            <v>PyrophideA</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="A261" t="str">
+            <v>var00261</v>
+          </cell>
+          <cell r="B261" t="str">
+            <v>PyrophytinA</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="A262" t="str">
+            <v>var00262</v>
+          </cell>
+          <cell r="B262" t="str">
+            <v>Viola</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="A263" t="str">
+            <v>var00263</v>
+          </cell>
+          <cell r="B263" t="str">
+            <v>Zea</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="A264" t="str">
+            <v>var00264</v>
+          </cell>
+          <cell r="B264" t="str">
+            <v>Nitrite</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="A265" t="str">
+            <v>var00265</v>
+          </cell>
+          <cell r="B265" t="str">
+            <v>TSSorganic</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="A266" t="str">
+            <v>var00266</v>
+          </cell>
+          <cell r="B266" t="str">
+            <v>TSSinorganic</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="A267" t="str">
+            <v>var00267</v>
+          </cell>
+          <cell r="B267" t="str">
+            <v>DIC</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="A268" t="str">
+            <v>var00268</v>
+          </cell>
+          <cell r="B268" t="str">
+            <v>Pressure head</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="A269" t="str">
+            <v>var00269</v>
+          </cell>
+          <cell r="B269" t="str">
+            <v>velocity x component of current</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="A270" t="str">
+            <v>var00270</v>
+          </cell>
+          <cell r="B270" t="str">
+            <v>velocity y component of current</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="A271" t="str">
+            <v>var00271</v>
+          </cell>
+          <cell r="B271" t="str">
+            <v>Significant waveheight</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="A272" t="str">
+            <v>var00272</v>
+          </cell>
+          <cell r="B272" t="str">
+            <v>Mean 1/3 waveheight</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="A273" t="str">
+            <v>var00273</v>
+          </cell>
+          <cell r="B273" t="str">
+            <v>Mean 1/10 waveheight</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="A274" t="str">
+            <v>var00274</v>
+          </cell>
+          <cell r="B274" t="str">
+            <v>Maximum waveheight</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="A275" t="str">
+            <v>var00275</v>
+          </cell>
+          <cell r="B275" t="str">
+            <v>Mean wave height</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="A276" t="str">
+            <v>var00276</v>
+          </cell>
+          <cell r="B276" t="str">
+            <v>Mean wave period</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="A277" t="str">
+            <v>var00277</v>
+          </cell>
+          <cell r="B277" t="str">
+            <v>Peak wave period</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="A278" t="str">
+            <v>var00278</v>
+          </cell>
+          <cell r="B278" t="str">
+            <v>Mean 1/3 period</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="A279" t="str">
+            <v>var00279</v>
+          </cell>
+          <cell r="B279" t="str">
+            <v>Mean 1/10 period</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="A280" t="str">
+            <v>var00280</v>
+          </cell>
+          <cell r="B280" t="str">
+            <v>Maximum wave period</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="A281" t="str">
+            <v>var00281</v>
+          </cell>
+          <cell r="B281" t="str">
+            <v>Peak wave direction</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="A282" t="str">
+            <v>var00282</v>
+          </cell>
+          <cell r="B282" t="str">
+            <v>Directional spread</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="A283" t="str">
+            <v>var00283</v>
+          </cell>
+          <cell r="B283" t="str">
+            <v>Mean wave direction</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="A284" t="str">
+            <v>var00284</v>
+          </cell>
+          <cell r="B284" t="str">
+            <v>Current velocity</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="A285" t="str">
+            <v>var00285</v>
+          </cell>
+          <cell r="B285" t="str">
+            <v>Current direction</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="A286" t="str">
+            <v>var00286</v>
+          </cell>
+          <cell r="B286" t="str">
+            <v>Min Wind Speed</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="A287" t="str">
+            <v>var00287</v>
+          </cell>
+          <cell r="B287" t="str">
+            <v>Wind Direction STD</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="A288" t="str">
+            <v>var00288</v>
+          </cell>
+          <cell r="B288" t="str">
+            <v>max station level pressure</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="A289" t="str">
+            <v>var00289</v>
+          </cell>
+          <cell r="B289" t="str">
+            <v>min station level pressure</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="A290" t="str">
+            <v>var00290</v>
+          </cell>
+          <cell r="B290" t="str">
+            <v>station level pressure std</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="A291" t="str">
+            <v>var00291</v>
+          </cell>
+          <cell r="B291" t="str">
+            <v>mean solar radiation</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="A292" t="str">
+            <v>var00292</v>
+          </cell>
+          <cell r="B292" t="str">
+            <v>min solar radiation</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="A293" t="str">
+            <v>var00293</v>
+          </cell>
+          <cell r="B293" t="str">
+            <v>max solar radiation</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="A294" t="str">
+            <v>var00294</v>
+          </cell>
+          <cell r="B294" t="str">
+            <v>solar radiation std</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="A295" t="str">
+            <v>var00295</v>
+          </cell>
+          <cell r="B295" t="str">
+            <v>max PAR</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="A296" t="str">
+            <v>var00296</v>
+          </cell>
+          <cell r="B296" t="str">
+            <v>min PAR</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="A297" t="str">
+            <v>var00297</v>
+          </cell>
+          <cell r="B297" t="str">
+            <v>PAR STD</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="A298" t="str">
+            <v>var00298</v>
+          </cell>
+          <cell r="B298" t="str">
+            <v>Total Par</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="A299" t="str">
+            <v>var00299</v>
+          </cell>
+          <cell r="B299" t="str">
+            <v>Total Solar</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6864,10 +9318,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H300" sqref="H300"/>
     </sheetView>
@@ -13116,7 +15570,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J318" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J318"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13125,7 +15579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13489,7 +15943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14040,7 +16494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14422,7 +16876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15251,7 +17705,113 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'[1]MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <v>Significant waveheight</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15522,8 +18082,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBC0BB9-8F45-4117-8EDC-41406E638950}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15926,8 +18486,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16229,8 +18789,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16452,8 +19012,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16621,143 +19181,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
-        <v>Tidal Height</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>839</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
-        <v>PAR</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
-        <v>velocity x component of current</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
-        <v>velocity y component of current</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>715</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>714</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
-        <v>Current velocity</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7D7559-1643-4FF9-B8E5-4B46BD5C53B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17150,7 +19575,142 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B928,2,TRUE)</f>
+        <v>Tidal Height</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B929,2,TRUE)</f>
+        <v>PAR</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
+        <v>velocity x component of current</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
+        <v>velocity y component of current</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B932,2,TRUE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
+        <v>Current velocity</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17268,8 +19828,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17297,7 +19857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A236"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
@@ -18495,7 +21055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24763,7 +27323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5261A16-8B5D-4B5D-ADA5-57BB15B52747}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25082,7 +27642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27011,7 +29571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
@@ -28169,7 +30729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28533,7 +31093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\busch\github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B8D01-832D-4574-94E5-ABD58B88A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E69679F-5E9E-4552-884B-11D12A63522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="0" windowWidth="23040" windowHeight="25320" tabRatio="841" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="841" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="1832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="1831">
   <si>
     <t>Units</t>
   </si>
@@ -5821,9 +5821,6 @@
   </si>
   <si>
     <t>min_wind_speed</t>
-  </si>
-  <si>
-    <t>sea level pressure std</t>
   </si>
   <si>
     <t>sea_level_pressure_std</t>
@@ -6599,7 +6596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6626,9 +6623,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7432,7 +7426,7 @@
       <c r="A17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -7455,7 +7449,7 @@
       <c r="A18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -7478,7 +7472,7 @@
       <c r="A19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -7501,7 +7495,7 @@
       <c r="A20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -7524,7 +7518,7 @@
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -7547,7 +7541,7 @@
       <c r="A22" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -7593,7 +7587,7 @@
       <c r="A24" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -8123,7 +8117,7 @@
       <c r="A46" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -8146,7 +8140,7 @@
       <c r="A47" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -8169,7 +8163,7 @@
       <c r="A48" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -8598,7 +8592,7 @@
       <c r="A69" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -8618,7 +8612,7 @@
       <c r="A70" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -8638,7 +8632,7 @@
       <c r="A71" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="24" t="s">
         <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -8658,7 +8652,7 @@
       <c r="A72" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -8678,7 +8672,7 @@
       <c r="A73" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -8698,7 +8692,7 @@
       <c r="A74" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="24" t="s">
         <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -8778,7 +8772,7 @@
       <c r="A78" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="24" t="s">
         <v>98</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -8798,7 +8792,7 @@
       <c r="A79" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -8818,7 +8812,7 @@
       <c r="A80" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="24" t="s">
         <v>101</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -8958,7 +8952,7 @@
       <c r="A87" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -8998,7 +8992,7 @@
       <c r="A89" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -9018,7 +9012,7 @@
       <c r="A90" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="23" t="s">
         <v>112</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -9058,7 +9052,7 @@
       <c r="A92" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -9078,7 +9072,7 @@
       <c r="A93" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -9278,7 +9272,7 @@
       <c r="A103" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="24" t="s">
         <v>66</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -9821,10 +9815,10 @@
       <c r="B130" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="D130" s="24" t="s">
+      <c r="D130" s="23" t="s">
         <v>507</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -10305,7 +10299,7 @@
       <c r="B153" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C153" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -10879,29 +10873,29 @@
         <v>838</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="20" t="s">
+    <row r="181" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="B181" s="26" t="s">
+      <c r="B181" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D181" s="20" t="s">
+      <c r="D181" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E181" s="20" t="s">
+      <c r="E181" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F181" s="20" t="s">
+      <c r="F181" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="G181" s="20" t="s">
+      <c r="G181" s="19" t="s">
         <v>1108</v>
       </c>
-      <c r="H181" s="20" t="s">
+      <c r="H181" s="19" t="s">
         <v>838</v>
       </c>
     </row>
@@ -10925,20 +10919,20 @@
         <v>838</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="20" t="s">
+    <row r="183" spans="1:9" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A183" s="19" t="s">
         <v>901</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="E183" s="20" t="s">
+      <c r="E183" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="H183" s="20" t="s">
+      <c r="H183" s="19" t="s">
         <v>838</v>
       </c>
     </row>
@@ -10946,7 +10940,7 @@
       <c r="A184" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="B184" s="26" t="s">
         <v>911</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -10963,7 +10957,7 @@
       <c r="A185" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B185" s="26" t="s">
         <v>912</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -10980,7 +10974,7 @@
       <c r="A186" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="26" t="s">
         <v>913</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -10997,7 +10991,7 @@
       <c r="A187" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="B187" s="26" t="s">
         <v>914</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -11014,7 +11008,7 @@
       <c r="A188" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B188" s="27" t="s">
+      <c r="B188" s="26" t="s">
         <v>915</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -11031,7 +11025,7 @@
       <c r="A189" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B189" s="27" t="s">
+      <c r="B189" s="26" t="s">
         <v>916</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -11048,7 +11042,7 @@
       <c r="A190" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="26" t="s">
         <v>917</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -11065,7 +11059,7 @@
       <c r="A191" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="26" t="s">
         <v>918</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -11082,7 +11076,7 @@
       <c r="A192" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="B192" s="26" t="s">
         <v>919</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -11095,394 +11089,394 @@
         <v>838</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A193" s="20" t="s">
+    <row r="193" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A193" s="19" t="s">
         <v>923</v>
       </c>
-      <c r="B193" s="28" t="s">
+      <c r="B193" s="27" t="s">
         <v>866</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C193" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="E193" s="22" t="s">
+      <c r="E193" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="H193" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A194" s="20" t="s">
+      <c r="H193" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A194" s="19" t="s">
         <v>924</v>
       </c>
-      <c r="B194" s="28" t="s">
+      <c r="B194" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C194" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="E194" s="22" t="s">
+      <c r="E194" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="H194" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A195" s="20" t="s">
+      <c r="H194" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A195" s="19" t="s">
         <v>925</v>
       </c>
-      <c r="B195" s="28" t="s">
+      <c r="B195" s="27" t="s">
         <v>868</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="C195" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="E195" s="22" t="s">
+      <c r="E195" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="H195" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196" s="20" t="s">
+      <c r="H195" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="19" t="s">
         <v>926</v>
       </c>
-      <c r="B196" s="28" t="s">
+      <c r="B196" s="27" t="s">
         <v>869</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="E196" s="22" t="s">
+      <c r="E196" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="H196" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197" s="20" t="s">
+      <c r="H196" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A197" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="B197" s="28" t="s">
+      <c r="B197" s="27" t="s">
         <v>870</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C197" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="E197" s="22" t="s">
+      <c r="E197" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="H197" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198" s="20" t="s">
+      <c r="H197" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
         <v>928</v>
       </c>
-      <c r="B198" s="28" t="s">
+      <c r="B198" s="27" t="s">
         <v>871</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="E198" s="22" t="s">
+      <c r="E198" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="H198" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199" s="20" t="s">
+      <c r="H198" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A199" s="19" t="s">
         <v>929</v>
       </c>
-      <c r="B199" s="28" t="s">
+      <c r="B199" s="27" t="s">
         <v>872</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="C199" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="20" t="s">
+      <c r="E199" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H199" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200" s="20" t="s">
+      <c r="H199" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A200" s="19" t="s">
         <v>932</v>
       </c>
-      <c r="B200" s="28" t="s">
+      <c r="B200" s="27" t="s">
         <v>930</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="E200" s="22" t="s">
+      <c r="E200" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="H200" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201" s="20" t="s">
+      <c r="H200" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A201" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="B201" s="28" t="s">
+      <c r="B201" s="27" t="s">
         <v>877</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="C201" s="21" t="s">
         <v>933</v>
       </c>
-      <c r="E201" s="22" t="s">
+      <c r="E201" s="21" t="s">
         <v>933</v>
       </c>
-      <c r="H201" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202" s="20" t="s">
+      <c r="H201" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A202" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="B202" s="28" t="s">
+      <c r="B202" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E202" s="22" t="s">
+      <c r="E202" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H202" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203" s="20" t="s">
+      <c r="H202" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="19" t="s">
         <v>936</v>
       </c>
-      <c r="B203" s="28" t="s">
+      <c r="B203" s="27" t="s">
         <v>879</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E203" s="22" t="s">
+      <c r="E203" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H203" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="20" t="s">
+      <c r="H203" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A204" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="B204" s="28" t="s">
+      <c r="B204" s="27" t="s">
         <v>880</v>
       </c>
-      <c r="C204" s="22" t="s">
+      <c r="C204" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E204" s="22" t="s">
+      <c r="E204" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H204" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A205" s="20" t="s">
+      <c r="H204" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A205" s="19" t="s">
         <v>938</v>
       </c>
-      <c r="B205" s="28" t="s">
+      <c r="B205" s="27" t="s">
         <v>881</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E205" s="22" t="s">
+      <c r="E205" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H205" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="20" t="s">
+      <c r="H205" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="19" t="s">
         <v>940</v>
       </c>
-      <c r="B206" s="20" t="s">
+      <c r="B206" s="19" t="s">
         <v>939</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="C206" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="E206" s="20" t="s">
+      <c r="E206" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="H206" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A207" s="20" t="s">
+      <c r="H206" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A207" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="B207" s="22" t="s">
+      <c r="B207" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="E207" s="22" t="s">
+      <c r="E207" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="H207" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A208" s="20" t="s">
+      <c r="H207" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A208" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="B208" s="22" t="s">
+      <c r="B208" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="E208" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="H208" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209" s="20" t="s">
+      <c r="H208" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A209" s="19" t="s">
         <v>946</v>
       </c>
-      <c r="B209" s="22" t="s">
+      <c r="B209" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="E209" s="22" t="s">
+      <c r="E209" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="H209" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A210" s="20" t="s">
+      <c r="H209" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A210" s="19" t="s">
         <v>947</v>
       </c>
-      <c r="B210" s="22" t="s">
+      <c r="B210" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E210" s="22" t="s">
+      <c r="E210" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H210" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A211" s="20" t="s">
+      <c r="H210" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A211" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="B211" s="28" t="s">
+      <c r="B211" s="27" t="s">
         <v>1412</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E211" s="22" t="s">
+      <c r="E211" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H211" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212" s="20" t="s">
+      <c r="H211" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A212" s="19" t="s">
         <v>949</v>
       </c>
-      <c r="B212" s="22" t="s">
+      <c r="B212" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C212" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E212" s="22" t="s">
+      <c r="E212" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H212" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213" s="20" t="s">
+      <c r="H212" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A213" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="B213" s="28" t="s">
+      <c r="B213" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E213" s="22" t="s">
+      <c r="E213" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H213" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A214" s="20" t="s">
+      <c r="H213" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A214" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="B214" s="22" t="s">
+      <c r="B214" s="21" t="s">
         <v>1413</v>
       </c>
-      <c r="C214" s="22" t="s">
+      <c r="C214" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E214" s="22" t="s">
+      <c r="E214" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H214" s="20" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A215" s="20" t="s">
+      <c r="H214" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A215" s="19" t="s">
         <v>952</v>
       </c>
-      <c r="B215" s="28" t="s">
+      <c r="B215" s="27" t="s">
         <v>896</v>
       </c>
-      <c r="C215" s="22" t="s">
+      <c r="C215" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="E215" s="22" t="s">
+      <c r="E215" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="H215" s="20" t="s">
+      <c r="H215" s="19" t="s">
         <v>838</v>
       </c>
     </row>
@@ -11511,7 +11505,7 @@
       <c r="A217" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="23" t="s">
         <v>1072</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -12386,314 +12380,314 @@
         <v>838</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="20" t="s">
+    <row r="268" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="19" t="s">
         <v>1314</v>
       </c>
-      <c r="B268" s="26" t="s">
+      <c r="B268" s="25" t="s">
         <v>1319</v>
       </c>
-      <c r="C268" s="20" t="s">
+      <c r="C268" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D268" s="20" t="s">
+      <c r="D268" s="19" t="s">
         <v>839</v>
       </c>
-      <c r="F268" s="20" t="s">
+      <c r="F268" s="19" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="20" t="s">
+    <row r="269" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="19" t="s">
         <v>1315</v>
       </c>
-      <c r="B269" s="20" t="s">
+      <c r="B269" s="19" t="s">
         <v>1369</v>
       </c>
-      <c r="C269" s="20" t="s">
+      <c r="C269" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="D269" s="20" t="s">
+      <c r="D269" s="19" t="s">
         <v>1309</v>
       </c>
-      <c r="F269" s="20" t="s">
+      <c r="F269" s="19" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="270" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="20" t="s">
+    <row r="270" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="19" t="s">
         <v>1316</v>
       </c>
-      <c r="B270" s="20" t="s">
+      <c r="B270" s="19" t="s">
         <v>1370</v>
       </c>
-      <c r="C270" s="20" t="s">
+      <c r="C270" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="D270" s="20" t="s">
+      <c r="D270" s="19" t="s">
         <v>1310</v>
       </c>
-      <c r="F270" s="20" t="s">
+      <c r="F270" s="19" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="271" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="20" t="s">
+    <row r="271" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="19" t="s">
         <v>1317</v>
       </c>
-      <c r="B271" s="20" t="s">
+      <c r="B271" s="19" t="s">
         <v>1321</v>
       </c>
-      <c r="C271" s="20" t="s">
+      <c r="C271" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D271" s="20" t="s">
+      <c r="D271" s="19" t="s">
         <v>1311</v>
       </c>
-      <c r="F271" s="20" t="s">
+      <c r="F271" s="19" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="20" t="s">
+    <row r="272" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="19" t="s">
         <v>1318</v>
       </c>
-      <c r="B272" s="26" t="s">
+      <c r="B272" s="25" t="s">
         <v>1322</v>
       </c>
-      <c r="C272" s="20" t="s">
+      <c r="C272" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D272" s="20" t="s">
+      <c r="D272" s="19" t="s">
         <v>1649</v>
       </c>
-      <c r="F272" s="20" t="s">
+      <c r="F272" s="19" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="20" t="s">
+    <row r="273" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="19" t="s">
         <v>1335</v>
       </c>
-      <c r="B273" s="20" t="s">
+      <c r="B273" s="19" t="s">
         <v>1324</v>
       </c>
-      <c r="C273" s="20" t="s">
+      <c r="C273" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D273" s="20" t="s">
+      <c r="D273" s="19" t="s">
         <v>1650</v>
       </c>
-      <c r="F273" s="20" t="s">
+      <c r="F273" s="19" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="20" t="s">
+    <row r="274" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="19" t="s">
         <v>1336</v>
       </c>
-      <c r="B274" s="20" t="s">
+      <c r="B274" s="19" t="s">
         <v>1346</v>
       </c>
-      <c r="C274" s="20" t="s">
+      <c r="C274" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D274" s="20" t="s">
+      <c r="D274" s="19" t="s">
         <v>1326</v>
       </c>
-      <c r="F274" s="20" t="s">
+      <c r="F274" s="19" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="20" t="s">
+    <row r="275" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="19" t="s">
         <v>1337</v>
       </c>
-      <c r="B275" s="20" t="s">
+      <c r="B275" s="19" t="s">
         <v>1357</v>
       </c>
-      <c r="C275" s="20" t="s">
+      <c r="C275" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D275" s="20" t="s">
+      <c r="D275" s="19" t="s">
         <v>1328</v>
       </c>
-      <c r="F275" s="20" t="s">
+      <c r="F275" s="19" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="20" t="s">
+    <row r="276" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="19" t="s">
         <v>1338</v>
       </c>
-      <c r="B276" s="21" t="s">
+      <c r="B276" s="20" t="s">
         <v>1358</v>
       </c>
-      <c r="C276" s="20" t="s">
+      <c r="C276" s="19" t="s">
         <v>1327</v>
       </c>
-      <c r="D276" s="20" t="s">
+      <c r="D276" s="19" t="s">
         <v>1334</v>
       </c>
-      <c r="F276" s="21" t="s">
+      <c r="F276" s="20" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="20" t="s">
+    <row r="277" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="19" t="s">
         <v>1339</v>
       </c>
-      <c r="B277" s="21" t="s">
+      <c r="B277" s="20" t="s">
         <v>1359</v>
       </c>
-      <c r="C277" s="20" t="s">
+      <c r="C277" s="19" t="s">
         <v>1327</v>
       </c>
-      <c r="D277" s="20" t="s">
+      <c r="D277" s="19" t="s">
         <v>1312</v>
       </c>
-      <c r="F277" s="21" t="s">
+      <c r="F277" s="20" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="20" t="s">
+    <row r="278" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="19" t="s">
         <v>1340</v>
       </c>
-      <c r="B278" s="29" t="s">
+      <c r="B278" s="28" t="s">
         <v>1366</v>
       </c>
-      <c r="C278" s="20" t="s">
+      <c r="C278" s="19" t="s">
         <v>1327</v>
       </c>
-      <c r="D278" s="20" t="s">
+      <c r="D278" s="19" t="s">
         <v>1651</v>
       </c>
-      <c r="F278" s="21" t="s">
+      <c r="F278" s="20" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="20" t="s">
+    <row r="279" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="19" t="s">
         <v>1341</v>
       </c>
-      <c r="B279" s="20" t="s">
+      <c r="B279" s="19" t="s">
         <v>1367</v>
       </c>
-      <c r="C279" s="20" t="s">
+      <c r="C279" s="19" t="s">
         <v>1327</v>
       </c>
-      <c r="D279" s="20" t="s">
+      <c r="D279" s="19" t="s">
         <v>1652</v>
       </c>
-      <c r="F279" s="20" t="s">
+      <c r="F279" s="19" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="20" t="s">
+    <row r="280" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="19" t="s">
         <v>1342</v>
       </c>
-      <c r="B280" s="20" t="s">
+      <c r="B280" s="19" t="s">
         <v>1362</v>
       </c>
-      <c r="C280" s="20" t="s">
+      <c r="C280" s="19" t="s">
         <v>1327</v>
       </c>
-      <c r="D280" s="20" t="s">
+      <c r="D280" s="19" t="s">
         <v>1331</v>
       </c>
-      <c r="F280" s="20" t="s">
+      <c r="F280" s="19" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="20" t="s">
+    <row r="281" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="19" t="s">
         <v>1343</v>
       </c>
-      <c r="B281" s="20" t="s">
+      <c r="B281" s="19" t="s">
         <v>1347</v>
       </c>
-      <c r="C281" s="20" t="s">
+      <c r="C281" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="D281" s="20" t="s">
+      <c r="D281" s="19" t="s">
         <v>1313</v>
       </c>
-      <c r="F281" s="20" t="s">
+      <c r="F281" s="19" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="20" t="s">
+    <row r="282" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="19" t="s">
         <v>1344</v>
       </c>
-      <c r="B282" s="20" t="s">
+      <c r="B282" s="19" t="s">
         <v>1348</v>
       </c>
-      <c r="C282" s="20" t="s">
+      <c r="C282" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="D282" s="20" t="s">
+      <c r="D282" s="19" t="s">
         <v>1332</v>
       </c>
-      <c r="F282" s="20" t="s">
+      <c r="F282" s="19" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="20" t="s">
+    <row r="283" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="19" t="s">
         <v>1345</v>
       </c>
-      <c r="B283" s="20" t="s">
+      <c r="B283" s="19" t="s">
         <v>1349</v>
       </c>
-      <c r="C283" s="20" t="s">
+      <c r="C283" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="D283" s="20" t="s">
+      <c r="D283" s="19" t="s">
         <v>1333</v>
       </c>
-      <c r="F283" s="20" t="s">
+      <c r="F283" s="19" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="20" t="s">
+    <row r="284" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="19" t="s">
         <v>1373</v>
       </c>
-      <c r="B284" s="20" t="s">
+      <c r="B284" s="19" t="s">
         <v>1403</v>
       </c>
-      <c r="C284" s="20" t="s">
+      <c r="C284" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="D284" s="20" t="s">
+      <c r="D284" s="19" t="s">
         <v>1400</v>
       </c>
-      <c r="F284" s="20" t="s">
+      <c r="F284" s="19" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="20" t="s">
+    <row r="285" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="19" t="s">
         <v>1402</v>
       </c>
-      <c r="B285" s="20" t="s">
+      <c r="B285" s="19" t="s">
         <v>1404</v>
       </c>
-      <c r="C285" s="20" t="s">
+      <c r="C285" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="D285" s="20" t="s">
+      <c r="D285" s="19" t="s">
         <v>1401</v>
       </c>
-      <c r="F285" s="20" t="s">
+      <c r="F285" s="19" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="30" t="s">
+      <c r="A286" s="29" t="s">
         <v>1655</v>
       </c>
       <c r="B286" s="3" t="s">
@@ -12710,31 +12704,31 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="30" t="s">
+      <c r="A287" s="29" t="s">
         <v>1656</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C287" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="D287" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E287" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="29" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>1711</v>
-      </c>
-      <c r="C287" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="D287" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="E287" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="30" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>1712</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>503</v>
@@ -12743,15 +12737,15 @@
         <v>503</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="30" t="s">
+      <c r="A289" s="29" t="s">
         <v>1658</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>503</v>
@@ -12760,15 +12754,15 @@
         <v>503</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="30" t="s">
+      <c r="A290" s="29" t="s">
         <v>1659</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>503</v>
@@ -12777,15 +12771,15 @@
         <v>503</v>
       </c>
       <c r="F290" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="29" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>1667</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="30" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>1668</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>75</v>
@@ -12797,15 +12791,15 @@
         <v>75</v>
       </c>
       <c r="F291" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="29" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>1669</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="30" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>1670</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>75</v>
@@ -12817,15 +12811,15 @@
         <v>75</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="30" t="s">
+      <c r="A293" s="29" t="s">
         <v>1662</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>75</v>
@@ -12837,15 +12831,15 @@
         <v>75</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="30" t="s">
+      <c r="A294" s="29" t="s">
         <v>1663</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>75</v>
@@ -12857,15 +12851,15 @@
         <v>75</v>
       </c>
       <c r="F294" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A295" s="29" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A295" s="30" t="s">
-        <v>1676</v>
-      </c>
       <c r="B295" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C295" t="s">
         <v>897</v>
@@ -12877,15 +12871,15 @@
         <v>897</v>
       </c>
       <c r="F295" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A296" s="29" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>1679</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A296" s="30" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>1680</v>
       </c>
       <c r="C296" t="s">
         <v>897</v>
@@ -12897,15 +12891,15 @@
         <v>897</v>
       </c>
       <c r="F296" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A297" s="29" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A297" s="30" t="s">
-        <v>1682</v>
-      </c>
       <c r="B297" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C297" t="s">
         <v>897</v>
@@ -12917,55 +12911,55 @@
         <v>897</v>
       </c>
       <c r="F297" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A298" s="29" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A298" s="30" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="29" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="C298" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D298" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1691</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="30" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>1687</v>
-      </c>
       <c r="D299" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A300" s="30" t="s">
-        <v>1743</v>
+      <c r="A300" s="29" t="s">
+        <v>1742</v>
       </c>
       <c r="B300" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>900</v>
@@ -12975,11 +12969,11 @@
       </c>
     </row>
     <row r="301" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A301" s="30" t="s">
-        <v>1744</v>
+      <c r="A301" s="29" t="s">
+        <v>1743</v>
       </c>
       <c r="B301" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>900</v>
@@ -12989,11 +12983,11 @@
       </c>
     </row>
     <row r="302" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A302" s="30" t="s">
-        <v>1745</v>
+      <c r="A302" s="29" t="s">
+        <v>1744</v>
       </c>
       <c r="B302" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>900</v>
@@ -13003,11 +12997,11 @@
       </c>
     </row>
     <row r="303" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A303" s="30" t="s">
-        <v>1746</v>
+      <c r="A303" s="29" t="s">
+        <v>1745</v>
       </c>
       <c r="B303" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>900</v>
@@ -13017,11 +13011,11 @@
       </c>
     </row>
     <row r="304" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A304" s="30" t="s">
-        <v>1747</v>
+      <c r="A304" s="29" t="s">
+        <v>1746</v>
       </c>
       <c r="B304" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>900</v>
@@ -13031,11 +13025,11 @@
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A305" s="30" t="s">
-        <v>1748</v>
+      <c r="A305" s="29" t="s">
+        <v>1747</v>
       </c>
       <c r="B305" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>900</v>
@@ -13045,11 +13039,11 @@
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A306" s="30" t="s">
-        <v>1749</v>
+      <c r="A306" s="29" t="s">
+        <v>1748</v>
       </c>
       <c r="B306" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>900</v>
@@ -13059,11 +13053,11 @@
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A307" s="30" t="s">
-        <v>1750</v>
+      <c r="A307" s="29" t="s">
+        <v>1749</v>
       </c>
       <c r="B307" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>900</v>
@@ -13073,11 +13067,11 @@
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A308" s="30" t="s">
-        <v>1751</v>
+      <c r="A308" s="29" t="s">
+        <v>1750</v>
       </c>
       <c r="B308" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>900</v>
@@ -13087,11 +13081,11 @@
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A309" s="30" t="s">
-        <v>1770</v>
+      <c r="A309" s="29" t="s">
+        <v>1769</v>
       </c>
       <c r="B309" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C309" t="s">
         <v>897</v>
@@ -13101,11 +13095,11 @@
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A310" s="30" t="s">
-        <v>1771</v>
+      <c r="A310" s="29" t="s">
+        <v>1770</v>
       </c>
       <c r="B310" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C310" t="s">
         <v>897</v>
@@ -13115,11 +13109,11 @@
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A311" s="30" t="s">
-        <v>1772</v>
+      <c r="A311" s="29" t="s">
+        <v>1771</v>
       </c>
       <c r="B311" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C311" t="s">
         <v>897</v>
@@ -13129,11 +13123,11 @@
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A312" s="30" t="s">
-        <v>1773</v>
+      <c r="A312" s="29" t="s">
+        <v>1772</v>
       </c>
       <c r="B312" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C312" t="s">
         <v>897</v>
@@ -13143,11 +13137,11 @@
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A313" s="30" t="s">
-        <v>1774</v>
+      <c r="A313" s="29" t="s">
+        <v>1773</v>
       </c>
       <c r="B313" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C313" t="s">
         <v>897</v>
@@ -13157,11 +13151,11 @@
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A314" s="30" t="s">
-        <v>1775</v>
+      <c r="A314" s="29" t="s">
+        <v>1774</v>
       </c>
       <c r="B314" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C314" t="s">
         <v>897</v>
@@ -13171,11 +13165,11 @@
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A315" s="30" t="s">
-        <v>1776</v>
+      <c r="A315" s="29" t="s">
+        <v>1775</v>
       </c>
       <c r="B315" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C315" t="s">
         <v>897</v>
@@ -13185,11 +13179,11 @@
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A316" s="30" t="s">
-        <v>1777</v>
+      <c r="A316" s="29" t="s">
+        <v>1776</v>
       </c>
       <c r="B316" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C316" t="s">
         <v>897</v>
@@ -13199,11 +13193,11 @@
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A317" s="30" t="s">
-        <v>1778</v>
+      <c r="A317" s="29" t="s">
+        <v>1777</v>
       </c>
       <c r="B317" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C317" t="s">
         <v>897</v>
@@ -13213,45 +13207,45 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="30" t="s">
-        <v>1780</v>
+      <c r="A318" s="29" t="s">
+        <v>1779</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="30" t="s">
+      <c r="A319" s="29" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>1789</v>
-      </c>
       <c r="E319" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A320" s="30" t="s">
-        <v>1808</v>
+      <c r="A320" s="29" t="s">
+        <v>1807</v>
       </c>
       <c r="B320" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>1807</v>
-      </c>
       <c r="E320" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -14194,7 +14188,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>373</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -14208,7 +14202,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>496</v>
       </c>
       <c r="B2" s="1">
@@ -14239,7 +14233,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>1379</v>
       </c>
       <c r="B4">
@@ -14254,7 +14248,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>1380</v>
       </c>
       <c r="B5">
@@ -14269,7 +14263,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>1381</v>
       </c>
       <c r="B6">
@@ -14284,7 +14278,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>1382</v>
       </c>
       <c r="B7">
@@ -14299,7 +14293,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>1418</v>
       </c>
       <c r="B8">
@@ -14440,7 +14434,7 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>211</v>
       </c>
       <c r="D17" s="1" t="str">
@@ -14455,7 +14449,7 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>494</v>
       </c>
       <c r="D18" s="1" t="str">
@@ -14500,7 +14494,7 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>1336</v>
       </c>
       <c r="D21" s="1" t="str">
@@ -14515,7 +14509,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>1342</v>
       </c>
       <c r="D22" s="1" t="str">
@@ -14545,7 +14539,7 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>1342</v>
       </c>
       <c r="D24" s="1" t="str">
@@ -15415,7 +15409,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15430,12 +15424,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>1343</v>
       </c>
       <c r="D3" t="str">
@@ -15445,7 +15439,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -15529,13 +15523,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>1808</v>
+      <c r="C2" s="29" t="s">
+        <v>1807</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B931,2,TRUE)</f>
@@ -15544,7 +15538,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15559,7 +15553,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -15574,7 +15568,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15589,7 +15583,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -15604,7 +15598,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15619,7 +15613,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -15634,7 +15628,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -15649,7 +15643,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -15664,7 +15658,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -15679,7 +15673,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -15694,7 +15688,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -16012,12 +16006,12 @@
         <v>395</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>1719</v>
+      <c r="A2" s="30" t="s">
+        <v>1718</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16031,8 +16025,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>1720</v>
+      <c r="A3" s="30" t="s">
+        <v>1719</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16046,13 +16040,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>1721</v>
+      <c r="A4" s="30" t="s">
+        <v>1720</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>901</v>
       </c>
       <c r="D4" t="str">
@@ -16061,8 +16055,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>1722</v>
+      <c r="A5" s="31" t="s">
+        <v>1721</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -16076,14 +16070,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>1723</v>
+      <c r="A6" s="32" t="s">
+        <v>1722</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>1743</v>
+      <c r="C6" s="29" t="s">
+        <v>1742</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
@@ -16091,14 +16085,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>1724</v>
+      <c r="A7" s="32" t="s">
+        <v>1723</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>1744</v>
+      <c r="C7" s="29" t="s">
+        <v>1743</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
@@ -16106,14 +16100,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>1725</v>
+      <c r="A8" s="32" t="s">
+        <v>1724</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>1745</v>
+      <c r="C8" s="29" t="s">
+        <v>1744</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
@@ -16121,14 +16115,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>1726</v>
+      <c r="A9" s="32" t="s">
+        <v>1725</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>1746</v>
+      <c r="C9" s="29" t="s">
+        <v>1745</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
@@ -16136,14 +16130,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>1727</v>
+      <c r="A10" s="32" t="s">
+        <v>1726</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>1747</v>
+      <c r="C10" s="29" t="s">
+        <v>1746</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
@@ -16151,14 +16145,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>1728</v>
+      <c r="A11" s="32" t="s">
+        <v>1727</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>1748</v>
+      <c r="C11" s="29" t="s">
+        <v>1747</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
@@ -16166,14 +16160,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>1729</v>
+      <c r="A12" s="32" t="s">
+        <v>1728</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>1749</v>
+      <c r="C12" s="29" t="s">
+        <v>1748</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
@@ -16181,14 +16175,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>1730</v>
+      <c r="A13" s="32" t="s">
+        <v>1729</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>1750</v>
+      <c r="C13" s="29" t="s">
+        <v>1749</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
@@ -16196,14 +16190,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>1731</v>
+      <c r="A14" s="32" t="s">
+        <v>1730</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>1751</v>
+      <c r="C14" s="29" t="s">
+        <v>1750</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
@@ -16212,13 +16206,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>1770</v>
+      <c r="C15" s="29" t="s">
+        <v>1769</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
@@ -16227,13 +16221,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>1771</v>
+      <c r="C16" s="29" t="s">
+        <v>1770</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
@@ -16242,13 +16236,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>1772</v>
+      <c r="C17" s="29" t="s">
+        <v>1771</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
@@ -16257,13 +16251,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>1773</v>
+      <c r="C18" s="29" t="s">
+        <v>1772</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
@@ -16272,13 +16266,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>1774</v>
+      <c r="C19" s="29" t="s">
+        <v>1773</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
@@ -16287,13 +16281,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>1775</v>
+      <c r="C20" s="29" t="s">
+        <v>1774</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
@@ -16302,13 +16296,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>1776</v>
+      <c r="C21" s="29" t="s">
+        <v>1775</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
@@ -16317,13 +16311,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>1777</v>
+      <c r="C22" s="29" t="s">
+        <v>1776</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
@@ -16332,13 +16326,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>1778</v>
+      <c r="C23" s="29" t="s">
+        <v>1777</v>
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
@@ -16346,40 +16340,40 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>1741</v>
+      <c r="A24" s="30" t="s">
+        <v>1740</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>1683</v>
+      <c r="C24" s="29" t="s">
+        <v>1682</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
         <v>Total Par</v>
       </c>
       <c r="E24" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>1742</v>
+      <c r="A25" s="30" t="s">
+        <v>1741</v>
       </c>
       <c r="B25">
         <f>1/1000000</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>1683</v>
+      <c r="C25" s="29" t="s">
+        <v>1682</v>
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
         <v>Total Par</v>
       </c>
       <c r="E25" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
   </sheetData>
@@ -16892,20 +16886,20 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>1682</v>
+      <c r="C16" s="15" t="s">
+        <v>1681</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
         <v>PAR STD</v>
       </c>
       <c r="E16" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
   </sheetData>
@@ -16943,8 +16937,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>1720</v>
+      <c r="A2" s="30" t="s">
+        <v>1719</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16958,13 +16952,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>1721</v>
+      <c r="A3" s="30" t="s">
+        <v>1720</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>901</v>
       </c>
       <c r="D3" t="str">
@@ -16973,14 +16967,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>1786</v>
+      <c r="A4" s="30" t="s">
+        <v>1785</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D4" t="e">
         <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B930,2,TRUE)</f>
@@ -16988,8 +16982,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>1722</v>
+      <c r="A5" s="31" t="s">
+        <v>1721</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -17003,14 +16997,14 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>1723</v>
+      <c r="A6" s="32" t="s">
+        <v>1722</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>1743</v>
+      <c r="C6" s="29" t="s">
+        <v>1742</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B933,2,TRUE)</f>
@@ -17018,14 +17012,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>1724</v>
+      <c r="A7" s="32" t="s">
+        <v>1723</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>1744</v>
+      <c r="C7" s="29" t="s">
+        <v>1743</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B934,2,TRUE)</f>
@@ -17033,14 +17027,14 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>1725</v>
+      <c r="A8" s="32" t="s">
+        <v>1724</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>1745</v>
+      <c r="C8" s="29" t="s">
+        <v>1744</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B935,2,TRUE)</f>
@@ -17048,14 +17042,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>1726</v>
+      <c r="A9" s="32" t="s">
+        <v>1725</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>1746</v>
+      <c r="C9" s="29" t="s">
+        <v>1745</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B936,2,TRUE)</f>
@@ -17063,14 +17057,14 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>1727</v>
+      <c r="A10" s="32" t="s">
+        <v>1726</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>1747</v>
+      <c r="C10" s="29" t="s">
+        <v>1746</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B937,2,TRUE)</f>
@@ -17078,14 +17072,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>1728</v>
+      <c r="A11" s="32" t="s">
+        <v>1727</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>1748</v>
+      <c r="C11" s="29" t="s">
+        <v>1747</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B938,2,TRUE)</f>
@@ -17093,14 +17087,14 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>1729</v>
+      <c r="A12" s="32" t="s">
+        <v>1728</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>1749</v>
+      <c r="C12" s="29" t="s">
+        <v>1748</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B939,2,TRUE)</f>
@@ -17108,14 +17102,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>1730</v>
+      <c r="A13" s="32" t="s">
+        <v>1729</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>1750</v>
+      <c r="C13" s="29" t="s">
+        <v>1749</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B940,2,TRUE)</f>
@@ -17123,14 +17117,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>1731</v>
+      <c r="A14" s="32" t="s">
+        <v>1730</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>1751</v>
+      <c r="C14" s="29" t="s">
+        <v>1750</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B941,2,TRUE)</f>
@@ -17139,13 +17133,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>1770</v>
+      <c r="C15" s="29" t="s">
+        <v>1769</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
@@ -17154,13 +17148,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>1771</v>
+      <c r="C16" s="29" t="s">
+        <v>1770</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
@@ -17169,13 +17163,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>1772</v>
+      <c r="C17" s="29" t="s">
+        <v>1771</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
@@ -17184,13 +17178,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>1773</v>
+      <c r="C18" s="29" t="s">
+        <v>1772</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
@@ -17199,13 +17193,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>1774</v>
+      <c r="C19" s="29" t="s">
+        <v>1773</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
@@ -17214,13 +17208,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>1775</v>
+      <c r="C20" s="29" t="s">
+        <v>1774</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B947,2,TRUE)</f>
@@ -17229,13 +17223,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>1776</v>
+      <c r="C21" s="29" t="s">
+        <v>1775</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B948,2,TRUE)</f>
@@ -17244,13 +17238,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>1777</v>
+      <c r="C22" s="29" t="s">
+        <v>1776</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B949,2,TRUE)</f>
@@ -17259,13 +17253,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>1778</v>
+      <c r="C23" s="29" t="s">
+        <v>1777</v>
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B950,2,TRUE)</f>
@@ -17273,14 +17267,14 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>1741</v>
+      <c r="A24" s="30" t="s">
+        <v>1740</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>1780</v>
+      <c r="C24" s="29" t="s">
+        <v>1779</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B951,2,TRUE)</f>
@@ -17288,14 +17282,14 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>1742</v>
+      <c r="A25" s="30" t="s">
+        <v>1741</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>1787</v>
+      <c r="C25" s="29" t="s">
+        <v>1786</v>
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B952,2,TRUE)</f>
@@ -17387,7 +17381,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>1317</v>
       </c>
       <c r="D5" t="str">
@@ -17396,7 +17390,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>1421</v>
       </c>
       <c r="B6">
@@ -17411,7 +17405,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>1422</v>
       </c>
       <c r="B7">
@@ -17426,7 +17420,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>1423</v>
       </c>
       <c r="B8">
@@ -17441,7 +17435,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>1424</v>
       </c>
       <c r="B9">
@@ -17456,7 +17450,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>1425</v>
       </c>
       <c r="B10">
@@ -17772,17 +17766,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>1428</v>
       </c>
     </row>
@@ -18960,9 +18954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19001,11 +18995,11 @@
         <v>var00001</v>
       </c>
       <c r="B2" t="str">
-        <f>'MASTER KEY'!B2</f>
+        <f>VLOOKUP(A2,'MASTER KEY'!$A$2:$B978,2,TRUE)</f>
         <v>E coli</v>
       </c>
       <c r="C2" t="str">
-        <f>'MASTER KEY'!C2</f>
+        <f>VLOOKUP(A2,'MASTER KEY'!$A$2:$C978,3,TRUE)</f>
         <v>cfu/100mL</v>
       </c>
       <c r="D2" t="s">
@@ -19024,11 +19018,11 @@
         <v>var00002</v>
       </c>
       <c r="B3" t="str">
-        <f>'MASTER KEY'!B3</f>
+        <f>VLOOKUP(A3,'MASTER KEY'!$A$2:$B979,2,TRUE)</f>
         <v>Enterococci</v>
       </c>
       <c r="C3" t="str">
-        <f>'MASTER KEY'!C3</f>
+        <f>VLOOKUP(A3,'MASTER KEY'!$A$2:$C979,3,TRUE)</f>
         <v>cfu/100mL</v>
       </c>
       <c r="D3" t="s">
@@ -19047,11 +19041,11 @@
         <v>var00003</v>
       </c>
       <c r="B4" t="str">
-        <f>'MASTER KEY'!B4</f>
+        <f>VLOOKUP(A4,'MASTER KEY'!$A$2:$B980,2,TRUE)</f>
         <v>TN:TP</v>
       </c>
       <c r="C4" t="str">
-        <f>'MASTER KEY'!C4</f>
+        <f>VLOOKUP(A4,'MASTER KEY'!$A$2:$C980,3,TRUE)</f>
         <v>mg N / mg P</v>
       </c>
       <c r="D4" t="s">
@@ -19070,11 +19064,11 @@
         <v>var00004</v>
       </c>
       <c r="B5" t="str">
-        <f>'MASTER KEY'!B5</f>
+        <f>VLOOKUP(A5,'MASTER KEY'!$A$2:$B981,2,TRUE)</f>
         <v>Organic Nitrogen</v>
       </c>
       <c r="C5" t="str">
-        <f>'MASTER KEY'!C5</f>
+        <f>VLOOKUP(A5,'MASTER KEY'!$A$2:$C981,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D5" t="s">
@@ -19094,11 +19088,11 @@
         <v>var00005</v>
       </c>
       <c r="B6" t="str">
-        <f>'MASTER KEY'!B6</f>
+        <f>VLOOKUP(A6,'MASTER KEY'!$A$2:$B982,2,TRUE)</f>
         <v>Organic Phosphorus</v>
       </c>
       <c r="C6" t="str">
-        <f>'MASTER KEY'!C6</f>
+        <f>VLOOKUP(A6,'MASTER KEY'!$A$2:$C982,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D6" t="s">
@@ -19118,11 +19112,11 @@
         <v>var00006</v>
       </c>
       <c r="B7" t="str">
-        <f>'MASTER KEY'!B7</f>
+        <f>VLOOKUP(A7,'MASTER KEY'!$A$2:$B983,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="C7" t="str">
-        <f>'MASTER KEY'!C7</f>
+        <f>VLOOKUP(A7,'MASTER KEY'!$A$2:$C983,3,TRUE)</f>
         <v>psu</v>
       </c>
       <c r="D7" t="s">
@@ -19141,11 +19135,11 @@
         <v>var00007</v>
       </c>
       <c r="B8" t="str">
-        <f>'MASTER KEY'!B8</f>
+        <f>VLOOKUP(A8,'MASTER KEY'!$A$2:$B984,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="C8" t="str">
-        <f>'MASTER KEY'!C8</f>
+        <f>VLOOKUP(A8,'MASTER KEY'!$A$2:$C984,3,TRUE)</f>
         <v>C</v>
       </c>
       <c r="D8" t="s">
@@ -19164,11 +19158,11 @@
         <v>var00008</v>
       </c>
       <c r="B9" t="str">
-        <f>'MASTER KEY'!B9</f>
+        <f>VLOOKUP(A9,'MASTER KEY'!$A$2:$B985,2,TRUE)</f>
         <v>Depth</v>
       </c>
       <c r="C9" t="str">
-        <f>'MASTER KEY'!C9</f>
+        <f>VLOOKUP(A9,'MASTER KEY'!$A$2:$C985,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D9" t="s">
@@ -19187,11 +19181,11 @@
         <v>var00009</v>
       </c>
       <c r="B10" t="str">
-        <f>'MASTER KEY'!B10</f>
+        <f>VLOOKUP(A10,'MASTER KEY'!$A$2:$B986,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="C10" t="str">
-        <f>'MASTER KEY'!C10</f>
+        <f>VLOOKUP(A10,'MASTER KEY'!$A$2:$C986,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D10" t="s">
@@ -19211,11 +19205,11 @@
         <v>var00010</v>
       </c>
       <c r="B11" t="str">
-        <f>'MASTER KEY'!B11</f>
+        <f>VLOOKUP(A11,'MASTER KEY'!$A$2:$B987,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="C11" t="str">
-        <f>'MASTER KEY'!C11</f>
+        <f>VLOOKUP(A11,'MASTER KEY'!$A$2:$C987,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D11" t="s">
@@ -19235,11 +19229,11 @@
         <v>var00011</v>
       </c>
       <c r="B12" t="str">
-        <f>'MASTER KEY'!B12</f>
+        <f>VLOOKUP(A12,'MASTER KEY'!$A$2:$B988,2,TRUE)</f>
         <v>Total Organic Carbon</v>
       </c>
       <c r="C12" t="str">
-        <f>'MASTER KEY'!C12</f>
+        <f>VLOOKUP(A12,'MASTER KEY'!$A$2:$C988,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D12" t="s">
@@ -19259,11 +19253,11 @@
         <v>var00012</v>
       </c>
       <c r="B13" t="str">
-        <f>'MASTER KEY'!B13</f>
+        <f>VLOOKUP(A13,'MASTER KEY'!$A$2:$B989,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
       <c r="C13" t="str">
-        <f>'MASTER KEY'!C13</f>
+        <f>VLOOKUP(A13,'MASTER KEY'!$A$2:$C989,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D13" t="s">
@@ -19282,11 +19276,11 @@
         <v>var00013</v>
       </c>
       <c r="B14" t="str">
-        <f>'MASTER KEY'!B14</f>
+        <f>VLOOKUP(A14,'MASTER KEY'!$A$2:$B990,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
       <c r="C14" t="str">
-        <f>'MASTER KEY'!C14</f>
+        <f>VLOOKUP(A14,'MASTER KEY'!$A$2:$C990,3,TRUE)</f>
         <v>NTU</v>
       </c>
       <c r="D14" t="s">
@@ -19305,11 +19299,11 @@
         <v>var00014</v>
       </c>
       <c r="B15" t="str">
-        <f>'MASTER KEY'!B15</f>
+        <f>VLOOKUP(A15,'MASTER KEY'!$A$2:$B991,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="C15" t="str">
-        <f>'MASTER KEY'!C15</f>
+        <f>VLOOKUP(A15,'MASTER KEY'!$A$2:$C991,3,TRUE)</f>
         <v>µg/l</v>
       </c>
       <c r="D15" t="s">
@@ -19328,11 +19322,11 @@
         <v>var00015</v>
       </c>
       <c r="B16" t="str">
-        <f>'MASTER KEY'!B16</f>
+        <f>VLOOKUP(A16,'MASTER KEY'!$A$2:$B992,2,TRUE)</f>
         <v>Ruppia Biomass</v>
       </c>
       <c r="C16" t="str">
-        <f>'MASTER KEY'!C16</f>
+        <f>VLOOKUP(A16,'MASTER KEY'!$A$2:$C992,3,TRUE)</f>
         <v>mmol C/m^2</v>
       </c>
       <c r="D16" t="s">
@@ -19351,11 +19345,11 @@
         <v>var00016</v>
       </c>
       <c r="B17" t="str">
-        <f>'MASTER KEY'!B17</f>
+        <f>VLOOKUP(A17,'MASTER KEY'!$A$2:$B993,2,TRUE)</f>
         <v>Suspended Solids #1</v>
       </c>
       <c r="C17" t="str">
-        <f>'MASTER KEY'!C17</f>
+        <f>VLOOKUP(A17,'MASTER KEY'!$A$2:$C993,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D17" t="s">
@@ -19374,11 +19368,11 @@
         <v>var00017</v>
       </c>
       <c r="B18" t="str">
-        <f>'MASTER KEY'!B18</f>
+        <f>VLOOKUP(A18,'MASTER KEY'!$A$2:$B994,2,TRUE)</f>
         <v>Sediment Mass (SS1)</v>
       </c>
       <c r="C18" t="str">
-        <f>'MASTER KEY'!C18</f>
+        <f>VLOOKUP(A18,'MASTER KEY'!$A$2:$C994,3,TRUE)</f>
         <v>g/m^2</v>
       </c>
       <c r="D18" t="s">
@@ -19397,11 +19391,11 @@
         <v>var00018</v>
       </c>
       <c r="B19" t="str">
-        <f>'MASTER KEY'!B19</f>
+        <f>VLOOKUP(A19,'MASTER KEY'!$A$2:$B995,2,TRUE)</f>
         <v>Suspended Solids #2</v>
       </c>
       <c r="C19" t="str">
-        <f>'MASTER KEY'!C19</f>
+        <f>VLOOKUP(A19,'MASTER KEY'!$A$2:$C995,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D19" t="s">
@@ -19420,11 +19414,11 @@
         <v>var00019</v>
       </c>
       <c r="B20" t="str">
-        <f>'MASTER KEY'!B20</f>
+        <f>VLOOKUP(A20,'MASTER KEY'!$A$2:$B996,2,TRUE)</f>
         <v>Sediment Mass (SS2)</v>
       </c>
       <c r="C20" t="str">
-        <f>'MASTER KEY'!C20</f>
+        <f>VLOOKUP(A20,'MASTER KEY'!$A$2:$C996,3,TRUE)</f>
         <v>g/m^2</v>
       </c>
       <c r="D20" t="s">
@@ -19443,11 +19437,11 @@
         <v>var00020</v>
       </c>
       <c r="B21" t="str">
-        <f>'MASTER KEY'!B21</f>
+        <f>VLOOKUP(A21,'MASTER KEY'!$A$2:$B997,2,TRUE)</f>
         <v>Suspended Solids #3</v>
       </c>
       <c r="C21" t="str">
-        <f>'MASTER KEY'!C21</f>
+        <f>VLOOKUP(A21,'MASTER KEY'!$A$2:$C997,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D21" t="s">
@@ -19466,11 +19460,11 @@
         <v>var00021</v>
       </c>
       <c r="B22" t="str">
-        <f>'MASTER KEY'!B22</f>
+        <f>VLOOKUP(A22,'MASTER KEY'!$A$2:$B998,2,TRUE)</f>
         <v>Sediment Mass (SS3)</v>
       </c>
       <c r="C22" t="str">
-        <f>'MASTER KEY'!C22</f>
+        <f>VLOOKUP(A22,'MASTER KEY'!$A$2:$C998,3,TRUE)</f>
         <v>g/m^2</v>
       </c>
       <c r="D22" t="s">
@@ -19489,11 +19483,11 @@
         <v>var00022</v>
       </c>
       <c r="B23" t="str">
-        <f>'MASTER KEY'!B23</f>
+        <f>VLOOKUP(A23,'MASTER KEY'!$A$2:$B999,2,TRUE)</f>
         <v>Water Age</v>
       </c>
       <c r="C23" t="str">
-        <f>'MASTER KEY'!C23</f>
+        <f>VLOOKUP(A23,'MASTER KEY'!$A$2:$C999,3,TRUE)</f>
         <v>days</v>
       </c>
       <c r="D23" t="s">
@@ -19512,11 +19506,11 @@
         <v>var00023</v>
       </c>
       <c r="B24" t="str">
-        <f>'MASTER KEY'!B24</f>
+        <f>VLOOKUP(A24,'MASTER KEY'!$A$2:$B1000,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="C24" t="str">
-        <f>'MASTER KEY'!C24</f>
+        <f>VLOOKUP(A24,'MASTER KEY'!$A$2:$C1000,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D24" t="s">
@@ -19536,11 +19530,11 @@
         <v>var00024</v>
       </c>
       <c r="B25" t="str">
-        <f>'MASTER KEY'!B25</f>
+        <f>VLOOKUP(A25,'MASTER KEY'!$A$2:$B1001,2,TRUE)</f>
         <v>Reactive Silica</v>
       </c>
       <c r="C25" t="str">
-        <f>'MASTER KEY'!C25</f>
+        <f>VLOOKUP(A25,'MASTER KEY'!$A$2:$C1001,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D25" t="s">
@@ -19559,11 +19553,11 @@
         <v>var00025</v>
       </c>
       <c r="B26" t="str">
-        <f>'MASTER KEY'!B26</f>
+        <f>VLOOKUP(A26,'MASTER KEY'!$A$2:$B1002,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
       <c r="C26" t="str">
-        <f>'MASTER KEY'!C26</f>
+        <f>VLOOKUP(A26,'MASTER KEY'!$A$2:$C1002,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D26" t="s">
@@ -19583,11 +19577,11 @@
         <v>var00026</v>
       </c>
       <c r="B27" t="str">
-        <f>'MASTER KEY'!B27</f>
+        <f>VLOOKUP(A27,'MASTER KEY'!$A$2:$B1003,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="C27" t="str">
-        <f>'MASTER KEY'!C27</f>
+        <f>VLOOKUP(A27,'MASTER KEY'!$A$2:$C1003,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D27" t="s">
@@ -19607,11 +19601,11 @@
         <v>var00027</v>
       </c>
       <c r="B28" t="str">
-        <f>'MASTER KEY'!B28</f>
+        <f>VLOOKUP(A28,'MASTER KEY'!$A$2:$B1004,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="C28" t="str">
-        <f>'MASTER KEY'!C28</f>
+        <f>VLOOKUP(A28,'MASTER KEY'!$A$2:$C1004,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D28" t="s">
@@ -19631,11 +19625,11 @@
         <v>var00028</v>
       </c>
       <c r="B29" t="str">
-        <f>'MASTER KEY'!B29</f>
+        <f>VLOOKUP(A29,'MASTER KEY'!$A$2:$B1005,2,TRUE)</f>
         <v>Adsorped Phosphate</v>
       </c>
       <c r="C29" t="str">
-        <f>'MASTER KEY'!C29</f>
+        <f>VLOOKUP(A29,'MASTER KEY'!$A$2:$C1005,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D29" t="s">
@@ -19655,11 +19649,11 @@
         <v>var00029</v>
       </c>
       <c r="B30" t="str">
-        <f>'MASTER KEY'!B30</f>
+        <f>VLOOKUP(A30,'MASTER KEY'!$A$2:$B1006,2,TRUE)</f>
         <v>Dissolved Organic Carbon</v>
       </c>
       <c r="C30" t="str">
-        <f>'MASTER KEY'!C30</f>
+        <f>VLOOKUP(A30,'MASTER KEY'!$A$2:$C1006,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -19679,11 +19673,11 @@
         <v>var00030</v>
       </c>
       <c r="B31" t="str">
-        <f>'MASTER KEY'!B31</f>
+        <f>VLOOKUP(A31,'MASTER KEY'!$A$2:$B1007,2,TRUE)</f>
         <v>Dissolved Organic Carbon (refractory)</v>
       </c>
       <c r="C31" t="str">
-        <f>'MASTER KEY'!C31</f>
+        <f>VLOOKUP(A31,'MASTER KEY'!$A$2:$C1007,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -19703,11 +19697,11 @@
         <v>var00031</v>
       </c>
       <c r="B32" t="str">
-        <f>'MASTER KEY'!B32</f>
+        <f>VLOOKUP(A32,'MASTER KEY'!$A$2:$B1008,2,TRUE)</f>
         <v>Particulate Organic Carbon</v>
       </c>
       <c r="C32" t="str">
-        <f>'MASTER KEY'!C32</f>
+        <f>VLOOKUP(A32,'MASTER KEY'!$A$2:$C1008,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -19727,11 +19721,11 @@
         <v>var00032</v>
       </c>
       <c r="B33" t="str">
-        <f>'MASTER KEY'!B33</f>
+        <f>VLOOKUP(A33,'MASTER KEY'!$A$2:$B1009,2,TRUE)</f>
         <v>Dissolved Organic Nitrogen</v>
       </c>
       <c r="C33" t="str">
-        <f>'MASTER KEY'!C33</f>
+        <f>VLOOKUP(A33,'MASTER KEY'!$A$2:$C1009,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -19751,11 +19745,11 @@
         <v>var00033</v>
       </c>
       <c r="B34" t="str">
-        <f>'MASTER KEY'!B34</f>
+        <f>VLOOKUP(A34,'MASTER KEY'!$A$2:$B1010,2,TRUE)</f>
         <v>Particulate Organic Nitrogen</v>
       </c>
       <c r="C34" t="str">
-        <f>'MASTER KEY'!C34</f>
+        <f>VLOOKUP(A34,'MASTER KEY'!$A$2:$C1010,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -19775,11 +19769,11 @@
         <v>var00034</v>
       </c>
       <c r="B35" t="str">
-        <f>'MASTER KEY'!B35</f>
+        <f>VLOOKUP(A35,'MASTER KEY'!$A$2:$B1011,2,TRUE)</f>
         <v>Dissolved Organic Nitrogen (refractory)</v>
       </c>
       <c r="C35" t="str">
-        <f>'MASTER KEY'!C35</f>
+        <f>VLOOKUP(A35,'MASTER KEY'!$A$2:$C1011,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -19799,11 +19793,11 @@
         <v>var00035</v>
       </c>
       <c r="B36" t="str">
-        <f>'MASTER KEY'!B36</f>
+        <f>VLOOKUP(A36,'MASTER KEY'!$A$2:$B1012,2,TRUE)</f>
         <v>Dissolved Organic Phosphorus</v>
       </c>
       <c r="C36" t="str">
-        <f>'MASTER KEY'!C36</f>
+        <f>VLOOKUP(A36,'MASTER KEY'!$A$2:$C1012,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D36" t="s">
@@ -19823,11 +19817,11 @@
         <v>var00036</v>
       </c>
       <c r="B37" t="str">
-        <f>'MASTER KEY'!B37</f>
+        <f>VLOOKUP(A37,'MASTER KEY'!$A$2:$B1013,2,TRUE)</f>
         <v>Particulate Organic Phosphorus</v>
       </c>
       <c r="C37" t="str">
-        <f>'MASTER KEY'!C37</f>
+        <f>VLOOKUP(A37,'MASTER KEY'!$A$2:$C1013,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D37" t="s">
@@ -19847,11 +19841,11 @@
         <v>var00037</v>
       </c>
       <c r="B38" t="str">
-        <f>'MASTER KEY'!B38</f>
+        <f>VLOOKUP(A38,'MASTER KEY'!$A$2:$B1014,2,TRUE)</f>
         <v>Dissolved Organic Phosphorus (refractory)</v>
       </c>
       <c r="C38" t="str">
-        <f>'MASTER KEY'!C38</f>
+        <f>VLOOKUP(A38,'MASTER KEY'!$A$2:$C1014,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D38" t="s">
@@ -19871,11 +19865,11 @@
         <v>var00038</v>
       </c>
       <c r="B39" t="str">
-        <f>'MASTER KEY'!B39</f>
+        <f>VLOOKUP(A39,'MASTER KEY'!$A$2:$B1015,2,TRUE)</f>
         <v>Phytoplankton Biomass (greens)</v>
       </c>
       <c r="C39" t="str">
-        <f>'MASTER KEY'!C39</f>
+        <f>VLOOKUP(A39,'MASTER KEY'!$A$2:$C1015,3,TRUE)</f>
         <v>mmol C/m^3</v>
       </c>
       <c r="D39" t="s">
@@ -19894,11 +19888,11 @@
         <v>var00039</v>
       </c>
       <c r="B40" t="str">
-        <f>'MASTER KEY'!B40</f>
+        <f>VLOOKUP(A40,'MASTER KEY'!$A$2:$B1016,2,TRUE)</f>
         <v>Phytoplankton Biomass (crypt)</v>
       </c>
       <c r="C40" t="str">
-        <f>'MASTER KEY'!C40</f>
+        <f>VLOOKUP(A40,'MASTER KEY'!$A$2:$C1016,3,TRUE)</f>
         <v>mmol C/m^3</v>
       </c>
       <c r="D40" t="s">
@@ -19917,11 +19911,11 @@
         <v>var00040</v>
       </c>
       <c r="B41" t="str">
-        <f>'MASTER KEY'!B41</f>
+        <f>VLOOKUP(A41,'MASTER KEY'!$A$2:$B1017,2,TRUE)</f>
         <v>Phytoplankton Biomass (diatom)</v>
       </c>
       <c r="C41" t="str">
-        <f>'MASTER KEY'!C41</f>
+        <f>VLOOKUP(A41,'MASTER KEY'!$A$2:$C1017,3,TRUE)</f>
         <v>mmol C/m^3</v>
       </c>
       <c r="D41" t="s">
@@ -19940,11 +19934,11 @@
         <v>var00041</v>
       </c>
       <c r="B42" t="str">
-        <f>'MASTER KEY'!B42</f>
+        <f>VLOOKUP(A42,'MASTER KEY'!$A$2:$B1018,2,TRUE)</f>
         <v>Phytoplankton Biomass (dino)</v>
       </c>
       <c r="C42" t="str">
-        <f>'MASTER KEY'!C42</f>
+        <f>VLOOKUP(A42,'MASTER KEY'!$A$2:$C1018,3,TRUE)</f>
         <v>mmol C/m^3</v>
       </c>
       <c r="D42" t="s">
@@ -19963,11 +19957,11 @@
         <v>var00042</v>
       </c>
       <c r="B43" t="str">
-        <f>'MASTER KEY'!B43</f>
+        <f>VLOOKUP(A43,'MASTER KEY'!$A$2:$B1019,2,TRUE)</f>
         <v>Filamentous Algae (floating)</v>
       </c>
       <c r="C43" t="str">
-        <f>'MASTER KEY'!C43</f>
+        <f>VLOOKUP(A43,'MASTER KEY'!$A$2:$C1019,3,TRUE)</f>
         <v>mmol C/m^3</v>
       </c>
       <c r="D43" t="s">
@@ -19986,11 +19980,11 @@
         <v>var00043</v>
       </c>
       <c r="B44" t="str">
-        <f>'MASTER KEY'!B44</f>
+        <f>VLOOKUP(A44,'MASTER KEY'!$A$2:$B1020,2,TRUE)</f>
         <v>Filamentous Algae Nitrogen (floating)</v>
       </c>
       <c r="C44" t="str">
-        <f>'MASTER KEY'!C44</f>
+        <f>VLOOKUP(A44,'MASTER KEY'!$A$2:$C1020,3,TRUE)</f>
         <v>mmol N/m^3</v>
       </c>
       <c r="D44" t="s">
@@ -20009,11 +20003,11 @@
         <v>var00044</v>
       </c>
       <c r="B45" t="str">
-        <f>'MASTER KEY'!B45</f>
+        <f>VLOOKUP(A45,'MASTER KEY'!$A$2:$B1021,2,TRUE)</f>
         <v>Filamentous Algae Phosphorus (floating)</v>
       </c>
       <c r="C45" t="str">
-        <f>'MASTER KEY'!C45</f>
+        <f>VLOOKUP(A45,'MASTER KEY'!$A$2:$C1021,3,TRUE)</f>
         <v>mmol P/m^3</v>
       </c>
       <c r="D45" t="s">
@@ -20032,11 +20026,11 @@
         <v>var00045</v>
       </c>
       <c r="B46" t="str">
-        <f>'MASTER KEY'!B46</f>
+        <f>VLOOKUP(A46,'MASTER KEY'!$A$2:$B1022,2,TRUE)</f>
         <v>Filamentous Algae Biomass (total)</v>
       </c>
       <c r="C46" t="str">
-        <f>'MASTER KEY'!C46</f>
+        <f>VLOOKUP(A46,'MASTER KEY'!$A$2:$C1022,3,TRUE)</f>
         <v>g DW/m^2</v>
       </c>
       <c r="D46" t="s">
@@ -20055,11 +20049,11 @@
         <v>var00046</v>
       </c>
       <c r="B47" t="str">
-        <f>'MASTER KEY'!B47</f>
+        <f>VLOOKUP(A47,'MASTER KEY'!$A$2:$B1023,2,TRUE)</f>
         <v>Filamentous Algae Biomass (total)</v>
       </c>
       <c r="C47" t="str">
-        <f>'MASTER KEY'!C47</f>
+        <f>VLOOKUP(A47,'MASTER KEY'!$A$2:$C1023,3,TRUE)</f>
         <v>g DW/m^2</v>
       </c>
       <c r="D47" t="s">
@@ -20078,11 +20072,11 @@
         <v>var00047</v>
       </c>
       <c r="B48" t="str">
-        <f>'MASTER KEY'!B48</f>
+        <f>VLOOKUP(A48,'MASTER KEY'!$A$2:$B1024,2,TRUE)</f>
         <v>Filamentous Algae Biomass (total)</v>
       </c>
       <c r="C48" t="str">
-        <f>'MASTER KEY'!C48</f>
+        <f>VLOOKUP(A48,'MASTER KEY'!$A$2:$C1024,3,TRUE)</f>
         <v>g DW/m^2</v>
       </c>
       <c r="D48" t="s">
@@ -20101,11 +20095,11 @@
         <v>var00048</v>
       </c>
       <c r="B49" t="str">
-        <f>'MASTER KEY'!B49</f>
+        <f>VLOOKUP(A49,'MASTER KEY'!$A$2:$B1025,2,TRUE)</f>
         <v>O2 Dissolved Sediment Flux</v>
       </c>
       <c r="C49" t="str">
-        <f>'MASTER KEY'!C49</f>
+        <f>VLOOKUP(A49,'MASTER KEY'!$A$2:$C1025,3,TRUE)</f>
         <v>mmol O_2/m^2</v>
       </c>
       <c r="D49" t="s">
@@ -20124,11 +20118,11 @@
         <v>var00049</v>
       </c>
       <c r="B50" t="str">
-        <f>'MASTER KEY'!B50</f>
+        <f>VLOOKUP(A50,'MASTER KEY'!$A$2:$B1026,2,TRUE)</f>
         <v>DIC Dissolved Sediment Flux</v>
       </c>
       <c r="C50" t="str">
-        <f>'MASTER KEY'!C50</f>
+        <f>VLOOKUP(A50,'MASTER KEY'!$A$2:$C1026,3,TRUE)</f>
         <v>mmol C/m^2</v>
       </c>
       <c r="D50" t="s">
@@ -20147,11 +20141,11 @@
         <v>var00050</v>
       </c>
       <c r="B51" t="str">
-        <f>'MASTER KEY'!B51</f>
+        <f>VLOOKUP(A51,'MASTER KEY'!$A$2:$B1027,2,TRUE)</f>
         <v>NH4 Dissolved Sediment Flux</v>
       </c>
       <c r="C51" t="str">
-        <f>'MASTER KEY'!C51</f>
+        <f>VLOOKUP(A51,'MASTER KEY'!$A$2:$C1027,3,TRUE)</f>
         <v>mmol N/m^2</v>
       </c>
       <c r="D51" t="s">
@@ -20170,11 +20164,11 @@
         <v>var00051</v>
       </c>
       <c r="B52" t="str">
-        <f>'MASTER KEY'!B52</f>
+        <f>VLOOKUP(A52,'MASTER KEY'!$A$2:$B1028,2,TRUE)</f>
         <v>NO3 Dissolved Sediment Flux</v>
       </c>
       <c r="C52" t="str">
-        <f>'MASTER KEY'!C52</f>
+        <f>VLOOKUP(A52,'MASTER KEY'!$A$2:$C1028,3,TRUE)</f>
         <v>mmol N/m^2</v>
       </c>
       <c r="D52" t="s">
@@ -20193,11 +20187,11 @@
         <v>var00052</v>
       </c>
       <c r="B53" t="str">
-        <f>'MASTER KEY'!B53</f>
+        <f>VLOOKUP(A53,'MASTER KEY'!$A$2:$B1029,2,TRUE)</f>
         <v>FRP Dissolved Sediment Flux</v>
       </c>
       <c r="C53" t="str">
-        <f>'MASTER KEY'!C53</f>
+        <f>VLOOKUP(A53,'MASTER KEY'!$A$2:$C1029,3,TRUE)</f>
         <v>mmol P/m^2</v>
       </c>
       <c r="D53" t="s">
@@ -20216,11 +20210,11 @@
         <v>var00053</v>
       </c>
       <c r="B54" t="str">
-        <f>'MASTER KEY'!B54</f>
+        <f>VLOOKUP(A54,'MASTER KEY'!$A$2:$B1030,2,TRUE)</f>
         <v>POC Dissolved Sediment Flux</v>
       </c>
       <c r="C54" t="str">
-        <f>'MASTER KEY'!C54</f>
+        <f>VLOOKUP(A54,'MASTER KEY'!$A$2:$C1030,3,TRUE)</f>
         <v>mmol C/m^2</v>
       </c>
       <c r="D54" t="s">
@@ -20239,11 +20233,11 @@
         <v>var00054</v>
       </c>
       <c r="B55" t="str">
-        <f>'MASTER KEY'!B55</f>
+        <f>VLOOKUP(A55,'MASTER KEY'!$A$2:$B1031,2,TRUE)</f>
         <v>DOC Dissolved Sediment Flux</v>
       </c>
       <c r="C55" t="str">
-        <f>'MASTER KEY'!C55</f>
+        <f>VLOOKUP(A55,'MASTER KEY'!$A$2:$C1031,3,TRUE)</f>
         <v>mmol C/m^2</v>
       </c>
       <c r="D55" t="s">
@@ -20262,11 +20256,11 @@
         <v>var00055</v>
       </c>
       <c r="B56" t="str">
-        <f>'MASTER KEY'!B56</f>
+        <f>VLOOKUP(A56,'MASTER KEY'!$A$2:$B1032,2,TRUE)</f>
         <v>PON Dissolved Sediment Flux</v>
       </c>
       <c r="C56" t="str">
-        <f>'MASTER KEY'!C56</f>
+        <f>VLOOKUP(A56,'MASTER KEY'!$A$2:$C1032,3,TRUE)</f>
         <v>mmol N/m^2</v>
       </c>
       <c r="D56" t="s">
@@ -20285,11 +20279,11 @@
         <v>var00056</v>
       </c>
       <c r="B57" t="str">
-        <f>'MASTER KEY'!B57</f>
+        <f>VLOOKUP(A57,'MASTER KEY'!$A$2:$B1033,2,TRUE)</f>
         <v>DON Dissolved Sediment Flux</v>
       </c>
       <c r="C57" t="str">
-        <f>'MASTER KEY'!C57</f>
+        <f>VLOOKUP(A57,'MASTER KEY'!$A$2:$C1033,3,TRUE)</f>
         <v>mmol N/m^2</v>
       </c>
       <c r="D57" t="s">
@@ -20308,11 +20302,11 @@
         <v>var00057</v>
       </c>
       <c r="B58" t="str">
-        <f>'MASTER KEY'!B58</f>
+        <f>VLOOKUP(A58,'MASTER KEY'!$A$2:$B1034,2,TRUE)</f>
         <v>POP Dissolved Sediment Flux</v>
       </c>
       <c r="C58" t="str">
-        <f>'MASTER KEY'!C58</f>
+        <f>VLOOKUP(A58,'MASTER KEY'!$A$2:$C1034,3,TRUE)</f>
         <v>mmol P/m^2</v>
       </c>
       <c r="D58" t="s">
@@ -20331,11 +20325,11 @@
         <v>var00058</v>
       </c>
       <c r="B59" t="str">
-        <f>'MASTER KEY'!B59</f>
+        <f>VLOOKUP(A59,'MASTER KEY'!$A$2:$B1035,2,TRUE)</f>
         <v>DOP Dissolved Sediment Flux</v>
       </c>
       <c r="C59" t="str">
-        <f>'MASTER KEY'!C59</f>
+        <f>VLOOKUP(A59,'MASTER KEY'!$A$2:$C1035,3,TRUE)</f>
         <v>mmol P/m^2</v>
       </c>
       <c r="D59" t="s">
@@ -20354,11 +20348,11 @@
         <v>var00059</v>
       </c>
       <c r="B60" t="str">
-        <f>'MASTER KEY'!B60</f>
+        <f>VLOOKUP(A60,'MASTER KEY'!$A$2:$B1036,2,TRUE)</f>
         <v>Photosynthetically Active Radiation</v>
       </c>
       <c r="C60" t="str">
-        <f>'MASTER KEY'!C60</f>
+        <f>VLOOKUP(A60,'MASTER KEY'!$A$2:$C1036,3,TRUE)</f>
         <v>W/m^2</v>
       </c>
       <c r="D60" t="s">
@@ -20377,11 +20371,11 @@
         <v>var00060</v>
       </c>
       <c r="B61" t="str">
-        <f>'MASTER KEY'!B61</f>
+        <f>VLOOKUP(A61,'MASTER KEY'!$A$2:$B1037,2,TRUE)</f>
         <v>Ruppia Gross Primary Productivity</v>
       </c>
       <c r="C61" t="str">
-        <f>'MASTER KEY'!C61</f>
+        <f>VLOOKUP(A61,'MASTER KEY'!$A$2:$C1037,3,TRUE)</f>
         <v>mmol C/m^3/d</v>
       </c>
       <c r="D61" t="s">
@@ -20400,11 +20394,11 @@
         <v>var00061</v>
       </c>
       <c r="B62" t="str">
-        <f>'MASTER KEY'!B62</f>
+        <f>VLOOKUP(A62,'MASTER KEY'!$A$2:$B1038,2,TRUE)</f>
         <v>Ruppia Net Primary Productivity</v>
       </c>
       <c r="C62" t="str">
-        <f>'MASTER KEY'!C62</f>
+        <f>VLOOKUP(A62,'MASTER KEY'!$A$2:$C1038,3,TRUE)</f>
         <v>mmol C/m^3/d</v>
       </c>
       <c r="D62" t="s">
@@ -20423,11 +20417,11 @@
         <v>var00062</v>
       </c>
       <c r="B63" t="str">
-        <f>'MASTER KEY'!B63</f>
+        <f>VLOOKUP(A63,'MASTER KEY'!$A$2:$B1039,2,TRUE)</f>
         <v>Ruppia Biomass</v>
       </c>
       <c r="C63" t="str">
-        <f>'MASTER KEY'!C63</f>
+        <f>VLOOKUP(A63,'MASTER KEY'!$A$2:$C1039,3,TRUE)</f>
         <v>mmol C/m^2</v>
       </c>
       <c r="D63" t="s">
@@ -20446,11 +20440,11 @@
         <v>var00063</v>
       </c>
       <c r="B64" t="str">
-        <f>'MASTER KEY'!B64</f>
+        <f>VLOOKUP(A64,'MASTER KEY'!$A$2:$B1040,2,TRUE)</f>
         <v>Ruppia Leaf Area Index</v>
       </c>
       <c r="C64" t="str">
-        <f>'MASTER KEY'!C64</f>
+        <f>VLOOKUP(A64,'MASTER KEY'!$A$2:$C1040,3,TRUE)</f>
         <v>m^2/m^2</v>
       </c>
       <c r="D64" t="s">
@@ -20469,11 +20463,11 @@
         <v>var00064</v>
       </c>
       <c r="B65" t="str">
-        <f>'MASTER KEY'!B65</f>
+        <f>VLOOKUP(A65,'MASTER KEY'!$A$2:$B1041,2,TRUE)</f>
         <v>Ruppia Biomass (above-ground)</v>
       </c>
       <c r="C65" t="str">
-        <f>'MASTER KEY'!C65</f>
+        <f>VLOOKUP(A65,'MASTER KEY'!$A$2:$C1041,3,TRUE)</f>
         <v>mmol C/m^2</v>
       </c>
       <c r="D65" t="s">
@@ -20492,11 +20486,11 @@
         <v>var00065</v>
       </c>
       <c r="B66" t="str">
-        <f>'MASTER KEY'!B66</f>
+        <f>VLOOKUP(A66,'MASTER KEY'!$A$2:$B1042,2,TRUE)</f>
         <v>Ruppia Biomass (below-ground)</v>
       </c>
       <c r="C66" t="str">
-        <f>'MASTER KEY'!C66</f>
+        <f>VLOOKUP(A66,'MASTER KEY'!$A$2:$C1042,3,TRUE)</f>
         <v>mmol C/m^2</v>
       </c>
       <c r="D66" t="s">
@@ -20515,11 +20509,11 @@
         <v>var00066</v>
       </c>
       <c r="B67" t="str">
-        <f>'MASTER KEY'!B67</f>
+        <f>VLOOKUP(A67,'MASTER KEY'!$A$2:$B1043,2,TRUE)</f>
         <v>Ruppia Root Depth</v>
       </c>
       <c r="C67" t="str">
-        <f>'MASTER KEY'!C67</f>
+        <f>VLOOKUP(A67,'MASTER KEY'!$A$2:$C1043,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D67" t="s">
@@ -20538,11 +20532,11 @@
         <v>var00067</v>
       </c>
       <c r="B68" t="str">
-        <f>'MASTER KEY'!B68</f>
+        <f>VLOOKUP(A68,'MASTER KEY'!$A$2:$B1044,2,TRUE)</f>
         <v>Ruppia O2 Injection Rate</v>
       </c>
       <c r="C68" t="str">
-        <f>'MASTER KEY'!C68</f>
+        <f>VLOOKUP(A68,'MASTER KEY'!$A$2:$C1044,3,TRUE)</f>
         <v>mmol O_2/m^2</v>
       </c>
       <c r="D68" t="s">
@@ -20561,11 +20555,11 @@
         <v>var00068</v>
       </c>
       <c r="B69" t="str">
-        <f>'MASTER KEY'!B69</f>
+        <f>VLOOKUP(A69,'MASTER KEY'!$A$2:$B1045,2,TRUE)</f>
         <v>Sedimentation Velocity (SS1)</v>
       </c>
       <c r="C69" t="str">
-        <f>'MASTER KEY'!C69</f>
+        <f>VLOOKUP(A69,'MASTER KEY'!$A$2:$C1045,3,TRUE)</f>
         <v>m/d</v>
       </c>
       <c r="D69" t="s">
@@ -20584,11 +20578,11 @@
         <v>var00069</v>
       </c>
       <c r="B70" t="str">
-        <f>'MASTER KEY'!B70</f>
+        <f>VLOOKUP(A70,'MASTER KEY'!$A$2:$B1046,2,TRUE)</f>
         <v>Sedimentation Rate (SS1)</v>
       </c>
       <c r="C70" t="str">
-        <f>'MASTER KEY'!C70</f>
+        <f>VLOOKUP(A70,'MASTER KEY'!$A$2:$C1046,3,TRUE)</f>
         <v>g/m^3/d</v>
       </c>
       <c r="D70" t="s">
@@ -20607,11 +20601,11 @@
         <v>var00070</v>
       </c>
       <c r="B71" t="str">
-        <f>'MASTER KEY'!B71</f>
+        <f>VLOOKUP(A71,'MASTER KEY'!$A$2:$B1047,2,TRUE)</f>
         <v>Sedimentation Velocity (SS2)</v>
       </c>
       <c r="C71" t="str">
-        <f>'MASTER KEY'!C71</f>
+        <f>VLOOKUP(A71,'MASTER KEY'!$A$2:$C1047,3,TRUE)</f>
         <v>m/d</v>
       </c>
       <c r="D71" t="s">
@@ -20630,11 +20624,11 @@
         <v>var00071</v>
       </c>
       <c r="B72" t="str">
-        <f>'MASTER KEY'!B72</f>
+        <f>VLOOKUP(A72,'MASTER KEY'!$A$2:$B1048,2,TRUE)</f>
         <v>Sedimentation Rate (SS2)</v>
       </c>
       <c r="C72" t="str">
-        <f>'MASTER KEY'!C72</f>
+        <f>VLOOKUP(A72,'MASTER KEY'!$A$2:$C1048,3,TRUE)</f>
         <v>g/m^3/d</v>
       </c>
       <c r="D72" t="s">
@@ -20653,11 +20647,11 @@
         <v>var00072</v>
       </c>
       <c r="B73" t="str">
-        <f>'MASTER KEY'!B73</f>
+        <f>VLOOKUP(A73,'MASTER KEY'!$A$2:$B1049,2,TRUE)</f>
         <v>Sedimentation Velocity (SS3)</v>
       </c>
       <c r="C73" t="str">
-        <f>'MASTER KEY'!C73</f>
+        <f>VLOOKUP(A73,'MASTER KEY'!$A$2:$C1049,3,TRUE)</f>
         <v>m/d</v>
       </c>
       <c r="D73" t="s">
@@ -20676,11 +20670,11 @@
         <v>var00073</v>
       </c>
       <c r="B74" t="str">
-        <f>'MASTER KEY'!B74</f>
+        <f>VLOOKUP(A74,'MASTER KEY'!$A$2:$B1050,2,TRUE)</f>
         <v>Sedimentation Rate (SS3)</v>
       </c>
       <c r="C74" t="str">
-        <f>'MASTER KEY'!C74</f>
+        <f>VLOOKUP(A74,'MASTER KEY'!$A$2:$C1050,3,TRUE)</f>
         <v>g/m^3/d</v>
       </c>
       <c r="D74" t="s">
@@ -20699,11 +20693,11 @@
         <v>var00074</v>
       </c>
       <c r="B75" t="str">
-        <f>'MASTER KEY'!B75</f>
+        <f>VLOOKUP(A75,'MASTER KEY'!$A$2:$B1051,2,TRUE)</f>
         <v>Sediment Mass</v>
       </c>
       <c r="C75" t="str">
-        <f>'MASTER KEY'!C75</f>
+        <f>VLOOKUP(A75,'MASTER KEY'!$A$2:$C1051,3,TRUE)</f>
         <v>g/m^2</v>
       </c>
       <c r="D75" t="s">
@@ -20722,11 +20716,11 @@
         <v>var00075</v>
       </c>
       <c r="B76" t="str">
-        <f>'MASTER KEY'!B76</f>
+        <f>VLOOKUP(A76,'MASTER KEY'!$A$2:$B1052,2,TRUE)</f>
         <v>Critical Shear Stress</v>
       </c>
       <c r="C76" t="str">
-        <f>'MASTER KEY'!C76</f>
+        <f>VLOOKUP(A76,'MASTER KEY'!$A$2:$C1052,3,TRUE)</f>
         <v>N/m^2</v>
       </c>
       <c r="D76" t="s">
@@ -20745,11 +20739,11 @@
         <v>var00076</v>
       </c>
       <c r="B77" t="str">
-        <f>'MASTER KEY'!B77</f>
+        <f>VLOOKUP(A77,'MASTER KEY'!$A$2:$B1053,2,TRUE)</f>
         <v>Resuspension Rate</v>
       </c>
       <c r="C77" t="str">
-        <f>'MASTER KEY'!C77</f>
+        <f>VLOOKUP(A77,'MASTER KEY'!$A$2:$C1053,3,TRUE)</f>
         <v>g/m^2/d</v>
       </c>
       <c r="D77" t="s">
@@ -20768,11 +20762,11 @@
         <v>var00077</v>
       </c>
       <c r="B78" t="str">
-        <f>'MASTER KEY'!B78</f>
+        <f>VLOOKUP(A78,'MASTER KEY'!$A$2:$B1054,2,TRUE)</f>
         <v>Sediment Fraction (SS1)</v>
       </c>
       <c r="C78" t="str">
-        <f>'MASTER KEY'!C78</f>
+        <f>VLOOKUP(A78,'MASTER KEY'!$A$2:$C1054,3,TRUE)</f>
         <v>v/v</v>
       </c>
       <c r="D78" t="s">
@@ -20791,11 +20785,11 @@
         <v>var00078</v>
       </c>
       <c r="B79" t="str">
-        <f>'MASTER KEY'!B79</f>
+        <f>VLOOKUP(A79,'MASTER KEY'!$A$2:$B1055,2,TRUE)</f>
         <v>Sediment Fraction (SS2)</v>
       </c>
       <c r="C79" t="str">
-        <f>'MASTER KEY'!C79</f>
+        <f>VLOOKUP(A79,'MASTER KEY'!$A$2:$C1055,3,TRUE)</f>
         <v>v/v</v>
       </c>
       <c r="D79" t="s">
@@ -20814,11 +20808,11 @@
         <v>var00079</v>
       </c>
       <c r="B80" t="str">
-        <f>'MASTER KEY'!B80</f>
+        <f>VLOOKUP(A80,'MASTER KEY'!$A$2:$B1056,2,TRUE)</f>
         <v>Sediment Fraction (SS3)</v>
       </c>
       <c r="C80" t="str">
-        <f>'MASTER KEY'!C80</f>
+        <f>VLOOKUP(A80,'MASTER KEY'!$A$2:$C1056,3,TRUE)</f>
         <v>v/v</v>
       </c>
       <c r="D80" t="s">
@@ -20837,11 +20831,11 @@
         <v>var00080</v>
       </c>
       <c r="B81" t="str">
-        <f>'MASTER KEY'!B81</f>
+        <f>VLOOKUP(A81,'MASTER KEY'!$A$2:$B1057,2,TRUE)</f>
         <v>Sedimentation Rate (SS)</v>
       </c>
       <c r="C81" t="str">
-        <f>'MASTER KEY'!C81</f>
+        <f>VLOOKUP(A81,'MASTER KEY'!$A$2:$C1057,3,TRUE)</f>
         <v>g/m^3/d</v>
       </c>
       <c r="D81" t="s">
@@ -20860,11 +20854,11 @@
         <v>var00081</v>
       </c>
       <c r="B82" t="str">
-        <f>'MASTER KEY'!B82</f>
+        <f>VLOOKUP(A82,'MASTER KEY'!$A$2:$B1058,2,TRUE)</f>
         <v>SS Net SWI Flux</v>
       </c>
       <c r="C82" t="str">
-        <f>'MASTER KEY'!C82</f>
+        <f>VLOOKUP(A82,'MASTER KEY'!$A$2:$C1058,3,TRUE)</f>
         <v>g/m^2/d</v>
       </c>
       <c r="D82" t="s">
@@ -20883,11 +20877,11 @@
         <v>var00082</v>
       </c>
       <c r="B83" t="str">
-        <f>'MASTER KEY'!B83</f>
+        <f>VLOOKUP(A83,'MASTER KEY'!$A$2:$B1059,2,TRUE)</f>
         <v>Change in SWI Position</v>
       </c>
       <c r="C83" t="str">
-        <f>'MASTER KEY'!C83</f>
+        <f>VLOOKUP(A83,'MASTER KEY'!$A$2:$C1059,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D83" t="s">
@@ -20906,11 +20900,11 @@
         <v>var00083</v>
       </c>
       <c r="B84" t="str">
-        <f>'MASTER KEY'!B84</f>
+        <f>VLOOKUP(A84,'MASTER KEY'!$A$2:$B1060,2,TRUE)</f>
         <v>Resuspension Rate (SS)</v>
       </c>
       <c r="C84" t="str">
-        <f>'MASTER KEY'!C84</f>
+        <f>VLOOKUP(A84,'MASTER KEY'!$A$2:$C1060,3,TRUE)</f>
         <v>g/m^2/d</v>
       </c>
       <c r="D84" t="s">
@@ -20929,11 +20923,11 @@
         <v>var00084</v>
       </c>
       <c r="B85" t="str">
-        <f>'MASTER KEY'!B85</f>
+        <f>VLOOKUP(A85,'MASTER KEY'!$A$2:$B1061,2,TRUE)</f>
         <v>Bottom Shear Stress</v>
       </c>
       <c r="C85" t="str">
-        <f>'MASTER KEY'!C85</f>
+        <f>VLOOKUP(A85,'MASTER KEY'!$A$2:$C1061,3,TRUE)</f>
         <v>N/m^2</v>
       </c>
       <c r="D85" t="s">
@@ -20952,11 +20946,11 @@
         <v>var00085</v>
       </c>
       <c r="B86" t="str">
-        <f>'MASTER KEY'!B86</f>
+        <f>VLOOKUP(A86,'MASTER KEY'!$A$2:$B1062,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
       <c r="C86" t="str">
-        <f>'MASTER KEY'!C86</f>
+        <f>VLOOKUP(A86,'MASTER KEY'!$A$2:$C1062,3,TRUE)</f>
         <v>%</v>
       </c>
       <c r="D86" t="s">
@@ -20975,11 +20969,11 @@
         <v>var00086</v>
       </c>
       <c r="B87" t="str">
-        <f>'MASTER KEY'!B87</f>
+        <f>VLOOKUP(A87,'MASTER KEY'!$A$2:$B1063,2,TRUE)</f>
         <v>O2 Dissolved Sediment Flux</v>
       </c>
       <c r="C87" t="str">
-        <f>'MASTER KEY'!C87</f>
+        <f>VLOOKUP(A87,'MASTER KEY'!$A$2:$C1063,3,TRUE)</f>
         <v>mmol O_2/m^2</v>
       </c>
       <c r="D87" t="s">
@@ -20998,11 +20992,11 @@
         <v>var00087</v>
       </c>
       <c r="B88" t="str">
-        <f>'MASTER KEY'!B88</f>
+        <f>VLOOKUP(A88,'MASTER KEY'!$A$2:$B1064,2,TRUE)</f>
         <v>O2 Atmospheric Flux</v>
       </c>
       <c r="C88" t="str">
-        <f>'MASTER KEY'!C88</f>
+        <f>VLOOKUP(A88,'MASTER KEY'!$A$2:$C1064,3,TRUE)</f>
         <v>mmol O_2/m^2</v>
       </c>
       <c r="D88" t="s">
@@ -21021,11 +21015,11 @@
         <v>var00088</v>
       </c>
       <c r="B89" t="str">
-        <f>'MASTER KEY'!B89</f>
+        <f>VLOOKUP(A89,'MASTER KEY'!$A$2:$B1065,2,TRUE)</f>
         <v>O2 Dissolved Sediment Exchange Rate</v>
       </c>
       <c r="C89" t="str">
-        <f>'MASTER KEY'!C89</f>
+        <f>VLOOKUP(A89,'MASTER KEY'!$A$2:$C1065,3,TRUE)</f>
         <v>mmol O_2/m^3</v>
       </c>
       <c r="D89" t="s">
@@ -21044,11 +21038,11 @@
         <v>var00089</v>
       </c>
       <c r="B90" t="str">
-        <f>'MASTER KEY'!B90</f>
+        <f>VLOOKUP(A90,'MASTER KEY'!$A$2:$B1066,2,TRUE)</f>
         <v>O2 Atmospheric Exchange Rate</v>
       </c>
       <c r="C90" t="str">
-        <f>'MASTER KEY'!C90</f>
+        <f>VLOOKUP(A90,'MASTER KEY'!$A$2:$C1066,3,TRUE)</f>
         <v>mmol O_2/m^3</v>
       </c>
       <c r="D90" t="s">
@@ -21067,11 +21061,11 @@
         <v>var00090</v>
       </c>
       <c r="B91" t="str">
-        <f>'MASTER KEY'!B91</f>
+        <f>VLOOKUP(A91,'MASTER KEY'!$A$2:$B1067,2,TRUE)</f>
         <v>Si Dissolved Sediment Flux</v>
       </c>
       <c r="C91" t="str">
-        <f>'MASTER KEY'!C91</f>
+        <f>VLOOKUP(A91,'MASTER KEY'!$A$2:$C1067,3,TRUE)</f>
         <v>mmol Si/m^2</v>
       </c>
       <c r="D91" t="s">
@@ -21090,11 +21084,11 @@
         <v>var00091</v>
       </c>
       <c r="B92" t="str">
-        <f>'MASTER KEY'!B92</f>
+        <f>VLOOKUP(A92,'MASTER KEY'!$A$2:$B1068,2,TRUE)</f>
         <v>NH4 Dissolved Sediment Flux</v>
       </c>
       <c r="C92" t="str">
-        <f>'MASTER KEY'!C92</f>
+        <f>VLOOKUP(A92,'MASTER KEY'!$A$2:$C1068,3,TRUE)</f>
         <v>mmol N/m^2</v>
       </c>
       <c r="D92" t="s">
@@ -21113,11 +21107,11 @@
         <v>var00092</v>
       </c>
       <c r="B93" t="str">
-        <f>'MASTER KEY'!B93</f>
+        <f>VLOOKUP(A93,'MASTER KEY'!$A$2:$B1069,2,TRUE)</f>
         <v>NO3 Dissolved Sediment Flux</v>
       </c>
       <c r="C93" t="str">
-        <f>'MASTER KEY'!C93</f>
+        <f>VLOOKUP(A93,'MASTER KEY'!$A$2:$C1069,3,TRUE)</f>
         <v>mmol N/m^2</v>
       </c>
       <c r="D93" t="s">
@@ -21136,11 +21130,11 @@
         <v>var00093</v>
       </c>
       <c r="B94" t="str">
-        <f>'MASTER KEY'!B94</f>
+        <f>VLOOKUP(A94,'MASTER KEY'!$A$2:$B1070,2,TRUE)</f>
         <v>Nitrification Rate</v>
       </c>
       <c r="C94" t="str">
-        <f>'MASTER KEY'!C94</f>
+        <f>VLOOKUP(A94,'MASTER KEY'!$A$2:$C1070,3,TRUE)</f>
         <v>mmol N/m^3/d</v>
       </c>
       <c r="D94" t="s">
@@ -21159,11 +21153,11 @@
         <v>var00094</v>
       </c>
       <c r="B95" t="str">
-        <f>'MASTER KEY'!B95</f>
+        <f>VLOOKUP(A95,'MASTER KEY'!$A$2:$B1071,2,TRUE)</f>
         <v>Denitrification Rate</v>
       </c>
       <c r="C95" t="str">
-        <f>'MASTER KEY'!C95</f>
+        <f>VLOOKUP(A95,'MASTER KEY'!$A$2:$C1071,3,TRUE)</f>
         <v>mmol N/m^3/d</v>
       </c>
       <c r="D95" t="s">
@@ -21182,11 +21176,11 @@
         <v>var00095</v>
       </c>
       <c r="B96" t="str">
-        <f>'MASTER KEY'!B96</f>
+        <f>VLOOKUP(A96,'MASTER KEY'!$A$2:$B1072,2,TRUE)</f>
         <v>Annamox Rate</v>
       </c>
       <c r="C96" t="str">
-        <f>'MASTER KEY'!C96</f>
+        <f>VLOOKUP(A96,'MASTER KEY'!$A$2:$C1072,3,TRUE)</f>
         <v>mmol N/m^3/d</v>
       </c>
       <c r="D96" t="s">
@@ -21205,11 +21199,11 @@
         <v>var00096</v>
       </c>
       <c r="B97" t="str">
-        <f>'MASTER KEY'!B97</f>
+        <f>VLOOKUP(A97,'MASTER KEY'!$A$2:$B1073,2,TRUE)</f>
         <v>DNRA Rate</v>
       </c>
       <c r="C97" t="str">
-        <f>'MASTER KEY'!C97</f>
+        <f>VLOOKUP(A97,'MASTER KEY'!$A$2:$C1073,3,TRUE)</f>
         <v>mmol N/m^3/d</v>
       </c>
       <c r="D97" t="s">
@@ -21228,11 +21222,11 @@
         <v>var00097</v>
       </c>
       <c r="B98" t="str">
-        <f>'MASTER KEY'!B98</f>
+        <f>VLOOKUP(A98,'MASTER KEY'!$A$2:$B1074,2,TRUE)</f>
         <v>DIN Atmospheric Deposition Flux</v>
       </c>
       <c r="C98" t="str">
-        <f>'MASTER KEY'!C98</f>
+        <f>VLOOKUP(A98,'MASTER KEY'!$A$2:$C1074,3,TRUE)</f>
         <v>mmol N/m^2/d</v>
       </c>
       <c r="D98" t="s">
@@ -21251,11 +21245,11 @@
         <v>var00098</v>
       </c>
       <c r="B99" t="str">
-        <f>'MASTER KEY'!B99</f>
+        <f>VLOOKUP(A99,'MASTER KEY'!$A$2:$B1075,2,TRUE)</f>
         <v>PIP Sedimentation Rate</v>
       </c>
       <c r="C99" t="str">
-        <f>'MASTER KEY'!C99</f>
+        <f>VLOOKUP(A99,'MASTER KEY'!$A$2:$C1075,3,TRUE)</f>
         <v>mmol P/m^3/d</v>
       </c>
       <c r="D99" t="s">
@@ -21274,11 +21268,11 @@
         <v>var00099</v>
       </c>
       <c r="B100" t="str">
-        <f>'MASTER KEY'!B100</f>
+        <f>VLOOKUP(A100,'MASTER KEY'!$A$2:$B1076,2,TRUE)</f>
         <v>PIP Resuspension Rate</v>
       </c>
       <c r="C100" t="str">
-        <f>'MASTER KEY'!C100</f>
+        <f>VLOOKUP(A100,'MASTER KEY'!$A$2:$C1076,3,TRUE)</f>
         <v>mmol P/m^2/d</v>
       </c>
       <c r="D100" t="s">
@@ -21297,11 +21291,11 @@
         <v>var00100</v>
       </c>
       <c r="B101" t="str">
-        <f>'MASTER KEY'!B101</f>
+        <f>VLOOKUP(A101,'MASTER KEY'!$A$2:$B1077,2,TRUE)</f>
         <v>PIP Net SWI Flux</v>
       </c>
       <c r="C101" t="str">
-        <f>'MASTER KEY'!C101</f>
+        <f>VLOOKUP(A101,'MASTER KEY'!$A$2:$C1077,3,TRUE)</f>
         <v>mmol P/m^2/d</v>
       </c>
       <c r="D101" t="s">
@@ -21320,11 +21314,11 @@
         <v>var00101</v>
       </c>
       <c r="B102" t="str">
-        <f>'MASTER KEY'!B102</f>
+        <f>VLOOKUP(A102,'MASTER KEY'!$A$2:$B1078,2,TRUE)</f>
         <v>FRP Sorption Rate</v>
       </c>
       <c r="C102" t="str">
-        <f>'MASTER KEY'!C102</f>
+        <f>VLOOKUP(A102,'MASTER KEY'!$A$2:$C1078,3,TRUE)</f>
         <v>mmol P/m^3/d</v>
       </c>
       <c r="D102" t="s">
@@ -21343,11 +21337,11 @@
         <v>var00102</v>
       </c>
       <c r="B103" t="str">
-        <f>'MASTER KEY'!B103</f>
+        <f>VLOOKUP(A103,'MASTER KEY'!$A$2:$B1079,2,TRUE)</f>
         <v>FRP Dissolved Sediment Flux</v>
       </c>
       <c r="C103" t="str">
-        <f>'MASTER KEY'!C103</f>
+        <f>VLOOKUP(A103,'MASTER KEY'!$A$2:$C1079,3,TRUE)</f>
         <v>mmol P/m^2/d</v>
       </c>
       <c r="D103" t="s">
@@ -21366,11 +21360,11 @@
         <v>var00103</v>
       </c>
       <c r="B104" t="str">
-        <f>'MASTER KEY'!B104</f>
+        <f>VLOOKUP(A104,'MASTER KEY'!$A$2:$B1080,2,TRUE)</f>
         <v>DIP Atmospheric Deposition Flux</v>
       </c>
       <c r="C104" t="str">
-        <f>'MASTER KEY'!C104</f>
+        <f>VLOOKUP(A104,'MASTER KEY'!$A$2:$C1080,3,TRUE)</f>
         <v>mmol P/m^2/d</v>
       </c>
       <c r="D104" t="s">
@@ -21389,11 +21383,11 @@
         <v>var00104</v>
       </c>
       <c r="B105" t="str">
-        <f>'MASTER KEY'!B105</f>
+        <f>VLOOKUP(A105,'MASTER KEY'!$A$2:$B1081,2,TRUE)</f>
         <v>POC Sedimentation Rate</v>
       </c>
       <c r="C105" t="str">
-        <f>'MASTER KEY'!C105</f>
+        <f>VLOOKUP(A105,'MASTER KEY'!$A$2:$C1081,3,TRUE)</f>
         <v>mmol C/m^3/d</v>
       </c>
       <c r="D105" t="s">
@@ -21412,11 +21406,11 @@
         <v>var00105</v>
       </c>
       <c r="B106" t="str">
-        <f>'MASTER KEY'!B106</f>
+        <f>VLOOKUP(A106,'MASTER KEY'!$A$2:$B1082,2,TRUE)</f>
         <v>PON Sedimentation Rate</v>
       </c>
       <c r="C106" t="str">
-        <f>'MASTER KEY'!C106</f>
+        <f>VLOOKUP(A106,'MASTER KEY'!$A$2:$C1082,3,TRUE)</f>
         <v>mmol N/m^3/d</v>
       </c>
       <c r="D106" t="s">
@@ -21435,11 +21429,11 @@
         <v>var00106</v>
       </c>
       <c r="B107" t="str">
-        <f>'MASTER KEY'!B107</f>
+        <f>VLOOKUP(A107,'MASTER KEY'!$A$2:$B1083,2,TRUE)</f>
         <v>POP Sedimentation Rate</v>
       </c>
       <c r="C107" t="str">
-        <f>'MASTER KEY'!C107</f>
+        <f>VLOOKUP(A107,'MASTER KEY'!$A$2:$C1083,3,TRUE)</f>
         <v>mmol P/m^3/d</v>
       </c>
       <c r="D107" t="s">
@@ -21458,11 +21452,11 @@
         <v>var00107</v>
       </c>
       <c r="B108" t="str">
-        <f>'MASTER KEY'!B108</f>
+        <f>VLOOKUP(A108,'MASTER KEY'!$A$2:$B1084,2,TRUE)</f>
         <v>Sediment OM Fraction</v>
       </c>
       <c r="C108" t="str">
-        <f>'MASTER KEY'!C108</f>
+        <f>VLOOKUP(A108,'MASTER KEY'!$A$2:$C1084,3,TRUE)</f>
         <v>v/v</v>
       </c>
       <c r="D108" t="s">
@@ -21481,11 +21475,11 @@
         <v>var00108</v>
       </c>
       <c r="B109" t="str">
-        <f>'MASTER KEY'!B109</f>
+        <f>VLOOKUP(A109,'MASTER KEY'!$A$2:$B1085,2,TRUE)</f>
         <v>Chromophoric DOM</v>
       </c>
       <c r="C109" t="str">
-        <f>'MASTER KEY'!C109</f>
+        <f>VLOOKUP(A109,'MASTER KEY'!$A$2:$C1085,3,TRUE)</f>
         <v>/m</v>
       </c>
       <c r="D109" t="s">
@@ -21504,11 +21498,11 @@
         <v>var00109</v>
       </c>
       <c r="B110" t="str">
-        <f>'MASTER KEY'!B110</f>
+        <f>VLOOKUP(A110,'MASTER KEY'!$A$2:$B1086,2,TRUE)</f>
         <v>Sediment Total Organic Carbon</v>
       </c>
       <c r="C110" t="str">
-        <f>'MASTER KEY'!C110</f>
+        <f>VLOOKUP(A110,'MASTER KEY'!$A$2:$C1086,3,TRUE)</f>
         <v>mmol C/m^2</v>
       </c>
       <c r="D110" t="s">
@@ -21527,11 +21521,11 @@
         <v>var00110</v>
       </c>
       <c r="B111" t="str">
-        <f>'MASTER KEY'!B111</f>
+        <f>VLOOKUP(A111,'MASTER KEY'!$A$2:$B1087,2,TRUE)</f>
         <v>Sediment Total Organic Nitrogen</v>
       </c>
       <c r="C111" t="str">
-        <f>'MASTER KEY'!C111</f>
+        <f>VLOOKUP(A111,'MASTER KEY'!$A$2:$C1087,3,TRUE)</f>
         <v>mmol N/m^2</v>
       </c>
       <c r="D111" t="s">
@@ -21550,11 +21544,11 @@
         <v>var00111</v>
       </c>
       <c r="B112" t="str">
-        <f>'MASTER KEY'!B112</f>
+        <f>VLOOKUP(A112,'MASTER KEY'!$A$2:$B1088,2,TRUE)</f>
         <v>Sediment Total Organic Phosphorus</v>
       </c>
       <c r="C112" t="str">
-        <f>'MASTER KEY'!C112</f>
+        <f>VLOOKUP(A112,'MASTER KEY'!$A$2:$C1088,3,TRUE)</f>
         <v>mmol P/m^2</v>
       </c>
       <c r="D112" t="s">
@@ -21573,11 +21567,11 @@
         <v>var00112</v>
       </c>
       <c r="B113" t="str">
-        <f>'MASTER KEY'!B113</f>
+        <f>VLOOKUP(A113,'MASTER KEY'!$A$2:$B1089,2,TRUE)</f>
         <v>POC Net SWI Flux</v>
       </c>
       <c r="C113" t="str">
-        <f>'MASTER KEY'!C113</f>
+        <f>VLOOKUP(A113,'MASTER KEY'!$A$2:$C1089,3,TRUE)</f>
         <v>mmol C/m^2/d</v>
       </c>
       <c r="D113" t="s">
@@ -21596,11 +21590,11 @@
         <v>var00113</v>
       </c>
       <c r="B114" t="str">
-        <f>'MASTER KEY'!B114</f>
+        <f>VLOOKUP(A114,'MASTER KEY'!$A$2:$B1090,2,TRUE)</f>
         <v>DOC Net SWI Flux</v>
       </c>
       <c r="C114" t="str">
-        <f>'MASTER KEY'!C114</f>
+        <f>VLOOKUP(A114,'MASTER KEY'!$A$2:$C1090,3,TRUE)</f>
         <v>mmol C/m^2/d</v>
       </c>
       <c r="D114" t="s">
@@ -21619,11 +21613,11 @@
         <v>var00114</v>
       </c>
       <c r="B115" t="str">
-        <f>'MASTER KEY'!B115</f>
+        <f>VLOOKUP(A115,'MASTER KEY'!$A$2:$B1091,2,TRUE)</f>
         <v>PON Net SWI Flux</v>
       </c>
       <c r="C115" t="str">
-        <f>'MASTER KEY'!C115</f>
+        <f>VLOOKUP(A115,'MASTER KEY'!$A$2:$C1091,3,TRUE)</f>
         <v>mmol N/m^2/d</v>
       </c>
       <c r="D115" t="s">
@@ -21642,11 +21636,11 @@
         <v>var00115</v>
       </c>
       <c r="B116" t="str">
-        <f>'MASTER KEY'!B116</f>
+        <f>VLOOKUP(A116,'MASTER KEY'!$A$2:$B1092,2,TRUE)</f>
         <v>DON Net SWI Flux</v>
       </c>
       <c r="C116" t="str">
-        <f>'MASTER KEY'!C116</f>
+        <f>VLOOKUP(A116,'MASTER KEY'!$A$2:$C1092,3,TRUE)</f>
         <v>mmol N/m^2/d</v>
       </c>
       <c r="D116" t="s">
@@ -21665,11 +21659,11 @@
         <v>var00116</v>
       </c>
       <c r="B117" t="str">
-        <f>'MASTER KEY'!B117</f>
+        <f>VLOOKUP(A117,'MASTER KEY'!$A$2:$B1093,2,TRUE)</f>
         <v>POP Net SWI Flux</v>
       </c>
       <c r="C117" t="str">
-        <f>'MASTER KEY'!C117</f>
+        <f>VLOOKUP(A117,'MASTER KEY'!$A$2:$C1093,3,TRUE)</f>
         <v>mmol P/m^2/d</v>
       </c>
       <c r="D117" t="s">
@@ -21688,11 +21682,11 @@
         <v>var00117</v>
       </c>
       <c r="B118" t="str">
-        <f>'MASTER KEY'!B118</f>
+        <f>VLOOKUP(A118,'MASTER KEY'!$A$2:$B1094,2,TRUE)</f>
         <v>DOP Net SWI Flux</v>
       </c>
       <c r="C118" t="str">
-        <f>'MASTER KEY'!C118</f>
+        <f>VLOOKUP(A118,'MASTER KEY'!$A$2:$C1094,3,TRUE)</f>
         <v>mmol P/m^2/d</v>
       </c>
       <c r="D118" t="s">
@@ -21711,11 +21705,11 @@
         <v>var00118</v>
       </c>
       <c r="B119" t="str">
-        <f>'MASTER KEY'!B119</f>
+        <f>VLOOKUP(A119,'MASTER KEY'!$A$2:$B1095,2,TRUE)</f>
         <v>POC Resuspension Rate</v>
       </c>
       <c r="C119" t="str">
-        <f>'MASTER KEY'!C119</f>
+        <f>VLOOKUP(A119,'MASTER KEY'!$A$2:$C1095,3,TRUE)</f>
         <v>mmol C/m^2/d</v>
       </c>
       <c r="D119" t="s">
@@ -21734,11 +21728,11 @@
         <v>var00119</v>
       </c>
       <c r="B120" t="str">
-        <f>'MASTER KEY'!B120</f>
+        <f>VLOOKUP(A120,'MASTER KEY'!$A$2:$B1096,2,TRUE)</f>
         <v>PON Resuspension Rate</v>
       </c>
       <c r="C120" t="str">
-        <f>'MASTER KEY'!C120</f>
+        <f>VLOOKUP(A120,'MASTER KEY'!$A$2:$C1096,3,TRUE)</f>
         <v>mmol N/m^2/d</v>
       </c>
       <c r="D120" t="s">
@@ -21757,11 +21751,11 @@
         <v>var00120</v>
       </c>
       <c r="B121" t="str">
-        <f>'MASTER KEY'!B121</f>
+        <f>VLOOKUP(A121,'MASTER KEY'!$A$2:$B1097,2,TRUE)</f>
         <v>POP Resuspension Rate</v>
       </c>
       <c r="C121" t="str">
-        <f>'MASTER KEY'!C121</f>
+        <f>VLOOKUP(A121,'MASTER KEY'!$A$2:$C1097,3,TRUE)</f>
         <v>mmol P/m^2/d</v>
       </c>
       <c r="D121" t="s">
@@ -21780,11 +21774,11 @@
         <v>var00121</v>
       </c>
       <c r="B122" t="str">
-        <f>'MASTER KEY'!B122</f>
+        <f>VLOOKUP(A122,'MASTER KEY'!$A$2:$B1098,2,TRUE)</f>
         <v>POC Hydrolysis Rate</v>
       </c>
       <c r="C122" t="str">
-        <f>'MASTER KEY'!C122</f>
+        <f>VLOOKUP(A122,'MASTER KEY'!$A$2:$C1098,3,TRUE)</f>
         <v>mmol C/m^3/d</v>
       </c>
       <c r="D122" t="s">
@@ -21803,11 +21797,11 @@
         <v>var00122</v>
       </c>
       <c r="B123" t="str">
-        <f>'MASTER KEY'!B123</f>
+        <f>VLOOKUP(A123,'MASTER KEY'!$A$2:$B1099,2,TRUE)</f>
         <v>PON Hydrolysis Rate</v>
       </c>
       <c r="C123" t="str">
-        <f>'MASTER KEY'!C123</f>
+        <f>VLOOKUP(A123,'MASTER KEY'!$A$2:$C1099,3,TRUE)</f>
         <v>mmol N/m^3/d</v>
       </c>
       <c r="D123" t="s">
@@ -21826,11 +21820,11 @@
         <v>var00123</v>
       </c>
       <c r="B124" t="str">
-        <f>'MASTER KEY'!B124</f>
+        <f>VLOOKUP(A124,'MASTER KEY'!$A$2:$B1100,2,TRUE)</f>
         <v>POP Hydrolysis Rate</v>
       </c>
       <c r="C124" t="str">
-        <f>'MASTER KEY'!C124</f>
+        <f>VLOOKUP(A124,'MASTER KEY'!$A$2:$C1100,3,TRUE)</f>
         <v>mmol P/m^3/d</v>
       </c>
       <c r="D124" t="s">
@@ -21849,11 +21843,11 @@
         <v>var00124</v>
       </c>
       <c r="B125" t="str">
-        <f>'MASTER KEY'!B125</f>
+        <f>VLOOKUP(A125,'MASTER KEY'!$A$2:$B1101,2,TRUE)</f>
         <v>DOC Mineralisation Rate</v>
       </c>
       <c r="C125" t="str">
-        <f>'MASTER KEY'!C125</f>
+        <f>VLOOKUP(A125,'MASTER KEY'!$A$2:$C1101,3,TRUE)</f>
         <v>mmol C/m^3/d</v>
       </c>
       <c r="D125" t="s">
@@ -21872,11 +21866,11 @@
         <v>var00125</v>
       </c>
       <c r="B126" t="str">
-        <f>'MASTER KEY'!B126</f>
+        <f>VLOOKUP(A126,'MASTER KEY'!$A$2:$B1102,2,TRUE)</f>
         <v>DON Mineralisation Rate</v>
       </c>
       <c r="C126" t="str">
-        <f>'MASTER KEY'!C126</f>
+        <f>VLOOKUP(A126,'MASTER KEY'!$A$2:$C1102,3,TRUE)</f>
         <v>mmol N/m^3/d</v>
       </c>
       <c r="D126" t="s">
@@ -21895,11 +21889,11 @@
         <v>var00126</v>
       </c>
       <c r="B127" t="str">
-        <f>'MASTER KEY'!B127</f>
+        <f>VLOOKUP(A127,'MASTER KEY'!$A$2:$B1103,2,TRUE)</f>
         <v>DOP Mineralisation Rate</v>
       </c>
       <c r="C127" t="str">
-        <f>'MASTER KEY'!C127</f>
+        <f>VLOOKUP(A127,'MASTER KEY'!$A$2:$C1103,3,TRUE)</f>
         <v>mmol P/m^3/d</v>
       </c>
       <c r="D127" t="s">
@@ -21918,11 +21912,11 @@
         <v>var00127</v>
       </c>
       <c r="B128" t="str">
-        <f>'MASTER KEY'!B128</f>
+        <f>VLOOKUP(A128,'MASTER KEY'!$A$2:$B1104,2,TRUE)</f>
         <v>DOC Mineralisation Rate (anaerobic)</v>
       </c>
       <c r="C128" t="str">
-        <f>'MASTER KEY'!C128</f>
+        <f>VLOOKUP(A128,'MASTER KEY'!$A$2:$C1104,3,TRUE)</f>
         <v>mmol C/m^3/d</v>
       </c>
       <c r="D128" t="s">
@@ -21941,11 +21935,11 @@
         <v>var00128</v>
       </c>
       <c r="B129" t="str">
-        <f>'MASTER KEY'!B129</f>
+        <f>VLOOKUP(A129,'MASTER KEY'!$A$2:$B1105,2,TRUE)</f>
         <v>DOC Mineralisation Rate (denitrification)</v>
       </c>
       <c r="C129" t="str">
-        <f>'MASTER KEY'!C129</f>
+        <f>VLOOKUP(A129,'MASTER KEY'!$A$2:$C1105,3,TRUE)</f>
         <v>mmol C/m^3/d</v>
       </c>
       <c r="D129" t="s">
@@ -21964,11 +21958,11 @@
         <v>var00129</v>
       </c>
       <c r="B130" t="str">
-        <f>'MASTER KEY'!B130</f>
+        <f>VLOOKUP(A130,'MASTER KEY'!$A$2:$B1106,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
       <c r="C130" t="str">
-        <f>'MASTER KEY'!C130</f>
+        <f>VLOOKUP(A130,'MASTER KEY'!$A$2:$C1106,3,TRUE)</f>
         <v>ø</v>
       </c>
       <c r="D130" t="s">
@@ -21987,11 +21981,11 @@
         <v>var00130</v>
       </c>
       <c r="B131" t="str">
-        <f>'MASTER KEY'!B131</f>
+        <f>VLOOKUP(A131,'MASTER KEY'!$A$2:$B1107,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
       <c r="C131" t="str">
-        <f>'MASTER KEY'!C131</f>
+        <f>VLOOKUP(A131,'MASTER KEY'!$A$2:$C1107,3,TRUE)</f>
         <v>m/s</v>
       </c>
       <c r="D131" t="s">
@@ -22010,11 +22004,11 @@
         <v>var00131</v>
       </c>
       <c r="B132" t="str">
-        <f>'MASTER KEY'!B132</f>
+        <f>VLOOKUP(A132,'MASTER KEY'!$A$2:$B1108,2,TRUE)</f>
         <v>Chlorophyll-b</v>
       </c>
       <c r="C132" t="str">
-        <f>'MASTER KEY'!C132</f>
+        <f>VLOOKUP(A132,'MASTER KEY'!$A$2:$C1108,3,TRUE)</f>
         <v>µg/L</v>
       </c>
       <c r="D132" t="s">
@@ -22033,11 +22027,11 @@
         <v>var00132</v>
       </c>
       <c r="B133" t="str">
-        <f>'MASTER KEY'!B133</f>
+        <f>VLOOKUP(A133,'MASTER KEY'!$A$2:$B1109,2,TRUE)</f>
         <v>Chlorophyll-c</v>
       </c>
       <c r="C133" t="str">
-        <f>'MASTER KEY'!C133</f>
+        <f>VLOOKUP(A133,'MASTER KEY'!$A$2:$C1109,3,TRUE)</f>
         <v>µg/L</v>
       </c>
       <c r="D133" t="s">
@@ -22056,11 +22050,11 @@
         <v>var00133</v>
       </c>
       <c r="B134" t="str">
-        <f>'MASTER KEY'!B134</f>
+        <f>VLOOKUP(A134,'MASTER KEY'!$A$2:$B1110,2,TRUE)</f>
         <v>Cloud Cover</v>
       </c>
       <c r="C134" t="str">
-        <f>'MASTER KEY'!C134</f>
+        <f>VLOOKUP(A134,'MASTER KEY'!$A$2:$C1110,3,TRUE)</f>
         <v>%</v>
       </c>
       <c r="D134" t="s">
@@ -22079,11 +22073,11 @@
         <v>var00134</v>
       </c>
       <c r="B135" t="str">
-        <f>'MASTER KEY'!B135</f>
+        <f>VLOOKUP(A135,'MASTER KEY'!$A$2:$B1111,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="C135" t="str">
-        <f>'MASTER KEY'!C135</f>
+        <f>VLOOKUP(A135,'MASTER KEY'!$A$2:$C1111,3,TRUE)</f>
         <v>µS/cm</v>
       </c>
       <c r="D135" t="s">
@@ -22103,11 +22097,11 @@
         <v>var00135</v>
       </c>
       <c r="B136" t="str">
-        <f>'MASTER KEY'!B136</f>
+        <f>VLOOKUP(A136,'MASTER KEY'!$A$2:$B1112,2,TRUE)</f>
         <v>Flow Status</v>
       </c>
       <c r="C136" t="str">
-        <f>'MASTER KEY'!C136</f>
+        <f>VLOOKUP(A136,'MASTER KEY'!$A$2:$C1112,3,TRUE)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D136" t="s">
@@ -22126,11 +22120,11 @@
         <v>var00136</v>
       </c>
       <c r="B137" t="str">
-        <f>'MASTER KEY'!B137</f>
+        <f>VLOOKUP(A137,'MASTER KEY'!$A$2:$B1113,2,TRUE)</f>
         <v>Total TKN</v>
       </c>
       <c r="C137" t="str">
-        <f>'MASTER KEY'!C137</f>
+        <f>VLOOKUP(A137,'MASTER KEY'!$A$2:$C1113,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D137" t="s">
@@ -22150,11 +22144,11 @@
         <v>var00137</v>
       </c>
       <c r="B138" t="str">
-        <f>'MASTER KEY'!B138</f>
+        <f>VLOOKUP(A138,'MASTER KEY'!$A$2:$B1114,2,TRUE)</f>
         <v>pH</v>
       </c>
       <c r="C138">
-        <f>'MASTER KEY'!C138</f>
+        <f>VLOOKUP(A138,'MASTER KEY'!$A$2:$C1114,3,TRUE)</f>
         <v>0</v>
       </c>
       <c r="D138" t="s">
@@ -22173,11 +22167,11 @@
         <v>var00138</v>
       </c>
       <c r="B139" t="str">
-        <f>'MASTER KEY'!B139</f>
+        <f>VLOOKUP(A139,'MASTER KEY'!$A$2:$B1115,2,TRUE)</f>
         <v>Phaeophytin a</v>
       </c>
       <c r="C139" t="str">
-        <f>'MASTER KEY'!C139</f>
+        <f>VLOOKUP(A139,'MASTER KEY'!$A$2:$C1115,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D139" t="s">
@@ -22196,11 +22190,11 @@
         <v>var00139</v>
       </c>
       <c r="B140" t="str">
-        <f>'MASTER KEY'!B140</f>
+        <f>VLOOKUP(A140,'MASTER KEY'!$A$2:$B1116,2,TRUE)</f>
         <v>Total Alkalinity</v>
       </c>
       <c r="C140" t="str">
-        <f>'MASTER KEY'!C140</f>
+        <f>VLOOKUP(A140,'MASTER KEY'!$A$2:$C1116,3,TRUE)</f>
         <v>mg/L</v>
       </c>
       <c r="D140" t="s">
@@ -22219,11 +22213,11 @@
         <v>var00140</v>
       </c>
       <c r="B141" t="str">
-        <f>'MASTER KEY'!B141</f>
+        <f>VLOOKUP(A141,'MASTER KEY'!$A$2:$B1117,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
       <c r="C141" t="str">
-        <f>'MASTER KEY'!C141</f>
+        <f>VLOOKUP(A141,'MASTER KEY'!$A$2:$C1117,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D141" t="s">
@@ -22242,11 +22236,11 @@
         <v>var00141</v>
       </c>
       <c r="B142" t="str">
-        <f>'MASTER KEY'!B142</f>
+        <f>VLOOKUP(A142,'MASTER KEY'!$A$2:$B1118,2,TRUE)</f>
         <v>Tide status</v>
       </c>
       <c r="C142">
-        <f>'MASTER KEY'!C142</f>
+        <f>VLOOKUP(A142,'MASTER KEY'!$A$2:$C1118,3,TRUE)</f>
         <v>0</v>
       </c>
       <c r="D142" t="s">
@@ -22265,11 +22259,11 @@
         <v>var00142</v>
       </c>
       <c r="B143" t="str">
-        <f>'MASTER KEY'!B143</f>
+        <f>VLOOKUP(A143,'MASTER KEY'!$A$2:$B1119,2,TRUE)</f>
         <v>Max Discharge</v>
       </c>
       <c r="C143" t="str">
-        <f>'MASTER KEY'!C143</f>
+        <f>VLOOKUP(A143,'MASTER KEY'!$A$2:$C1119,3,TRUE)</f>
         <v>m/s</v>
       </c>
       <c r="D143" t="s">
@@ -22288,11 +22282,11 @@
         <v>var00143</v>
       </c>
       <c r="B144" t="str">
-        <f>'MASTER KEY'!B144</f>
+        <f>VLOOKUP(A144,'MASTER KEY'!$A$2:$B1120,2,TRUE)</f>
         <v>Mean Discharge</v>
       </c>
       <c r="C144" t="str">
-        <f>'MASTER KEY'!C144</f>
+        <f>VLOOKUP(A144,'MASTER KEY'!$A$2:$C1120,3,TRUE)</f>
         <v>m/s</v>
       </c>
       <c r="D144" t="s">
@@ -22311,11 +22305,11 @@
         <v>var00144</v>
       </c>
       <c r="B145" t="str">
-        <f>'MASTER KEY'!B145</f>
+        <f>VLOOKUP(A145,'MASTER KEY'!$A$2:$B1121,2,TRUE)</f>
         <v>Min Discharge</v>
       </c>
       <c r="C145" t="str">
-        <f>'MASTER KEY'!C145</f>
+        <f>VLOOKUP(A145,'MASTER KEY'!$A$2:$C1121,3,TRUE)</f>
         <v>m/s</v>
       </c>
       <c r="D145" t="s">
@@ -22334,11 +22328,11 @@
         <v>var00145</v>
       </c>
       <c r="B146" t="str">
-        <f>'MASTER KEY'!B146</f>
+        <f>VLOOKUP(A146,'MASTER KEY'!$A$2:$B1122,2,TRUE)</f>
         <v>Discharge</v>
       </c>
       <c r="C146" t="str">
-        <f>'MASTER KEY'!C146</f>
+        <f>VLOOKUP(A146,'MASTER KEY'!$A$2:$C1122,3,TRUE)</f>
         <v>ML</v>
       </c>
       <c r="D146" t="s">
@@ -22357,11 +22351,11 @@
         <v>var00146</v>
       </c>
       <c r="B147" t="str">
-        <f>'MASTER KEY'!B147</f>
+        <f>VLOOKUP(A147,'MASTER KEY'!$A$2:$B1123,2,TRUE)</f>
         <v>Max Stage Height CTF</v>
       </c>
       <c r="C147" t="str">
-        <f>'MASTER KEY'!C147</f>
+        <f>VLOOKUP(A147,'MASTER KEY'!$A$2:$C1123,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D147" t="s">
@@ -22380,11 +22374,11 @@
         <v>var00147</v>
       </c>
       <c r="B148" t="str">
-        <f>'MASTER KEY'!B148</f>
+        <f>VLOOKUP(A148,'MASTER KEY'!$A$2:$B1124,2,TRUE)</f>
         <v>Mean Stage Height CTF</v>
       </c>
       <c r="C148" t="str">
-        <f>'MASTER KEY'!C148</f>
+        <f>VLOOKUP(A148,'MASTER KEY'!$A$2:$C1124,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D148" t="s">
@@ -22403,11 +22397,11 @@
         <v>var00148</v>
       </c>
       <c r="B149" t="str">
-        <f>'MASTER KEY'!B149</f>
+        <f>VLOOKUP(A149,'MASTER KEY'!$A$2:$B1125,2,TRUE)</f>
         <v>Min Stage Height CTF</v>
       </c>
       <c r="C149" t="str">
-        <f>'MASTER KEY'!C149</f>
+        <f>VLOOKUP(A149,'MASTER KEY'!$A$2:$C1125,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D149" t="s">
@@ -22426,11 +22420,11 @@
         <v>var00149</v>
       </c>
       <c r="B150" t="str">
-        <f>'MASTER KEY'!B150</f>
+        <f>VLOOKUP(A150,'MASTER KEY'!$A$2:$B1126,2,TRUE)</f>
         <v>Max Stage Height</v>
       </c>
       <c r="C150" t="str">
-        <f>'MASTER KEY'!C150</f>
+        <f>VLOOKUP(A150,'MASTER KEY'!$A$2:$C1126,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D150" t="s">
@@ -22449,11 +22443,11 @@
         <v>var00150</v>
       </c>
       <c r="B151" t="str">
-        <f>'MASTER KEY'!B151</f>
+        <f>VLOOKUP(A151,'MASTER KEY'!$A$2:$B1127,2,TRUE)</f>
         <v>Mean Stage Height</v>
       </c>
       <c r="C151" t="str">
-        <f>'MASTER KEY'!C151</f>
+        <f>VLOOKUP(A151,'MASTER KEY'!$A$2:$C1127,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D151" t="s">
@@ -22472,11 +22466,11 @@
         <v>var00151</v>
       </c>
       <c r="B152" t="str">
-        <f>'MASTER KEY'!B152</f>
+        <f>VLOOKUP(A152,'MASTER KEY'!$A$2:$B1128,2,TRUE)</f>
         <v>Min Stage Height</v>
       </c>
       <c r="C152" t="str">
-        <f>'MASTER KEY'!C152</f>
+        <f>VLOOKUP(A152,'MASTER KEY'!$A$2:$C1128,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D152" t="s">
@@ -22495,11 +22489,11 @@
         <v>var00152</v>
       </c>
       <c r="B153" t="str">
-        <f>'MASTER KEY'!B153</f>
+        <f>VLOOKUP(A153,'MASTER KEY'!$A$2:$B1129,2,TRUE)</f>
         <v>Precipitation</v>
       </c>
       <c r="C153" t="str">
-        <f>'MASTER KEY'!C153</f>
+        <f>VLOOKUP(A153,'MASTER KEY'!$A$2:$C1129,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D153" t="s">
@@ -22518,15 +22512,15 @@
         <v>var00153</v>
       </c>
       <c r="B154" t="str">
-        <f>'MASTER KEY'!B154</f>
+        <f>VLOOKUP(A154,'MASTER KEY'!$A$2:$B1130,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
       <c r="C154" t="str">
-        <f>'MASTER KEY'!C154</f>
+        <f>VLOOKUP(A154,'MASTER KEY'!$A$2:$C1130,3,TRUE)</f>
         <v>C</v>
       </c>
       <c r="D154" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E154" t="str">
         <f>'MASTER KEY'!E154</f>
@@ -22542,11 +22536,11 @@
         <v>var00154</v>
       </c>
       <c r="B155" t="str">
-        <f>'MASTER KEY'!B155</f>
+        <f>VLOOKUP(A155,'MASTER KEY'!$A$2:$B1131,2,TRUE)</f>
         <v>Wet Bulb Air Temperature</v>
       </c>
       <c r="C155" t="str">
-        <f>'MASTER KEY'!C155</f>
+        <f>VLOOKUP(A155,'MASTER KEY'!$A$2:$C1131,3,TRUE)</f>
         <v>C</v>
       </c>
       <c r="D155" t="s">
@@ -22565,11 +22559,11 @@
         <v>var00155</v>
       </c>
       <c r="B156" t="str">
-        <f>'MASTER KEY'!B156</f>
+        <f>VLOOKUP(A156,'MASTER KEY'!$A$2:$B1132,2,TRUE)</f>
         <v>Dew Point Temperature</v>
       </c>
       <c r="C156" t="str">
-        <f>'MASTER KEY'!C156</f>
+        <f>VLOOKUP(A156,'MASTER KEY'!$A$2:$C1132,3,TRUE)</f>
         <v>C</v>
       </c>
       <c r="D156" t="s">
@@ -22588,15 +22582,15 @@
         <v>var00156</v>
       </c>
       <c r="B157" t="str">
-        <f>'MASTER KEY'!B157</f>
+        <f>VLOOKUP(A157,'MASTER KEY'!$A$2:$B1133,2,TRUE)</f>
         <v>Relative Humidity</v>
       </c>
       <c r="C157" t="str">
-        <f>'MASTER KEY'!C157</f>
+        <f>VLOOKUP(A157,'MASTER KEY'!$A$2:$C1133,3,TRUE)</f>
         <v>%</v>
       </c>
       <c r="D157" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E157" t="str">
         <f>'MASTER KEY'!E157</f>
@@ -22612,11 +22606,11 @@
         <v>var00157</v>
       </c>
       <c r="B158" t="str">
-        <f>'MASTER KEY'!B158</f>
+        <f>VLOOKUP(A158,'MASTER KEY'!$A$2:$B1134,2,TRUE)</f>
         <v>Max Wind Speed</v>
       </c>
       <c r="C158" t="str">
-        <f>'MASTER KEY'!C158</f>
+        <f>VLOOKUP(A158,'MASTER KEY'!$A$2:$C1134,3,TRUE)</f>
         <v>m/s</v>
       </c>
       <c r="D158" t="s">
@@ -22635,11 +22629,11 @@
         <v>var00158</v>
       </c>
       <c r="B159" t="str">
-        <f>'MASTER KEY'!B159</f>
+        <f>VLOOKUP(A159,'MASTER KEY'!$A$2:$B1135,2,TRUE)</f>
         <v>Cloud amount of first group in eighths</v>
       </c>
       <c r="C159" t="str">
-        <f>'MASTER KEY'!C159</f>
+        <f>VLOOKUP(A159,'MASTER KEY'!$A$2:$C1135,3,TRUE)</f>
         <v>oktas</v>
       </c>
       <c r="D159" t="s">
@@ -22658,11 +22652,11 @@
         <v>var00159</v>
       </c>
       <c r="B160" t="str">
-        <f>'MASTER KEY'!B160</f>
+        <f>VLOOKUP(A160,'MASTER KEY'!$A$2:$B1136,2,TRUE)</f>
         <v>Cloud height of first group</v>
       </c>
       <c r="C160" t="str">
-        <f>'MASTER KEY'!C160</f>
+        <f>VLOOKUP(A160,'MASTER KEY'!$A$2:$C1136,3,TRUE)</f>
         <v>ft</v>
       </c>
       <c r="D160" t="s">
@@ -22681,11 +22675,11 @@
         <v>var00160</v>
       </c>
       <c r="B161" t="str">
-        <f>'MASTER KEY'!B161</f>
+        <f>VLOOKUP(A161,'MASTER KEY'!$A$2:$B1137,2,TRUE)</f>
         <v>Cloud amount of second group in eighths</v>
       </c>
       <c r="C161" t="str">
-        <f>'MASTER KEY'!C161</f>
+        <f>VLOOKUP(A161,'MASTER KEY'!$A$2:$C1137,3,TRUE)</f>
         <v>oktas</v>
       </c>
       <c r="D161" t="s">
@@ -22704,11 +22698,11 @@
         <v>var00161</v>
       </c>
       <c r="B162" t="str">
-        <f>'MASTER KEY'!B162</f>
+        <f>VLOOKUP(A162,'MASTER KEY'!$A$2:$B1138,2,TRUE)</f>
         <v>Cloud height of second group</v>
       </c>
       <c r="C162" t="str">
-        <f>'MASTER KEY'!C162</f>
+        <f>VLOOKUP(A162,'MASTER KEY'!$A$2:$C1138,3,TRUE)</f>
         <v>ft</v>
       </c>
       <c r="D162" t="s">
@@ -22727,11 +22721,11 @@
         <v>var00162</v>
       </c>
       <c r="B163" t="str">
-        <f>'MASTER KEY'!B163</f>
+        <f>VLOOKUP(A163,'MASTER KEY'!$A$2:$B1139,2,TRUE)</f>
         <v>Cloud amount of third group in eighths</v>
       </c>
       <c r="C163" t="str">
-        <f>'MASTER KEY'!C163</f>
+        <f>VLOOKUP(A163,'MASTER KEY'!$A$2:$C1139,3,TRUE)</f>
         <v>oktas</v>
       </c>
       <c r="D163" t="s">
@@ -22750,11 +22744,11 @@
         <v>var00163</v>
       </c>
       <c r="B164" t="str">
-        <f>'MASTER KEY'!B164</f>
+        <f>VLOOKUP(A164,'MASTER KEY'!$A$2:$B1140,2,TRUE)</f>
         <v>Cloud height of third group</v>
       </c>
       <c r="C164" t="str">
-        <f>'MASTER KEY'!C164</f>
+        <f>VLOOKUP(A164,'MASTER KEY'!$A$2:$C1140,3,TRUE)</f>
         <v>ft</v>
       </c>
       <c r="D164" t="s">
@@ -22773,11 +22767,11 @@
         <v>var00164</v>
       </c>
       <c r="B165" t="str">
-        <f>'MASTER KEY'!B165</f>
+        <f>VLOOKUP(A165,'MASTER KEY'!$A$2:$B1141,2,TRUE)</f>
         <v>Cloud amount of fourth group in eighths</v>
       </c>
       <c r="C165" t="str">
-        <f>'MASTER KEY'!C165</f>
+        <f>VLOOKUP(A165,'MASTER KEY'!$A$2:$C1141,3,TRUE)</f>
         <v>oktas</v>
       </c>
       <c r="D165" t="s">
@@ -22796,11 +22790,11 @@
         <v>var00165</v>
       </c>
       <c r="B166" t="str">
-        <f>'MASTER KEY'!B166</f>
+        <f>VLOOKUP(A166,'MASTER KEY'!$A$2:$B1142,2,TRUE)</f>
         <v>Cloud height of fourth group</v>
       </c>
       <c r="C166" t="str">
-        <f>'MASTER KEY'!C166</f>
+        <f>VLOOKUP(A166,'MASTER KEY'!$A$2:$C1142,3,TRUE)</f>
         <v>ft</v>
       </c>
       <c r="D166" t="s">
@@ -22819,11 +22813,11 @@
         <v>var00166</v>
       </c>
       <c r="B167" t="str">
-        <f>'MASTER KEY'!B167</f>
+        <f>VLOOKUP(A167,'MASTER KEY'!$A$2:$B1143,2,TRUE)</f>
         <v>Ceilometer cloud amount of first group</v>
       </c>
       <c r="C167" t="str">
-        <f>'MASTER KEY'!C167</f>
+        <f>VLOOKUP(A167,'MASTER KEY'!$A$2:$C1143,3,TRUE)</f>
         <v>oktas</v>
       </c>
       <c r="D167" t="s">
@@ -22842,11 +22836,11 @@
         <v>var00167</v>
       </c>
       <c r="B168" t="str">
-        <f>'MASTER KEY'!B168</f>
+        <f>VLOOKUP(A168,'MASTER KEY'!$A$2:$B1144,2,TRUE)</f>
         <v>Ceilometer cloud height of first group</v>
       </c>
       <c r="C168" t="str">
-        <f>'MASTER KEY'!C168</f>
+        <f>VLOOKUP(A168,'MASTER KEY'!$A$2:$C1144,3,TRUE)</f>
         <v>ft</v>
       </c>
       <c r="D168" t="s">
@@ -22865,11 +22859,11 @@
         <v>var00168</v>
       </c>
       <c r="B169" t="str">
-        <f>'MASTER KEY'!B169</f>
+        <f>VLOOKUP(A169,'MASTER KEY'!$A$2:$B1145,2,TRUE)</f>
         <v>Ceilometer cloud amount of second group</v>
       </c>
       <c r="C169" t="str">
-        <f>'MASTER KEY'!C169</f>
+        <f>VLOOKUP(A169,'MASTER KEY'!$A$2:$C1145,3,TRUE)</f>
         <v>oktas</v>
       </c>
       <c r="D169" t="s">
@@ -22888,11 +22882,11 @@
         <v>var00169</v>
       </c>
       <c r="B170" t="str">
-        <f>'MASTER KEY'!B170</f>
+        <f>VLOOKUP(A170,'MASTER KEY'!$A$2:$B1146,2,TRUE)</f>
         <v>Ceilometer cloud height of second group</v>
       </c>
       <c r="C170" t="str">
-        <f>'MASTER KEY'!C170</f>
+        <f>VLOOKUP(A170,'MASTER KEY'!$A$2:$C1146,3,TRUE)</f>
         <v>ft</v>
       </c>
       <c r="D170" t="s">
@@ -22911,11 +22905,11 @@
         <v>var00170</v>
       </c>
       <c r="B171" t="str">
-        <f>'MASTER KEY'!B171</f>
+        <f>VLOOKUP(A171,'MASTER KEY'!$A$2:$B1147,2,TRUE)</f>
         <v>Ceilometer cloud amount of third group</v>
       </c>
       <c r="C171" t="str">
-        <f>'MASTER KEY'!C171</f>
+        <f>VLOOKUP(A171,'MASTER KEY'!$A$2:$C1147,3,TRUE)</f>
         <v>oktas</v>
       </c>
       <c r="D171" t="s">
@@ -22934,11 +22928,11 @@
         <v>var00171</v>
       </c>
       <c r="B172" t="str">
-        <f>'MASTER KEY'!B172</f>
+        <f>VLOOKUP(A172,'MASTER KEY'!$A$2:$B1148,2,TRUE)</f>
         <v>Ceilometer cloud height of third group</v>
       </c>
       <c r="C172" t="str">
-        <f>'MASTER KEY'!C172</f>
+        <f>VLOOKUP(A172,'MASTER KEY'!$A$2:$C1148,3,TRUE)</f>
         <v>ft</v>
       </c>
       <c r="D172" t="s">
@@ -22957,11 +22951,11 @@
         <v>var00172</v>
       </c>
       <c r="B173" t="str">
-        <f>'MASTER KEY'!B173</f>
+        <f>VLOOKUP(A173,'MASTER KEY'!$A$2:$B1149,2,TRUE)</f>
         <v>Ceilometer sky clear flag</v>
       </c>
       <c r="C173">
-        <f>'MASTER KEY'!C173</f>
+        <f>VLOOKUP(A173,'MASTER KEY'!$A$2:$C1149,3,TRUE)</f>
         <v>0</v>
       </c>
       <c r="D173" t="s">
@@ -22980,11 +22974,11 @@
         <v>var00173</v>
       </c>
       <c r="B174" t="str">
-        <f>'MASTER KEY'!B174</f>
+        <f>VLOOKUP(A174,'MASTER KEY'!$A$2:$B1150,2,TRUE)</f>
         <v>Horizontal visibility</v>
       </c>
       <c r="C174" t="str">
-        <f>'MASTER KEY'!C174</f>
+        <f>VLOOKUP(A174,'MASTER KEY'!$A$2:$C1150,3,TRUE)</f>
         <v>km</v>
       </c>
       <c r="D174" t="s">
@@ -23003,11 +22997,11 @@
         <v>var00174</v>
       </c>
       <c r="B175" t="str">
-        <f>'MASTER KEY'!B175</f>
+        <f>VLOOKUP(A175,'MASTER KEY'!$A$2:$B1151,2,TRUE)</f>
         <v>AWS visibility</v>
       </c>
       <c r="C175" t="str">
-        <f>'MASTER KEY'!C175</f>
+        <f>VLOOKUP(A175,'MASTER KEY'!$A$2:$C1151,3,TRUE)</f>
         <v>km</v>
       </c>
       <c r="D175" t="s">
@@ -23026,11 +23020,11 @@
         <v>var00175</v>
       </c>
       <c r="B176" t="str">
-        <f>'MASTER KEY'!B176</f>
+        <f>VLOOKUP(A176,'MASTER KEY'!$A$2:$B1152,2,TRUE)</f>
         <v>Present weather in code</v>
       </c>
       <c r="C176">
-        <f>'MASTER KEY'!C176</f>
+        <f>VLOOKUP(A176,'MASTER KEY'!$A$2:$C1152,3,TRUE)</f>
         <v>0</v>
       </c>
       <c r="D176" t="s">
@@ -23049,11 +23043,11 @@
         <v>var00176</v>
       </c>
       <c r="B177" t="str">
-        <f>'MASTER KEY'!B177</f>
+        <f>VLOOKUP(A177,'MASTER KEY'!$A$2:$B1153,2,TRUE)</f>
         <v>Mean sea level pressure</v>
       </c>
       <c r="C177" t="str">
-        <f>'MASTER KEY'!C177</f>
+        <f>VLOOKUP(A177,'MASTER KEY'!$A$2:$C1153,3,TRUE)</f>
         <v>hPa</v>
       </c>
       <c r="D177" t="s">
@@ -23072,11 +23066,11 @@
         <v>var00177</v>
       </c>
       <c r="B178" t="str">
-        <f>'MASTER KEY'!B178</f>
+        <f>VLOOKUP(A178,'MASTER KEY'!$A$2:$B1154,2,TRUE)</f>
         <v>Station level pressure</v>
       </c>
       <c r="C178" t="str">
-        <f>'MASTER KEY'!C178</f>
+        <f>VLOOKUP(A178,'MASTER KEY'!$A$2:$C1154,3,TRUE)</f>
         <v>hPa</v>
       </c>
       <c r="D178" t="s">
@@ -23095,11 +23089,11 @@
         <v>var00178</v>
       </c>
       <c r="B179" t="str">
-        <f>'MASTER KEY'!B179</f>
+        <f>VLOOKUP(A179,'MASTER KEY'!$A$2:$B1155,2,TRUE)</f>
         <v>Chlorophyll sample volume</v>
       </c>
       <c r="C179" t="str">
-        <f>'MASTER KEY'!C179</f>
+        <f>VLOOKUP(A179,'MASTER KEY'!$A$2:$C1155,3,TRUE)</f>
         <v>mL</v>
       </c>
       <c r="D179" t="s">
@@ -23118,11 +23112,11 @@
         <v>var00179</v>
       </c>
       <c r="B180" t="str">
-        <f>'MASTER KEY'!B180</f>
+        <f>VLOOKUP(A180,'MASTER KEY'!$A$2:$B1156,2,TRUE)</f>
         <v>Bottom Depth</v>
       </c>
       <c r="C180" t="str">
-        <f>'MASTER KEY'!C180</f>
+        <f>VLOOKUP(A180,'MASTER KEY'!$A$2:$C1156,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D180" t="s">
@@ -23141,11 +23135,11 @@
         <v>var00180</v>
       </c>
       <c r="B181" t="str">
-        <f>'MASTER KEY'!B181</f>
+        <f>VLOOKUP(A181,'MASTER KEY'!$A$2:$B1157,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
       <c r="C181" t="str">
-        <f>'MASTER KEY'!C181</f>
+        <f>VLOOKUP(A181,'MASTER KEY'!$A$2:$C1157,3,TRUE)</f>
         <v>m</v>
       </c>
       <c r="D181" t="s">
@@ -23162,11 +23156,13 @@
       <c r="A182" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B182" t="s">
-        <v>882</v>
-      </c>
-      <c r="C182" t="s">
-        <v>897</v>
+      <c r="B182" t="str">
+        <f>VLOOKUP(A182,'MASTER KEY'!$A$2:$B1158,2,TRUE)</f>
+        <v>PAR</v>
+      </c>
+      <c r="C182" t="str">
+        <f>VLOOKUP(A182,'MASTER KEY'!$A$2:$C1158,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>953</v>
@@ -23182,11 +23178,13 @@
       <c r="A183" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B183" t="s">
-        <v>920</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>899</v>
+      <c r="B183" t="str">
+        <f>VLOOKUP(A183,'MASTER KEY'!$A$2:$B1159,2,TRUE)</f>
+        <v>Tilt</v>
+      </c>
+      <c r="C183" t="str">
+        <f>VLOOKUP(A183,'MASTER KEY'!$A$2:$C1159,3,TRUE)</f>
+        <v>deg</v>
       </c>
       <c r="D183" t="s">
         <v>920</v>
@@ -23202,11 +23200,13 @@
       <c r="A184" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B184" t="s">
-        <v>911</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>900</v>
+      <c r="B184" t="str">
+        <f>VLOOKUP(A184,'MASTER KEY'!$A$2:$B1160,2,TRUE)</f>
+        <v>WL - 410</v>
+      </c>
+      <c r="C184" t="str">
+        <f>VLOOKUP(A184,'MASTER KEY'!$A$2:$C1160,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>954</v>
@@ -23222,11 +23222,13 @@
       <c r="A185" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B185" t="s">
-        <v>912</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>900</v>
+      <c r="B185" t="str">
+        <f>VLOOKUP(A185,'MASTER KEY'!$A$2:$B1161,2,TRUE)</f>
+        <v>WL - 440</v>
+      </c>
+      <c r="C185" t="str">
+        <f>VLOOKUP(A185,'MASTER KEY'!$A$2:$C1161,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>955</v>
@@ -23242,11 +23244,13 @@
       <c r="A186" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B186" t="s">
-        <v>913</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>900</v>
+      <c r="B186" t="str">
+        <f>VLOOKUP(A186,'MASTER KEY'!$A$2:$B1162,2,TRUE)</f>
+        <v>WL - 490</v>
+      </c>
+      <c r="C186" t="str">
+        <f>VLOOKUP(A186,'MASTER KEY'!$A$2:$C1162,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>956</v>
@@ -23262,11 +23266,13 @@
       <c r="A187" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B187" t="s">
-        <v>914</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>900</v>
+      <c r="B187" t="str">
+        <f>VLOOKUP(A187,'MASTER KEY'!$A$2:$B1163,2,TRUE)</f>
+        <v>WL - 510</v>
+      </c>
+      <c r="C187" t="str">
+        <f>VLOOKUP(A187,'MASTER KEY'!$A$2:$C1163,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>957</v>
@@ -23282,11 +23288,13 @@
       <c r="A188" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B188" t="s">
-        <v>915</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>900</v>
+      <c r="B188" t="str">
+        <f>VLOOKUP(A188,'MASTER KEY'!$A$2:$B1164,2,TRUE)</f>
+        <v>WL - 550</v>
+      </c>
+      <c r="C188" t="str">
+        <f>VLOOKUP(A188,'MASTER KEY'!$A$2:$C1164,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>958</v>
@@ -23302,11 +23310,13 @@
       <c r="A189" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B189" t="s">
-        <v>916</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>900</v>
+      <c r="B189" t="str">
+        <f>VLOOKUP(A189,'MASTER KEY'!$A$2:$B1165,2,TRUE)</f>
+        <v>WL - 590</v>
+      </c>
+      <c r="C189" t="str">
+        <f>VLOOKUP(A189,'MASTER KEY'!$A$2:$C1165,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>959</v>
@@ -23322,11 +23332,13 @@
       <c r="A190" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B190" t="s">
-        <v>917</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>900</v>
+      <c r="B190" t="str">
+        <f>VLOOKUP(A190,'MASTER KEY'!$A$2:$B1166,2,TRUE)</f>
+        <v>WL - 635</v>
+      </c>
+      <c r="C190" t="str">
+        <f>VLOOKUP(A190,'MASTER KEY'!$A$2:$C1166,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>960</v>
@@ -23342,11 +23354,13 @@
       <c r="A191" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B191" t="s">
-        <v>918</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>900</v>
+      <c r="B191" t="str">
+        <f>VLOOKUP(A191,'MASTER KEY'!$A$2:$B1167,2,TRUE)</f>
+        <v>WL - 660</v>
+      </c>
+      <c r="C191" t="str">
+        <f>VLOOKUP(A191,'MASTER KEY'!$A$2:$C1167,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>961</v>
@@ -23362,11 +23376,13 @@
       <c r="A192" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B192" t="s">
-        <v>919</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>900</v>
+      <c r="B192" t="str">
+        <f>VLOOKUP(A192,'MASTER KEY'!$A$2:$B1168,2,TRUE)</f>
+        <v>WL - 700</v>
+      </c>
+      <c r="C192" t="str">
+        <f>VLOOKUP(A192,'MASTER KEY'!$A$2:$C1168,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>962</v>
@@ -23382,11 +23398,13 @@
       <c r="A193" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>921</v>
+      <c r="B193" t="str">
+        <f>VLOOKUP(A193,'MASTER KEY'!$A$2:$B1169,2,TRUE)</f>
+        <v>ACCELERATIONX</v>
+      </c>
+      <c r="C193" t="str">
+        <f>VLOOKUP(A193,'MASTER KEY'!$A$2:$C1169,3,TRUE)</f>
+        <v>m s-2</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>866</v>
@@ -23402,11 +23420,13 @@
       <c r="A194" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>921</v>
+      <c r="B194" t="str">
+        <f>VLOOKUP(A194,'MASTER KEY'!$A$2:$B1170,2,TRUE)</f>
+        <v>ACCELERATIONY</v>
+      </c>
+      <c r="C194" t="str">
+        <f>VLOOKUP(A194,'MASTER KEY'!$A$2:$C1170,3,TRUE)</f>
+        <v>m s-2</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>867</v>
@@ -23422,11 +23442,13 @@
       <c r="A195" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>921</v>
+      <c r="B195" t="str">
+        <f>VLOOKUP(A195,'MASTER KEY'!$A$2:$B1171,2,TRUE)</f>
+        <v>ACCELERATIONZ</v>
+      </c>
+      <c r="C195" t="str">
+        <f>VLOOKUP(A195,'MASTER KEY'!$A$2:$C1171,3,TRUE)</f>
+        <v>m s-2</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>868</v>
@@ -23442,11 +23464,13 @@
       <c r="A196" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B196" s="9" t="s">
-        <v>869</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>922</v>
+      <c r="B196" t="str">
+        <f>VLOOKUP(A196,'MASTER KEY'!$A$2:$B1172,2,TRUE)</f>
+        <v>AMPLITUDE1</v>
+      </c>
+      <c r="C196" t="str">
+        <f>VLOOKUP(A196,'MASTER KEY'!$A$2:$C1172,3,TRUE)</f>
+        <v>counts</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>869</v>
@@ -23462,11 +23486,13 @@
       <c r="A197" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>922</v>
+      <c r="B197" t="str">
+        <f>VLOOKUP(A197,'MASTER KEY'!$A$2:$B1173,2,TRUE)</f>
+        <v>AMPLITUDE2</v>
+      </c>
+      <c r="C197" t="str">
+        <f>VLOOKUP(A197,'MASTER KEY'!$A$2:$C1173,3,TRUE)</f>
+        <v>counts</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>870</v>
@@ -23482,11 +23508,13 @@
       <c r="A198" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>922</v>
+      <c r="B198" t="str">
+        <f>VLOOKUP(A198,'MASTER KEY'!$A$2:$B1174,2,TRUE)</f>
+        <v>AMPLITUDE3</v>
+      </c>
+      <c r="C198" t="str">
+        <f>VLOOKUP(A198,'MASTER KEY'!$A$2:$C1174,3,TRUE)</f>
+        <v>counts</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>871</v>
@@ -23502,11 +23530,13 @@
       <c r="A199" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>13</v>
+      <c r="B199" t="str">
+        <f>VLOOKUP(A199,'MASTER KEY'!$A$2:$B1175,2,TRUE)</f>
+        <v>CELL</v>
+      </c>
+      <c r="C199" t="str">
+        <f>VLOOKUP(A199,'MASTER KEY'!$A$2:$C1175,3,TRUE)</f>
+        <v>m</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>872</v>
@@ -23522,11 +23552,13 @@
       <c r="A200" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>930</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>931</v>
+      <c r="B200" t="str">
+        <f>VLOOKUP(A200,'MASTER KEY'!$A$2:$B1176,2,TRUE)</f>
+        <v>DENSITY ANOMALY</v>
+      </c>
+      <c r="C200" t="str">
+        <f>VLOOKUP(A200,'MASTER KEY'!$A$2:$C1176,3,TRUE)</f>
+        <v>kg m-3</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>874</v>
@@ -23542,11 +23574,13 @@
       <c r="A201" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>877</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>933</v>
+      <c r="B201" t="str">
+        <f>VLOOKUP(A201,'MASTER KEY'!$A$2:$B1177,2,TRUE)</f>
+        <v>HEADING</v>
+      </c>
+      <c r="C201" t="str">
+        <f>VLOOKUP(A201,'MASTER KEY'!$A$2:$C1177,3,TRUE)</f>
+        <v>Degrees clockwise from true North</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>877</v>
@@ -23562,11 +23596,13 @@
       <c r="A202" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B202" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>705</v>
+      <c r="B202" t="str">
+        <f>VLOOKUP(A202,'MASTER KEY'!$A$2:$B1178,2,TRUE)</f>
+        <v>LOWER_UCUR</v>
+      </c>
+      <c r="C202" t="str">
+        <f>VLOOKUP(A202,'MASTER KEY'!$A$2:$C1178,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>878</v>
@@ -23582,11 +23618,13 @@
       <c r="A203" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>705</v>
+      <c r="B203" t="str">
+        <f>VLOOKUP(A203,'MASTER KEY'!$A$2:$B1179,2,TRUE)</f>
+        <v>LOWER_VCUR</v>
+      </c>
+      <c r="C203" t="str">
+        <f>VLOOKUP(A203,'MASTER KEY'!$A$2:$C1179,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>879</v>
@@ -23602,11 +23640,13 @@
       <c r="A204" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B204" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>705</v>
+      <c r="B204" t="str">
+        <f>VLOOKUP(A204,'MASTER KEY'!$A$2:$B1180,2,TRUE)</f>
+        <v>MIDDLE_UCUR</v>
+      </c>
+      <c r="C204" t="str">
+        <f>VLOOKUP(A204,'MASTER KEY'!$A$2:$C1180,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>880</v>
@@ -23622,11 +23662,13 @@
       <c r="A205" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>881</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>705</v>
+      <c r="B205" t="str">
+        <f>VLOOKUP(A205,'MASTER KEY'!$A$2:$B1181,2,TRUE)</f>
+        <v>MIDDLE_VCUR</v>
+      </c>
+      <c r="C205" t="str">
+        <f>VLOOKUP(A205,'MASTER KEY'!$A$2:$C1181,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>881</v>
@@ -23642,11 +23684,13 @@
       <c r="A206" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>899</v>
+      <c r="B206" t="str">
+        <f>VLOOKUP(A206,'MASTER KEY'!$A$2:$B1182,2,TRUE)</f>
+        <v>Pitch</v>
+      </c>
+      <c r="C206" t="str">
+        <f>VLOOKUP(A206,'MASTER KEY'!$A$2:$C1182,3,TRUE)</f>
+        <v>deg</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>883</v>
@@ -23662,11 +23706,13 @@
       <c r="A207" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>941</v>
+      <c r="B207" t="str">
+        <f>VLOOKUP(A207,'MASTER KEY'!$A$2:$B1183,2,TRUE)</f>
+        <v>PRESSURE</v>
+      </c>
+      <c r="C207" t="str">
+        <f>VLOOKUP(A207,'MASTER KEY'!$A$2:$C1183,3,TRUE)</f>
+        <v>dbar</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>884</v>
@@ -23682,11 +23728,13 @@
       <c r="A208" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>942</v>
+      <c r="B208" t="str">
+        <f>VLOOKUP(A208,'MASTER KEY'!$A$2:$B1184,2,TRUE)</f>
+        <v>PRESSURE_SENSOR_DEPTH</v>
+      </c>
+      <c r="C208" t="str">
+        <f>VLOOKUP(A208,'MASTER KEY'!$A$2:$C1184,3,TRUE)</f>
+        <v>metres</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>885</v>
@@ -23702,11 +23750,13 @@
       <c r="A209" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B209" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>945</v>
+      <c r="B209" t="str">
+        <f>VLOOKUP(A209,'MASTER KEY'!$A$2:$B1185,2,TRUE)</f>
+        <v>ROLL</v>
+      </c>
+      <c r="C209" t="str">
+        <f>VLOOKUP(A209,'MASTER KEY'!$A$2:$C1185,3,TRUE)</f>
+        <v>degrees</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>886</v>
@@ -23722,11 +23772,13 @@
       <c r="A210" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B210" s="9" t="s">
-        <v>889</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>705</v>
+      <c r="B210" t="str">
+        <f>VLOOKUP(A210,'MASTER KEY'!$A$2:$B1186,2,TRUE)</f>
+        <v>SPEED_OF_SOUND</v>
+      </c>
+      <c r="C210" t="str">
+        <f>VLOOKUP(A210,'MASTER KEY'!$A$2:$C1186,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>889</v>
@@ -23742,11 +23794,13 @@
       <c r="A211" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B211" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>705</v>
+      <c r="B211" t="str">
+        <f>VLOOKUP(A211,'MASTER KEY'!$A$2:$B1187,2,TRUE)</f>
+        <v>UCUR (eastward velocity)</v>
+      </c>
+      <c r="C211" t="str">
+        <f>VLOOKUP(A211,'MASTER KEY'!$A$2:$C1187,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>892</v>
@@ -23762,11 +23816,13 @@
       <c r="A212" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="B212" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>705</v>
+      <c r="B212" t="str">
+        <f>VLOOKUP(A212,'MASTER KEY'!$A$2:$B1188,2,TRUE)</f>
+        <v>UPPER_UCUR</v>
+      </c>
+      <c r="C212" t="str">
+        <f>VLOOKUP(A212,'MASTER KEY'!$A$2:$C1188,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>893</v>
@@ -23782,11 +23838,13 @@
       <c r="A213" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B213" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>705</v>
+      <c r="B213" t="str">
+        <f>VLOOKUP(A213,'MASTER KEY'!$A$2:$B1189,2,TRUE)</f>
+        <v>UPPER_VCUR</v>
+      </c>
+      <c r="C213" t="str">
+        <f>VLOOKUP(A213,'MASTER KEY'!$A$2:$C1189,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>894</v>
@@ -23802,11 +23860,13 @@
       <c r="A214" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B214" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>705</v>
+      <c r="B214" t="str">
+        <f>VLOOKUP(A214,'MASTER KEY'!$A$2:$B1190,2,TRUE)</f>
+        <v>VCUR (northward velocity)</v>
+      </c>
+      <c r="C214" t="str">
+        <f>VLOOKUP(A214,'MASTER KEY'!$A$2:$C1190,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>895</v>
@@ -23822,11 +23882,13 @@
       <c r="A215" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B215" s="9" t="s">
-        <v>896</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>705</v>
+      <c r="B215" t="str">
+        <f>VLOOKUP(A215,'MASTER KEY'!$A$2:$B1191,2,TRUE)</f>
+        <v>WCUR</v>
+      </c>
+      <c r="C215" t="str">
+        <f>VLOOKUP(A215,'MASTER KEY'!$A$2:$C1191,3,TRUE)</f>
+        <v>m s-1</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>896</v>
@@ -23842,11 +23904,13 @@
       <c r="A216" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B216" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>1070</v>
+      <c r="B216" t="str">
+        <f>VLOOKUP(A216,'MASTER KEY'!$A$2:$B1192,2,TRUE)</f>
+        <v>light attenuation coefficient</v>
+      </c>
+      <c r="C216" t="str">
+        <f>VLOOKUP(A216,'MASTER KEY'!$A$2:$C1192,3,TRUE)</f>
+        <v>m-1</v>
       </c>
       <c r="D216" t="s">
         <v>1068</v>
@@ -23862,11 +23926,13 @@
       <c r="A217" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>1073</v>
+      <c r="B217" t="str">
+        <f>VLOOKUP(A217,'MASTER KEY'!$A$2:$B1193,2,TRUE)</f>
+        <v>cell</v>
+      </c>
+      <c r="C217" t="str">
+        <f>VLOOKUP(A217,'MASTER KEY'!$A$2:$C1193,3,TRUE)</f>
+        <v>cm</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>1072</v>
@@ -23882,11 +23948,13 @@
       <c r="A218" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>931</v>
+      <c r="B218" t="str">
+        <f>VLOOKUP(A218,'MASTER KEY'!$A$2:$B1194,2,TRUE)</f>
+        <v>density</v>
+      </c>
+      <c r="C218" t="str">
+        <f>VLOOKUP(A218,'MASTER KEY'!$A$2:$C1194,3,TRUE)</f>
+        <v>kg m-3</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>1079</v>
@@ -23902,11 +23970,13 @@
       <c r="A219" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>1082</v>
+      <c r="B219" t="str">
+        <f>VLOOKUP(A219,'MASTER KEY'!$A$2:$B1195,2,TRUE)</f>
+        <v>fluorescence</v>
+      </c>
+      <c r="C219" t="str">
+        <f>VLOOKUP(A219,'MASTER KEY'!$A$2:$C1195,3,TRUE)</f>
+        <v>-</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1080</v>
@@ -23922,11 +23992,13 @@
       <c r="A220" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B220" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>1233</v>
+      <c r="B220" t="str">
+        <f>VLOOKUP(A220,'MASTER KEY'!$A$2:$B1196,2,TRUE)</f>
+        <v>Prochlorococcus</v>
+      </c>
+      <c r="C220" t="str">
+        <f>VLOOKUP(A220,'MASTER KEY'!$A$2:$C1196,3,TRUE)</f>
+        <v>cellsmL</v>
       </c>
       <c r="D220" t="s">
         <v>1232</v>
@@ -23942,11 +24014,13 @@
       <c r="A221" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B221" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>1233</v>
+      <c r="B221" t="str">
+        <f>VLOOKUP(A221,'MASTER KEY'!$A$2:$B1197,2,TRUE)</f>
+        <v>Synechococcus</v>
+      </c>
+      <c r="C221" t="str">
+        <f>VLOOKUP(A221,'MASTER KEY'!$A$2:$C1197,3,TRUE)</f>
+        <v>cellsmL</v>
       </c>
       <c r="D221" t="s">
         <v>1234</v>
@@ -23962,11 +24036,13 @@
       <c r="A222" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B222" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>1233</v>
+      <c r="B222" t="str">
+        <f>VLOOKUP(A222,'MASTER KEY'!$A$2:$B1198,2,TRUE)</f>
+        <v>Picoeukaryotes</v>
+      </c>
+      <c r="C222" t="str">
+        <f>VLOOKUP(A222,'MASTER KEY'!$A$2:$C1198,3,TRUE)</f>
+        <v>cellsmL</v>
       </c>
       <c r="D222" t="s">
         <v>1235</v>
@@ -23982,11 +24058,13 @@
       <c r="A223" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B223" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>1237</v>
+      <c r="B223" t="str">
+        <f>VLOOKUP(A223,'MASTER KEY'!$A$2:$B1199,2,TRUE)</f>
+        <v>Allo</v>
+      </c>
+      <c r="C223" t="str">
+        <f>VLOOKUP(A223,'MASTER KEY'!$A$2:$C1199,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D223" t="s">
         <v>1236</v>
@@ -24002,11 +24080,13 @@
       <c r="A224" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B224" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>1237</v>
+      <c r="B224" t="str">
+        <f>VLOOKUP(A224,'MASTER KEY'!$A$2:$B1200,2,TRUE)</f>
+        <v>AlphaBetaCar</v>
+      </c>
+      <c r="C224" t="str">
+        <f>VLOOKUP(A224,'MASTER KEY'!$A$2:$C1200,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D224" t="s">
         <v>1238</v>
@@ -24022,11 +24102,13 @@
       <c r="A225" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B225" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>1237</v>
+      <c r="B225" t="str">
+        <f>VLOOKUP(A225,'MASTER KEY'!$A$2:$B1201,2,TRUE)</f>
+        <v>Anth</v>
+      </c>
+      <c r="C225" t="str">
+        <f>VLOOKUP(A225,'MASTER KEY'!$A$2:$C1201,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D225" t="s">
         <v>1239</v>
@@ -24042,11 +24124,13 @@
       <c r="A226" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B226" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>1237</v>
+      <c r="B226" t="str">
+        <f>VLOOKUP(A226,'MASTER KEY'!$A$2:$B1202,2,TRUE)</f>
+        <v>Asta</v>
+      </c>
+      <c r="C226" t="str">
+        <f>VLOOKUP(A226,'MASTER KEY'!$A$2:$C1202,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D226" t="s">
         <v>1240</v>
@@ -24062,11 +24146,13 @@
       <c r="A227" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B227" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>1237</v>
+      <c r="B227" t="str">
+        <f>VLOOKUP(A227,'MASTER KEY'!$A$2:$B1203,2,TRUE)</f>
+        <v>BetaBetaCar</v>
+      </c>
+      <c r="C227" t="str">
+        <f>VLOOKUP(A227,'MASTER KEY'!$A$2:$C1203,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D227" t="s">
         <v>1241</v>
@@ -24082,11 +24168,13 @@
       <c r="A228" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B228" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>1237</v>
+      <c r="B228" t="str">
+        <f>VLOOKUP(A228,'MASTER KEY'!$A$2:$B1204,2,TRUE)</f>
+        <v>BetaEpiCar</v>
+      </c>
+      <c r="C228" t="str">
+        <f>VLOOKUP(A228,'MASTER KEY'!$A$2:$C1204,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D228" t="s">
         <v>1242</v>
@@ -24102,11 +24190,13 @@
       <c r="A229" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="B229" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>1237</v>
+      <c r="B229" t="str">
+        <f>VLOOKUP(A229,'MASTER KEY'!$A$2:$B1205,2,TRUE)</f>
+        <v>Butfuco</v>
+      </c>
+      <c r="C229" t="str">
+        <f>VLOOKUP(A229,'MASTER KEY'!$A$2:$C1205,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D229" t="s">
         <v>1243</v>
@@ -24122,11 +24212,13 @@
       <c r="A230" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B230" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>1237</v>
+      <c r="B230" t="str">
+        <f>VLOOKUP(A230,'MASTER KEY'!$A$2:$B1206,2,TRUE)</f>
+        <v>Cantha</v>
+      </c>
+      <c r="C230" t="str">
+        <f>VLOOKUP(A230,'MASTER KEY'!$A$2:$C1206,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D230" t="s">
         <v>1244</v>
@@ -24142,11 +24234,13 @@
       <c r="A231" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B231" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>1237</v>
+      <c r="B231" t="str">
+        <f>VLOOKUP(A231,'MASTER KEY'!$A$2:$B1207,2,TRUE)</f>
+        <v>CphlA</v>
+      </c>
+      <c r="C231" t="str">
+        <f>VLOOKUP(A231,'MASTER KEY'!$A$2:$C1207,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D231" t="s">
         <v>1245</v>
@@ -24162,11 +24256,13 @@
       <c r="A232" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="B232" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>1237</v>
+      <c r="B232" t="str">
+        <f>VLOOKUP(A232,'MASTER KEY'!$A$2:$B1208,2,TRUE)</f>
+        <v>CphlB</v>
+      </c>
+      <c r="C232" t="str">
+        <f>VLOOKUP(A232,'MASTER KEY'!$A$2:$C1208,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D232" t="s">
         <v>1246</v>
@@ -24182,11 +24278,13 @@
       <c r="A233" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="B233" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>1237</v>
+      <c r="B233" t="str">
+        <f>VLOOKUP(A233,'MASTER KEY'!$A$2:$B1209,2,TRUE)</f>
+        <v>CphlC1</v>
+      </c>
+      <c r="C233" t="str">
+        <f>VLOOKUP(A233,'MASTER KEY'!$A$2:$C1209,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D233" t="s">
         <v>1247</v>
@@ -24202,11 +24300,13 @@
       <c r="A234" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B234" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>1237</v>
+      <c r="B234" t="str">
+        <f>VLOOKUP(A234,'MASTER KEY'!$A$2:$B1210,2,TRUE)</f>
+        <v>CphlC2</v>
+      </c>
+      <c r="C234" t="str">
+        <f>VLOOKUP(A234,'MASTER KEY'!$A$2:$C1210,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D234" t="s">
         <v>1248</v>
@@ -24222,11 +24322,13 @@
       <c r="A235" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="B235" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>1237</v>
+      <c r="B235" t="str">
+        <f>VLOOKUP(A235,'MASTER KEY'!$A$2:$B1211,2,TRUE)</f>
+        <v>CphlC3</v>
+      </c>
+      <c r="C235" t="str">
+        <f>VLOOKUP(A235,'MASTER KEY'!$A$2:$C1211,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D235" t="s">
         <v>1249</v>
@@ -24242,11 +24344,13 @@
       <c r="A236" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B236" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1237</v>
+      <c r="B236" t="str">
+        <f>VLOOKUP(A236,'MASTER KEY'!$A$2:$B1212,2,TRUE)</f>
+        <v>CphlC1C2</v>
+      </c>
+      <c r="C236" t="str">
+        <f>VLOOKUP(A236,'MASTER KEY'!$A$2:$C1212,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D236" t="s">
         <v>1250</v>
@@ -24262,11 +24366,13 @@
       <c r="A237" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B237" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>1237</v>
+      <c r="B237" t="str">
+        <f>VLOOKUP(A237,'MASTER KEY'!$A$2:$B1213,2,TRUE)</f>
+        <v>CphlideA</v>
+      </c>
+      <c r="C237" t="str">
+        <f>VLOOKUP(A237,'MASTER KEY'!$A$2:$C1213,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D237" t="s">
         <v>1251</v>
@@ -24282,11 +24388,13 @@
       <c r="A238" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="B238" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>1237</v>
+      <c r="B238" t="str">
+        <f>VLOOKUP(A238,'MASTER KEY'!$A$2:$B1214,2,TRUE)</f>
+        <v>Diadchr</v>
+      </c>
+      <c r="C238" t="str">
+        <f>VLOOKUP(A238,'MASTER KEY'!$A$2:$C1214,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D238" t="s">
         <v>1252</v>
@@ -24302,11 +24410,13 @@
       <c r="A239" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="B239" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>1237</v>
+      <c r="B239" t="str">
+        <f>VLOOKUP(A239,'MASTER KEY'!$A$2:$B1215,2,TRUE)</f>
+        <v>Diadino</v>
+      </c>
+      <c r="C239" t="str">
+        <f>VLOOKUP(A239,'MASTER KEY'!$A$2:$C1215,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D239" t="s">
         <v>1253</v>
@@ -24322,11 +24432,13 @@
       <c r="A240" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B240" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1237</v>
+      <c r="B240" t="str">
+        <f>VLOOKUP(A240,'MASTER KEY'!$A$2:$B1216,2,TRUE)</f>
+        <v>Diato</v>
+      </c>
+      <c r="C240" t="str">
+        <f>VLOOKUP(A240,'MASTER KEY'!$A$2:$C1216,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D240" t="s">
         <v>1254</v>
@@ -24342,11 +24454,13 @@
       <c r="A241" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B241" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1237</v>
+      <c r="B241" t="str">
+        <f>VLOOKUP(A241,'MASTER KEY'!$A$2:$B1217,2,TRUE)</f>
+        <v>Dino</v>
+      </c>
+      <c r="C241" t="str">
+        <f>VLOOKUP(A241,'MASTER KEY'!$A$2:$C1217,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D241" t="s">
         <v>1255</v>
@@ -24362,11 +24476,13 @@
       <c r="A242" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B242" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>1237</v>
+      <c r="B242" t="str">
+        <f>VLOOKUP(A242,'MASTER KEY'!$A$2:$B1218,2,TRUE)</f>
+        <v>DvCphlA+CphlA</v>
+      </c>
+      <c r="C242" t="str">
+        <f>VLOOKUP(A242,'MASTER KEY'!$A$2:$C1218,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D242" t="s">
         <v>1284</v>
@@ -24382,11 +24498,13 @@
       <c r="A243" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B243" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>1237</v>
+      <c r="B243" t="str">
+        <f>VLOOKUP(A243,'MASTER KEY'!$A$2:$B1219,2,TRUE)</f>
+        <v>DvCphlA</v>
+      </c>
+      <c r="C243" t="str">
+        <f>VLOOKUP(A243,'MASTER KEY'!$A$2:$C1219,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D243" t="s">
         <v>1257</v>
@@ -24402,11 +24520,13 @@
       <c r="A244" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B244" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>1237</v>
+      <c r="B244" t="str">
+        <f>VLOOKUP(A244,'MASTER KEY'!$A$2:$B1220,2,TRUE)</f>
+        <v>DvCphlB+CphlB</v>
+      </c>
+      <c r="C244" t="str">
+        <f>VLOOKUP(A244,'MASTER KEY'!$A$2:$C1220,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D244" t="s">
         <v>1285</v>
@@ -24422,11 +24542,13 @@
       <c r="A245" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B245" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>1237</v>
+      <c r="B245" t="str">
+        <f>VLOOKUP(A245,'MASTER KEY'!$A$2:$B1221,2,TRUE)</f>
+        <v>DvCphlB</v>
+      </c>
+      <c r="C245" t="str">
+        <f>VLOOKUP(A245,'MASTER KEY'!$A$2:$C1221,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D245" t="s">
         <v>1259</v>
@@ -24442,11 +24564,13 @@
       <c r="A246" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B246" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>1237</v>
+      <c r="B246" t="str">
+        <f>VLOOKUP(A246,'MASTER KEY'!$A$2:$B1222,2,TRUE)</f>
+        <v>Echin</v>
+      </c>
+      <c r="C246" t="str">
+        <f>VLOOKUP(A246,'MASTER KEY'!$A$2:$C1222,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D246" t="s">
         <v>1260</v>
@@ -24462,11 +24586,13 @@
       <c r="A247" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="B247" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>1237</v>
+      <c r="B247" t="str">
+        <f>VLOOKUP(A247,'MASTER KEY'!$A$2:$B1223,2,TRUE)</f>
+        <v>Fuco</v>
+      </c>
+      <c r="C247" t="str">
+        <f>VLOOKUP(A247,'MASTER KEY'!$A$2:$C1223,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D247" t="s">
         <v>1261</v>
@@ -24482,11 +24608,13 @@
       <c r="A248" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B248" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>1237</v>
+      <c r="B248" t="str">
+        <f>VLOOKUP(A248,'MASTER KEY'!$A$2:$B1224,2,TRUE)</f>
+        <v>Gyro</v>
+      </c>
+      <c r="C248" t="str">
+        <f>VLOOKUP(A248,'MASTER KEY'!$A$2:$C1224,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D248" t="s">
         <v>1262</v>
@@ -24502,11 +24630,13 @@
       <c r="A249" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="B249" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>1237</v>
+      <c r="B249" t="str">
+        <f>VLOOKUP(A249,'MASTER KEY'!$A$2:$B1225,2,TRUE)</f>
+        <v>Hexfuco</v>
+      </c>
+      <c r="C249" t="str">
+        <f>VLOOKUP(A249,'MASTER KEY'!$A$2:$C1225,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D249" t="s">
         <v>1263</v>
@@ -24522,11 +24652,13 @@
       <c r="A250" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B250" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>1237</v>
+      <c r="B250" t="str">
+        <f>VLOOKUP(A250,'MASTER KEY'!$A$2:$B1226,2,TRUE)</f>
+        <v>Ketohexfuco</v>
+      </c>
+      <c r="C250" t="str">
+        <f>VLOOKUP(A250,'MASTER KEY'!$A$2:$C1226,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D250" t="s">
         <v>1264</v>
@@ -24542,11 +24674,13 @@
       <c r="A251" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="B251" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>1237</v>
+      <c r="B251" t="str">
+        <f>VLOOKUP(A251,'MASTER KEY'!$A$2:$B1227,2,TRUE)</f>
+        <v>Lut</v>
+      </c>
+      <c r="C251" t="str">
+        <f>VLOOKUP(A251,'MASTER KEY'!$A$2:$C1227,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D251" t="s">
         <v>1265</v>
@@ -24562,11 +24696,13 @@
       <c r="A252" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B252" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>1237</v>
+      <c r="B252" t="str">
+        <f>VLOOKUP(A252,'MASTER KEY'!$A$2:$B1228,2,TRUE)</f>
+        <v>Lyco</v>
+      </c>
+      <c r="C252" t="str">
+        <f>VLOOKUP(A252,'MASTER KEY'!$A$2:$C1228,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D252" t="s">
         <v>1266</v>
@@ -24582,11 +24718,13 @@
       <c r="A253" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="B253" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>1237</v>
+      <c r="B253" t="str">
+        <f>VLOOKUP(A253,'MASTER KEY'!$A$2:$B1229,2,TRUE)</f>
+        <v>MgDvp</v>
+      </c>
+      <c r="C253" t="str">
+        <f>VLOOKUP(A253,'MASTER KEY'!$A$2:$C1229,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D253" t="s">
         <v>1267</v>
@@ -24602,11 +24740,13 @@
       <c r="A254" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B254" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>1237</v>
+      <c r="B254" t="str">
+        <f>VLOOKUP(A254,'MASTER KEY'!$A$2:$B1230,2,TRUE)</f>
+        <v>Neo</v>
+      </c>
+      <c r="C254" t="str">
+        <f>VLOOKUP(A254,'MASTER KEY'!$A$2:$C1230,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D254" t="s">
         <v>1268</v>
@@ -24622,11 +24762,13 @@
       <c r="A255" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B255" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>1237</v>
+      <c r="B255" t="str">
+        <f>VLOOKUP(A255,'MASTER KEY'!$A$2:$B1231,2,TRUE)</f>
+        <v>Perid</v>
+      </c>
+      <c r="C255" t="str">
+        <f>VLOOKUP(A255,'MASTER KEY'!$A$2:$C1231,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D255" t="s">
         <v>1269</v>
@@ -24642,11 +24784,13 @@
       <c r="A256" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B256" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>1237</v>
+      <c r="B256" t="str">
+        <f>VLOOKUP(A256,'MASTER KEY'!$A$2:$B1232,2,TRUE)</f>
+        <v>PhideA</v>
+      </c>
+      <c r="C256" t="str">
+        <f>VLOOKUP(A256,'MASTER KEY'!$A$2:$C1232,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D256" t="s">
         <v>1270</v>
@@ -24662,11 +24806,13 @@
       <c r="A257" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B257" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>1237</v>
+      <c r="B257" t="str">
+        <f>VLOOKUP(A257,'MASTER KEY'!$A$2:$B1233,2,TRUE)</f>
+        <v>PhytinA</v>
+      </c>
+      <c r="C257" t="str">
+        <f>VLOOKUP(A257,'MASTER KEY'!$A$2:$C1233,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D257" t="s">
         <v>1271</v>
@@ -24682,11 +24828,13 @@
       <c r="A258" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B258" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>1237</v>
+      <c r="B258" t="str">
+        <f>VLOOKUP(A258,'MASTER KEY'!$A$2:$B1234,2,TRUE)</f>
+        <v>PhytinB</v>
+      </c>
+      <c r="C258" t="str">
+        <f>VLOOKUP(A258,'MASTER KEY'!$A$2:$C1234,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D258" t="s">
         <v>1272</v>
@@ -24702,11 +24850,13 @@
       <c r="A259" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B259" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>1237</v>
+      <c r="B259" t="str">
+        <f>VLOOKUP(A259,'MASTER KEY'!$A$2:$B1235,2,TRUE)</f>
+        <v>Pras</v>
+      </c>
+      <c r="C259" t="str">
+        <f>VLOOKUP(A259,'MASTER KEY'!$A$2:$C1235,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D259" t="s">
         <v>1273</v>
@@ -24722,11 +24872,13 @@
       <c r="A260" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B260" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>1237</v>
+      <c r="B260" t="str">
+        <f>VLOOKUP(A260,'MASTER KEY'!$A$2:$B1236,2,TRUE)</f>
+        <v>PyrophideA</v>
+      </c>
+      <c r="C260" t="str">
+        <f>VLOOKUP(A260,'MASTER KEY'!$A$2:$C1236,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D260" t="s">
         <v>1274</v>
@@ -24742,11 +24894,13 @@
       <c r="A261" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B261" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>1237</v>
+      <c r="B261" t="str">
+        <f>VLOOKUP(A261,'MASTER KEY'!$A$2:$B1237,2,TRUE)</f>
+        <v>PyrophytinA</v>
+      </c>
+      <c r="C261" t="str">
+        <f>VLOOKUP(A261,'MASTER KEY'!$A$2:$C1237,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D261" t="s">
         <v>1275</v>
@@ -24762,11 +24916,13 @@
       <c r="A262" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B262" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>1237</v>
+      <c r="B262" t="str">
+        <f>VLOOKUP(A262,'MASTER KEY'!$A$2:$B1238,2,TRUE)</f>
+        <v>Viola</v>
+      </c>
+      <c r="C262" t="str">
+        <f>VLOOKUP(A262,'MASTER KEY'!$A$2:$C1238,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D262" t="s">
         <v>1276</v>
@@ -24782,11 +24938,13 @@
       <c r="A263" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="B263" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>1237</v>
+      <c r="B263" t="str">
+        <f>VLOOKUP(A263,'MASTER KEY'!$A$2:$B1239,2,TRUE)</f>
+        <v>Zea</v>
+      </c>
+      <c r="C263" t="str">
+        <f>VLOOKUP(A263,'MASTER KEY'!$A$2:$C1239,3,TRUE)</f>
+        <v>mg/m3</v>
       </c>
       <c r="D263" t="s">
         <v>1277</v>
@@ -24802,11 +24960,13 @@
       <c r="A264" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B264" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>6</v>
+      <c r="B264" t="str">
+        <f>VLOOKUP(A264,'MASTER KEY'!$A$2:$B1240,2,TRUE)</f>
+        <v>Nitrite</v>
+      </c>
+      <c r="C264" t="str">
+        <f>VLOOKUP(A264,'MASTER KEY'!$A$2:$C1240,3,TRUE)</f>
+        <v>mg/L</v>
       </c>
       <c r="D264" t="s">
         <v>1278</v>
@@ -24822,11 +24982,13 @@
       <c r="A265" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="B265" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>6</v>
+      <c r="B265" t="str">
+        <f>VLOOKUP(A265,'MASTER KEY'!$A$2:$B1241,2,TRUE)</f>
+        <v>TSSorganic</v>
+      </c>
+      <c r="C265" t="str">
+        <f>VLOOKUP(A265,'MASTER KEY'!$A$2:$C1241,3,TRUE)</f>
+        <v>mg/L</v>
       </c>
       <c r="D265" t="s">
         <v>1279</v>
@@ -24842,11 +25004,13 @@
       <c r="A266" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="B266" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>6</v>
+      <c r="B266" t="str">
+        <f>VLOOKUP(A266,'MASTER KEY'!$A$2:$B1242,2,TRUE)</f>
+        <v>TSSinorganic</v>
+      </c>
+      <c r="C266" t="str">
+        <f>VLOOKUP(A266,'MASTER KEY'!$A$2:$C1242,3,TRUE)</f>
+        <v>mg/L</v>
       </c>
       <c r="D266" t="s">
         <v>1280</v>
@@ -24862,11 +25026,13 @@
       <c r="A267" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>6</v>
+      <c r="B267" t="str">
+        <f>VLOOKUP(A267,'MASTER KEY'!$A$2:$B1243,2,TRUE)</f>
+        <v>DIC</v>
+      </c>
+      <c r="C267" t="str">
+        <f>VLOOKUP(A267,'MASTER KEY'!$A$2:$C1243,3,TRUE)</f>
+        <v>mg/L</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1282</v>
@@ -24882,11 +25048,13 @@
       <c r="A268" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>13</v>
+      <c r="B268" t="str">
+        <f>VLOOKUP(A268,'MASTER KEY'!$A$2:$B1244,2,TRUE)</f>
+        <v>Significant waveheight</v>
+      </c>
+      <c r="C268" t="str">
+        <f>VLOOKUP(A268,'MASTER KEY'!$A$2:$C1244,3,TRUE)</f>
+        <v>m</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1311</v>
@@ -24902,11 +25070,13 @@
       <c r="A269" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="B269" s="12" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>1327</v>
+      <c r="B269" t="str">
+        <f>VLOOKUP(A269,'MASTER KEY'!$A$2:$B1245,2,TRUE)</f>
+        <v>Peak wave period</v>
+      </c>
+      <c r="C269" t="str">
+        <f>VLOOKUP(A269,'MASTER KEY'!$A$2:$C1245,3,TRUE)</f>
+        <v>s</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1312</v>
@@ -24922,11 +25092,13 @@
       <c r="A270" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>899</v>
+      <c r="B270" t="str">
+        <f>VLOOKUP(A270,'MASTER KEY'!$A$2:$B1246,2,TRUE)</f>
+        <v>Peak wave direction</v>
+      </c>
+      <c r="C270" t="str">
+        <f>VLOOKUP(A270,'MASTER KEY'!$A$2:$C1246,3,TRUE)</f>
+        <v>deg</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1313</v>
@@ -24939,14 +25111,16 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="30" t="s">
+      <c r="A271" s="29" t="s">
         <v>1655</v>
       </c>
-      <c r="B271" s="3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>378</v>
+      <c r="B271" t="str">
+        <f>VLOOKUP(A271,'MASTER KEY'!$A$2:$B1247,2,TRUE)</f>
+        <v>Min Wind Speed</v>
+      </c>
+      <c r="C271" t="str">
+        <f>VLOOKUP(A271,'MASTER KEY'!$A$2:$C1247,3,TRUE)</f>
+        <v>m/s</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1665</v>
@@ -24959,37 +25133,41 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="30" t="s">
+      <c r="A272" s="29" t="s">
         <v>1656</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C272" s="24" t="s">
+      <c r="B272" t="str">
+        <f>VLOOKUP(A272,'MASTER KEY'!$A$2:$B1248,2,TRUE)</f>
+        <v>Wind Direction STD</v>
+      </c>
+      <c r="C272" t="str">
+        <f>VLOOKUP(A272,'MASTER KEY'!$A$2:$C1248,3,TRUE)</f>
+        <v>ø</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E272" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E272" s="24" t="s">
-        <v>507</v>
-      </c>
       <c r="F272">
         <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="30" t="s">
+      <c r="A273" s="29" t="s">
         <v>1657</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>503</v>
+      <c r="B273" t="str">
+        <f>VLOOKUP(A273,'MASTER KEY'!$A$2:$B1249,2,TRUE)</f>
+        <v>max station level pressure</v>
+      </c>
+      <c r="C273" t="str">
+        <f>VLOOKUP(A273,'MASTER KEY'!$A$2:$C1249,3,TRUE)</f>
+        <v>hPa</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>503</v>
@@ -24999,17 +25177,19 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="30" t="s">
+      <c r="A274" s="29" t="s">
         <v>1658</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>503</v>
+      <c r="B274" t="str">
+        <f>VLOOKUP(A274,'MASTER KEY'!$A$2:$B1250,2,TRUE)</f>
+        <v>min station level pressure</v>
+      </c>
+      <c r="C274" t="str">
+        <f>VLOOKUP(A274,'MASTER KEY'!$A$2:$C1250,3,TRUE)</f>
+        <v>hPa</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>503</v>
@@ -25019,17 +25199,19 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="30" t="s">
+      <c r="A275" s="29" t="s">
         <v>1659</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" t="str">
+        <f>VLOOKUP(A275,'MASTER KEY'!$A$2:$B1251,2,TRUE)</f>
+        <v>station level pressure std</v>
+      </c>
+      <c r="C275" t="str">
+        <f>VLOOKUP(A275,'MASTER KEY'!$A$2:$C1251,3,TRUE)</f>
+        <v>hPa</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>1666</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>1667</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>503</v>
@@ -25039,17 +25221,19 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="30" t="s">
+      <c r="A276" s="29" t="s">
         <v>1660</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" t="str">
+        <f>VLOOKUP(A276,'MASTER KEY'!$A$2:$B1252,2,TRUE)</f>
+        <v>mean solar radiation</v>
+      </c>
+      <c r="C276" t="str">
+        <f>VLOOKUP(A276,'MASTER KEY'!$A$2:$C1252,3,TRUE)</f>
+        <v>W/m^2</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>1668</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>1669</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>75</v>
@@ -25059,17 +25243,19 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="30" t="s">
+      <c r="A277" s="29" t="s">
         <v>1661</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" t="str">
+        <f>VLOOKUP(A277,'MASTER KEY'!$A$2:$B1253,2,TRUE)</f>
+        <v>min solar radiation</v>
+      </c>
+      <c r="C277" t="str">
+        <f>VLOOKUP(A277,'MASTER KEY'!$A$2:$C1253,3,TRUE)</f>
+        <v>W/m^2</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>1670</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>1671</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>75</v>
@@ -25079,17 +25265,19 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="30" t="s">
+      <c r="A278" s="29" t="s">
         <v>1662</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>75</v>
+      <c r="B278" t="str">
+        <f>VLOOKUP(A278,'MASTER KEY'!$A$2:$B1254,2,TRUE)</f>
+        <v>max solar radiation</v>
+      </c>
+      <c r="C278" t="str">
+        <f>VLOOKUP(A278,'MASTER KEY'!$A$2:$C1254,3,TRUE)</f>
+        <v>W/m^2</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>75</v>
@@ -25099,17 +25287,19 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="30" t="s">
+      <c r="A279" s="29" t="s">
         <v>1663</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" t="str">
+        <f>VLOOKUP(A279,'MASTER KEY'!$A$2:$B1255,2,TRUE)</f>
+        <v>solar radiation std</v>
+      </c>
+      <c r="C279" t="str">
+        <f>VLOOKUP(A279,'MASTER KEY'!$A$2:$C1255,3,TRUE)</f>
+        <v>W/m^2</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>1675</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>75</v>
@@ -25119,17 +25309,19 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="30" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B280" s="1" t="s">
+      <c r="A280" s="29" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B280" t="str">
+        <f>VLOOKUP(A280,'MASTER KEY'!$A$2:$B1256,2,TRUE)</f>
+        <v>max PAR</v>
+      </c>
+      <c r="C280" t="str">
+        <f>VLOOKUP(A280,'MASTER KEY'!$A$2:$C1256,3,TRUE)</f>
+        <v>µmol/m2/s</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>1678</v>
-      </c>
-      <c r="C280" t="s">
-        <v>897</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>1679</v>
       </c>
       <c r="E280" t="s">
         <v>897</v>
@@ -25139,17 +25331,19 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="30" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B281" s="1" t="s">
+      <c r="A281" s="29" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B281" t="str">
+        <f>VLOOKUP(A281,'MASTER KEY'!$A$2:$B1257,2,TRUE)</f>
+        <v>min PAR</v>
+      </c>
+      <c r="C281" t="str">
+        <f>VLOOKUP(A281,'MASTER KEY'!$A$2:$C1257,3,TRUE)</f>
+        <v>µmol/m2/s</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="C281" t="s">
-        <v>897</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>1681</v>
       </c>
       <c r="E281" t="s">
         <v>897</v>
@@ -25159,17 +25353,19 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="30" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B282" s="1" t="s">
+      <c r="A282" s="29" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B282" t="str">
+        <f>VLOOKUP(A282,'MASTER KEY'!$A$2:$B1258,2,TRUE)</f>
+        <v>PAR STD</v>
+      </c>
+      <c r="C282" t="str">
+        <f>VLOOKUP(A282,'MASTER KEY'!$A$2:$C1258,3,TRUE)</f>
+        <v>µmol/m2/s</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>1684</v>
-      </c>
-      <c r="C282" t="s">
-        <v>897</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>1685</v>
       </c>
       <c r="E282" t="s">
         <v>897</v>
@@ -25179,57 +25375,63 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="30" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B283" s="1" t="s">
+      <c r="A283" s="29" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B283" t="str">
+        <f>VLOOKUP(A283,'MASTER KEY'!$A$2:$B1259,2,TRUE)</f>
+        <v>Total Par</v>
+      </c>
+      <c r="C283" t="str">
+        <f>VLOOKUP(A283,'MASTER KEY'!$A$2:$C1259,3,TRUE)</f>
+        <v>µmol/m2</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="29" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B284" t="str">
+        <f>VLOOKUP(A284,'MASTER KEY'!$A$2:$B1260,2,TRUE)</f>
+        <v>Total Solar</v>
+      </c>
+      <c r="C284" t="str">
+        <f>VLOOKUP(A284,'MASTER KEY'!$A$2:$C1260,3,TRUE)</f>
+        <v>MJ</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="C283" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1691</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="30" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>1687</v>
-      </c>
       <c r="F284">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="30" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>900</v>
+      <c r="A285" s="29" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B285" t="str">
+        <f>VLOOKUP(A285,'MASTER KEY'!$A$2:$B1261,2,TRUE)</f>
+        <v>WL - 398µW</v>
+      </c>
+      <c r="C285" t="str">
+        <f>VLOOKUP(A285,'MASTER KEY'!$A$2:$C1261,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D285" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>900</v>
@@ -25239,17 +25441,19 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="30" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>900</v>
+      <c r="A286" s="29" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B286" t="str">
+        <f>VLOOKUP(A286,'MASTER KEY'!$A$2:$B1262,2,TRUE)</f>
+        <v>WL - 448µW</v>
+      </c>
+      <c r="C286" t="str">
+        <f>VLOOKUP(A286,'MASTER KEY'!$A$2:$C1262,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D286" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>900</v>
@@ -25259,17 +25463,19 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="30" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>900</v>
+      <c r="A287" s="29" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B287" t="str">
+        <f>VLOOKUP(A287,'MASTER KEY'!$A$2:$B1263,2,TRUE)</f>
+        <v>WL - 470µW</v>
+      </c>
+      <c r="C287" t="str">
+        <f>VLOOKUP(A287,'MASTER KEY'!$A$2:$C1263,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D287" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>900</v>
@@ -25279,17 +25485,19 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="30" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>900</v>
+      <c r="A288" s="29" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B288" t="str">
+        <f>VLOOKUP(A288,'MASTER KEY'!$A$2:$B1264,2,TRUE)</f>
+        <v>WL - 524µW</v>
+      </c>
+      <c r="C288" t="str">
+        <f>VLOOKUP(A288,'MASTER KEY'!$A$2:$C1264,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D288" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>900</v>
@@ -25299,17 +25507,19 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="30" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>900</v>
+      <c r="A289" s="29" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B289" t="str">
+        <f>VLOOKUP(A289,'MASTER KEY'!$A$2:$B1265,2,TRUE)</f>
+        <v>WL - 554µW</v>
+      </c>
+      <c r="C289" t="str">
+        <f>VLOOKUP(A289,'MASTER KEY'!$A$2:$C1265,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D289" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>900</v>
@@ -25319,17 +25529,19 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="30" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>900</v>
+      <c r="A290" s="29" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B290" t="str">
+        <f>VLOOKUP(A290,'MASTER KEY'!$A$2:$B1266,2,TRUE)</f>
+        <v>WL - 590µW</v>
+      </c>
+      <c r="C290" t="str">
+        <f>VLOOKUP(A290,'MASTER KEY'!$A$2:$C1266,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D290" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>900</v>
@@ -25339,17 +25551,19 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="30" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>900</v>
+      <c r="A291" s="29" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B291" t="str">
+        <f>VLOOKUP(A291,'MASTER KEY'!$A$2:$B1267,2,TRUE)</f>
+        <v>WL - 628µW</v>
+      </c>
+      <c r="C291" t="str">
+        <f>VLOOKUP(A291,'MASTER KEY'!$A$2:$C1267,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D291" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>900</v>
@@ -25359,17 +25573,19 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="30" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>900</v>
+      <c r="A292" s="29" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B292" t="str">
+        <f>VLOOKUP(A292,'MASTER KEY'!$A$2:$B1268,2,TRUE)</f>
+        <v>WL - 656µW</v>
+      </c>
+      <c r="C292" t="str">
+        <f>VLOOKUP(A292,'MASTER KEY'!$A$2:$C1268,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D292" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>900</v>
@@ -25379,17 +25595,19 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="30" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>900</v>
+      <c r="A293" s="29" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B293" t="str">
+        <f>VLOOKUP(A293,'MASTER KEY'!$A$2:$B1269,2,TRUE)</f>
+        <v>WL - 699µW</v>
+      </c>
+      <c r="C293" t="str">
+        <f>VLOOKUP(A293,'MASTER KEY'!$A$2:$C1269,3,TRUE)</f>
+        <v>µW/cm2/nm</v>
       </c>
       <c r="D293" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>900</v>
@@ -25399,17 +25617,19 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="30" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C294" t="s">
-        <v>897</v>
+      <c r="A294" s="29" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B294" t="str">
+        <f>VLOOKUP(A294,'MASTER KEY'!$A$2:$B1270,2,TRUE)</f>
+        <v>WL - 398µmol</v>
+      </c>
+      <c r="C294" t="str">
+        <f>VLOOKUP(A294,'MASTER KEY'!$A$2:$C1270,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D294" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E294" t="s">
         <v>897</v>
@@ -25419,17 +25639,19 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="30" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C295" t="s">
-        <v>897</v>
+      <c r="A295" s="29" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B295" t="str">
+        <f>VLOOKUP(A295,'MASTER KEY'!$A$2:$B1271,2,TRUE)</f>
+        <v>WL - 448µmol</v>
+      </c>
+      <c r="C295" t="str">
+        <f>VLOOKUP(A295,'MASTER KEY'!$A$2:$C1271,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D295" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E295" t="s">
         <v>897</v>
@@ -25439,17 +25661,19 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="30" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C296" t="s">
-        <v>897</v>
+      <c r="A296" s="29" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B296" t="str">
+        <f>VLOOKUP(A296,'MASTER KEY'!$A$2:$B1272,2,TRUE)</f>
+        <v>WL - 470µmol</v>
+      </c>
+      <c r="C296" t="str">
+        <f>VLOOKUP(A296,'MASTER KEY'!$A$2:$C1272,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D296" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E296" t="s">
         <v>897</v>
@@ -25459,17 +25683,19 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="30" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C297" t="s">
-        <v>897</v>
+      <c r="A297" s="29" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B297" t="str">
+        <f>VLOOKUP(A297,'MASTER KEY'!$A$2:$B1273,2,TRUE)</f>
+        <v>WL - 524µmol</v>
+      </c>
+      <c r="C297" t="str">
+        <f>VLOOKUP(A297,'MASTER KEY'!$A$2:$C1273,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D297" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E297" t="s">
         <v>897</v>
@@ -25479,17 +25705,19 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="30" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C298" t="s">
-        <v>897</v>
+      <c r="A298" s="29" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B298" t="str">
+        <f>VLOOKUP(A298,'MASTER KEY'!$A$2:$B1274,2,TRUE)</f>
+        <v>WL - 554µmol</v>
+      </c>
+      <c r="C298" t="str">
+        <f>VLOOKUP(A298,'MASTER KEY'!$A$2:$C1274,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D298" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E298" t="s">
         <v>897</v>
@@ -25499,17 +25727,19 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="30" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C299" t="s">
-        <v>897</v>
+      <c r="A299" s="29" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B299" t="str">
+        <f>VLOOKUP(A299,'MASTER KEY'!$A$2:$B1275,2,TRUE)</f>
+        <v>WL - 590µmol</v>
+      </c>
+      <c r="C299" t="str">
+        <f>VLOOKUP(A299,'MASTER KEY'!$A$2:$C1275,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D299" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E299" t="s">
         <v>897</v>
@@ -25519,17 +25749,19 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="30" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C300" t="s">
-        <v>897</v>
+      <c r="A300" s="29" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B300" t="str">
+        <f>VLOOKUP(A300,'MASTER KEY'!$A$2:$B1276,2,TRUE)</f>
+        <v>WL - 628µmol</v>
+      </c>
+      <c r="C300" t="str">
+        <f>VLOOKUP(A300,'MASTER KEY'!$A$2:$C1276,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D300" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E300" t="s">
         <v>897</v>
@@ -25539,17 +25771,19 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="30" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C301" t="s">
-        <v>897</v>
+      <c r="A301" s="29" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B301" t="str">
+        <f>VLOOKUP(A301,'MASTER KEY'!$A$2:$B1277,2,TRUE)</f>
+        <v>WL - 656µmol</v>
+      </c>
+      <c r="C301" t="str">
+        <f>VLOOKUP(A301,'MASTER KEY'!$A$2:$C1277,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D301" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E301" t="s">
         <v>897</v>
@@ -25559,17 +25793,19 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="30" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C302" t="s">
-        <v>897</v>
+      <c r="A302" s="29" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B302" t="str">
+        <f>VLOOKUP(A302,'MASTER KEY'!$A$2:$B1278,2,TRUE)</f>
+        <v>WL - 699µmol</v>
+      </c>
+      <c r="C302" t="str">
+        <f>VLOOKUP(A302,'MASTER KEY'!$A$2:$C1278,3,TRUE)</f>
+        <v>µmol/m2/s</v>
       </c>
       <c r="D302" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E302" t="s">
         <v>897</v>
@@ -25579,60 +25815,66 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="30" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B303" s="1" t="s">
+      <c r="A303" s="29" t="s">
         <v>1779</v>
       </c>
-      <c r="C303" s="1" t="s">
-        <v>1784</v>
+      <c r="B303" t="str">
+        <f>VLOOKUP(A303,'MASTER KEY'!$A$2:$B1279,2,TRUE)</f>
+        <v>Total Par day</v>
+      </c>
+      <c r="C303" t="str">
+        <f>VLOOKUP(A303,'MASTER KEY'!$A$2:$C1279,3,TRUE)</f>
+        <v>µmol/m2/day</v>
       </c>
       <c r="D303" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="29" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B304" t="str">
+        <f>VLOOKUP(A304,'MASTER KEY'!$A$2:$B1280,2,TRUE)</f>
+        <v>Total M Par day</v>
+      </c>
+      <c r="C304" t="str">
+        <f>VLOOKUP(A304,'MASTER KEY'!$A$2:$C1280,3,TRUE)</f>
+        <v>mol/m2/day</v>
+      </c>
+      <c r="D304" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="E303" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="30" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B304" s="1" t="s">
+      <c r="E304" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>1789</v>
-      </c>
       <c r="F304">
         <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="30" t="s">
+      <c r="A305" s="29" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B305" t="str">
+        <f>VLOOKUP(A305,'MASTER KEY'!$A$2:$B1281,2,TRUE)</f>
+        <v>Fluorescence (Volts)</v>
+      </c>
+      <c r="C305" t="str">
+        <f>VLOOKUP(A305,'MASTER KEY'!$A$2:$C1281,3,TRUE)</f>
+        <v>V</v>
+      </c>
+      <c r="D305" t="s">
         <v>1808</v>
       </c>
-      <c r="B305" t="s">
+      <c r="E305" s="1" t="s">
         <v>1806</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1809</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>1807</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -25676,7 +25918,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -25691,7 +25933,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -25706,12 +25948,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>1656</v>
       </c>
       <c r="D4" t="str">
@@ -25721,7 +25963,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -25736,12 +25978,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>1655</v>
       </c>
       <c r="D6" t="str">
@@ -25751,7 +25993,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -25766,12 +26008,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>1657</v>
       </c>
       <c r="D8" t="str">
@@ -25781,12 +26023,12 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>1658</v>
       </c>
       <c r="D9" t="str">
@@ -25796,12 +26038,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>1659</v>
       </c>
       <c r="D10" t="str">
@@ -25811,12 +26053,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>1660</v>
       </c>
       <c r="D11" t="str">
@@ -25826,12 +26068,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>1662</v>
       </c>
       <c r="D12" t="str">
@@ -25841,12 +26083,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>1661</v>
       </c>
       <c r="D13" t="str">
@@ -25856,12 +26098,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>1663</v>
       </c>
       <c r="D14" t="str">
@@ -25871,7 +26113,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -25886,13 +26128,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>1676</v>
+      <c r="C16" s="29" t="s">
+        <v>1675</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B942,2,TRUE)</f>
@@ -25901,13 +26143,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>1677</v>
+      <c r="C17" s="29" t="s">
+        <v>1676</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B943,2,TRUE)</f>
@@ -25916,13 +26158,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>1682</v>
+      <c r="C18" s="29" t="s">
+        <v>1681</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B944,2,TRUE)</f>
@@ -25931,13 +26173,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>1689</v>
+      <c r="C19" s="29" t="s">
+        <v>1688</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B946,2,TRUE)</f>
@@ -25946,13 +26188,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>1683</v>
+      <c r="C20" s="29" t="s">
+        <v>1682</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B945,2,TRUE)</f>
@@ -25970,7 +26212,7 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29056,8 +29298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDD4773-BA47-40AE-B986-8B71A1278767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB061B-FA64-4F76-8D11-6D9728D935BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="841" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" firstSheet="1" activeTab="1" xr2:uid="{F9B0BAF6-804F-4CC2-AC1B-42D25A858702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{F9B0BAF6-804F-4CC2-AC1B-42D25A858702}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="6" r:id="rId1"/>
@@ -388,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4850" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4873" uniqueCount="2016">
   <si>
     <t>Model Variable Conversion</t>
   </si>
@@ -6538,6 +6537,24 @@
   </si>
   <si>
     <t>trh_gtc34_c40</t>
+  </si>
+  <si>
+    <t>Posidonia Sinuosa Total Biomass</t>
+  </si>
+  <si>
+    <t>posidonia_sinuosa_total_biomass</t>
+  </si>
+  <si>
+    <t>µmol C/m2</t>
+  </si>
+  <si>
+    <t>Posidonia Sinuosa Dry Weight</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>posidonia_sinuosa_dry_weight</t>
   </si>
 </sst>
 </file>
@@ -7282,10 +7299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -7311,10 +7325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3637D217-629A-4AA1-BFB1-326590517B91}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -7527,10 +7538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -7932,10 +7940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -8333,10 +8338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -10263,10 +10265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -11422,10 +11421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -11787,10 +11783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
@@ -12450,10 +12443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -12824,10 +12814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D35"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
@@ -13382,10 +13369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D24"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -13773,14 +13757,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L341"/>
+  <dimension ref="A1:L343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F341" sqref="F341"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="1">
-      <selection activeCell="F319" sqref="F319"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -21749,6 +21729,55 @@
         <v>20</v>
       </c>
     </row>
+    <row r="342" spans="1:11" ht="14.4">
+      <c r="A342" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E342" s="10" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F342" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="14.4">
+      <c r="A343" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F343" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L318" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="10">
@@ -21771,10 +21800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
@@ -21880,10 +21906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -22184,10 +22207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -22414,10 +22434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -22587,10 +22604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -22732,10 +22746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
@@ -22852,10 +22863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
@@ -24052,7 +24060,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
@@ -24064,10 +24071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0CBB6E-1B94-4464-948D-3552DECBF22E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -24141,13 +24145,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B306" sqref="B306"/>
-    </sheetView>
-    <sheetView topLeftCell="A271" workbookViewId="1">
+    <sheetView topLeftCell="A271" workbookViewId="0">
       <selection activeCell="A304" sqref="A304:XFD304"/>
     </sheetView>
   </sheetViews>
@@ -30984,13 +30984,13 @@
         <v>Posidonia Sinuosa Above Ground Biomass</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1897</v>
+        <v>2012</v>
       </c>
       <c r="D302" t="s">
         <v>1910</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1897</v>
+        <v>2012</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -31005,13 +31005,13 @@
         <v>Posidonia Sinuosa Below Ground Biomass</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1897</v>
+        <v>2012</v>
       </c>
       <c r="D303" t="s">
         <v>1911</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1897</v>
+        <v>2012</v>
       </c>
       <c r="F303">
         <v>1</v>
@@ -31035,6 +31035,48 @@
         <v>92</v>
       </c>
       <c r="F304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B305" t="str">
+        <f>VLOOKUP(A305,'MASTER KEY'!$A$2:$B1274,2,FALSE)</f>
+        <v>Posidonia Sinuosa Total Biomass</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B306" t="str">
+        <f>VLOOKUP(A306,'MASTER KEY'!$A$2:$B1275,2,FALSE)</f>
+        <v>Posidonia Sinuosa Dry Weight</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D306" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F306">
         <v>1</v>
       </c>
     </row>
@@ -31051,9 +31093,6 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -32078,9 +32117,6 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -32956,10 +32992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -33287,10 +33320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -33564,6 +33594,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003AB3CEE24CC9549A4C2A281013CE3FF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c392439da3f348303a75f5d18241249a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef9f29e7-1a1c-412a-b28d-c6b5d10182ce" xmlns:ns3="3bc65d7e-f616-49fd-b09c-31cb8a0f9f35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="791e796a73d52f1825a418e61b158f36" ns2:_="" ns3:_="">
     <xsd:import namespace="ef9f29e7-1a1c-412a-b28d-c6b5d10182ce"/>
@@ -33774,16 +33813,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FF3EBF-E249-4974-B438-7AE6C30398AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{002762F3-4309-419D-97A6-51D1B85C85F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33800,12 +33838,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FF3EBF-E249-4974-B438-7AE6C30398AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB061B-FA64-4F76-8D11-6D9728D935BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC2857-0950-47D5-B140-E08DE7C383C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{F9B0BAF6-804F-4CC2-AC1B-42D25A858702}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{F9B0BAF6-804F-4CC2-AC1B-42D25A858702}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="6" r:id="rId1"/>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4873" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4881" uniqueCount="2018">
   <si>
     <t>Model Variable Conversion</t>
   </si>
@@ -6555,6 +6555,12 @@
   </si>
   <si>
     <t>posidonia_sinuosa_dry_weight</t>
+  </si>
+  <si>
+    <t>Picoplankton Fraction</t>
+  </si>
+  <si>
+    <t>picop_brewin2012in</t>
   </si>
 </sst>
 </file>
@@ -7301,9 +7307,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1">
@@ -7327,12 +7333,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7540,10 +7546,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7942,11 +7948,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="38" customFormat="1">
@@ -8340,10 +8346,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10267,9 +10273,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11423,9 +11429,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11785,12 +11791,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="36.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12445,10 +12451,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12816,13 +12822,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13268,7 +13274,7 @@
         <v>Station Level Pressure</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.4">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" t="s">
         <v>1616</v>
       </c>
@@ -13283,7 +13289,7 @@
         <v>Water Surface Height</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.4">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" t="s">
         <v>1617</v>
       </c>
@@ -13298,7 +13304,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.4">
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" t="s">
         <v>597</v>
       </c>
@@ -13313,7 +13319,7 @@
         <v>Air Temperature</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.4">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" t="s">
         <v>1618</v>
       </c>
@@ -13328,7 +13334,7 @@
         <v>Station Level Pressure</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.4">
+    <row r="34" spans="1:4" ht="15">
       <c r="A34" t="s">
         <v>497</v>
       </c>
@@ -13343,7 +13349,7 @@
         <v>Wind Direction</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.4">
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -13371,9 +13377,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
@@ -13757,30 +13763,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L343"/>
+  <dimension ref="A1:L344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="I299" workbookViewId="0">
+      <selection activeCell="L345" sqref="L345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="32" customFormat="1" ht="24.9" customHeight="1">
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
@@ -21056,7 +21062,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="14.4">
+    <row r="315" spans="1:11" ht="15">
       <c r="A315" s="23" t="s">
         <v>1899</v>
       </c>
@@ -21073,7 +21079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="14.4">
+    <row r="316" spans="1:11" ht="15">
       <c r="A316" s="23" t="s">
         <v>1900</v>
       </c>
@@ -21090,7 +21096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="14.4">
+    <row r="317" spans="1:11" ht="15">
       <c r="A317" s="23" t="s">
         <v>1901</v>
       </c>
@@ -21110,7 +21116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="14.4">
+    <row r="318" spans="1:11" ht="15">
       <c r="A318" s="23" t="s">
         <v>1906</v>
       </c>
@@ -21729,7 +21735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="14.4">
+    <row r="342" spans="1:11" ht="15">
       <c r="A342" s="1" t="s">
         <v>1972</v>
       </c>
@@ -21752,9 +21758,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="14.4">
+    <row r="343" spans="1:11" ht="15">
       <c r="A343" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B343" t="s">
         <v>2013</v>
@@ -21776,6 +21782,32 @@
       </c>
       <c r="K343" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
+      <c r="A344" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -21802,7 +21834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -21908,10 +21940,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22209,10 +22241,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -22436,10 +22468,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -22564,7 +22596,7 @@
         <v>Mean Wave Period</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.2">
+    <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="14" t="s">
         <v>1667</v>
       </c>
@@ -22579,7 +22611,7 @@
         <v>Peak Wave Direction</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2">
+    <row r="10" spans="1:5" ht="17.25">
       <c r="A10" s="15" t="s">
         <v>1668</v>
       </c>
@@ -22606,9 +22638,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -22748,7 +22780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -22865,7 +22897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
   </cols>
@@ -24061,7 +24093,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24073,10 +24105,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24151,14 +24183,14 @@
       <selection activeCell="A304" sqref="A304:XFD304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -31065,7 +31097,7 @@
       </c>
       <c r="B306" t="str">
         <f>VLOOKUP(A306,'MASTER KEY'!$A$2:$B1275,2,FALSE)</f>
-        <v>Posidonia Sinuosa Dry Weight</v>
+        <v>Picoplankton Fraction</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2014</v>
@@ -31096,12 +31128,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -32120,10 +32152,10 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -32994,10 +33026,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -33322,10 +33354,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -33594,15 +33626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003AB3CEE24CC9549A4C2A281013CE3FF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c392439da3f348303a75f5d18241249a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef9f29e7-1a1c-412a-b28d-c6b5d10182ce" xmlns:ns3="3bc65d7e-f616-49fd-b09c-31cb8a0f9f35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="791e796a73d52f1825a418e61b158f36" ns2:_="" ns3:_="">
     <xsd:import namespace="ef9f29e7-1a1c-412a-b28d-c6b5d10182ce"/>
@@ -33813,15 +33836,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FF3EBF-E249-4974-B438-7AE6C30398AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{002762F3-4309-419D-97A6-51D1B85C85F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33838,4 +33862,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FF3EBF-E249-4974-B438-7AE6C30398AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,37 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC2857-0950-47D5-B140-E08DE7C383C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D5629-A8A3-4B39-B100-A25330E28082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{F9B0BAF6-804F-4CC2-AC1B-42D25A858702}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" firstSheet="1" activeTab="1" xr2:uid="{F9B0BAF6-804F-4CC2-AC1B-42D25A858702}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="6" r:id="rId1"/>
     <sheet name="MASTER KEY" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId3"/>
-    <sheet name="THEME2.2" sheetId="24" r:id="rId4"/>
-    <sheet name="Model_TFV" sheetId="5" r:id="rId5"/>
-    <sheet name="FPA-MQMP" sheetId="25" r:id="rId6"/>
-    <sheet name="THEME5" sheetId="7" r:id="rId7"/>
-    <sheet name="THEME5MET" sheetId="19" r:id="rId8"/>
-    <sheet name="WWMSP5" sheetId="16" r:id="rId9"/>
-    <sheet name="THEME3CTD" sheetId="23" r:id="rId10"/>
-    <sheet name="WWMSP2" sheetId="20" r:id="rId11"/>
-    <sheet name="THEME2LIGHT" sheetId="21" r:id="rId12"/>
-    <sheet name="MAFRL" sheetId="8" r:id="rId13"/>
-    <sheet name="IMOSBGC" sheetId="9" r:id="rId14"/>
-    <sheet name="IMOSPROFILE" sheetId="10" r:id="rId15"/>
-    <sheet name="DWER" sheetId="2" r:id="rId16"/>
-    <sheet name="DWERMOORING" sheetId="11" r:id="rId17"/>
-    <sheet name="BOM" sheetId="3" r:id="rId18"/>
-    <sheet name="DOT" sheetId="4" r:id="rId19"/>
-    <sheet name="WWM" sheetId="22" r:id="rId20"/>
-    <sheet name="JPPLAWAC" sheetId="12" r:id="rId21"/>
-    <sheet name="UWA" sheetId="15" r:id="rId22"/>
-    <sheet name="BMTBNA" sheetId="17" r:id="rId23"/>
-    <sheet name="FPA_BMT" sheetId="14" r:id="rId24"/>
-    <sheet name="WC_BMT" sheetId="13" r:id="rId25"/>
-    <sheet name="SentientHubs" sheetId="18" r:id="rId26"/>
+    <sheet name="IMOSSRS" sheetId="27" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId4"/>
+    <sheet name="THEME2.2" sheetId="24" r:id="rId5"/>
+    <sheet name="Model_TFV" sheetId="5" r:id="rId6"/>
+    <sheet name="FPA-MQMP" sheetId="25" r:id="rId7"/>
+    <sheet name="THEME5" sheetId="7" r:id="rId8"/>
+    <sheet name="THEME5MET" sheetId="19" r:id="rId9"/>
+    <sheet name="WWMSP5" sheetId="16" r:id="rId10"/>
+    <sheet name="THEME3CTD" sheetId="23" r:id="rId11"/>
+    <sheet name="WWMSP2" sheetId="20" r:id="rId12"/>
+    <sheet name="THEME2LIGHT" sheetId="21" r:id="rId13"/>
+    <sheet name="MAFRL" sheetId="8" r:id="rId14"/>
+    <sheet name="IMOSBGC" sheetId="9" r:id="rId15"/>
+    <sheet name="IMOSPROFILE" sheetId="10" r:id="rId16"/>
+    <sheet name="DWER" sheetId="2" r:id="rId17"/>
+    <sheet name="DWERMOORING" sheetId="11" r:id="rId18"/>
+    <sheet name="BOM" sheetId="3" r:id="rId19"/>
+    <sheet name="DOT" sheetId="4" r:id="rId20"/>
+    <sheet name="WWM" sheetId="22" r:id="rId21"/>
+    <sheet name="JPPLAWAC" sheetId="12" r:id="rId22"/>
+    <sheet name="UWA" sheetId="15" r:id="rId23"/>
+    <sheet name="BMTBNA" sheetId="17" r:id="rId24"/>
+    <sheet name="FPA_BMT" sheetId="14" r:id="rId25"/>
+    <sheet name="WC_BMT" sheetId="13" r:id="rId26"/>
+    <sheet name="SentientHubs" sheetId="18" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MASTER KEY'!$A$1:$L$318</definedName>
@@ -387,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4881" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="2019">
   <si>
     <t>Model Variable Conversion</t>
   </si>
@@ -6561,6 +6562,9 @@
   </si>
   <si>
     <t>picop_brewin2012in</t>
+  </si>
+  <si>
+    <t>sea_surface_temperature</t>
   </si>
 </sst>
 </file>
@@ -7307,9 +7311,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1">
@@ -7328,20 +7332,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3637D217-629A-4AA1-BFB1-326590517B91}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1254</v>
       </c>
@@ -7354,185 +7356,251 @@
       <c r="D1" s="4" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="4" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1311</v>
+        <v>1225</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>1066</v>
+      <c r="C2" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Fluorescence</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
+        <v>UCUR (eastward velocity)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1312</v>
+        <v>1226</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Light Attenuation Coefficient</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
+        <v>VCUR (northward velocity)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1313</v>
+        <v>1286</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>524</v>
+        <v>48</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1314</v>
+        <v>1284</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>780</v>
+        <v>39</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Density</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1315</v>
+        <v>762</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>367</v>
+        <v>761</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>O2 Saturation</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>SPEED_OF_SOUND</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1316</v>
+        <v>740</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>HEADING</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Pitch</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>ROLL</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>PRESSURE_SENSOR_DEPTH</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
         <v>Dissolved Oxygen</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Secchi Depth</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>Total Suspended Solids</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1321</v>
+        <v>695</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>1072</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Turbidity</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Photosynthetically Active Photon Flux</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1322</v>
+        <v>721</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>538</v>
+        <v>720</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>pH</v>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>ACCELERATIONX</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>724</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>ACCELERATIONY</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>726</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>ACCELERATIONZ</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>Depth</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>753</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>PRESSURE</v>
       </c>
     </row>
   </sheetData>
@@ -7541,15 +7609,228 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3637D217-629A-4AA1-BFB1-326590517B91}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>Fluorescence</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Light Attenuation Coefficient</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Density</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>O2 Saturation</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Secchi Depth</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>Total Suspended Solids</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>Turbidity</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>pH</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7942,17 +8223,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="38" customFormat="1">
@@ -8340,16 +8621,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10259,1162 +10540,6 @@
       </c>
       <c r="E105" t="s">
         <v>1379</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Secchi Depth</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D4" t="e">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1.2000000048E-2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Dissolved Inorganic Carbon</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D6" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Total Alkalinity</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D8" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B9">
-        <f>32/1000</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D10" t="e">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Ammonium</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D12" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Nitrate</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>Nitrite</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D16" t="e">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B17">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>Filterable Reactive Phosphate</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D18" t="e">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B19">
-        <v>2.81E-2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Reactive Silica</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D20" t="e">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>TSSorganic</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>TSSinorganic</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>Total Suspended Solids</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D24" t="e">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
-        <v>Prochlorococcus</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D26" t="e">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
-        <v>Synechococcus</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D28" t="e">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D29" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
-        <v>Picoeukaryotes</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D30" t="e">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D31" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
-        <v>Allo</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D32" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
-        <v>AlphaBetaCar</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="D33" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
-        <v>Anth</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D34" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
-        <v>Asta</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D35" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
-        <v>BetaBetaCar</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="D36" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
-        <v>BetaEpiCar</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D37" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
-        <v>Butfuco</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="D38" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
-        <v>Cantha</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D39" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
-        <v>CphlA</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
-        <v>CphlB</v>
-      </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D41" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
-        <v>CphlC1</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D42" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B962,2,FALSE)</f>
-        <v>CphlC2</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D43" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B963,2,FALSE)</f>
-        <v>CphlC3</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="D44" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B964,2,FALSE)</f>
-        <v>CphlC1C2</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D45" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B965,2,FALSE)</f>
-        <v>CphlideA</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D46" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B966,2,FALSE)</f>
-        <v>Diadchr</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D47" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B967,2,FALSE)</f>
-        <v>Diadino</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="D48" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B968,2,FALSE)</f>
-        <v>Diato</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D49" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B969,2,FALSE)</f>
-        <v>Dino</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D50" t="str">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B970,2,FALSE)</f>
-        <v>DvCphlA+CphlA</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D51" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B971,2,FALSE)</f>
-        <v>DvCphlA</v>
-      </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D52" t="str">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B972,2,FALSE)</f>
-        <v>DvCphlB+CphlB</v>
-      </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D53" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B973,2,FALSE)</f>
-        <v>DvCphlB</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D54" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B974,2,FALSE)</f>
-        <v>Echin</v>
-      </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D55" t="str">
-        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B975,2,FALSE)</f>
-        <v>Fuco</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="D56" t="str">
-        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B976,2,FALSE)</f>
-        <v>Gyro</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D57" t="str">
-        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B977,2,FALSE)</f>
-        <v>Hexfuco</v>
-      </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="D58" t="str">
-        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B978,2,FALSE)</f>
-        <v>Ketohexfuco</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D59" t="str">
-        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B979,2,FALSE)</f>
-        <v>Lut</v>
-      </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D60" t="str">
-        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B980,2,FALSE)</f>
-        <v>Lyco</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D61" t="str">
-        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B981,2,FALSE)</f>
-        <v>MgDvp</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="D62" t="str">
-        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B982,2,FALSE)</f>
-        <v>Neo</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D63" t="str">
-        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B983,2,FALSE)</f>
-        <v>Perid</v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D64" t="str">
-        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B984,2,FALSE)</f>
-        <v>PhideA</v>
-      </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="D65" t="str">
-        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B985,2,FALSE)</f>
-        <v>PhytinA</v>
-      </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D66" t="str">
-        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B986,2,FALSE)</f>
-        <v>PhytinB</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D67" t="str">
-        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B987,2,FALSE)</f>
-        <v>Pras</v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="D68" t="str">
-        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B988,2,FALSE)</f>
-        <v>PyrophideA</v>
-      </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D69" t="str">
-        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B989,2,FALSE)</f>
-        <v>PyrophytinA</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D70" t="str">
-        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B990,2,FALSE)</f>
-        <v>Viola</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="D71" t="str">
-        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B991,2,FALSE)</f>
-        <v>Zea</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D72" t="e">
-        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B992,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D73" t="e">
-        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B993,2,FALSE)</f>
-        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -11424,14 +10549,17 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11450,158 +10578,158 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1526</v>
+        <v>1455</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>752</v>
+        <v>549</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>PRESSURE</v>
+        <v>Secchi Depth</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1527</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D3" t="e">
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="str">
         <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Salinity</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1087</v>
+        <v>1456</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="C4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D4" t="e">
         <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Temperature</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D5" t="e">
+        <v>1457</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.2000000048E-2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D5" t="str">
         <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Dissolved Inorganic Carbon</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1529</v>
+        <v>1458</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="C6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D6" t="e">
         <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Salinity</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1530</v>
+        <v>1459</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D7" t="e">
+      <c r="C7" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D7" t="str">
         <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Total Alkalinity</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1531</v>
+        <v>1460</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D8" t="e">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B9">
         <f>32/1000</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
         <v>Dissolved Oxygen</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D9" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1533</v>
+        <v>1462</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="C10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D10" t="e">
         <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>Turbidity</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D11" t="e">
+        <v>1463</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="str">
         <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Ammonium</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1535</v>
+        <v>1464</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11616,22 +10744,22 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D13" t="e">
+        <v>1465</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="str">
         <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Nitrate</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1537</v>
+        <v>1466</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -11646,87 +10774,87 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D15" t="e">
+        <v>1467</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D15" t="str">
         <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Nitrite</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1539</v>
+        <v>1468</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="str">
+      <c r="C16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D16" t="e">
         <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>Chlorophyll-a</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>1540</v>
+        <v>1469</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>Filterable Reactive Phosphate</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>1357</v>
       </c>
-      <c r="D17" t="e">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+      <c r="D18" t="e">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>1542</v>
+        <v>1471</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D19" t="e">
+        <v>2.81E-2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" t="str">
         <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>Reactive Silica</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>1543</v>
+        <v>1472</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>1357</v>
       </c>
       <c r="D20" t="e">
@@ -11734,48 +10862,841 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>1544</v>
+        <v>1473</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D21" t="e">
+      <c r="C21" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D21" t="str">
         <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>TSSorganic</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>1545</v>
+        <v>1474</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>780</v>
+        <v>887</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>Density</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>TSSinorganic</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>1546</v>
+        <v>1475</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
+        <v>Total Suspended Solids</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>1357</v>
       </c>
-      <c r="D23" t="e">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
+      <c r="D24" t="e">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
+        <v>Prochlorococcus</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D26" t="e">
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
+        <v>Synechococcus</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D28" t="e">
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
+        <v>Picoeukaryotes</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D30" t="e">
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
+        <v>Allo</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
+        <v>AlphaBetaCar</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
+        <v>Anth</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
+        <v>Asta</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
+        <v>BetaBetaCar</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
+        <v>BetaEpiCar</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
+        <v>Butfuco</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
+        <v>Cantha</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
+        <v>CphlA</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
+        <v>CphlB</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
+        <v>CphlC1</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B962,2,FALSE)</f>
+        <v>CphlC2</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B963,2,FALSE)</f>
+        <v>CphlC3</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B964,2,FALSE)</f>
+        <v>CphlC1C2</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B965,2,FALSE)</f>
+        <v>CphlideA</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B966,2,FALSE)</f>
+        <v>Diadchr</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B967,2,FALSE)</f>
+        <v>Diadino</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B968,2,FALSE)</f>
+        <v>Diato</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B969,2,FALSE)</f>
+        <v>Dino</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B970,2,FALSE)</f>
+        <v>DvCphlA+CphlA</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B971,2,FALSE)</f>
+        <v>DvCphlA</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B972,2,FALSE)</f>
+        <v>DvCphlB+CphlB</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B973,2,FALSE)</f>
+        <v>DvCphlB</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B974,2,FALSE)</f>
+        <v>Echin</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B975,2,FALSE)</f>
+        <v>Fuco</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B976,2,FALSE)</f>
+        <v>Gyro</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B977,2,FALSE)</f>
+        <v>Hexfuco</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B978,2,FALSE)</f>
+        <v>Ketohexfuco</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B979,2,FALSE)</f>
+        <v>Lut</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B980,2,FALSE)</f>
+        <v>Lyco</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B981,2,FALSE)</f>
+        <v>MgDvp</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B982,2,FALSE)</f>
+        <v>Neo</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B983,2,FALSE)</f>
+        <v>Perid</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B984,2,FALSE)</f>
+        <v>PhideA</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B985,2,FALSE)</f>
+        <v>PhytinA</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B986,2,FALSE)</f>
+        <v>PhytinB</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B987,2,FALSE)</f>
+        <v>Pras</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B988,2,FALSE)</f>
+        <v>PyrophideA</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B989,2,FALSE)</f>
+        <v>PyrophytinA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B990,2,FALSE)</f>
+        <v>Viola</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B991,2,FALSE)</f>
+        <v>Zea</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D72" t="e">
+        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B992,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D73" t="e">
+        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B993,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11786,17 +11707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11814,629 +11732,334 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D2" s="1" t="str">
+        <v>752</v>
+      </c>
+      <c r="D2" t="str">
         <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Total Alkalinity</v>
+        <v>PRESSURE</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D3" s="1" t="str">
+      <c r="A3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D3" t="e">
         <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Bottom Depth</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B4" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
+      <c r="A4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="1" t="str">
+        <v>48</v>
+      </c>
+      <c r="D4" t="str">
         <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Dissolved Organic Carbon</v>
+        <v>Temperature</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B5" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="1" t="str">
+      <c r="A5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D5" t="e">
         <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Particulate Organic Carbon</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
+      <c r="A6" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D7" t="e">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B8">
+        <f>32/1000</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D9" t="e">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>Turbidity</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D11" t="e">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D12" t="e">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D13" t="e">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D14" t="e">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D15" t="e">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
         <v>Chlorophyll-a</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Chlorophyll-b</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Chlorophyll-c</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Chlorophyll Sample Volume</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Cloud Cover</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D17" t="e">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
         <v>Specific Conductivity</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Flow Status</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B13" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Dissolved Organic Nitrogen</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B14" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Nitrate</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B15" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>Total Kjeldahl Nitrogen</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B16" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>Total Nitrogen</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B17" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>Ammonium</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>O2 Saturation</v>
-      </c>
-    </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
+      <c r="A19" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D19" t="e">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B20" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
+      <c r="A20" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Total Phosphorus</v>
+        <v>1357</v>
+      </c>
+      <c r="D20" t="e">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>pH</v>
+      <c r="A21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D21" t="e">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="A22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>Phaeophytin-a</v>
+        <v>780</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
+        <v>Density</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B23" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>Filterable Reactive Phosphate</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
-        <v>Secchi Depth</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B26" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
-        <v>Reactive Silica</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
-        <v>Total Suspended Solids</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
-        <v>Tide Status</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
-        <v>Turbidity</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
-        <v>Wind Direction</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B32" s="1">
-        <f>0.51</f>
-        <v>0.51</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
-        <v>Wind Speed</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
-        <v>Discharge (max)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
-        <v>Discharge</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
-        <v>Discharge (min)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
-        <v>Daily Discharge</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
-        <v>Stage Height CTF (max)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
-        <v>Stage Height CTF</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
-        <v>Stage Height CTF (min)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
-        <v>Stage Height (max)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
-        <v>Stage Height</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
-        <v>Stage Height (min)</v>
+      <c r="A23" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D23" t="e">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -12446,18 +12069,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>1254</v>
       </c>
@@ -12470,344 +12095,631 @@
       <c r="D1" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Air Temperature</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>Total Alkalinity</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>684</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>Bottom Depth</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B4" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Turbidity</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>Dissolved Organic Carbon</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="41" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B5" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Particulate Organic Carbon</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Chlorophyll-a</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>Chlorophyll-b</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Chlorophyll-c</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>Chlorophyll Sample Volume</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Cloud Cover</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Flow Status</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B13" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>Dissolved Organic Nitrogen</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B14" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>Nitrate</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B15" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>Total Kjeldahl Nitrogen</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B16" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
+        <v>Total Nitrogen</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B17" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
+        <v>Ammonium</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>O2 Saturation</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B20" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
+        <v>Total Phosphorus</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
+        <v>pH</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
+        <v>Phaeophytin-a</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B23" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
+        <v>Filterable Reactive Phosphate</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
         <v>Salinity</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>O2 Saturation</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>pH</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Depth</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>Tilt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 410µW)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 440µW)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 490µW)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 510µW)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 550µW)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 590µW)</v>
-      </c>
-      <c r="J16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 635µW)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 660µW)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 700µW)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>Photosynthetically Active Photon Flux</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>O2 Saturation</v>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
+        <v>Secchi Depth</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B26" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
+        <v>Reactive Silica</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
+        <v>Total Suspended Solids</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
+        <v>Tide Status</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
+        <v>Turbidity</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
+        <v>Wind Direction</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B32" s="1">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
+        <v>Wind Speed</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
+        <v>Discharge (max)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
+        <v>Discharge</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
+        <v>Discharge (min)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
+        <v>Daily Discharge</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
+        <v>Stage Height CTF (max)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
+        <v>Stage Height CTF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
+        <v>Stage Height CTF (min)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
+        <v>Stage Height (max)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
+        <v>Stage Height</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
+        <v>Stage Height (min)</v>
       </c>
     </row>
   </sheetData>
@@ -12817,21 +12729,18 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>1254</v>
       </c>
@@ -12844,525 +12753,344 @@
       <c r="D1" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B2" s="1">
-        <f>1/1000</f>
-        <v>1E-3</v>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Precipitation</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B3" s="1">
+        <v>Air Temperature</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>596</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Air Temperature</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B4" s="1">
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>600</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Wet Bulb Air Temperature</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B5" s="1">
+        <v>Turbidity</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>604</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Dew Point Temperature</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B6" s="1">
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>607</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Relative Humidity</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B7" s="1">
-        <f>1/3.6</f>
-        <v>0.27777777777777779</v>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>505</v>
+        <v>367</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Wind Speed</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B8" s="1">
+        <v>O2 Saturation</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Wind Direction</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B9" s="1">
-        <f>1/3.6</f>
-        <v>0.27777777777777779</v>
+        <v>pH</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>611</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Wind Speed (max)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B10" s="1">
+        <v>Depth</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>Cloud Amount of First Group in Eighths</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B11" s="1">
+        <v>Tilt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Cloud Height of First Group</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B12" s="1">
+        <v>Spectral Radiative Flux (WL - 410µW)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Cloud Amount of Second Group in Eighths</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B13" s="1">
+        <v>Spectral Radiative Flux (WL - 440µW)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Cloud Height of Second Group</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B14" s="1">
+        <v>Spectral Radiative Flux (WL - 490µW)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>Cloud Amount of Third Group in Eighths</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B15" s="1">
+        <v>Spectral Radiative Flux (WL - 510µW)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>Cloud Height of Third Group</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B16" s="1">
+        <v>Spectral Radiative Flux (WL - 550µW)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>Cloud Amount of Fourth Group in Eighths</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B17" s="1">
+        <v>Spectral Radiative Flux (WL - 590µW)</v>
+      </c>
+      <c r="J16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>Cloud Height of Fourth Group</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B18" s="1">
+        <v>Spectral Radiative Flux (WL - 635µW)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>Ceilometer Cloud Amount of First Group</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B19" s="1">
+        <v>Spectral Radiative Flux (WL - 660µW)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Ceilometer Cloud Height of First Group</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B20" s="1">
+        <v>Spectral Radiative Flux (WL - 700µW)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>647</v>
+        <v>1072</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>Ceilometer Cloud Amount of Second Group</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B21" s="1">
+        <v>Photosynthetically Active Photon Flux</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>650</v>
+        <v>1076</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>Ceilometer Cloud Height of Second Group</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B22" s="1">
+        <v>Surface Photosynthetically Active Photon Flux</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>653</v>
+        <v>524</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>Ceilometer Cloud Amount of Third Group</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B23" s="1">
+        <v>Specific Conductivity</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>656</v>
+        <v>367</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>Ceilometer Cloud Height of Third Group</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
-        <v>Ceilometer Sky Clear Flag</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
-        <v>Horizontal Visibility</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
-        <v>AWS Visibility</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
-        <v>Present Weather in Code</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D28" s="1" t="e">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
-        <v>Station Level Pressure</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
-        <v>Water Surface Height</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" t="s">
-        <v>597</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
-        <v>Air Temperature</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
-        <v>Station Level Pressure</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" t="s">
-        <v>497</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
-        <v>Wind Direction</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" t="s">
-        <v>506</v>
-      </c>
-      <c r="B35" s="1">
-        <f>1/3.6</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
-        <v>Wind Speed</v>
+        <v>O2 Saturation</v>
       </c>
     </row>
   </sheetData>
@@ -13372,20 +13100,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>1254</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -13397,366 +13127,530 @@
       <c r="D1" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1353</v>
+      <c r="E1" s="1" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
-        <v>1619</v>
+      <c r="A2" s="1" t="s">
+        <v>1587</v>
       </c>
       <c r="B2" s="1">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>688</v>
+        <v>591</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Water Surface Height</v>
+        <v>Precipitation</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B3">
-        <v>0.01</v>
+      <c r="A3" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>688</v>
+        <v>596</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Water Surface Height</v>
+        <v>Air Temperature</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>904</v>
+        <v>600</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Significant Wave Height</v>
+        <v>Wet Bulb Air Temperature</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>929</v>
+        <v>604</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Peak Wave Period</v>
+        <v>Dew Point Temperature</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>924</v>
+        <v>607</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Mean Wave Period</v>
+        <v>Relative Humidity</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="A7" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B7" s="1">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>945</v>
+        <v>505</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Peak Wave Direction</v>
+        <v>Wind Speed</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>924</v>
+        <v>496</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Mean Wave Period</v>
+        <v>Wind Direction</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B9" s="1">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>611</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Depth</v>
+        <v>Wind Speed (max)</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B10">
-        <v>1E-3</v>
+      <c r="A10" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>957</v>
+        <v>615</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>Current Velocity</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1358</v>
+        <v>Cloud Amount of First Group in Eighths</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>961</v>
+        <v>619</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Current Direction</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1358</v>
+        <v>Cloud Height of First Group</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B12">
-        <v>1E-3</v>
+      <c r="A12" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>957</v>
+        <v>623</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Current Velocity</v>
+        <v>Cloud Amount of Second Group in Eighths</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>961</v>
+        <v>626</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Current Direction</v>
+        <v>Cloud Height of Second Group</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>739</v>
+        <v>629</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>HEADING</v>
+        <v>Cloud Amount of Third Group in Eighths</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>751</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>750</v>
+        <v>632</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>Pitch</v>
+        <v>Cloud Height of Third Group</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>758</v>
+        <v>635</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>ROLL</v>
+        <v>Cloud Amount of Fourth Group in Eighths</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
+      <c r="A17" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>Temperature</v>
+        <v>Cloud Height of Fourth Group</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>688</v>
+      <c r="A18" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>Water Surface Height</v>
+        <v>Ceilometer Cloud Amount of First Group</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>945</v>
+        <v>644</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Peak Wave Direction</v>
+        <v>Ceilometer Cloud Height of First Group</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>953</v>
+        <v>647</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>Mean Wave Direction</v>
+        <v>Ceilometer Cloud Amount of Second Group</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>916</v>
+      <c r="A21" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>Maximum Wave Height</v>
+        <v>Ceilometer Cloud Height of Second Group</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>941</v>
+      <c r="A22" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>Maximum Wave Period</v>
+        <v>Ceilometer Cloud Amount of Third Group</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>945</v>
+        <v>656</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>Peak Wave Direction</v>
+        <v>Ceilometer Cloud Height of Third Group</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>941</v>
+      <c r="A24" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
-        <v>Maximum Wave Period</v>
+        <v>Ceilometer Sky Clear Flag</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
+        <v>Horizontal Visibility</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
+        <v>AWS Visibility</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
+        <v>Present Weather in Code</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D28" s="1" t="e">
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
+        <v>Station Level Pressure</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.4">
+      <c r="A30" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
+        <v>Water Surface Height</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.4">
+      <c r="A31" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.4">
+      <c r="A32" t="s">
+        <v>597</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
+        <v>Air Temperature</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.4">
+      <c r="A33" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
+        <v>Station Level Pressure</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.4">
+      <c r="A34" t="s">
+        <v>497</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
+        <v>Wind Direction</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.4">
+      <c r="A35" t="s">
+        <v>506</v>
+      </c>
+      <c r="B35" s="1">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
+        <v>Wind Speed</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13765,28 +13659,28 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I299" workbookViewId="0">
-      <selection activeCell="L345" sqref="L345"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="32" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="24.9" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
@@ -21062,7 +20956,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="15">
+    <row r="315" spans="1:11" ht="14.4">
       <c r="A315" s="23" t="s">
         <v>1899</v>
       </c>
@@ -21079,7 +20973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="15">
+    <row r="316" spans="1:11" ht="14.4">
       <c r="A316" s="23" t="s">
         <v>1900</v>
       </c>
@@ -21096,7 +20990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="15">
+    <row r="317" spans="1:11" ht="14.4">
       <c r="A317" s="23" t="s">
         <v>1901</v>
       </c>
@@ -21116,7 +21010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="15">
+    <row r="318" spans="1:11" ht="14.4">
       <c r="A318" s="23" t="s">
         <v>1906</v>
       </c>
@@ -21735,7 +21629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="15">
+    <row r="342" spans="1:11" ht="14.4">
       <c r="A342" s="1" t="s">
         <v>1972</v>
       </c>
@@ -21758,9 +21652,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="15">
+    <row r="343" spans="1:11" ht="14.4">
       <c r="A343" s="1" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B343" t="s">
         <v>2013</v>
@@ -21786,7 +21680,7 @@
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="1" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>2016</v>
@@ -21829,12 +21723,401 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B2" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>Water Surface Height</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Water Surface Height</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>Significant Wave Height</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Peak Wave Period</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>Mean Wave Period</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Peak Wave Direction</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>Mean Wave Period</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Depth</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>Current Velocity</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Current Direction</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B12">
+        <v>1E-3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>Current Velocity</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>Current Direction</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>HEADING</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>751</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
+        <v>Pitch</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
+        <v>ROLL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
+        <v>Water Surface Height</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
+        <v>Peak Wave Direction</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
+        <v>Mean Wave Direction</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
+        <v>Maximum Wave Height</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
+        <v>Maximum Wave Period</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
+        <v>Peak Wave Direction</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
+        <v>Maximum Wave Period</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -21934,16 +22217,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22235,16 +22518,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -22454,176 +22737,6 @@
       </c>
       <c r="E16" s="21" t="s">
         <v>1659</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
-        <v>Mean Wave Direction</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
-        <v>Mean Wave Period</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
-        <v>Peak Wave Period</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>904</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Significant Wave Height</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Water Surface Height</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Peak Wave Period</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Mean Wave Period</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="14" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Peak Wave Direction</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25">
-      <c r="A10" s="15" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Mean Wave Direction</v>
       </c>
     </row>
   </sheetData>
@@ -22633,14 +22746,184 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
+        <v>Mean Wave Direction</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
+        <v>Mean Wave Period</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
+        <v>Peak Wave Period</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>Significant Wave Height</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Water Surface Height</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>Peak Wave Period</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Mean Wave Period</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.2">
+      <c r="A9" s="14" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>Peak Wave Direction</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2">
+      <c r="A10" s="15" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Mean Wave Direction</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -22774,13 +23057,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -22891,13 +23174,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A236"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
   </cols>
@@ -24088,27 +24371,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB4357-6A4B-4352-9737-64F350A1C780}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Posidonia Sinuosa Dry Weight</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1717C2A9-8149-445A-A1E0-3B3FD9DD8BC7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0CBB6E-1B94-4464-948D-3552DECBF22E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24175,22 +24521,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304:XFD304"/>
+      <selection activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -31097,7 +31443,7 @@
       </c>
       <c r="B306" t="str">
         <f>VLOOKUP(A306,'MASTER KEY'!$A$2:$B1275,2,FALSE)</f>
-        <v>Picoplankton Fraction</v>
+        <v>Posidonia Sinuosa Dry Weight</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2014</v>
@@ -31109,6 +31455,27 @@
         <v>2014</v>
       </c>
       <c r="F306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B307" t="str">
+        <f>VLOOKUP(A307,'MASTER KEY'!$A$2:$B1276,2,FALSE)</f>
+        <v>Picoplankton Fraction</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F307">
         <v>1</v>
       </c>
     </row>
@@ -31120,7 +31487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251C655-34FA-4798-9E2C-CA9857328A3C}">
   <dimension ref="A1:I36"/>
   <sheetViews>
@@ -31128,12 +31495,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -32144,7 +32511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
@@ -32152,10 +32519,10 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -33012,334 +33379,6 @@
       <c r="D54" s="1" t="str">
         <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B974,2,FALSE)</f>
         <v>WCUR</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Wind Speed</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Wind Direction</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>968</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Wind Direction (std)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Wind Speed (max)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>965</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Wind Speed (min)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Station Level Pressure</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>971</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Station Level Pressure (max)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>974</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Station Level Pressure (min)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>Station Level Pressure (std)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>980</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Surface Solar Irradiance</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>986</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Surface Solar Irradiance (max)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>983</v>
-      </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Surface Solar Irradiance (min)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>989</v>
-      </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>Surface Solar Irradiance (std)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>992</v>
-      </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux (max)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>995</v>
-      </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux (min)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>998</v>
-      </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux (std)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B19">
-        <f>4*24</f>
-        <v>96</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Daily Solar Irradiance</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B20">
-        <f>4*24</f>
-        <v>96</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>Daily Surface Photosynthetically Active Photon Flux</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1307</v>
       </c>
     </row>
   </sheetData>
@@ -33349,15 +33388,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -33379,249 +33418,300 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1225</v>
+        <v>1289</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>764</v>
+        <v>505</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
-        <v>UCUR (eastward velocity)</v>
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>Wind Speed</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1226</v>
+        <v>1290</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>770</v>
+        <v>496</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
-        <v>VCUR (northward velocity)</v>
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Wind Direction</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
+      <c r="C4" s="23" t="s">
+        <v>968</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
-        <v>Temperature</v>
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>Wind Direction (std)</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>611</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Salinity</v>
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Wind Speed (max)</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>1293</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>761</v>
+      <c r="C6" s="23" t="s">
+        <v>965</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>SPEED_OF_SOUND</v>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>Wind Speed (min)</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>1294</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>739</v>
+        <v>674</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>HEADING</v>
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Station Level Pressure</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1224</v>
+        <v>1295</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>750</v>
+      <c r="C8" s="23" t="s">
+        <v>971</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Pitch</v>
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>Station Level Pressure (max)</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>759</v>
+        <v>1296</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>758</v>
+      <c r="C9" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>ROLL</v>
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Station Level Pressure (min)</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>756</v>
+        <v>1297</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>755</v>
+      <c r="C10" s="23" t="s">
+        <v>977</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>PRESSURE_SENSOR_DEPTH</v>
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>Station Level Pressure (std)</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1283</v>
+        <v>1298</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>132</v>
+      <c r="C11" s="23" t="s">
+        <v>980</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Surface Solar Irradiance</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>695</v>
+        <v>1299</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>1072</v>
+      <c r="C12" s="23" t="s">
+        <v>986</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Photosynthetically Active Photon Flux</v>
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>Surface Solar Irradiance (max)</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>721</v>
+        <v>1300</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>720</v>
+      <c r="C13" s="23" t="s">
+        <v>983</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>ACCELERATIONX</v>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>Surface Solar Irradiance (min)</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>724</v>
+        <v>1301</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>723</v>
+      <c r="C14" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>ACCELERATIONY</v>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>Surface Solar Irradiance (std)</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>726</v>
+        <v>1302</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>725</v>
+        <v>1076</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>ACCELERATIONZ</v>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
+        <v>Surface Photosynthetically Active Photon Flux</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
+      <c r="C16" s="23" t="s">
+        <v>992</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Depth</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
+        <v>Surface Photosynthetically Active Photon Flux (max)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>753</v>
+        <v>1304</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>752</v>
+      <c r="C17" s="23" t="s">
+        <v>995</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>PRESSURE</v>
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>Surface Photosynthetically Active Photon Flux (min)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>998</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
+        <v>Surface Photosynthetically Active Photon Flux (std)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B19">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
+        <v>Daily Solar Irradiance</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B20">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
+        <v>Daily Surface Photosynthetically Active Photon Flux</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\AppData\Local\Temp\scp18756\GIS_DATA\csiem-data-hub\git\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038A0A39-1C09-4433-8FEE-08626439F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84897D77-D540-4F03-BD23-4F8A3DB23D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="2036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="2052">
   <si>
     <t>//</t>
   </si>
@@ -6296,6 +6296,54 @@
   </si>
   <si>
     <t>Spectral Radiative Flux (WL - 700W)</t>
+  </si>
+  <si>
+    <t>Part. sz (W'worth) - Clay &lt;4um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W'worth) - Silt v fine silt &gt;4 - &lt;8um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W''worth) - Silt fine silt &gt;8 - &lt;16um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W''worth) - Silt medium &gt;16 - &lt;31um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W''worth) - Silt coarse &gt;31 - &lt;63um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W''worth) - Silt  &gt;4 - &lt;63um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W'worth) - Sand v fine &gt;63 - &lt;=125um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W'worth) - Sand fine &gt;125 - &lt;=250um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W'worth) - Sand med &gt;250 - &lt;=500um (%)</t>
+  </si>
+  <si>
+    <t>Part. sz (W'worth) - Sand coarse &gt;500um-&lt;=1mm (%)</t>
+  </si>
+  <si>
+    <t>var00364</t>
+  </si>
+  <si>
+    <t>Part. sz (W'worth) - Sand v coarse &gt;1 - &lt;=2mm (%)</t>
+  </si>
+  <si>
+    <t>var00365</t>
+  </si>
+  <si>
+    <t>Part. sz (W''worth) - Sand &gt;63 - &lt;2000um (%)</t>
+  </si>
+  <si>
+    <t>var00366</t>
+  </si>
+  <si>
+    <t>Part. sz (W'worth) - Gravel &gt;2mm (%)</t>
   </si>
 </sst>
 </file>
@@ -13409,10 +13457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L344"/>
+  <dimension ref="A1:L357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21453,6 +21501,305 @@
       </c>
       <c r="K344" s="2" t="s">
         <v>1459</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="A345" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E345" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H345" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K345" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
+      <c r="A346" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H346" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K346" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="A347" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H347" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K347" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
+      <c r="A348" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H348" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K348" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="A349" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E349" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H349" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K349" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="A350" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E350" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H350" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K350" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="A351" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H351" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K351" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
+      <c r="A352" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H352" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K352" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
+      <c r="A353" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H353" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K353" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
+      <c r="A354" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H354" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K354" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
+      <c r="A355" s="6" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H355" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K355" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11">
+      <c r="A356" s="6" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E356" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H356" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K356" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
+      <c r="A357" s="6" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H357" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K357" s="6" t="s">
+        <v>1318</v>
       </c>
     </row>
   </sheetData>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\Downloads\Wednesday excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\Downloads\8_4_24Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD00053A-C0ED-4A3C-96D1-60A69CB80D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF146D48-23CE-4A4C-87D0-5D86E447F4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,25 @@
     <sheet name="WWMSP5" sheetId="10" r:id="rId10"/>
     <sheet name="WWMSP3SGREST" sheetId="29" r:id="rId11"/>
     <sheet name="WWMSP5Waves" sheetId="30" r:id="rId12"/>
-    <sheet name="WWMSP3SEDPSD" sheetId="28" r:id="rId13"/>
-    <sheet name="THEME3CTD" sheetId="11" r:id="rId14"/>
-    <sheet name="WWMSP2" sheetId="12" r:id="rId15"/>
-    <sheet name="THEME2LIGHT" sheetId="13" r:id="rId16"/>
-    <sheet name="MAFRL" sheetId="14" r:id="rId17"/>
-    <sheet name="IMOSBGC" sheetId="15" r:id="rId18"/>
-    <sheet name="IMOSPROFILE" sheetId="16" r:id="rId19"/>
-    <sheet name="DWER" sheetId="17" r:id="rId20"/>
-    <sheet name="DWERMOORING" sheetId="18" r:id="rId21"/>
-    <sheet name="BOM" sheetId="19" r:id="rId22"/>
-    <sheet name="DOT" sheetId="20" r:id="rId23"/>
-    <sheet name="WWM" sheetId="21" r:id="rId24"/>
-    <sheet name="JPPLAWAC" sheetId="22" r:id="rId25"/>
-    <sheet name="UWA" sheetId="23" r:id="rId26"/>
-    <sheet name="BMTBNA" sheetId="24" r:id="rId27"/>
-    <sheet name="FPA_BMT" sheetId="25" r:id="rId28"/>
-    <sheet name="WC_BMT" sheetId="26" r:id="rId29"/>
-    <sheet name="SentientHubs" sheetId="27" r:id="rId30"/>
+    <sheet name="BMT-SWAN" sheetId="31" r:id="rId13"/>
+    <sheet name="WWMSP3SEDPSD" sheetId="28" r:id="rId14"/>
+    <sheet name="THEME3CTD" sheetId="11" r:id="rId15"/>
+    <sheet name="WWMSP2" sheetId="12" r:id="rId16"/>
+    <sheet name="THEME2LIGHT" sheetId="13" r:id="rId17"/>
+    <sheet name="MAFRL" sheetId="14" r:id="rId18"/>
+    <sheet name="IMOSBGC" sheetId="15" r:id="rId19"/>
+    <sheet name="IMOSPROFILE" sheetId="16" r:id="rId20"/>
+    <sheet name="DWER" sheetId="17" r:id="rId21"/>
+    <sheet name="DWERMOORING" sheetId="18" r:id="rId22"/>
+    <sheet name="BOM" sheetId="19" r:id="rId23"/>
+    <sheet name="DOT" sheetId="20" r:id="rId24"/>
+    <sheet name="WWM" sheetId="21" r:id="rId25"/>
+    <sheet name="JPPLAWAC" sheetId="22" r:id="rId26"/>
+    <sheet name="UWA" sheetId="23" r:id="rId27"/>
+    <sheet name="BMTBNA" sheetId="24" r:id="rId28"/>
+    <sheet name="FPA_BMT" sheetId="25" r:id="rId29"/>
+    <sheet name="WC_BMT" sheetId="26" r:id="rId30"/>
+    <sheet name="SentientHubs" sheetId="27" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'MASTER KEY'!$A$1:$L$319</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5102" uniqueCount="2062">
   <si>
     <t>//</t>
   </si>
@@ -6371,6 +6372,12 @@
   </si>
   <si>
     <t>COMEBACK TO</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>TPER</t>
   </si>
 </sst>
 </file>
@@ -7643,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2CA83D-4699-4CCB-99EF-A91382D8DEB3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7717,6 +7724,83 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F35DC7-0D53-4798-9745-A37E709CB4BD}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B1219,2,TRUE)</f>
+        <v>Peak Wave Direction</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B1219,2,TRUE)</f>
+        <v>Significant Wave Height</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B1219,2,TRUE)</f>
+        <v>Peak Wave Period</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E23F14F-096E-466F-8721-D24D64E4AB52}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -7963,7 +8047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8179,7 +8263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8586,7 +8670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8989,7 +9073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -10921,7 +11005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -12074,372 +12158,6 @@
       </c>
       <c r="D73" t="e">
         <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B994,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>PRESSURE</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="e">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D5" t="e">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" t="e">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B8" s="14">
-        <f>32/1000</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Turbidity</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" t="e">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>512</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>513</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" t="e">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>514</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A15" t="s">
-        <v>515</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" t="e">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>516</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>Chlorophyll-a</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>517</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" t="e">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>519</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" t="e">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>520</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="e">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>521</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D21" t="e">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>522</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>Density</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>524</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" t="e">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -20885,6 +20603,372 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>PRESSURE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" t="e">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" t="e">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" t="e">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="14">
+        <f>32/1000</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" t="e">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Turbidity</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" t="e">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" t="e">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" t="e">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" t="e">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" t="e">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>Chlorophyll-a</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>517</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" t="e">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" t="e">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D20" t="e">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" t="e">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>522</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
+        <v>Density</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" t="e">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -21546,7 +21630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -21924,7 +22008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22483,7 +22567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22875,7 +22959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22989,7 +23073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23295,7 +23379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23527,7 +23611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23702,7 +23786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23842,132 +23926,6 @@
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Current Velocity</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
-        <v>Water Surface Height</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
-        <v>Current Velocity (x component)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Current Velocity (y component)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
         <v>Current Velocity</v>
       </c>
     </row>
@@ -24043,6 +24001,132 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
+        <v>Water Surface Height</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
+        <v>Current Velocity (x component)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>Current Velocity (y component)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Current Velocity</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\Downloads\19-04-2024 WAMSI WORK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\Downloads\22_04_2024 wamsi work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570A11EC-C3D1-4DD7-8273-61340CC4ADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB23D8-FBF6-4BAC-917E-8CF0046B1061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2772" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="2094">
   <si>
     <t>//</t>
   </si>
@@ -6456,6 +6456,24 @@
   </si>
   <si>
     <t>maximum cloud cover</t>
+  </si>
+  <si>
+    <t>var00383</t>
+  </si>
+  <si>
+    <t>Precipitation Rate</t>
+  </si>
+  <si>
+    <t>precipitation_rate</t>
+  </si>
+  <si>
+    <t>var00384</t>
+  </si>
+  <si>
+    <t>Air Pressure</t>
+  </si>
+  <si>
+    <t>RAINNCRATE</t>
   </si>
 </sst>
 </file>
@@ -6601,7 +6619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6661,6 +6679,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6748,7 +6772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6916,7 +6940,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12293,11 +12321,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L367"/>
+  <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A369" sqref="A369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20902,39 +20930,39 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A366" s="55" t="s">
+    <row r="366" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="59" t="s">
         <v>2078</v>
       </c>
-      <c r="B366" s="59" t="s">
+      <c r="B366" s="60" t="s">
         <v>2087</v>
       </c>
-      <c r="C366" s="55" t="s">
+      <c r="C366" s="59" t="s">
         <v>1104</v>
       </c>
-      <c r="D366" s="55" t="s">
+      <c r="D366" s="59" t="s">
         <v>1104</v>
       </c>
-      <c r="E366" s="55" t="s">
+      <c r="E366" s="59" t="s">
         <v>2053</v>
       </c>
-      <c r="F366" s="55" t="s">
+      <c r="F366" s="59" t="s">
         <v>2053</v>
       </c>
-      <c r="G366" s="55" t="s">
+      <c r="G366" s="59" t="s">
         <v>2053</v>
       </c>
-      <c r="H366" s="55" t="s">
+      <c r="H366" s="59" t="s">
         <v>2053</v>
       </c>
-      <c r="I366" s="55" t="s">
+      <c r="I366" s="59" t="s">
         <v>2053</v>
       </c>
-      <c r="J366" s="55"/>
-      <c r="K366" s="55" t="s">
+      <c r="J366" s="59"/>
+      <c r="K366" s="59" t="s">
         <v>2053</v>
       </c>
-      <c r="L366" s="55" t="s">
+      <c r="L366" s="59" t="s">
         <v>2053</v>
       </c>
     </row>
@@ -20972,6 +21000,55 @@
       </c>
       <c r="L367" s="55" t="s">
         <v>2053</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C368" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I368" s="44" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K368" s="2" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E369" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F369" s="6" t="s">
+        <v>1850</v>
       </c>
     </row>
   </sheetData>
@@ -25708,14 +25785,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25741,15 +25819,14 @@
         <v>2056</v>
       </c>
       <c r="B2">
-        <f>1/100</f>
-        <v>0.01</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>382</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2091</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B1221,2,TRUE)</f>
-        <v>Station Level Pressure</v>
+        <v>Air Pressure</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -25787,7 +25864,8 @@
         <v>2059</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <f>1/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>330</v>
@@ -25799,186 +25877,202 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>333</v>
+        <v>2088</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B1225,2,TRUE)</f>
-        <v>Air Temperature</v>
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B1224,2,TRUE)</f>
+        <v>Precipitation Rate</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B1225,2,TRUE)</f>
+        <v>Air Temperature</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>2061</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>2072</v>
       </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B1226,2,TRUE)</f>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B1226,2,TRUE)</f>
         <v>Specific humidity at 2m height</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
         <v>2062</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>2073</v>
       </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B1227,2,TRUE)</f>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B1227,2,TRUE)</f>
         <v>Sensible heat flux</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>2063</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B1228,2,TRUE)</f>
-        <v xml:space="preserve">Latent heat flux </v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B1228,2,TRUE)</f>
+        <v xml:space="preserve">Latent heat flux </v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>2064</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>2075</v>
       </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B1229,2,TRUE)</f>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B1229,2,TRUE)</f>
         <v>sea surface temperature</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>2065</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B1230,2,TRUE)</f>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B1230,2,TRUE)</f>
         <v>Relative Humidity</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B1231,2,TRUE)</f>
-        <v>eastern wind speed at 10 m height</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B1232,2,TRUE)</f>
-        <v>northern wind speed at 10 m height</v>
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B1231,2,TRUE)</f>
+        <v>eastern wind speed at 10 m height</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>268</v>
+      <c r="C14" s="6" t="s">
+        <v>2077</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B1233,2,TRUE)</f>
-        <v>Wind Speed</v>
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B1232,2,TRUE)</f>
+        <v>northern wind speed at 10 m height</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B1234,2,TRUE)</f>
-        <v>Wind Direction</v>
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B1233,2,TRUE)</f>
+        <v>Wind Speed</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>2078</v>
+      <c r="C16" s="58" t="s">
+        <v>270</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B1235,2,TRUE)</f>
-        <v>maximum cloud cover</v>
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B1234,2,TRUE)</f>
+        <v>Wind Direction</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B1235,2,TRUE)</f>
+        <v>Cloud Cover</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>2071</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>2079</v>
       </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B1236,2,TRUE)</f>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B1236,2,TRUE)</f>
         <v>RAINV</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\Downloads\22_04_2024 wamsi work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB23D8-FBF6-4BAC-917E-8CF0046B1061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786E5F0-CC3F-46BF-B84B-C5E67F045F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,34 +16,35 @@
     <sheet name="Information" sheetId="1" r:id="rId1"/>
     <sheet name="MASTER KEY" sheetId="2" r:id="rId2"/>
     <sheet name="IMOSSRS" sheetId="3" r:id="rId3"/>
-    <sheet name="WWMSP1.1-WRF" sheetId="4" r:id="rId4"/>
-    <sheet name="THEME2.2" sheetId="5" r:id="rId5"/>
-    <sheet name="Model_TFV" sheetId="6" r:id="rId6"/>
-    <sheet name="FPA-MQMP" sheetId="7" r:id="rId7"/>
-    <sheet name="THEME5" sheetId="8" r:id="rId8"/>
-    <sheet name="THEME5MET" sheetId="9" r:id="rId9"/>
-    <sheet name="WWMSP5" sheetId="10" r:id="rId10"/>
-    <sheet name="WWMSP3SGREST" sheetId="29" r:id="rId11"/>
-    <sheet name="WWMSP5Waves" sheetId="30" r:id="rId12"/>
-    <sheet name="BMT-SWAN" sheetId="31" r:id="rId13"/>
-    <sheet name="WWMSP3SEDPSD" sheetId="28" r:id="rId14"/>
-    <sheet name="THEME3CTD" sheetId="11" r:id="rId15"/>
-    <sheet name="WWMSP2" sheetId="12" r:id="rId16"/>
-    <sheet name="THEME2LIGHT" sheetId="13" r:id="rId17"/>
-    <sheet name="MAFRL" sheetId="14" r:id="rId18"/>
-    <sheet name="IMOSBGC" sheetId="15" r:id="rId19"/>
-    <sheet name="IMOSPROFILE" sheetId="16" r:id="rId20"/>
-    <sheet name="DWER" sheetId="17" r:id="rId21"/>
-    <sheet name="DWERMOORING" sheetId="18" r:id="rId22"/>
-    <sheet name="BOM" sheetId="19" r:id="rId23"/>
-    <sheet name="DOT" sheetId="20" r:id="rId24"/>
-    <sheet name="WWM" sheetId="21" r:id="rId25"/>
-    <sheet name="JPPLAWAC" sheetId="22" r:id="rId26"/>
-    <sheet name="UWA" sheetId="23" r:id="rId27"/>
-    <sheet name="BMTBNA" sheetId="24" r:id="rId28"/>
-    <sheet name="FPA_BMT" sheetId="25" r:id="rId29"/>
-    <sheet name="WC_BMT" sheetId="26" r:id="rId30"/>
-    <sheet name="SentientHubs" sheetId="27" r:id="rId31"/>
+    <sheet name="BOM-BARRA" sheetId="32" r:id="rId4"/>
+    <sheet name="WWMSP1.1-WRF" sheetId="4" r:id="rId5"/>
+    <sheet name="THEME2.2" sheetId="5" r:id="rId6"/>
+    <sheet name="Model_TFV" sheetId="6" r:id="rId7"/>
+    <sheet name="FPA-MQMP" sheetId="7" r:id="rId8"/>
+    <sheet name="THEME5" sheetId="8" r:id="rId9"/>
+    <sheet name="THEME5MET" sheetId="9" r:id="rId10"/>
+    <sheet name="WWMSP5" sheetId="10" r:id="rId11"/>
+    <sheet name="WWMSP3SGREST" sheetId="29" r:id="rId12"/>
+    <sheet name="WWMSP5Waves" sheetId="30" r:id="rId13"/>
+    <sheet name="BMT-SWAN" sheetId="31" r:id="rId14"/>
+    <sheet name="WWMSP3SEDPSD" sheetId="28" r:id="rId15"/>
+    <sheet name="THEME3CTD" sheetId="11" r:id="rId16"/>
+    <sheet name="WWMSP2" sheetId="12" r:id="rId17"/>
+    <sheet name="THEME2LIGHT" sheetId="13" r:id="rId18"/>
+    <sheet name="MAFRL" sheetId="14" r:id="rId19"/>
+    <sheet name="IMOSBGC" sheetId="15" r:id="rId20"/>
+    <sheet name="IMOSPROFILE" sheetId="16" r:id="rId21"/>
+    <sheet name="DWER" sheetId="17" r:id="rId22"/>
+    <sheet name="DWERMOORING" sheetId="18" r:id="rId23"/>
+    <sheet name="BOM" sheetId="19" r:id="rId24"/>
+    <sheet name="DOT" sheetId="20" r:id="rId25"/>
+    <sheet name="WWM" sheetId="21" r:id="rId26"/>
+    <sheet name="JPPLAWAC" sheetId="22" r:id="rId27"/>
+    <sheet name="UWA" sheetId="23" r:id="rId28"/>
+    <sheet name="BMTBNA" sheetId="24" r:id="rId29"/>
+    <sheet name="FPA_BMT" sheetId="25" r:id="rId30"/>
+    <sheet name="WC_BMT" sheetId="26" r:id="rId31"/>
+    <sheet name="SentientHubs" sheetId="27" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'MASTER KEY'!$A$1:$L$319</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="2094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="2105">
   <si>
     <t>//</t>
   </si>
@@ -6474,6 +6475,39 @@
   </si>
   <si>
     <t>RAINNCRATE</t>
+  </si>
+  <si>
+    <t>uwnd10m</t>
+  </si>
+  <si>
+    <t>vwnd10m</t>
+  </si>
+  <si>
+    <t>mslp</t>
+  </si>
+  <si>
+    <t>lwsfcdown</t>
+  </si>
+  <si>
+    <t>swsfcdown</t>
+  </si>
+  <si>
+    <t>temp_scrn</t>
+  </si>
+  <si>
+    <t>precip_rate</t>
+  </si>
+  <si>
+    <t>relhum</t>
+  </si>
+  <si>
+    <t>var00385</t>
+  </si>
+  <si>
+    <t>var00386</t>
+  </si>
+  <si>
+    <t>var00387</t>
   </si>
 </sst>
 </file>
@@ -6619,7 +6653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6685,6 +6719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6772,7 +6812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6945,6 +6985,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7279,6 +7320,341 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
+        <v>Wind Speed</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
+        <v>Wind Direction</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
+        <v>Wind Direction (std)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
+        <v>Wind Speed (max)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>849</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>850</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
+        <v>Wind Speed (min)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
+        <v>Station Level Pressure</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>852</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>Station Level Pressure (max)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>855</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Station Level Pressure (min)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>856</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>Station Level Pressure (std)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>858</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Surface Solar Irradiance</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>860</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>Surface Solar Irradiance (max)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Surface Solar Irradiance (min)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>864</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>Surface Solar Irradiance (std)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>866</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Surface Photosynthetically Active Photon Flux</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>867</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>Surface Photosynthetically Active Photon Flux (max)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>869</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Surface Photosynthetically Active Photon Flux (min)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>871</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>Surface Photosynthetically Active Photon Flux (std)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>872</v>
+      </c>
+      <c r="B19" s="4">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>Daily Solar Irradiance</v>
+      </c>
+      <c r="E19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>875</v>
+      </c>
+      <c r="B20" s="4">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>Daily Surface Photosynthetically Active Photon Flux</v>
+      </c>
+      <c r="E20" t="s">
+        <v>874</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -7563,7 +7939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD20BAA-AE37-4608-B486-3BB6A38AE87B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -7796,7 +8172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2CA83D-4699-4CCB-99EF-A91382D8DEB3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -7873,7 +8249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F35DC7-0D53-4798-9745-A37E709CB4BD}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -7950,7 +8326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E23F14F-096E-466F-8721-D24D64E4AB52}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -8197,7 +8573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8413,7 +8789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8820,7 +9196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9223,7 +9599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -11155,1177 +11531,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
-        <v>Secchi Depth</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" t="e">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>528</v>
-      </c>
-      <c r="B5" s="25">
-        <v>1.2000000048E-2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
-        <v>Dissolved Inorganic Carbon</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
-        <v>Total Alkalinity</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>532</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>533</v>
-      </c>
-      <c r="B9" s="14">
-        <f>32/1000</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>534</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="e">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B11" s="26">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Ammonium</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>536</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Nitrate</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>538</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" t="e">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>539</v>
-      </c>
-      <c r="B15" s="26">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Nitrite</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>541</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" t="e">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>542</v>
-      </c>
-      <c r="B17" s="14">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Filterable Reactive Phosphate</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>543</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" t="e">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>544</v>
-      </c>
-      <c r="B19" s="14">
-        <v>2.81E-2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Reactive Silica</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>545</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="e">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>546</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>TSSorganic</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>548</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>TSSinorganic</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>550</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>Total Suspended Solids</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>551</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D24" t="e">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>552</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Prochlorococcus</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>554</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D26" t="e">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>555</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>Synechococcus</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>557</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>504</v>
-      </c>
-      <c r="D28" t="e">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>558</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D29" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>Picoeukaryotes</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>560</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>504</v>
-      </c>
-      <c r="D30" t="e">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>561</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D31" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
-        <v>Allo</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>563</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D32" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
-        <v>AlphaBetaCar</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>565</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D33" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
-        <v>Anth</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>567</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D34" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
-        <v>Asta</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>569</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D35" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
-        <v>BetaBetaCar</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>571</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D36" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
-        <v>BetaEpiCar</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>573</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D37" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
-        <v>Butfuco</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>575</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D38" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
-        <v>Cantha</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>577</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D39" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
-        <v>CphlA</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>579</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
-        <v>CphlB</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>581</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D41" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
-        <v>CphlC1</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>583</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D42" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
-        <v>CphlC2</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>585</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D43" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
-        <v>CphlC3</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>587</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D44" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
-        <v>CphlC1C2</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>589</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D45" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
-        <v>CphlideA</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>591</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D46" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
-        <v>Diadchr</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>593</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D47" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
-        <v>Diadino</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>595</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D48" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B962,2,FALSE)</f>
-        <v>Diato</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>597</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D49" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B963,2,FALSE)</f>
-        <v>Dino</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>599</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D50" t="str">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B964,2,FALSE)</f>
-        <v>DvCphlA+CphlA</v>
-      </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>601</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D51" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B965,2,FALSE)</f>
-        <v>DvCphlA</v>
-      </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>603</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D52" t="str">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B966,2,FALSE)</f>
-        <v>DvCphlB+CphlB</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>605</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D53" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B967,2,FALSE)</f>
-        <v>DvCphlB</v>
-      </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>607</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D54" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B968,2,FALSE)</f>
-        <v>Echin</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>609</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D55" t="str">
-        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B969,2,FALSE)</f>
-        <v>Fuco</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>611</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D56" t="str">
-        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B970,2,FALSE)</f>
-        <v>Gyro</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>613</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D57" t="str">
-        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B971,2,FALSE)</f>
-        <v>Hexfuco</v>
-      </c>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>615</v>
-      </c>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D58" t="str">
-        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B972,2,FALSE)</f>
-        <v>Ketohexfuco</v>
-      </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>617</v>
-      </c>
-      <c r="B59" s="4">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D59" t="str">
-        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B973,2,FALSE)</f>
-        <v>Lut</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>619</v>
-      </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D60" t="str">
-        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B974,2,FALSE)</f>
-        <v>Lyco</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>621</v>
-      </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D61" t="str">
-        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B975,2,FALSE)</f>
-        <v>MgDvp</v>
-      </c>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>623</v>
-      </c>
-      <c r="B62" s="4">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D62" t="str">
-        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B976,2,FALSE)</f>
-        <v>Neo</v>
-      </c>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>625</v>
-      </c>
-      <c r="B63" s="4">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D63" t="str">
-        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B977,2,FALSE)</f>
-        <v>Perid</v>
-      </c>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>627</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D64" t="str">
-        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B978,2,FALSE)</f>
-        <v>PhideA</v>
-      </c>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>629</v>
-      </c>
-      <c r="B65" s="4">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D65" t="str">
-        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B979,2,FALSE)</f>
-        <v>PhytinA</v>
-      </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>631</v>
-      </c>
-      <c r="B66" s="4">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D66" t="str">
-        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B980,2,FALSE)</f>
-        <v>PhytinB</v>
-      </c>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>633</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="D67" t="str">
-        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B981,2,FALSE)</f>
-        <v>Pras</v>
-      </c>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>635</v>
-      </c>
-      <c r="B68" s="4">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D68" t="str">
-        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B982,2,FALSE)</f>
-        <v>PyrophideA</v>
-      </c>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>637</v>
-      </c>
-      <c r="B69" s="4">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D69" t="str">
-        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B983,2,FALSE)</f>
-        <v>PyrophytinA</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>639</v>
-      </c>
-      <c r="B70" s="4">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D70" t="str">
-        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B984,2,FALSE)</f>
-        <v>Viola</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>641</v>
-      </c>
-      <c r="B71" s="4">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D71" t="str">
-        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B985,2,FALSE)</f>
-        <v>Zea</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>643</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>504</v>
-      </c>
-      <c r="D72" t="e">
-        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B986,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>644</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>504</v>
-      </c>
-      <c r="D73" t="e">
-        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B987,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L369"/>
+  <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A369" sqref="A369"/>
+      <selection pane="bottomLeft" activeCell="A370" sqref="A370:A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20707,8 +19922,8 @@
         <v>2053</v>
       </c>
       <c r="J359" s="55"/>
-      <c r="K359" s="55" t="s">
-        <v>2053</v>
+      <c r="K359" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L359" s="55" t="s">
         <v>2053</v>
@@ -20743,8 +19958,8 @@
         <v>2053</v>
       </c>
       <c r="J360" s="55"/>
-      <c r="K360" s="55" t="s">
-        <v>2053</v>
+      <c r="K360" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L360" s="55" t="s">
         <v>2053</v>
@@ -20779,8 +19994,8 @@
         <v>2053</v>
       </c>
       <c r="J361" s="55"/>
-      <c r="K361" s="55" t="s">
-        <v>2053</v>
+      <c r="K361" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L361" s="55" t="s">
         <v>2053</v>
@@ -20815,8 +20030,8 @@
         <v>2053</v>
       </c>
       <c r="J362" s="55"/>
-      <c r="K362" s="55" t="s">
-        <v>2053</v>
+      <c r="K362" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L362" s="55" t="s">
         <v>2053</v>
@@ -20851,8 +20066,8 @@
         <v>2053</v>
       </c>
       <c r="J363" s="55"/>
-      <c r="K363" s="55" t="s">
-        <v>2053</v>
+      <c r="K363" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L363" s="55" t="s">
         <v>2053</v>
@@ -20887,8 +20102,8 @@
         <v>2053</v>
       </c>
       <c r="J364" s="55"/>
-      <c r="K364" s="55" t="s">
-        <v>2053</v>
+      <c r="K364" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L364" s="55" t="s">
         <v>2053</v>
@@ -20923,8 +20138,8 @@
         <v>2053</v>
       </c>
       <c r="J365" s="55"/>
-      <c r="K365" s="55" t="s">
-        <v>2053</v>
+      <c r="K365" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L365" s="55" t="s">
         <v>2053</v>
@@ -20959,8 +20174,8 @@
         <v>2053</v>
       </c>
       <c r="J366" s="59"/>
-      <c r="K366" s="59" t="s">
-        <v>2053</v>
+      <c r="K366" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L366" s="59" t="s">
         <v>2053</v>
@@ -20995,8 +20210,8 @@
         <v>2053</v>
       </c>
       <c r="J367" s="55"/>
-      <c r="K367" s="55" t="s">
-        <v>2053</v>
+      <c r="K367" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="L367" s="55" t="s">
         <v>2053</v>
@@ -21031,7 +20246,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>2091</v>
       </c>
@@ -21049,6 +20264,102 @@
       </c>
       <c r="F369" s="6" t="s">
         <v>1850</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B370" s="56" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C370" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D370" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E370" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F370" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G370" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H370" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I370" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K370" s="2" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B371" s="56" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C371" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D371" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E371" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F371" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G371" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H371" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I371" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K371" s="2" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B372" s="56" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C372" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D372" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E372" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F372" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G372" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H372" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I372" s="55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K372" s="2" t="s">
+        <v>1732</v>
       </c>
     </row>
   </sheetData>
@@ -21058,6 +20369,1167 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
+        <v>Secchi Depth</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" t="e">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1.2000000048E-2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
+        <v>Dissolved Inorganic Carbon</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" t="e">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
+        <v>Total Alkalinity</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" t="e">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B9" s="14">
+        <f>32/1000</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" t="e">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Ammonium</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" t="e">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B13" s="26">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Nitrate</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" t="e">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B15" s="26">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Nitrite</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>541</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" t="e">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Filterable Reactive Phosphate</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>543</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" t="e">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>544</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2.81E-2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>Reactive Silica</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>504</v>
+      </c>
+      <c r="D20" t="e">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
+        <v>TSSorganic</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>548</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
+        <v>TSSinorganic</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>Total Suspended Solids</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" t="e">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>552</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
+        <v>Prochlorococcus</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>554</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" t="e">
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>555</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
+        <v>Synechococcus</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>557</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" t="e">
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>558</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
+        <v>Picoeukaryotes</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>560</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D30" t="e">
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>561</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
+        <v>Allo</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>563</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
+        <v>AlphaBetaCar</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>565</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
+        <v>Anth</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>567</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
+        <v>Asta</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>569</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
+        <v>BetaBetaCar</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>571</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
+        <v>BetaEpiCar</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
+        <v>Butfuco</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>575</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
+        <v>Cantha</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>577</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
+        <v>CphlA</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>579</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
+        <v>CphlB</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>581</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
+        <v>CphlC1</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>583</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
+        <v>CphlC2</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>585</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
+        <v>CphlC3</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>587</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
+        <v>CphlC1C2</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>589</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
+        <v>CphlideA</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>591</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
+        <v>Diadchr</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>593</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
+        <v>Diadino</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>595</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B962,2,FALSE)</f>
+        <v>Diato</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>597</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B963,2,FALSE)</f>
+        <v>Dino</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>599</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B964,2,FALSE)</f>
+        <v>DvCphlA+CphlA</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>601</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B965,2,FALSE)</f>
+        <v>DvCphlA</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>603</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B966,2,FALSE)</f>
+        <v>DvCphlB+CphlB</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>605</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B967,2,FALSE)</f>
+        <v>DvCphlB</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>607</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B968,2,FALSE)</f>
+        <v>Echin</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>609</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B969,2,FALSE)</f>
+        <v>Fuco</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>611</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B970,2,FALSE)</f>
+        <v>Gyro</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>613</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B971,2,FALSE)</f>
+        <v>Hexfuco</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>615</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B972,2,FALSE)</f>
+        <v>Ketohexfuco</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>617</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B973,2,FALSE)</f>
+        <v>Lut</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>619</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B974,2,FALSE)</f>
+        <v>Lyco</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B975,2,FALSE)</f>
+        <v>MgDvp</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>623</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B976,2,FALSE)</f>
+        <v>Neo</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>625</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B977,2,FALSE)</f>
+        <v>Perid</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>627</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B978,2,FALSE)</f>
+        <v>PhideA</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>629</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B979,2,FALSE)</f>
+        <v>PhytinA</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>631</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B980,2,FALSE)</f>
+        <v>PhytinB</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>633</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B981,2,FALSE)</f>
+        <v>Pras</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>635</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B982,2,FALSE)</f>
+        <v>PyrophideA</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>637</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B983,2,FALSE)</f>
+        <v>PyrophytinA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>639</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B984,2,FALSE)</f>
+        <v>Viola</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>641</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B985,2,FALSE)</f>
+        <v>Zea</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>643</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" t="e">
+        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B986,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>644</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>504</v>
+      </c>
+      <c r="D73" t="e">
+        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B987,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -21423,7 +21895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22085,7 +22557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22463,7 +22935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23022,7 +23494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23414,7 +23886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23528,7 +24000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23834,7 +24306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -24066,7 +24538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -24234,154 +24706,6 @@
       <c r="D10" t="str">
         <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
         <v>Mean Wave Direction</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B913,2,FALSE)</f>
-        <v>Water Surface Height</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" t="e">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B914,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B915,2,FALSE)</f>
-        <v>Current Velocity (x component)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
-        <v>Current Velocity (y component)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
-        <v>Current Velocity</v>
       </c>
     </row>
   </sheetData>
@@ -24456,6 +24780,154 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B913,2,FALSE)</f>
+        <v>Water Surface Height</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="e">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B914,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B915,2,FALSE)</f>
+        <v>Current Velocity (x component)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
+        <v>Current Velocity (y component)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
+        <v>Current Velocity</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -24581,7 +25053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -25781,13 +26253,203 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE367AE7-ACD7-4C91-913C-5067EFA2602D}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B1221,2,TRUE)</f>
+        <v>eastern wind speed at 10 m height</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B1222,2,TRUE)</f>
+        <v>northern wind speed at 10 m height</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B1223,2,TRUE)</f>
+        <v>mslp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B1224,2,TRUE)</f>
+        <v>lwsfcdown</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B1224,2,TRUE)</f>
+        <v>Photosynthetically Active Radiation</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B1226,2,TRUE)</f>
+        <v>temp_scrn</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B1226,2,TRUE)</f>
+        <v>Precipitation Rate</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B1227,2,TRUE)</f>
+        <v>Relative Humidity</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="C12" s="58"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="58"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="58"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -26076,7 +26738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -26160,7 +26822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -33124,7 +33786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -34153,7 +34815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -35032,339 +35694,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
-        <v>Wind Speed</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>845</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
-        <v>Wind Direction</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>846</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>847</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
-        <v>Wind Direction (std)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>848</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
-        <v>Wind Speed (max)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>849</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>850</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
-        <v>Wind Speed (min)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>851</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
-        <v>Station Level Pressure</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>852</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>853</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>Station Level Pressure (max)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>854</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>855</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Station Level Pressure (min)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>856</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Station Level Pressure (std)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>858</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>859</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Surface Solar Irradiance</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>860</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>861</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Surface Solar Irradiance (max)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>862</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>863</v>
-      </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Surface Solar Irradiance (min)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>864</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Surface Solar Irradiance (std)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>866</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>867</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux (max)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>869</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux (min)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Surface Photosynthetically Active Photon Flux (std)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>872</v>
-      </c>
-      <c r="B19" s="4">
-        <f>4*24</f>
-        <v>96</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Daily Solar Irradiance</v>
-      </c>
-      <c r="E19" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>875</v>
-      </c>
-      <c r="B20" s="4">
-        <f>4*24</f>
-        <v>96</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>Daily Surface Photosynthetically Active Photon Flux</v>
-      </c>
-      <c r="E20" t="s">
-        <v>874</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\Downloads\22_04_2024 wamsi work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\AppData\Local\Temp\scp56432\GIS_DATA\csiem-data-hub\git\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786E5F0-CC3F-46BF-B84B-C5E67F045F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A79A30-7942-406C-A01C-3AEA4FA2FF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -11536,11 +11536,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L372"/>
+  <dimension ref="A1:V372"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A370" sqref="A370:A372"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11557,6 +11557,7 @@
     <col min="10" max="10" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12454,7 +12455,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>1430</v>
       </c>
@@ -12483,7 +12484,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1435</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1439</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1444</v>
       </c>
@@ -12567,7 +12568,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>1449</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1453</v>
       </c>
@@ -12622,7 +12623,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>1459</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>1463</v>
       </c>
@@ -12674,7 +12675,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>1467</v>
       </c>
@@ -12700,7 +12701,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>1471</v>
       </c>
@@ -12726,7 +12727,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>1476</v>
       </c>
@@ -12752,7 +12753,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>1480</v>
       </c>
@@ -12777,8 +12778,9 @@
       <c r="K44" s="2" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V44" s="28"/>
+    </row>
+    <row r="45" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1484</v>
       </c>
@@ -12803,8 +12805,9 @@
       <c r="K45" s="2" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V45" s="28"/>
+    </row>
+    <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>1488</v>
       </c>
@@ -12829,8 +12832,9 @@
       <c r="K46" s="2" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V46" s="28"/>
+    </row>
+    <row r="47" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>1489</v>
       </c>
@@ -12855,8 +12859,9 @@
       <c r="K47" s="2" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V47" s="28"/>
+    </row>
+    <row r="48" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1490</v>
       </c>
@@ -12881,8 +12886,9 @@
       <c r="K48" s="2" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V48" s="28"/>
+    </row>
+    <row r="49" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>1494</v>
       </c>
@@ -12904,8 +12910,9 @@
       <c r="K49" s="2" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V49" s="28"/>
+    </row>
+    <row r="50" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>1497</v>
       </c>
@@ -12927,8 +12934,9 @@
       <c r="K50" s="2" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V50" s="28"/>
+    </row>
+    <row r="51" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>1500</v>
       </c>
@@ -12950,8 +12958,9 @@
       <c r="K51" s="2" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V51" s="28"/>
+    </row>
+    <row r="52" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>1503</v>
       </c>
@@ -12973,8 +12982,9 @@
       <c r="K52" s="2" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V52" s="29"/>
+    </row>
+    <row r="53" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>1506</v>
       </c>
@@ -12996,8 +13006,9 @@
       <c r="K53" s="2" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V53" s="43"/>
+    </row>
+    <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>1509</v>
       </c>
@@ -13022,8 +13033,9 @@
       <c r="K54" s="2" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V54" s="28"/>
+    </row>
+    <row r="55" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>1513</v>
       </c>
@@ -13045,8 +13057,9 @@
       <c r="K55" s="2" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V55" s="28"/>
+    </row>
+    <row r="56" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>1516</v>
       </c>
@@ -13069,7 +13082,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>1519</v>
       </c>
@@ -13092,7 +13105,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>1522</v>
       </c>
@@ -13115,7 +13128,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>1525</v>
       </c>
@@ -13153,7 +13166,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>1533</v>
       </c>
@@ -13176,7 +13189,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>1536</v>
       </c>
@@ -13199,7 +13212,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>1539</v>
       </c>
@@ -13222,7 +13235,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>1542</v>
       </c>
@@ -13245,7 +13258,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>1545</v>
       </c>
@@ -20365,6 +20378,7 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26259,7 +26273,7 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/data-governance/variable_key.xlsx
+++ b/data-governance/variable_key.xlsx
@@ -1,50 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\AppData\Local\Temp\scp56432\GIS_DATA\csiem-data-hub\git\data-governance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loxte\Downloads\17_05Wamsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A79A30-7942-406C-A01C-3AEA4FA2FF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CE606F-DE92-4BBB-9CC1-66F988814ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
     <sheet name="MASTER KEY" sheetId="2" r:id="rId2"/>
-    <sheet name="IMOSSRS" sheetId="3" r:id="rId3"/>
-    <sheet name="BOM-BARRA" sheetId="32" r:id="rId4"/>
-    <sheet name="WWMSP1.1-WRF" sheetId="4" r:id="rId5"/>
-    <sheet name="THEME2.2" sheetId="5" r:id="rId6"/>
-    <sheet name="Model_TFV" sheetId="6" r:id="rId7"/>
-    <sheet name="FPA-MQMP" sheetId="7" r:id="rId8"/>
-    <sheet name="THEME5" sheetId="8" r:id="rId9"/>
-    <sheet name="THEME5MET" sheetId="9" r:id="rId10"/>
-    <sheet name="WWMSP5" sheetId="10" r:id="rId11"/>
-    <sheet name="WWMSP3SGREST" sheetId="29" r:id="rId12"/>
-    <sheet name="WWMSP5Waves" sheetId="30" r:id="rId13"/>
-    <sheet name="BMT-SWAN" sheetId="31" r:id="rId14"/>
-    <sheet name="WWMSP3SEDPSD" sheetId="28" r:id="rId15"/>
-    <sheet name="THEME3CTD" sheetId="11" r:id="rId16"/>
-    <sheet name="WWMSP2" sheetId="12" r:id="rId17"/>
-    <sheet name="THEME2LIGHT" sheetId="13" r:id="rId18"/>
-    <sheet name="MAFRL" sheetId="14" r:id="rId19"/>
-    <sheet name="IMOSBGC" sheetId="15" r:id="rId20"/>
-    <sheet name="IMOSPROFILE" sheetId="16" r:id="rId21"/>
-    <sheet name="DWER" sheetId="17" r:id="rId22"/>
-    <sheet name="DWERMOORING" sheetId="18" r:id="rId23"/>
-    <sheet name="BOM" sheetId="19" r:id="rId24"/>
-    <sheet name="DOT" sheetId="20" r:id="rId25"/>
-    <sheet name="WWM" sheetId="21" r:id="rId26"/>
-    <sheet name="JPPLAWAC" sheetId="22" r:id="rId27"/>
-    <sheet name="UWA" sheetId="23" r:id="rId28"/>
-    <sheet name="BMTBNA" sheetId="24" r:id="rId29"/>
-    <sheet name="FPA_BMT" sheetId="25" r:id="rId30"/>
-    <sheet name="WC_BMT" sheetId="26" r:id="rId31"/>
-    <sheet name="SentientHubs" sheetId="27" r:id="rId32"/>
+    <sheet name="WCWA" sheetId="33" r:id="rId3"/>
+    <sheet name="IMOSSRS" sheetId="3" r:id="rId4"/>
+    <sheet name="BOM-BARRA" sheetId="32" r:id="rId5"/>
+    <sheet name="WWMSP1.1-WRF" sheetId="4" r:id="rId6"/>
+    <sheet name="THEME2.2" sheetId="5" r:id="rId7"/>
+    <sheet name="Model_TFV" sheetId="6" r:id="rId8"/>
+    <sheet name="FPA-MQMP" sheetId="7" r:id="rId9"/>
+    <sheet name="THEME5" sheetId="8" r:id="rId10"/>
+    <sheet name="THEME5MET" sheetId="9" r:id="rId11"/>
+    <sheet name="WWMSP5" sheetId="10" r:id="rId12"/>
+    <sheet name="WWMSP3SGREST" sheetId="29" r:id="rId13"/>
+    <sheet name="WWMSP5Waves" sheetId="30" r:id="rId14"/>
+    <sheet name="BMT-SWAN" sheetId="31" r:id="rId15"/>
+    <sheet name="WWMSP3SEDPSD" sheetId="28" r:id="rId16"/>
+    <sheet name="THEME3CTD" sheetId="11" r:id="rId17"/>
+    <sheet name="WWMSP2" sheetId="12" r:id="rId18"/>
+    <sheet name="THEME2LIGHT" sheetId="13" r:id="rId19"/>
+    <sheet name="MAFRL" sheetId="14" r:id="rId20"/>
+    <sheet name="IMOSBGC" sheetId="15" r:id="rId21"/>
+    <sheet name="IMOSPROFILE" sheetId="16" r:id="rId22"/>
+    <sheet name="DWER" sheetId="17" r:id="rId23"/>
+    <sheet name="DWERMOORING" sheetId="18" r:id="rId24"/>
+    <sheet name="BOM" sheetId="19" r:id="rId25"/>
+    <sheet name="DOT" sheetId="20" r:id="rId26"/>
+    <sheet name="WWM" sheetId="21" r:id="rId27"/>
+    <sheet name="JPPLAWAC" sheetId="22" r:id="rId28"/>
+    <sheet name="UWA" sheetId="23" r:id="rId29"/>
+    <sheet name="BMTBNA" sheetId="24" r:id="rId30"/>
+    <sheet name="FPA_BMT" sheetId="25" r:id="rId31"/>
+    <sheet name="WC_BMT" sheetId="26" r:id="rId32"/>
+    <sheet name="SentientHubs" sheetId="27" r:id="rId33"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'MASTER KEY'!$A$1:$L$319</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="2105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5300" uniqueCount="2107">
   <si>
     <t>//</t>
   </si>
@@ -6509,12 +6510,18 @@
   <si>
     <t>var00387</t>
   </si>
+  <si>
+    <t>Dissolved Oxygen absolute</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen percentage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6651,6 +6658,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="15">
@@ -6812,7 +6825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6986,6 +6999,13 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7320,6 +7340,887 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
+        <v>Air Temperature</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
+        <v>Turbidity</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
+        <v>O2 Saturation</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>pH</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>Depth</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>Tilt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 410W)</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 440W)</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 490W)</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 510W)</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 550W)</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 590W)</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 635W)</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 660W)</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>Spectral Radiative Flux (WL - 700W)</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>Photosynthetically Active Photon Flux</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
+        <v>Photosynthetically Active Photon Flux</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>O2 Saturation</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
+        <v>ACCELERATIONX</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
+        <v>ACCELERATIONY</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>839</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
+        <v>ACCELERATIONZ</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>891</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
+        <v>AMPLITUDE1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
+        <v>AMPLITUDE2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>895</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
+        <v>AMPLITUDE3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
+        <v>CELL</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>898</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
+        <v>DENSITY ANOMALY</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>901</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
+        <v>Depth</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
+        <v>833</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
+        <v>HEADING</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
+        <v>LOWER_UCUR</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>904</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
+        <v>LOWER_VCUR</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>906</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
+        <v>MIDDLE_UCUR</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
+        <v>908</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
+        <v>MIDDLE_VCUR</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
+        <v>834</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
+        <v>Photosynthetically Active Photon Flux</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
+        <v>Pitch</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
+        <v>PRESSURE</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
+        <v>PRESSURE_SENSOR_DEPTH</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>830</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
+        <v>ROLL</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
+        <v>910</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
+        <v>826</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
+        <v>SPEED_OF_SOUND</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>824</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B962,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
+        <v>911</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B963,2,FALSE)</f>
+        <v>Tilt</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B964,2,FALSE)</f>
+        <v>UCUR (eastward velocity)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B965,2,FALSE)</f>
+        <v>UPPER_UCUR</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>914</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B966,2,FALSE)</f>
+        <v>UPPER_VCUR</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B967,2,FALSE)</f>
+        <v>VCUR (northward velocity)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B968,2,FALSE)</f>
+        <v>WCUR</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -7654,7 +8555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -7939,7 +8840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD20BAA-AE37-4608-B486-3BB6A38AE87B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -8172,7 +9073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2CA83D-4699-4CCB-99EF-A91382D8DEB3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8249,7 +9150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F35DC7-0D53-4798-9745-A37E709CB4BD}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8326,7 +9227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E23F14F-096E-466F-8721-D24D64E4AB52}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -8573,7 +9474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8789,7 +9690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9196,7 +10097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9599,1938 +10500,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E105"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" s="2" t="e">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>647</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" s="2" t="e">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>648</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D5" s="2" t="e">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" s="2" t="e">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" s="2" t="e">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>651</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" s="2" t="e">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>652</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" s="2" t="e">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>653</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" s="2" t="e">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>654</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" s="2" t="e">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>655</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" s="2" t="e">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>656</v>
-      </c>
-      <c r="B13" s="14">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Ammonium</v>
-      </c>
-      <c r="E13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Light Attenuation Coefficient</v>
-      </c>
-      <c r="E14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>659</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Light Attenuation Coefficient</v>
-      </c>
-      <c r="E15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>660</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" s="2" t="e">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>661</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Chlorophyll-a</v>
-      </c>
-      <c r="E17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>662</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Chlorophyll-a</v>
-      </c>
-      <c r="E18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>663</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Chlorophyll-b</v>
-      </c>
-      <c r="E19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>664</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>Chlorophyll-c</v>
-      </c>
-      <c r="E20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>665</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>Chlorophyll-a</v>
-      </c>
-      <c r="E21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>666</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>Chlorophyll-a</v>
-      </c>
-      <c r="E22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>667</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-      <c r="E23" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>668</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-      <c r="E24" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>669</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-      <c r="E25" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>671</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-      <c r="E26" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>672</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" s="2" t="e">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>673</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E28" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D29" s="2" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E29" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>675</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E30" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>676</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E31" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>677</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D32" s="2" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E32" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>678</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D33" s="2" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
-        <v>O2 Saturation</v>
-      </c>
-      <c r="E33" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>679</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E34" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>680</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>681</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D36" s="2" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E36" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>682</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
-        <v>O2 Saturation</v>
-      </c>
-      <c r="E37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>683</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D38" s="2" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E38" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>684</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D39" s="2" t="e">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>685</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
-        <v>Density</v>
-      </c>
-      <c r="E40" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>686</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
-        <v>Density</v>
-      </c>
-      <c r="E41" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>687</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E42" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>688</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-      <c r="E43" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>689</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
-        <v>Fluorescence</v>
-      </c>
-      <c r="E44" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>691</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D45" s="2" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
-        <v>Fluorescence</v>
-      </c>
-      <c r="E45" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>692</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D46" s="2" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
-        <v>Fluorescence</v>
-      </c>
-      <c r="E46" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>693</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D47" s="2" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
-        <v>Fluorescence</v>
-      </c>
-      <c r="E47" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>694</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D48" s="2" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B962,2,FALSE)</f>
-        <v>Light Attenuation Coefficient</v>
-      </c>
-      <c r="E48" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>695</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D49" s="2" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B963,2,FALSE)</f>
-        <v>Light Attenuation Coefficient</v>
-      </c>
-      <c r="E49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>696</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D50" s="2" t="e">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B964,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>697</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D51" s="2" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B965,2,FALSE)</f>
-        <v>Light Attenuation Coefficient</v>
-      </c>
-      <c r="E51" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>698</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D52" s="2" t="e">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B966,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>699</v>
-      </c>
-      <c r="B53" s="14">
-        <f t="shared" ref="B53:B64" si="0">1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D53" s="2" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B967,2,FALSE)</f>
-        <v>Ammonium</v>
-      </c>
-      <c r="E53" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>700</v>
-      </c>
-      <c r="B54" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D54" s="2" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B968,2,FALSE)</f>
-        <v>Nitrate</v>
-      </c>
-      <c r="E54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>701</v>
-      </c>
-      <c r="B55" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="D55" s="2" t="str">
-        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B969,2,FALSE)</f>
-        <v>Organic Nitrogen</v>
-      </c>
-      <c r="E55" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>703</v>
-      </c>
-      <c r="B56" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D56" s="2" t="str">
-        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B970,2,FALSE)</f>
-        <v>Total Nitrogen</v>
-      </c>
-      <c r="E56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>704</v>
-      </c>
-      <c r="B57" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D57" s="2" t="str">
-        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B971,2,FALSE)</f>
-        <v>Nitrate</v>
-      </c>
-      <c r="E57" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>705</v>
-      </c>
-      <c r="B58" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D58" s="2" t="str">
-        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B972,2,FALSE)</f>
-        <v>Nitrate</v>
-      </c>
-      <c r="E58" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>706</v>
-      </c>
-      <c r="B59" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D59" s="2" t="str">
-        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B973,2,FALSE)</f>
-        <v>Nitrate</v>
-      </c>
-      <c r="E59" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>707</v>
-      </c>
-      <c r="B60" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D60" s="2" t="str">
-        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B974,2,FALSE)</f>
-        <v>Filterable Reactive Phosphate</v>
-      </c>
-      <c r="E60" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>708</v>
-      </c>
-      <c r="B61" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D61" s="2" t="str">
-        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B975,2,FALSE)</f>
-        <v>Filterable Reactive Phosphate</v>
-      </c>
-      <c r="E61" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>709</v>
-      </c>
-      <c r="B62" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="D62" s="2" t="str">
-        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B976,2,FALSE)</f>
-        <v>Organic Phosphorus</v>
-      </c>
-      <c r="E62" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>711</v>
-      </c>
-      <c r="B63" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D63" s="2" t="str">
-        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B977,2,FALSE)</f>
-        <v>Total Phosphorus</v>
-      </c>
-      <c r="E63" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>712</v>
-      </c>
-      <c r="B64" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D64" s="2" t="str">
-        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B978,2,FALSE)</f>
-        <v>Filterable Reactive Phosphate</v>
-      </c>
-      <c r="E64" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>713</v>
-      </c>
-      <c r="B65" s="4">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D65" s="2" t="str">
-        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B979,2,FALSE)</f>
-        <v>Particulate Organic Carbon</v>
-      </c>
-      <c r="E65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>714</v>
-      </c>
-      <c r="B66" s="4">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="2" t="str">
-        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B980,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E66" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>715</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="2" t="str">
-        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B981,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E67" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>716</v>
-      </c>
-      <c r="B68" s="4">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D68" s="2" t="str">
-        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B982,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E68" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>717</v>
-      </c>
-      <c r="B69" s="4">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D69" s="2" t="str">
-        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B983,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E69" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>718</v>
-      </c>
-      <c r="B70" s="4">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D70" s="2" t="str">
-        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B984,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E70" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>719</v>
-      </c>
-      <c r="B71" s="4">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D71" s="2" t="str">
-        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B985,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E71" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>720</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D72" s="2" t="str">
-        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B986,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E72" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>721</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D73" s="2" t="str">
-        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B987,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E73" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>722</v>
-      </c>
-      <c r="B74" s="4">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D74" s="2" t="e">
-        <f>VLOOKUP(C74,'MASTER KEY'!$A$2:$B988,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E74" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>723</v>
-      </c>
-      <c r="B75" s="4">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D75" s="2" t="e">
-        <f>VLOOKUP(C75,'MASTER KEY'!$A$2:$B989,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>724</v>
-      </c>
-      <c r="B76" s="4">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D76" s="2" t="str">
-        <f>VLOOKUP(C76,'MASTER KEY'!$A$2:$B990,2,FALSE)</f>
-        <v>Secchi Depth</v>
-      </c>
-      <c r="E76" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>725</v>
-      </c>
-      <c r="B77" s="4">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D77" s="2" t="e">
-        <f>VLOOKUP(C77,'MASTER KEY'!$A$2:$B991,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>726</v>
-      </c>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D78" s="2" t="e">
-        <f>VLOOKUP(C78,'MASTER KEY'!$A$2:$B992,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>727</v>
-      </c>
-      <c r="B79" s="4">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D79" s="2" t="str">
-        <f>VLOOKUP(C79,'MASTER KEY'!$A$2:$B993,2,FALSE)</f>
-        <v>Secchi Depth</v>
-      </c>
-      <c r="E79" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>728</v>
-      </c>
-      <c r="B80" s="4">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D80" s="2" t="e">
-        <f>VLOOKUP(C80,'MASTER KEY'!$A$2:$B994,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E80" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>729</v>
-      </c>
-      <c r="B81" s="4">
-        <v>1</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D81" s="2" t="str">
-        <f>VLOOKUP(C81,'MASTER KEY'!$A$2:$B995,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-      <c r="E81" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>730</v>
-      </c>
-      <c r="B82" s="4">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D82" s="2" t="str">
-        <f>VLOOKUP(C82,'MASTER KEY'!$A$2:$B996,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-      <c r="E82" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>731</v>
-      </c>
-      <c r="B83" s="4">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" s="2" t="str">
-        <f>VLOOKUP(C83,'MASTER KEY'!$A$2:$B997,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-      <c r="E83" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>732</v>
-      </c>
-      <c r="B84" s="4">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D84" s="2" t="str">
-        <f>VLOOKUP(C84,'MASTER KEY'!$A$2:$B998,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-      <c r="E84" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>733</v>
-      </c>
-      <c r="B85" s="4">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="2" t="str">
-        <f>VLOOKUP(C85,'MASTER KEY'!$A$2:$B999,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-      <c r="E85" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>734</v>
-      </c>
-      <c r="B86" s="4">
-        <v>1</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" s="2" t="str">
-        <f>VLOOKUP(C86,'MASTER KEY'!$A$2:$B1000,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-      <c r="E86" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>735</v>
-      </c>
-      <c r="B87" s="14">
-        <f t="shared" ref="B87:B93" si="1">1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D87" s="2" t="str">
-        <f>VLOOKUP(C87,'MASTER KEY'!$A$2:$B1001,2,FALSE)</f>
-        <v>Total Nitrogen</v>
-      </c>
-      <c r="E87" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>736</v>
-      </c>
-      <c r="B88" s="14">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D88" s="2" t="str">
-        <f>VLOOKUP(C88,'MASTER KEY'!$A$2:$B1002,2,FALSE)</f>
-        <v>Total Nitrogen</v>
-      </c>
-      <c r="E88" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>737</v>
-      </c>
-      <c r="B89" s="14">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D89" s="2" t="str">
-        <f>VLOOKUP(C89,'MASTER KEY'!$A$2:$B1003,2,FALSE)</f>
-        <v>Total Nitrogen</v>
-      </c>
-      <c r="E89" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>738</v>
-      </c>
-      <c r="B90" s="14">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D90" s="2" t="str">
-        <f>VLOOKUP(C90,'MASTER KEY'!$A$2:$B1004,2,FALSE)</f>
-        <v>Total Phosphorus</v>
-      </c>
-      <c r="E90" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>739</v>
-      </c>
-      <c r="B91" s="14">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D91" s="2" t="str">
-        <f>VLOOKUP(C91,'MASTER KEY'!$A$2:$B1005,2,FALSE)</f>
-        <v>Total Phosphorus</v>
-      </c>
-      <c r="E91" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>740</v>
-      </c>
-      <c r="B92" s="14">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D92" s="2" t="str">
-        <f>VLOOKUP(C92,'MASTER KEY'!$A$2:$B1006,2,FALSE)</f>
-        <v>Total Phosphorus</v>
-      </c>
-      <c r="E92" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>741</v>
-      </c>
-      <c r="B93" s="14">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D93" s="2" t="str">
-        <f>VLOOKUP(C93,'MASTER KEY'!$A$2:$B1007,2,FALSE)</f>
-        <v>Total Phosphorus</v>
-      </c>
-      <c r="E93" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>742</v>
-      </c>
-      <c r="B94" s="4">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D94" s="2" t="str">
-        <f>VLOOKUP(C94,'MASTER KEY'!$A$2:$B1008,2,FALSE)</f>
-        <v>Total Suspended Solids</v>
-      </c>
-      <c r="E94" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>743</v>
-      </c>
-      <c r="B95" s="4">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D95" s="2" t="str">
-        <f>VLOOKUP(C95,'MASTER KEY'!$A$2:$B1009,2,FALSE)</f>
-        <v>Turbidity</v>
-      </c>
-      <c r="E95" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>744</v>
-      </c>
-      <c r="B96" s="4">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D96" s="2" t="str">
-        <f>VLOOKUP(C96,'MASTER KEY'!$A$2:$B1010,2,FALSE)</f>
-        <v>Turbidity</v>
-      </c>
-      <c r="E96" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>745</v>
-      </c>
-      <c r="B97" s="4">
-        <v>1</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D97" s="2" t="e">
-        <f>VLOOKUP(C97,'MASTER KEY'!$A$2:$B1011,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E97" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>746</v>
-      </c>
-      <c r="B98" s="4">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D98" s="2" t="e">
-        <f>VLOOKUP(C98,'MASTER KEY'!$A$2:$B1012,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E98" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>747</v>
-      </c>
-      <c r="B99" s="4">
-        <v>1</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D99" s="2" t="e">
-        <f>VLOOKUP(C99,'MASTER KEY'!$A$2:$B1013,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E99" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>748</v>
-      </c>
-      <c r="B100" s="4">
-        <v>1</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D100" s="2" t="str">
-        <f>VLOOKUP(C100,'MASTER KEY'!$A$2:$B1014,2,FALSE)</f>
-        <v>pH</v>
-      </c>
-      <c r="E100" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>749</v>
-      </c>
-      <c r="B101" s="4">
-        <v>1</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D101" s="2" t="str">
-        <f>VLOOKUP(C101,'MASTER KEY'!$A$2:$B1015,2,FALSE)</f>
-        <v>pH</v>
-      </c>
-      <c r="E101" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>750</v>
-      </c>
-      <c r="B102" s="4">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" s="2" t="str">
-        <f>VLOOKUP(C102,'MASTER KEY'!$A$2:$B1016,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E102" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>751</v>
-      </c>
-      <c r="B103" s="4">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D103" s="2" t="str">
-        <f>VLOOKUP(C103,'MASTER KEY'!$A$2:$B1017,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-      <c r="E103" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>752</v>
-      </c>
-      <c r="B104" s="4">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D104" s="2" t="str">
-        <f>VLOOKUP(C104,'MASTER KEY'!$A$2:$B1018,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-      <c r="E104" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>753</v>
-      </c>
-      <c r="B105" s="4">
-        <v>1</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D105" s="2" t="str">
-        <f>VLOOKUP(C105,'MASTER KEY'!$A$2:$B1019,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-      <c r="E105" t="s">
-        <v>670</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -11538,9 +10507,9 @@
   </sheetPr>
   <dimension ref="A1:V372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T66" sqref="T66"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20383,6 +19352,1938 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="2" t="e">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="2" t="e">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" s="2" t="e">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" s="2" t="e">
+        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="2" t="e">
+        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" s="2" t="e">
+        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" s="2" t="e">
+        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="2" t="e">
+        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="2" t="e">
+        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="2" t="e">
+        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B13" s="14">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
+        <v>Ammonium</v>
+      </c>
+      <c r="E13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
+        <v>Light Attenuation Coefficient</v>
+      </c>
+      <c r="E14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>659</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
+        <v>Light Attenuation Coefficient</v>
+      </c>
+      <c r="E15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>660</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" s="2" t="e">
+        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>661</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
+        <v>Chlorophyll-a</v>
+      </c>
+      <c r="E17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>662</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
+        <v>Chlorophyll-a</v>
+      </c>
+      <c r="E18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>663</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
+        <v>Chlorophyll-b</v>
+      </c>
+      <c r="E19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>664</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
+        <v>Chlorophyll-c</v>
+      </c>
+      <c r="E20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>665</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
+        <v>Chlorophyll-a</v>
+      </c>
+      <c r="E21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>666</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
+        <v>Chlorophyll-a</v>
+      </c>
+      <c r="E22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>667</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+      <c r="E23" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>668</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+      <c r="E24" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>669</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+      <c r="E25" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>671</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
+        <v>Specific Conductivity</v>
+      </c>
+      <c r="E26" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>672</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" s="2" t="e">
+        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>673</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E28" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E29" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>675</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>676</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E31" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>677</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E32" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>678</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
+        <v>O2 Saturation</v>
+      </c>
+      <c r="E33" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>679</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E34" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>680</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E35" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>681</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>682</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
+        <v>O2 Saturation</v>
+      </c>
+      <c r="E37" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>683</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E38" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>684</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" s="2" t="e">
+        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>685</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
+        <v>Density</v>
+      </c>
+      <c r="E40" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>686</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
+        <v>Density</v>
+      </c>
+      <c r="E41" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>687</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E42" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>688</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+      <c r="E43" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>689</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
+        <v>Fluorescence</v>
+      </c>
+      <c r="E44" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>691</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
+        <v>Fluorescence</v>
+      </c>
+      <c r="E45" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>692</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
+        <v>Fluorescence</v>
+      </c>
+      <c r="E46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>693</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
+        <v>Fluorescence</v>
+      </c>
+      <c r="E47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>694</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B962,2,FALSE)</f>
+        <v>Light Attenuation Coefficient</v>
+      </c>
+      <c r="E48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>695</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B963,2,FALSE)</f>
+        <v>Light Attenuation Coefficient</v>
+      </c>
+      <c r="E49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>696</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D50" s="2" t="e">
+        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B964,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>697</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B965,2,FALSE)</f>
+        <v>Light Attenuation Coefficient</v>
+      </c>
+      <c r="E51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>698</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" s="2" t="e">
+        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B966,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>699</v>
+      </c>
+      <c r="B53" s="14">
+        <f t="shared" ref="B53:B64" si="0">1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B967,2,FALSE)</f>
+        <v>Ammonium</v>
+      </c>
+      <c r="E53" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>700</v>
+      </c>
+      <c r="B54" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B968,2,FALSE)</f>
+        <v>Nitrate</v>
+      </c>
+      <c r="E54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>701</v>
+      </c>
+      <c r="B55" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f>VLOOKUP(C55,'MASTER KEY'!$A$2:$B969,2,FALSE)</f>
+        <v>Organic Nitrogen</v>
+      </c>
+      <c r="E55" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>703</v>
+      </c>
+      <c r="B56" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f>VLOOKUP(C56,'MASTER KEY'!$A$2:$B970,2,FALSE)</f>
+        <v>Total Nitrogen</v>
+      </c>
+      <c r="E56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>704</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f>VLOOKUP(C57,'MASTER KEY'!$A$2:$B971,2,FALSE)</f>
+        <v>Nitrate</v>
+      </c>
+      <c r="E57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>705</v>
+      </c>
+      <c r="B58" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f>VLOOKUP(C58,'MASTER KEY'!$A$2:$B972,2,FALSE)</f>
+        <v>Nitrate</v>
+      </c>
+      <c r="E58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>706</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f>VLOOKUP(C59,'MASTER KEY'!$A$2:$B973,2,FALSE)</f>
+        <v>Nitrate</v>
+      </c>
+      <c r="E59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>707</v>
+      </c>
+      <c r="B60" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f>VLOOKUP(C60,'MASTER KEY'!$A$2:$B974,2,FALSE)</f>
+        <v>Filterable Reactive Phosphate</v>
+      </c>
+      <c r="E60" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>708</v>
+      </c>
+      <c r="B61" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f>VLOOKUP(C61,'MASTER KEY'!$A$2:$B975,2,FALSE)</f>
+        <v>Filterable Reactive Phosphate</v>
+      </c>
+      <c r="E61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>709</v>
+      </c>
+      <c r="B62" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f>VLOOKUP(C62,'MASTER KEY'!$A$2:$B976,2,FALSE)</f>
+        <v>Organic Phosphorus</v>
+      </c>
+      <c r="E62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>711</v>
+      </c>
+      <c r="B63" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f>VLOOKUP(C63,'MASTER KEY'!$A$2:$B977,2,FALSE)</f>
+        <v>Total Phosphorus</v>
+      </c>
+      <c r="E63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>712</v>
+      </c>
+      <c r="B64" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f>VLOOKUP(C64,'MASTER KEY'!$A$2:$B978,2,FALSE)</f>
+        <v>Filterable Reactive Phosphate</v>
+      </c>
+      <c r="E64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>713</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f>VLOOKUP(C65,'MASTER KEY'!$A$2:$B979,2,FALSE)</f>
+        <v>Particulate Organic Carbon</v>
+      </c>
+      <c r="E65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>714</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f>VLOOKUP(C66,'MASTER KEY'!$A$2:$B980,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E66" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>715</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f>VLOOKUP(C67,'MASTER KEY'!$A$2:$B981,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E67" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>716</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f>VLOOKUP(C68,'MASTER KEY'!$A$2:$B982,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E68" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>717</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f>VLOOKUP(C69,'MASTER KEY'!$A$2:$B983,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E69" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>718</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f>VLOOKUP(C70,'MASTER KEY'!$A$2:$B984,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E70" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>719</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <f>VLOOKUP(C71,'MASTER KEY'!$A$2:$B985,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E71" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>720</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f>VLOOKUP(C72,'MASTER KEY'!$A$2:$B986,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E72" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>721</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f>VLOOKUP(C73,'MASTER KEY'!$A$2:$B987,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E73" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>722</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D74" s="2" t="e">
+        <f>VLOOKUP(C74,'MASTER KEY'!$A$2:$B988,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>723</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D75" s="2" t="e">
+        <f>VLOOKUP(C75,'MASTER KEY'!$A$2:$B989,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>724</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f>VLOOKUP(C76,'MASTER KEY'!$A$2:$B990,2,FALSE)</f>
+        <v>Secchi Depth</v>
+      </c>
+      <c r="E76" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>725</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D77" s="2" t="e">
+        <f>VLOOKUP(C77,'MASTER KEY'!$A$2:$B991,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>726</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="2" t="e">
+        <f>VLOOKUP(C78,'MASTER KEY'!$A$2:$B992,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>727</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D79" s="2" t="str">
+        <f>VLOOKUP(C79,'MASTER KEY'!$A$2:$B993,2,FALSE)</f>
+        <v>Secchi Depth</v>
+      </c>
+      <c r="E79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>728</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D80" s="2" t="e">
+        <f>VLOOKUP(C80,'MASTER KEY'!$A$2:$B994,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E80" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>729</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="2" t="str">
+        <f>VLOOKUP(C81,'MASTER KEY'!$A$2:$B995,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="E81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>730</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f>VLOOKUP(C82,'MASTER KEY'!$A$2:$B996,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="E82" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>731</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="2" t="str">
+        <f>VLOOKUP(C83,'MASTER KEY'!$A$2:$B997,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="E83" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>732</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f>VLOOKUP(C84,'MASTER KEY'!$A$2:$B998,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="E84" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>733</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f>VLOOKUP(C85,'MASTER KEY'!$A$2:$B999,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="E85" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>734</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="2" t="str">
+        <f>VLOOKUP(C86,'MASTER KEY'!$A$2:$B1000,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="E86" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>735</v>
+      </c>
+      <c r="B87" s="14">
+        <f t="shared" ref="B87:B93" si="1">1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f>VLOOKUP(C87,'MASTER KEY'!$A$2:$B1001,2,FALSE)</f>
+        <v>Total Nitrogen</v>
+      </c>
+      <c r="E87" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>736</v>
+      </c>
+      <c r="B88" s="14">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D88" s="2" t="str">
+        <f>VLOOKUP(C88,'MASTER KEY'!$A$2:$B1002,2,FALSE)</f>
+        <v>Total Nitrogen</v>
+      </c>
+      <c r="E88" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>737</v>
+      </c>
+      <c r="B89" s="14">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D89" s="2" t="str">
+        <f>VLOOKUP(C89,'MASTER KEY'!$A$2:$B1003,2,FALSE)</f>
+        <v>Total Nitrogen</v>
+      </c>
+      <c r="E89" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>738</v>
+      </c>
+      <c r="B90" s="14">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D90" s="2" t="str">
+        <f>VLOOKUP(C90,'MASTER KEY'!$A$2:$B1004,2,FALSE)</f>
+        <v>Total Phosphorus</v>
+      </c>
+      <c r="E90" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>739</v>
+      </c>
+      <c r="B91" s="14">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D91" s="2" t="str">
+        <f>VLOOKUP(C91,'MASTER KEY'!$A$2:$B1005,2,FALSE)</f>
+        <v>Total Phosphorus</v>
+      </c>
+      <c r="E91" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>740</v>
+      </c>
+      <c r="B92" s="14">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D92" s="2" t="str">
+        <f>VLOOKUP(C92,'MASTER KEY'!$A$2:$B1006,2,FALSE)</f>
+        <v>Total Phosphorus</v>
+      </c>
+      <c r="E92" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>741</v>
+      </c>
+      <c r="B93" s="14">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D93" s="2" t="str">
+        <f>VLOOKUP(C93,'MASTER KEY'!$A$2:$B1007,2,FALSE)</f>
+        <v>Total Phosphorus</v>
+      </c>
+      <c r="E93" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>742</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D94" s="2" t="str">
+        <f>VLOOKUP(C94,'MASTER KEY'!$A$2:$B1008,2,FALSE)</f>
+        <v>Total Suspended Solids</v>
+      </c>
+      <c r="E94" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>743</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D95" s="2" t="str">
+        <f>VLOOKUP(C95,'MASTER KEY'!$A$2:$B1009,2,FALSE)</f>
+        <v>Turbidity</v>
+      </c>
+      <c r="E95" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>744</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D96" s="2" t="str">
+        <f>VLOOKUP(C96,'MASTER KEY'!$A$2:$B1010,2,FALSE)</f>
+        <v>Turbidity</v>
+      </c>
+      <c r="E96" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>745</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D97" s="2" t="e">
+        <f>VLOOKUP(C97,'MASTER KEY'!$A$2:$B1011,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E97" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>746</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D98" s="2" t="e">
+        <f>VLOOKUP(C98,'MASTER KEY'!$A$2:$B1012,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>747</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D99" s="2" t="e">
+        <f>VLOOKUP(C99,'MASTER KEY'!$A$2:$B1013,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E99" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>748</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D100" s="2" t="str">
+        <f>VLOOKUP(C100,'MASTER KEY'!$A$2:$B1014,2,FALSE)</f>
+        <v>pH</v>
+      </c>
+      <c r="E100" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>749</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D101" s="2" t="str">
+        <f>VLOOKUP(C101,'MASTER KEY'!$A$2:$B1015,2,FALSE)</f>
+        <v>pH</v>
+      </c>
+      <c r="E101" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>750</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="2" t="str">
+        <f>VLOOKUP(C102,'MASTER KEY'!$A$2:$B1016,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E102" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>751</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="2" t="str">
+        <f>VLOOKUP(C103,'MASTER KEY'!$A$2:$B1017,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="E103" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>752</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D104" s="2" t="str">
+        <f>VLOOKUP(C104,'MASTER KEY'!$A$2:$B1018,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="E104" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>753</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" s="2" t="str">
+        <f>VLOOKUP(C105,'MASTER KEY'!$A$2:$B1019,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="E105" t="s">
+        <v>670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -21543,7 +22444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -21909,7 +22810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22571,7 +23472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22949,7 +23850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23508,7 +24409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23900,7 +24801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -24014,7 +24915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -24320,7 +25221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -24552,7 +25453,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87E5D8A-0AF0-40B5-87A5-C693BB81A462}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B1227,2,TRUE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B1228,2,TRUE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B1229,2,TRUE)</f>
+        <v>O2 Saturation</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B1230,2,TRUE)</f>
+        <v>Dissolved Oxygen</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="63"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -24727,73 +25726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
-        <v>Posidonia Sinuosa Dry Weight</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -24941,7 +25874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -25067,7 +26000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -26267,6 +27200,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
+        <v>Posidonia Sinuosa Dry Weight</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE367AE7-ACD7-4C91-913C-5067EFA2602D}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -26456,7 +27455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -26464,7 +27463,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26752,7 +27751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -26836,7 +27835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -33800,7 +34799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -34827,885 +35826,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:I54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>VLOOKUP(C2,'MASTER KEY'!$A$2:$B916,2,FALSE)</f>
-        <v>Air Temperature</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>VLOOKUP(C3,'MASTER KEY'!$A$2:$B917,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>VLOOKUP(C4,'MASTER KEY'!$A$2:$B918,2,FALSE)</f>
-        <v>Turbidity</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f>VLOOKUP(C5,'MASTER KEY'!$A$2:$B919,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f>VLOOKUP(C6,'MASTER KEY'!$A$2:$B920,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>VLOOKUP(C7,'MASTER KEY'!$A$2:$B921,2,FALSE)</f>
-        <v>O2 Saturation</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>VLOOKUP(C8,'MASTER KEY'!$A$2:$B922,2,FALSE)</f>
-        <v>pH</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>VLOOKUP(C9,'MASTER KEY'!$A$2:$B923,2,FALSE)</f>
-        <v>Depth</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>VLOOKUP(C10,'MASTER KEY'!$A$2:$B924,2,FALSE)</f>
-        <v>Tilt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f>VLOOKUP(C11,'MASTER KEY'!$A$2:$B925,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 410W)</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>VLOOKUP(C12,'MASTER KEY'!$A$2:$B926,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 440W)</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>VLOOKUP(C13,'MASTER KEY'!$A$2:$B927,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 490W)</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>VLOOKUP(C14,'MASTER KEY'!$A$2:$B928,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 510W)</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>VLOOKUP(C15,'MASTER KEY'!$A$2:$B929,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 550W)</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>VLOOKUP(C16,'MASTER KEY'!$A$2:$B930,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 590W)</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>VLOOKUP(C17,'MASTER KEY'!$A$2:$B931,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 635W)</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>VLOOKUP(C18,'MASTER KEY'!$A$2:$B932,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 660W)</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f>VLOOKUP(C19,'MASTER KEY'!$A$2:$B933,2,FALSE)</f>
-        <v>Spectral Radiative Flux (WL - 700W)</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f>VLOOKUP(C20,'MASTER KEY'!$A$2:$B934,2,FALSE)</f>
-        <v>Photosynthetically Active Photon Flux</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f>VLOOKUP(C21,'MASTER KEY'!$A$2:$B935,2,FALSE)</f>
-        <v>Photosynthetically Active Photon Flux</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f>VLOOKUP(C22,'MASTER KEY'!$A$2:$B936,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f>VLOOKUP(C23,'MASTER KEY'!$A$2:$B937,2,FALSE)</f>
-        <v>O2 Saturation</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
-        <v>835</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f>VLOOKUP(C24,'MASTER KEY'!$A$2:$B938,2,FALSE)</f>
-        <v>ACCELERATIONX</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
-        <v>837</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f>VLOOKUP(C25,'MASTER KEY'!$A$2:$B939,2,FALSE)</f>
-        <v>ACCELERATIONY</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
-        <v>839</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f>VLOOKUP(C26,'MASTER KEY'!$A$2:$B940,2,FALSE)</f>
-        <v>ACCELERATIONZ</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
-        <v>891</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f>VLOOKUP(C27,'MASTER KEY'!$A$2:$B941,2,FALSE)</f>
-        <v>AMPLITUDE1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
-        <v>893</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f>VLOOKUP(C28,'MASTER KEY'!$A$2:$B942,2,FALSE)</f>
-        <v>AMPLITUDE2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
-        <v>895</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="D29" s="2" t="str">
-        <f>VLOOKUP(C29,'MASTER KEY'!$A$2:$B943,2,FALSE)</f>
-        <v>AMPLITUDE3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>660</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f>VLOOKUP(C30,'MASTER KEY'!$A$2:$B944,2,FALSE)</f>
-        <v>CELL</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
-        <v>898</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f>VLOOKUP(C31,'MASTER KEY'!$A$2:$B945,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
-        <v>899</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D32" s="2" t="str">
-        <f>VLOOKUP(C32,'MASTER KEY'!$A$2:$B946,2,FALSE)</f>
-        <v>DENSITY ANOMALY</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
-        <v>901</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D33" s="2" t="str">
-        <f>VLOOKUP(C33,'MASTER KEY'!$A$2:$B947,2,FALSE)</f>
-        <v>Depth</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
-        <v>833</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <f>VLOOKUP(C34,'MASTER KEY'!$A$2:$B948,2,FALSE)</f>
-        <v>Dissolved Oxygen</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
-        <v>828</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f>VLOOKUP(C35,'MASTER KEY'!$A$2:$B949,2,FALSE)</f>
-        <v>HEADING</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
-        <v>902</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D36" s="2" t="str">
-        <f>VLOOKUP(C36,'MASTER KEY'!$A$2:$B950,2,FALSE)</f>
-        <v>LOWER_UCUR</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
-        <v>904</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <f>VLOOKUP(C37,'MASTER KEY'!$A$2:$B951,2,FALSE)</f>
-        <v>LOWER_VCUR</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>906</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="D38" s="2" t="str">
-        <f>VLOOKUP(C38,'MASTER KEY'!$A$2:$B952,2,FALSE)</f>
-        <v>MIDDLE_UCUR</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
-        <v>908</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D39" s="2" t="str">
-        <f>VLOOKUP(C39,'MASTER KEY'!$A$2:$B953,2,FALSE)</f>
-        <v>MIDDLE_VCUR</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
-        <v>834</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <f>VLOOKUP(C40,'MASTER KEY'!$A$2:$B954,2,FALSE)</f>
-        <v>Photosynthetically Active Photon Flux</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
-        <v>829</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <f>VLOOKUP(C41,'MASTER KEY'!$A$2:$B955,2,FALSE)</f>
-        <v>Pitch</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
-        <v>843</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <f>VLOOKUP(C42,'MASTER KEY'!$A$2:$B956,2,FALSE)</f>
-        <v>PRESSURE</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
-        <v>831</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f>VLOOKUP(C43,'MASTER KEY'!$A$2:$B957,2,FALSE)</f>
-        <v>PRESSURE_SENSOR_DEPTH</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
-        <v>830</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <f>VLOOKUP(C44,'MASTER KEY'!$A$2:$B958,2,FALSE)</f>
-        <v>ROLL</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
-        <v>825</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D45" s="2" t="str">
-        <f>VLOOKUP(C45,'MASTER KEY'!$A$2:$B959,2,FALSE)</f>
-        <v>Salinity</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
-        <v>910</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D46" s="2" t="str">
-        <f>VLOOKUP(C46,'MASTER KEY'!$A$2:$B960,2,FALSE)</f>
-        <v>Specific Conductivity</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
-        <v>826</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="D47" s="2" t="str">
-        <f>VLOOKUP(C47,'MASTER KEY'!$A$2:$B961,2,FALSE)</f>
-        <v>SPEED_OF_SOUND</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
-        <v>824</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" s="2" t="str">
-        <f>VLOOKUP(C48,'MASTER KEY'!$A$2:$B962,2,FALSE)</f>
-        <v>Temperature</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
-        <v>911</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D49" s="2" t="str">
-        <f>VLOOKUP(C49,'MASTER KEY'!$A$2:$B963,2,FALSE)</f>
-        <v>Tilt</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
-        <v>820</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="D50" s="2" t="str">
-        <f>VLOOKUP(C50,'MASTER KEY'!$A$2:$B964,2,FALSE)</f>
-        <v>UCUR (eastward velocity)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
-        <v>912</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="D51" s="2" t="str">
-        <f>VLOOKUP(C51,'MASTER KEY'!$A$2:$B965,2,FALSE)</f>
-        <v>UPPER_UCUR</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
-        <v>914</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="D52" s="2" t="str">
-        <f>VLOOKUP(C52,'MASTER KEY'!$A$2:$B966,2,FALSE)</f>
-        <v>UPPER_VCUR</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
-        <v>822</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D53" s="2" t="str">
-        <f>VLOOKUP(C53,'MASTER KEY'!$A$2:$B967,2,FALSE)</f>
-        <v>VCUR (northward velocity)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="36" t="s">
-        <v>916</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="D54" s="2" t="str">
-        <f>VLOOKUP(C54,'MASTER KEY'!$A$2:$B968,2,FALSE)</f>
-        <v>WCUR</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>